--- a/API.xlsx
+++ b/API.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\软件工程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\SE\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BA864B-7C77-471B-B7FC-22554D619FCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857E9485-19D4-480C-AF56-DB3FC0EA0EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25840" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -300,6 +300,77 @@
   </si>
   <si>
     <t>该学生ID不在基准库内，无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_teacher_info</t>
+  </si>
+  <si>
+    <t>教师用户个人信息的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生ID，学号，需要经过存在性校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生密码的SHA-256值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师ID，工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt鉴权时引用了意料之外的身份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户信息的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该教师ID不在用户数据库内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该教师ID对应的密码不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jwt码无效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户身份正确，但是jwt码已经过期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_student_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生用户个人信息的修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该学生ID不在用户数据库内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该学生ID对应的密码不存在</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -423,15 +494,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -440,28 +505,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -746,8 +820,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -808,1123 +882,1459 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="3">
+      <c r="L2" s="7">
         <v>10</v>
       </c>
-      <c r="M2" s="4">
+      <c r="M2" s="2">
         <v>-1</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8" t="s">
+      <c r="B3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="8">
+      <c r="H3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="1">
         <v>-11</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="8">
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="1">
         <v>-12</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8">
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="1">
         <v>-13</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="6"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8">
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="1">
         <v>-21</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="8">
+      <c r="B7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="1">
         <v>-22</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="6"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="8">
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="1">
         <v>-23</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="6"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="8">
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="1">
         <v>-31</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="8">
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="1">
         <v>-32</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="10"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="12">
+      <c r="B11" s="12"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="5">
         <v>-99</v>
       </c>
-      <c r="N11" s="13" t="s">
+      <c r="N11" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="4" t="s">
+      <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="K12" s="4" t="s">
+      <c r="K12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="7">
         <v>10</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="2">
         <v>-1</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="6"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="8">
+      <c r="G13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="1">
         <v>-11</v>
       </c>
-      <c r="N13" s="9" t="s">
+      <c r="N13" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="8"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="8">
+      <c r="B14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="1">
         <v>-12</v>
       </c>
-      <c r="N14" s="9" t="s">
+      <c r="N14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="8">
+      <c r="B15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="1">
         <v>-13</v>
       </c>
-      <c r="N15" s="9" t="s">
+      <c r="N15" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="8"/>
-      <c r="K16" s="8"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="8">
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="1">
         <v>-21</v>
       </c>
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="8"/>
-      <c r="K17" s="8"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="8">
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="M17" s="1">
         <v>-22</v>
       </c>
-      <c r="N17" s="9" t="s">
+      <c r="N17" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="8"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="8">
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="1">
         <v>-23</v>
       </c>
-      <c r="N18" s="9" t="s">
+      <c r="N18" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="8"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="8">
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="1">
         <v>-31</v>
       </c>
-      <c r="N19" s="9" t="s">
+      <c r="N19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="8"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="8">
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="1">
         <v>-32</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="10"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="12">
+      <c r="B21" s="12"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="5">
         <v>-99</v>
       </c>
-      <c r="N21" s="13" t="s">
+      <c r="N21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="7">
         <v>7</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="3">
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="7">
         <v>9</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="2">
         <v>-1</v>
       </c>
-      <c r="N22" s="5" t="s">
+      <c r="N22" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="8" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="8" t="s">
+      <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="7"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="8"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="8">
+      <c r="H23" s="8"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="1">
         <v>-11</v>
       </c>
-      <c r="N23" s="9" t="s">
+      <c r="N23" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="8" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G24" s="8" t="s">
+      <c r="G24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="8">
+      <c r="H24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="1">
         <v>-12</v>
       </c>
-      <c r="N24" s="9" t="s">
+      <c r="N24" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="25" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="8" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="8">
+      <c r="H25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="1">
         <v>-13</v>
       </c>
-      <c r="N25" s="9" t="s">
+      <c r="N25" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="6"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="8" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="8">
+      <c r="H26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="1">
         <v>-21</v>
       </c>
-      <c r="N26" s="9" t="s">
+      <c r="N26" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="6"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="8" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="8"/>
-      <c r="J27" s="8"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="8">
+      <c r="H27" s="8"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="1">
         <v>-22</v>
       </c>
-      <c r="N27" s="9" t="s">
+      <c r="N27" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="6"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="8" t="s">
+      <c r="B28" s="11"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="8">
+      <c r="H28" s="8"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="1">
         <v>-31</v>
       </c>
-      <c r="N28" s="9" t="s">
+      <c r="N28" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="6"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="8">
+      <c r="B29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="1">
         <v>-32</v>
       </c>
-      <c r="N29" s="9" t="s">
+      <c r="N29" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="30" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="12"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="12">
+      <c r="B30" s="12"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="5">
         <v>-99</v>
       </c>
-      <c r="N30" s="13" t="s">
+      <c r="N30" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="7">
         <v>7</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" s="3" t="s">
+      <c r="G31" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="3">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="7">
         <v>9</v>
       </c>
-      <c r="M31" s="4">
+      <c r="M31" s="2">
         <v>-1</v>
       </c>
-      <c r="N31" s="5" t="s">
+      <c r="N31" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="6"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="8" t="s">
+      <c r="B32" s="11"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="7"/>
-      <c r="I32" s="8"/>
-      <c r="J32" s="8"/>
-      <c r="K32" s="8"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="8">
+      <c r="H32" s="8"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="1">
         <v>-11</v>
       </c>
-      <c r="N32" s="9" t="s">
+      <c r="N32" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="33" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="8" t="s">
+      <c r="B33" s="11"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F33" s="8" t="s">
+      <c r="F33" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="8" t="s">
+      <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="7"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="7"/>
-      <c r="M33" s="8">
+      <c r="H33" s="8"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="1">
         <v>-12</v>
       </c>
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="34" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="6"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="8" t="s">
+      <c r="B34" s="11"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
+      <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G34" s="8" t="s">
+      <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="7"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="7"/>
-      <c r="M34" s="8">
+      <c r="H34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="1">
         <v>-13</v>
       </c>
-      <c r="N34" s="9" t="s">
+      <c r="N34" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="8" t="s">
+      <c r="B35" s="11"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G35" s="8" t="s">
+      <c r="G35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="7"/>
-      <c r="I35" s="8"/>
-      <c r="J35" s="8"/>
-      <c r="K35" s="8"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="8">
+      <c r="H35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="1">
         <v>-21</v>
       </c>
-      <c r="N35" s="9" t="s">
+      <c r="N35" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="36" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="6"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="8" t="s">
+      <c r="B36" s="11"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="7"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="7"/>
-      <c r="M36" s="8">
+      <c r="H36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="1">
         <v>-22</v>
       </c>
-      <c r="N36" s="9" t="s">
+      <c r="N36" s="4" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="37" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="6"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="8" t="s">
+      <c r="B37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="7"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="8"/>
-      <c r="K37" s="8"/>
-      <c r="L37" s="7"/>
-      <c r="M37" s="8">
+      <c r="H37" s="8"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="1">
         <v>-31</v>
       </c>
-      <c r="N37" s="9" t="s">
+      <c r="N37" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="6"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="8"/>
-      <c r="J38" s="8"/>
-      <c r="K38" s="8"/>
-      <c r="L38" s="7"/>
-      <c r="M38" s="8">
+      <c r="B38" s="11"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="1">
         <v>-32</v>
       </c>
-      <c r="N38" s="9" t="s">
+      <c r="N38" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="39" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="10"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="12"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="12">
+      <c r="B39" s="11"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="14">
         <v>-99</v>
       </c>
-      <c r="N39" s="13" t="s">
+      <c r="N39" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="47" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="48" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="49" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D40" s="7">
+        <v>7</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="7">
+        <v>10</v>
+      </c>
+      <c r="M40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N40" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="11"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G41" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" s="13"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="11"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G42" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="13"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N42" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="11"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43" s="13"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="14">
+        <v>-12</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="11"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G44" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="13"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="14">
+        <v>-13</v>
+      </c>
+      <c r="N44" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="11"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G45" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="13"/>
+      <c r="I45" s="14"/>
+      <c r="J45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="11"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F46" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G46" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="13"/>
+      <c r="I46" s="14"/>
+      <c r="J46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="14">
+        <v>-22</v>
+      </c>
+      <c r="N46" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="11"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="14">
+        <v>-23</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="11"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="14"/>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="14">
+        <v>-24</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="12"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N49" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D50" s="7">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="7">
+        <v>10</v>
+      </c>
+      <c r="M50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N50" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="11"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G51" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="13"/>
+      <c r="I51" s="14"/>
+      <c r="J51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N51" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="11"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G52" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="H52" s="13"/>
+      <c r="I52" s="14"/>
+      <c r="J52" s="14"/>
+      <c r="K52" s="14"/>
+      <c r="L52" s="13"/>
+      <c r="M52" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N52" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="11"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G53" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="13"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="14">
+        <v>-12</v>
+      </c>
+      <c r="N53" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="11"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G54" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H54" s="13"/>
+      <c r="I54" s="14"/>
+      <c r="J54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="14">
+        <v>-13</v>
+      </c>
+      <c r="N54" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="11"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="H55" s="13"/>
+      <c r="I55" s="14"/>
+      <c r="J55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="11"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="G56" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="13"/>
+      <c r="I56" s="14"/>
+      <c r="J56" s="14"/>
+      <c r="K56" s="14"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="14">
+        <v>-22</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="11"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="G57" s="14"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="13"/>
+      <c r="M57" s="14">
+        <v>-23</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="11"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="14">
+        <v>-24</v>
+      </c>
+      <c r="N58" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="12"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="5"/>
+      <c r="G59" s="5"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N59" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="30">
+    <mergeCell ref="B50:B59"/>
+    <mergeCell ref="C50:C59"/>
+    <mergeCell ref="D50:D59"/>
+    <mergeCell ref="H50:H59"/>
+    <mergeCell ref="L50:L59"/>
+    <mergeCell ref="L40:L49"/>
+    <mergeCell ref="H40:H49"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C40:C49"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="L12:L21"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="L2:L11"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="L31:L39"/>
     <mergeCell ref="L22:L30"/>
     <mergeCell ref="H22:H30"/>
     <mergeCell ref="D22:D30"/>
     <mergeCell ref="B22:B30"/>
     <mergeCell ref="C22:C30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="L31:L39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="L2:L11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="L12:L21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API.xlsx
+++ b/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\SE\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{857E9485-19D4-480C-AF56-DB3FC0EA0EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C3E503-63C7-470B-B19A-2A792FC1D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="116">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,112 @@
   </si>
   <si>
     <t>该学生ID对应的密码不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_teacher_password</t>
+  </si>
+  <si>
+    <t>教工修改自己的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>old_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改后的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改用户密码的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入的旧密码不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>change_student_password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生修改自己的密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生ID，学号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_teacher_info</t>
+  </si>
+  <si>
+    <t>获取教师的个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询者ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个int类型值（以string形式传入）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询者身份，0为学生，1为教师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该用户ID不在用户数据库内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该用户ID对应的密码不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师信息查询成功但获取失败（如ID错误）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取教师信息的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要查询的教师ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_student_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取学生的个人信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要查询的学生ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生信息查询成功但获取失败（如ID错误）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,6 +620,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -521,15 +636,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -820,8 +926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N253"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N100" sqref="N100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -882,13 +988,13 @@
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="10">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -900,7 +1006,7 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="10">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -912,7 +1018,7 @@
       <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="10">
         <v>10</v>
       </c>
       <c r="M2" s="2">
@@ -923,9 +1029,9 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
@@ -935,8 +1041,8 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="11"/>
+      <c r="L3" s="11"/>
       <c r="M3" s="1">
         <v>-11</v>
       </c>
@@ -945,11 +1051,11 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="L4" s="11"/>
       <c r="M4" s="1">
         <v>-12</v>
       </c>
@@ -958,11 +1064,11 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="L5" s="11"/>
       <c r="M5" s="1">
         <v>-13</v>
       </c>
@@ -971,11 +1077,11 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="11"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="L6" s="11"/>
       <c r="M6" s="1">
         <v>-21</v>
       </c>
@@ -984,11 +1090,11 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="1">
         <v>-22</v>
       </c>
@@ -997,11 +1103,11 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="L8" s="11"/>
       <c r="M8" s="1">
         <v>-23</v>
       </c>
@@ -1010,11 +1116,11 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="L9" s="11"/>
       <c r="M9" s="1">
         <v>-31</v>
       </c>
@@ -1023,11 +1129,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="L10" s="11"/>
       <c r="M10" s="1">
         <v>-32</v>
       </c>
@@ -1036,17 +1142,17 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="12"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="12"/>
       <c r="M11" s="5">
         <v>-99</v>
       </c>
@@ -1055,13 +1161,13 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="10">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1073,7 +1179,7 @@
       <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="10">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1085,7 +1191,7 @@
       <c r="K12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="10">
         <v>10</v>
       </c>
       <c r="M12" s="2">
@@ -1096,9 +1202,9 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1108,8 +1214,8 @@
       <c r="G13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="H13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="1">
         <v>-11</v>
       </c>
@@ -1118,11 +1224,11 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="L14" s="11"/>
       <c r="M14" s="1">
         <v>-12</v>
       </c>
@@ -1131,11 +1237,11 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="L15" s="11"/>
       <c r="M15" s="1">
         <v>-13</v>
       </c>
@@ -1144,11 +1250,11 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="L16" s="11"/>
       <c r="M16" s="1">
         <v>-21</v>
       </c>
@@ -1157,11 +1263,11 @@
       </c>
     </row>
     <row r="17" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="L17" s="11"/>
       <c r="M17" s="1">
         <v>-22</v>
       </c>
@@ -1170,11 +1276,11 @@
       </c>
     </row>
     <row r="18" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="L18" s="11"/>
       <c r="M18" s="1">
         <v>-23</v>
       </c>
@@ -1183,11 +1289,11 @@
       </c>
     </row>
     <row r="19" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="11"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="L19" s="11"/>
       <c r="M19" s="1">
         <v>-31</v>
       </c>
@@ -1196,11 +1302,11 @@
       </c>
     </row>
     <row r="20" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="11"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="L20" s="11"/>
       <c r="M20" s="1">
         <v>-32</v>
       </c>
@@ -1209,17 +1315,17 @@
       </c>
     </row>
     <row r="21" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="12"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="9"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="5">
         <v>-99</v>
       </c>
@@ -1228,13 +1334,13 @@
       </c>
     </row>
     <row r="22" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="10">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1246,13 +1352,13 @@
       <c r="G22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="7">
+      <c r="L22" s="10">
         <v>9</v>
       </c>
       <c r="M22" s="2">
@@ -1263,9 +1369,9 @@
       </c>
     </row>
     <row r="23" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1275,8 +1381,8 @@
       <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="H23" s="11"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="1">
         <v>-11</v>
       </c>
@@ -1285,9 +1391,9 @@
       </c>
     </row>
     <row r="24" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="11"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1297,8 +1403,8 @@
       <c r="G24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="H24" s="11"/>
+      <c r="L24" s="11"/>
       <c r="M24" s="1">
         <v>-12</v>
       </c>
@@ -1307,9 +1413,9 @@
       </c>
     </row>
     <row r="25" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="11"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1319,8 +1425,8 @@
       <c r="G25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="H25" s="11"/>
+      <c r="L25" s="11"/>
       <c r="M25" s="1">
         <v>-13</v>
       </c>
@@ -1329,9 +1435,9 @@
       </c>
     </row>
     <row r="26" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="11"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1341,8 +1447,8 @@
       <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="H26" s="11"/>
+      <c r="L26" s="11"/>
       <c r="M26" s="1">
         <v>-21</v>
       </c>
@@ -1351,9 +1457,9 @@
       </c>
     </row>
     <row r="27" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1363,8 +1469,8 @@
       <c r="G27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="H27" s="11"/>
+      <c r="L27" s="11"/>
       <c r="M27" s="1">
         <v>-22</v>
       </c>
@@ -1373,9 +1479,9 @@
       </c>
     </row>
     <row r="28" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="11"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1385,8 +1491,8 @@
       <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="H28" s="11"/>
+      <c r="L28" s="11"/>
       <c r="M28" s="1">
         <v>-31</v>
       </c>
@@ -1395,11 +1501,11 @@
       </c>
     </row>
     <row r="29" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="11"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="L29" s="11"/>
       <c r="M29" s="1">
         <v>-32</v>
       </c>
@@ -1408,17 +1514,17 @@
       </c>
     </row>
     <row r="30" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="12"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="12"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="12"/>
       <c r="M30" s="5">
         <v>-99</v>
       </c>
@@ -1427,13 +1533,13 @@
       </c>
     </row>
     <row r="31" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="10">
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1445,13 +1551,13 @@
       <c r="G31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="7">
+      <c r="L31" s="10">
         <v>9</v>
       </c>
       <c r="M31" s="2">
@@ -1462,9 +1568,9 @@
       </c>
     </row>
     <row r="32" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1474,8 +1580,8 @@
       <c r="G32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="H32" s="11"/>
+      <c r="L32" s="11"/>
       <c r="M32" s="1">
         <v>-11</v>
       </c>
@@ -1484,9 +1590,9 @@
       </c>
     </row>
     <row r="33" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="11"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1496,8 +1602,8 @@
       <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="H33" s="11"/>
+      <c r="L33" s="11"/>
       <c r="M33" s="1">
         <v>-12</v>
       </c>
@@ -1506,9 +1612,9 @@
       </c>
     </row>
     <row r="34" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="11"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1518,8 +1624,8 @@
       <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="H34" s="11"/>
+      <c r="L34" s="11"/>
       <c r="M34" s="1">
         <v>-13</v>
       </c>
@@ -1528,9 +1634,9 @@
       </c>
     </row>
     <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="11"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="1" t="s">
         <v>67</v>
       </c>
@@ -1540,8 +1646,8 @@
       <c r="G35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="H35" s="11"/>
+      <c r="L35" s="11"/>
       <c r="M35" s="1">
         <v>-21</v>
       </c>
@@ -1550,9 +1656,9 @@
       </c>
     </row>
     <row r="36" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="11"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1562,8 +1668,8 @@
       <c r="G36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="H36" s="11"/>
+      <c r="L36" s="11"/>
       <c r="M36" s="1">
         <v>-22</v>
       </c>
@@ -1572,9 +1678,9 @@
       </c>
     </row>
     <row r="37" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="11"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
@@ -1584,8 +1690,8 @@
       <c r="G37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="H37" s="11"/>
+      <c r="L37" s="11"/>
       <c r="M37" s="1">
         <v>-31</v>
       </c>
@@ -1594,11 +1700,11 @@
       </c>
     </row>
     <row r="38" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="11"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="L38" s="11"/>
       <c r="M38" s="1">
         <v>-32</v>
       </c>
@@ -1607,18 +1713,12 @@
       </c>
     </row>
     <row r="39" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="11"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
-      <c r="L39" s="13"/>
-      <c r="M39" s="14">
+      <c r="B39" s="8"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="1">
         <v>-99</v>
       </c>
       <c r="N39" s="4" t="s">
@@ -1626,13 +1726,13 @@
       </c>
     </row>
     <row r="40" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="10" t="s">
+      <c r="B40" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="10">
         <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -1644,13 +1744,13 @@
       <c r="G40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="7">
+      <c r="L40" s="10">
         <v>10</v>
       </c>
       <c r="M40" s="2">
@@ -1661,24 +1761,21 @@
       </c>
     </row>
     <row r="41" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="11"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="13"/>
-      <c r="E41" s="14" t="s">
+      <c r="B41" s="8"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G41" s="14" t="s">
+      <c r="G41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="13"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="14">
+      <c r="H41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="1">
         <v>-2</v>
       </c>
       <c r="N41" s="4" t="s">
@@ -1686,24 +1783,21 @@
       </c>
     </row>
     <row r="42" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="11"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="14" t="s">
+      <c r="B42" s="8"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F42" s="14" t="s">
+      <c r="F42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G42" s="14" t="s">
+      <c r="G42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="13"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="14">
+      <c r="H42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="1">
         <v>-11</v>
       </c>
       <c r="N42" s="4" t="s">
@@ -1711,24 +1805,21 @@
       </c>
     </row>
     <row r="43" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="11"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="14" t="s">
+      <c r="B43" s="8"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="14" t="s">
+      <c r="G43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="13"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
-      <c r="L43" s="13"/>
-      <c r="M43" s="14">
+      <c r="H43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="1">
         <v>-12</v>
       </c>
       <c r="N43" s="4" t="s">
@@ -1736,24 +1827,21 @@
       </c>
     </row>
     <row r="44" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="11"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="14" t="s">
+      <c r="B44" s="8"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="F44" s="14" t="s">
+      <c r="F44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G44" s="14" t="s">
+      <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="13"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="13"/>
-      <c r="M44" s="14">
+      <c r="H44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="1">
         <v>-13</v>
       </c>
       <c r="N44" s="4" t="s">
@@ -1761,24 +1849,21 @@
       </c>
     </row>
     <row r="45" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="11"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="14" t="s">
+      <c r="B45" s="8"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G45" s="14" t="s">
+      <c r="G45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="13"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
-      <c r="L45" s="13"/>
-      <c r="M45" s="14">
+      <c r="H45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="1">
         <v>-21</v>
       </c>
       <c r="N45" s="4" t="s">
@@ -1786,24 +1871,21 @@
       </c>
     </row>
     <row r="46" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="11"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="14" t="s">
+      <c r="B46" s="8"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="14" t="s">
+      <c r="F46" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G46" s="14" t="s">
+      <c r="G46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="13"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
-      <c r="L46" s="13"/>
-      <c r="M46" s="14">
+      <c r="H46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="1">
         <v>-22</v>
       </c>
       <c r="N46" s="4" t="s">
@@ -1811,18 +1893,12 @@
       </c>
     </row>
     <row r="47" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="11"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
-      <c r="L47" s="13"/>
-      <c r="M47" s="14">
+      <c r="B47" s="8"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="1">
         <v>-23</v>
       </c>
       <c r="N47" s="4" t="s">
@@ -1830,18 +1906,12 @@
       </c>
     </row>
     <row r="48" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="11"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
-      <c r="L48" s="13"/>
-      <c r="M48" s="14">
+      <c r="B48" s="8"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="1">
         <v>-24</v>
       </c>
       <c r="N48" s="4" t="s">
@@ -1849,17 +1919,17 @@
       </c>
     </row>
     <row r="49" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="12"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
       <c r="G49" s="5"/>
-      <c r="H49" s="9"/>
+      <c r="H49" s="12"/>
       <c r="I49" s="5"/>
       <c r="J49" s="5"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="9"/>
+      <c r="L49" s="12"/>
       <c r="M49" s="5">
         <v>-99</v>
       </c>
@@ -1868,13 +1938,13 @@
       </c>
     </row>
     <row r="50" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D50" s="10">
         <v>7</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -1886,13 +1956,13 @@
       <c r="G50" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="7" t="s">
+      <c r="H50" s="10" t="s">
         <v>59</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="7">
+      <c r="L50" s="10">
         <v>10</v>
       </c>
       <c r="M50" s="2">
@@ -1903,24 +1973,21 @@
       </c>
     </row>
     <row r="51" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="11"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="13"/>
-      <c r="E51" s="14" t="s">
+      <c r="B51" s="8"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="14" t="s">
+      <c r="G51" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="13"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
-      <c r="L51" s="13"/>
-      <c r="M51" s="14">
+      <c r="H51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="1">
         <v>-2</v>
       </c>
       <c r="N51" s="4" t="s">
@@ -1928,24 +1995,21 @@
       </c>
     </row>
     <row r="52" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="11"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="13"/>
-      <c r="E52" s="14" t="s">
+      <c r="B52" s="8"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F52" s="14" t="s">
+      <c r="F52" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G52" s="14" t="s">
+      <c r="G52" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H52" s="13"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
-      <c r="L52" s="13"/>
-      <c r="M52" s="14">
+      <c r="H52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="1">
         <v>-11</v>
       </c>
       <c r="N52" s="4" t="s">
@@ -1953,24 +2017,21 @@
       </c>
     </row>
     <row r="53" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="11"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="13"/>
-      <c r="E53" s="14" t="s">
+      <c r="B53" s="8"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F53" s="14" t="s">
+      <c r="F53" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G53" s="14" t="s">
+      <c r="G53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H53" s="13"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
-      <c r="L53" s="13"/>
-      <c r="M53" s="14">
+      <c r="H53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="1">
         <v>-12</v>
       </c>
       <c r="N53" s="4" t="s">
@@ -1978,24 +2039,21 @@
       </c>
     </row>
     <row r="54" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="11"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="13"/>
-      <c r="E54" s="14" t="s">
+      <c r="B54" s="8"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F54" s="14" t="s">
+      <c r="F54" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G54" s="14" t="s">
+      <c r="G54" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H54" s="13"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
-      <c r="L54" s="13"/>
-      <c r="M54" s="14">
+      <c r="H54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="1">
         <v>-13</v>
       </c>
       <c r="N54" s="4" t="s">
@@ -2003,24 +2061,21 @@
       </c>
     </row>
     <row r="55" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="11"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="13"/>
-      <c r="E55" s="14" t="s">
+      <c r="B55" s="8"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F55" s="14" t="s">
+      <c r="F55" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G55" s="14" t="s">
+      <c r="G55" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H55" s="13"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="13"/>
-      <c r="M55" s="14">
+      <c r="H55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="1">
         <v>-21</v>
       </c>
       <c r="N55" s="4" t="s">
@@ -2028,24 +2083,21 @@
       </c>
     </row>
     <row r="56" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="11"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="14" t="s">
+      <c r="B56" s="8"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F56" s="14" t="s">
+      <c r="F56" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G56" s="14" t="s">
+      <c r="G56" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="13"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="13"/>
-      <c r="M56" s="14">
+      <c r="H56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="1">
         <v>-22</v>
       </c>
       <c r="N56" s="4" t="s">
@@ -2053,18 +2105,12 @@
       </c>
     </row>
     <row r="57" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="11"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="13"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
-      <c r="L57" s="13"/>
-      <c r="M57" s="14">
+      <c r="B57" s="8"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="1">
         <v>-23</v>
       </c>
       <c r="N57" s="4" t="s">
@@ -2072,18 +2118,12 @@
       </c>
     </row>
     <row r="58" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="11"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="13"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="13"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
-      <c r="L58" s="13"/>
-      <c r="M58" s="14">
+      <c r="B58" s="8"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="H58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="1">
         <v>-24</v>
       </c>
       <c r="N58" s="4" t="s">
@@ -2091,77 +2131,945 @@
       </c>
     </row>
     <row r="59" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="9"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="5">
+      <c r="B59" s="8"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+      <c r="G59" s="14"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="14"/>
+      <c r="J59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="14">
         <v>-99</v>
       </c>
-      <c r="N59" s="6" t="s">
+      <c r="N59" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="65" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="66" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="67" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="68" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="69" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="70" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="71" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="72" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="73" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="74" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="75" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="76" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="77" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="78" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="79" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="80" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="81" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="82" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="83" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="84" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="85" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="86" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="87" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="88" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="89" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="90" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="91" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="92" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="93" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="94" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="95" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="96" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="97" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="98" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D60" s="10">
+        <v>3</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="10">
+        <v>8</v>
+      </c>
+      <c r="M60" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N60" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="8"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H61" s="13"/>
+      <c r="I61" s="14"/>
+      <c r="J61" s="14"/>
+      <c r="K61" s="14"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="8"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="14">
+        <v>-12</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="8"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="14">
+        <v>-13</v>
+      </c>
+      <c r="N63" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="8"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="8"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="14"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="14"/>
+      <c r="K65" s="14"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="14">
+        <v>-22</v>
+      </c>
+      <c r="N65" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="8"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+      <c r="G66" s="14"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="14"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="14">
+        <v>-23</v>
+      </c>
+      <c r="N66" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="9"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D68" s="10">
+        <v>3</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="10">
+        <v>8</v>
+      </c>
+      <c r="M68" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="8"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G69" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N69" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="8"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G70" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="14"/>
+      <c r="K70" s="14"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="14">
+        <v>-12</v>
+      </c>
+      <c r="N70" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="8"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="14"/>
+      <c r="K71" s="14"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="14">
+        <v>-13</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="8"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+      <c r="G72" s="14"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="8"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="14"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="14">
+        <v>-22</v>
+      </c>
+      <c r="N73" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="8"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="14"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="14">
+        <v>-23</v>
+      </c>
+      <c r="N74" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="8"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="14"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="14"/>
+      <c r="J75" s="14"/>
+      <c r="K75" s="14"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="14">
+        <v>-99</v>
+      </c>
+      <c r="N75" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D76" s="10">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="10">
+        <v>5</v>
+      </c>
+      <c r="I76" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J76" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K76" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L76" s="10">
+        <v>11</v>
+      </c>
+      <c r="M76" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="8"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G77" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H77" s="13"/>
+      <c r="I77" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J77" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K77" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L77" s="13"/>
+      <c r="M77" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N77" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="8"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G78" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H78" s="13"/>
+      <c r="I78" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J78" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K78" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L78" s="13"/>
+      <c r="M78" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N78" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="8"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G79" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="H79" s="13"/>
+      <c r="I79" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J79" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L79" s="13"/>
+      <c r="M79" s="14">
+        <v>-12</v>
+      </c>
+      <c r="N79" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="8"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+      <c r="G80" s="14"/>
+      <c r="H80" s="13"/>
+      <c r="I80" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J80" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K80" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L80" s="13"/>
+      <c r="M80" s="14">
+        <v>-13</v>
+      </c>
+      <c r="N80" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="8"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+      <c r="G81" s="14"/>
+      <c r="H81" s="13"/>
+      <c r="I81" s="14"/>
+      <c r="J81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="13"/>
+      <c r="M81" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="8"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+      <c r="G82" s="14"/>
+      <c r="H82" s="13"/>
+      <c r="I82" s="14"/>
+      <c r="J82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="13"/>
+      <c r="M82" s="14">
+        <v>-22</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="8"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+      <c r="H83" s="13"/>
+      <c r="I83" s="14"/>
+      <c r="J83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="13"/>
+      <c r="M83" s="14">
+        <v>-23</v>
+      </c>
+      <c r="N83" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="8"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+      <c r="H84" s="13"/>
+      <c r="I84" s="14"/>
+      <c r="J84" s="14"/>
+      <c r="K84" s="14"/>
+      <c r="L84" s="13"/>
+      <c r="M84" s="14">
+        <v>-24</v>
+      </c>
+      <c r="N84" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="8"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+      <c r="H85" s="13"/>
+      <c r="I85" s="14"/>
+      <c r="J85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="13"/>
+      <c r="M85" s="14">
+        <v>-25</v>
+      </c>
+      <c r="N85" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="9"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N86" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="10">
+        <v>4</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H87" s="10">
+        <v>5</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L87" s="10">
+        <v>11</v>
+      </c>
+      <c r="M87" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="8"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G88" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="J88" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="K88" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="L88" s="13"/>
+      <c r="M88" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N88" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="8"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="J89" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>114</v>
+      </c>
+      <c r="L89" s="13"/>
+      <c r="M89" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N89" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="8"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G90" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H90" s="13"/>
+      <c r="I90" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J90" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K90" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="L90" s="13"/>
+      <c r="M90" s="14">
+        <v>-12</v>
+      </c>
+      <c r="N90" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="8"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="J91" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K91" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="L91" s="13"/>
+      <c r="M91" s="14">
+        <v>-13</v>
+      </c>
+      <c r="N91" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="8"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N92" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="8"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="14"/>
+      <c r="K93" s="14"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="14">
+        <v>-22</v>
+      </c>
+      <c r="N93" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="8"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="14">
+        <v>-23</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="8"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="14">
+        <v>-24</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="8"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="14">
+        <v>-25</v>
+      </c>
+      <c r="N96" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B97" s="9"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="12"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="5"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="113" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="114" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="115" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2304,37 +3212,57 @@
     <row r="252" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="253" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="50">
+    <mergeCell ref="B87:B97"/>
+    <mergeCell ref="C87:C97"/>
+    <mergeCell ref="D87:D97"/>
+    <mergeCell ref="H87:H97"/>
+    <mergeCell ref="L87:L97"/>
+    <mergeCell ref="L76:L86"/>
+    <mergeCell ref="H76:H86"/>
+    <mergeCell ref="D76:D86"/>
+    <mergeCell ref="B76:B86"/>
+    <mergeCell ref="C76:C86"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="C68:C75"/>
+    <mergeCell ref="D68:D75"/>
+    <mergeCell ref="H68:H75"/>
+    <mergeCell ref="L68:L75"/>
+    <mergeCell ref="L60:L67"/>
+    <mergeCell ref="H60:H67"/>
+    <mergeCell ref="D60:D67"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="C60:C67"/>
+    <mergeCell ref="L22:L30"/>
+    <mergeCell ref="H22:H30"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:C30"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="L31:L39"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="L2:L11"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="L12:L21"/>
+    <mergeCell ref="L40:L49"/>
+    <mergeCell ref="H40:H49"/>
+    <mergeCell ref="D40:D49"/>
+    <mergeCell ref="B40:B49"/>
+    <mergeCell ref="C40:C49"/>
     <mergeCell ref="B50:B59"/>
     <mergeCell ref="C50:C59"/>
     <mergeCell ref="D50:D59"/>
     <mergeCell ref="H50:H59"/>
     <mergeCell ref="L50:L59"/>
-    <mergeCell ref="L40:L49"/>
-    <mergeCell ref="H40:H49"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="L12:L21"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="L2:L11"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="L31:L39"/>
-    <mergeCell ref="L22:L30"/>
-    <mergeCell ref="H22:H30"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:C30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API.xlsx
+++ b/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\SE\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C3E503-63C7-470B-B19A-2A792FC1D2B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E62D3D-B39E-4328-9AD7-B96A6A34DA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="204">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -477,6 +477,355 @@
   </si>
   <si>
     <t>学生信息查询成功但获取失败（如ID错误）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new_course</t>
+  </si>
+  <si>
+    <t>新建不包含描述信息的课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>semester</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程ID，课号，需要经过存在性校验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课教师ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课学期，格式为6位数字，如202501表示2025年第一学期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程邀请码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度位64的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入课程的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程信息不在基准信息表中，不准新建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改不包含描述信息的课程基本信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit_course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0（仅返回成功与否的标志）</t>
+  </si>
+  <si>
+    <t>查询id是否存在于课程表的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程教师的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改课程基本信息的sql操作无法顺利执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程ID不在课程表中，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程授课教师的操作成功，但没有返回值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改课程的教师并非课程所有者，不准修改</t>
+  </si>
+  <si>
+    <t>edit_info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改/新建一个课程的描述信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度小于3000的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程ID，课号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改课程的状态并非标准状态，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除课程的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程信息不在课程表中，不准删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除课程的教师并非课程所有者，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_course_id_by_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师获取其名下的所有课程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总长可变的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果拼接成的字符串，每两个结果之间使用\r\t分隔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≥0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程ID数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询教师名下的课程ID数量的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询教师名下的课程ID的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_course_id_by_student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师-课程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_info_by_course_id(</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据课程ID获取课程信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>is_active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>created_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开课教师的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程是否发布（0未发布，1发布）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>date类型值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个长度为64的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个长度小于3000的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个长度小于100的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit_is_active</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改/新建一个课程的开课状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程信息的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该ID没有对应的课程信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生-课程组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生根据邀请码加入课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>course_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程ID是否存在的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询邀请码对应的课程ID的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将学生加入课程的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请码对应的班级不存在或者数量不正确</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit_course_by_student</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生退出指定课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个长度小于50的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程关系是否存在的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>课程关系不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出课程的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exit_course_by_teacher</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师将学生踢出指定课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程开课人的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前课程开课人不是当前教师，不准踢人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>踢人的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_student_id_by_course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师查询属于自己的某个课程的学生名单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前课程开课人不是当前教师，不准查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询学生数量的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询学生ID的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学生查询自己加入的所有课程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程数量的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程ID的sql操作执行失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,7 +949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -620,6 +969,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,13 +987,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -924,10 +1276,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N253"/>
+  <dimension ref="A1:N300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N100" sqref="N100"/>
+    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -985,16 +1337,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="7">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1006,7 +1358,7 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="7">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1018,7 +1370,7 @@
       <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="7">
         <v>10</v>
       </c>
       <c r="M2" s="2">
@@ -1029,9 +1381,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="8"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1041,8 +1394,8 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="L3" s="11"/>
+      <c r="H3" s="8"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="1">
         <v>-11</v>
       </c>
@@ -1051,11 +1404,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="8"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="L4" s="11"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="L4" s="8"/>
       <c r="M4" s="1">
         <v>-12</v>
       </c>
@@ -1064,11 +1418,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="L5" s="11"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="L5" s="8"/>
       <c r="M5" s="1">
         <v>-13</v>
       </c>
@@ -1077,11 +1432,12 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="L6" s="11"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="L6" s="8"/>
       <c r="M6" s="1">
         <v>-21</v>
       </c>
@@ -1090,11 +1446,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="L7" s="11"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="L7" s="8"/>
       <c r="M7" s="1">
         <v>-22</v>
       </c>
@@ -1103,11 +1460,12 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="L8" s="11"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="L8" s="8"/>
       <c r="M8" s="1">
         <v>-23</v>
       </c>
@@ -1116,11 +1474,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="L9" s="11"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="L9" s="8"/>
       <c r="M9" s="1">
         <v>-31</v>
       </c>
@@ -1129,11 +1488,12 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="L10" s="11"/>
+      <c r="A10" s="13"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="L10" s="8"/>
       <c r="M10" s="1">
         <v>-32</v>
       </c>
@@ -1142,17 +1502,18 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="9"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="12"/>
+      <c r="H11" s="9"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="12"/>
+      <c r="L11" s="9"/>
       <c r="M11" s="5">
         <v>-99</v>
       </c>
@@ -1161,13 +1522,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="7">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1179,7 +1541,7 @@
       <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="7">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1191,7 +1553,7 @@
       <c r="K12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="10">
+      <c r="L12" s="7">
         <v>10</v>
       </c>
       <c r="M12" s="2">
@@ -1202,9 +1564,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1214,8 +1577,8 @@
       <c r="G13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="H13" s="8"/>
+      <c r="L13" s="8"/>
       <c r="M13" s="1">
         <v>-11</v>
       </c>
@@ -1224,11 +1587,12 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="8"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="L14" s="8"/>
       <c r="M14" s="1">
         <v>-12</v>
       </c>
@@ -1237,11 +1601,12 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="8"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="L15" s="8"/>
       <c r="M15" s="1">
         <v>-13</v>
       </c>
@@ -1250,11 +1615,12 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="L16" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="L16" s="8"/>
       <c r="M16" s="1">
         <v>-21</v>
       </c>
@@ -1262,12 +1628,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="8"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="L17" s="11"/>
+    <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="L17" s="8"/>
       <c r="M17" s="1">
         <v>-22</v>
       </c>
@@ -1275,12 +1642,13 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="L18" s="11"/>
+    <row r="18" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="L18" s="8"/>
       <c r="M18" s="1">
         <v>-23</v>
       </c>
@@ -1288,12 +1656,13 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="8"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="L19" s="11"/>
+    <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="L19" s="8"/>
       <c r="M19" s="1">
         <v>-31</v>
       </c>
@@ -1301,12 +1670,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="8"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="L20" s="11"/>
+    <row r="20" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="L20" s="8"/>
       <c r="M20" s="1">
         <v>-32</v>
       </c>
@@ -1314,18 +1684,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="9"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+    <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="13"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="12"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="12"/>
+      <c r="L21" s="9"/>
       <c r="M21" s="5">
         <v>-99</v>
       </c>
@@ -1333,14 +1704,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="7" t="s">
+    <row r="22" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="7">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1352,13 +1724,13 @@
       <c r="G22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="10" t="s">
+      <c r="H22" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="10">
+      <c r="L22" s="7">
         <v>9</v>
       </c>
       <c r="M22" s="2">
@@ -1368,10 +1740,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="8"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+    <row r="23" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,8 +1754,8 @@
       <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="L23" s="11"/>
+      <c r="H23" s="8"/>
+      <c r="L23" s="8"/>
       <c r="M23" s="1">
         <v>-11</v>
       </c>
@@ -1390,10 +1763,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+    <row r="24" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
       <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1403,8 +1777,8 @@
       <c r="G24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="L24" s="11"/>
+      <c r="H24" s="8"/>
+      <c r="L24" s="8"/>
       <c r="M24" s="1">
         <v>-12</v>
       </c>
@@ -1412,10 +1786,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="8"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+    <row r="25" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
       <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1425,8 +1800,8 @@
       <c r="G25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="L25" s="11"/>
+      <c r="H25" s="8"/>
+      <c r="L25" s="8"/>
       <c r="M25" s="1">
         <v>-13</v>
       </c>
@@ -1434,10 +1809,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="26" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="8"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+    <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
       <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1447,8 +1823,8 @@
       <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="L26" s="11"/>
+      <c r="H26" s="8"/>
+      <c r="L26" s="8"/>
       <c r="M26" s="1">
         <v>-21</v>
       </c>
@@ -1456,10 +1832,11 @@
         <v>63</v>
       </c>
     </row>
-    <row r="27" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="8"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+    <row r="27" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
       <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1469,8 +1846,8 @@
       <c r="G27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="L27" s="11"/>
+      <c r="H27" s="8"/>
+      <c r="L27" s="8"/>
       <c r="M27" s="1">
         <v>-22</v>
       </c>
@@ -1478,10 +1855,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+    <row r="28" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
       <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1491,8 +1869,8 @@
       <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="L28" s="11"/>
+      <c r="H28" s="8"/>
+      <c r="L28" s="8"/>
       <c r="M28" s="1">
         <v>-31</v>
       </c>
@@ -1500,12 +1878,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="L29" s="11"/>
+    <row r="29" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="L29" s="8"/>
       <c r="M29" s="1">
         <v>-32</v>
       </c>
@@ -1513,18 +1892,19 @@
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="9"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
+    <row r="30" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="13"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="12"/>
+      <c r="H30" s="9"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="12"/>
+      <c r="L30" s="9"/>
       <c r="M30" s="5">
         <v>-99</v>
       </c>
@@ -1532,14 +1912,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="7" t="s">
+    <row r="31" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1551,13 +1932,13 @@
       <c r="G31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="10" t="s">
+      <c r="H31" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="10">
+      <c r="L31" s="7">
         <v>9</v>
       </c>
       <c r="M31" s="2">
@@ -1567,10 +1948,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+    <row r="32" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1580,8 +1962,8 @@
       <c r="G32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="11"/>
-      <c r="L32" s="11"/>
+      <c r="H32" s="8"/>
+      <c r="L32" s="8"/>
       <c r="M32" s="1">
         <v>-11</v>
       </c>
@@ -1589,10 +1971,11 @@
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+    <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
       <c r="E33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1602,8 +1985,8 @@
       <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="11"/>
-      <c r="L33" s="11"/>
+      <c r="H33" s="8"/>
+      <c r="L33" s="8"/>
       <c r="M33" s="1">
         <v>-12</v>
       </c>
@@ -1611,10 +1994,11 @@
         <v>61</v>
       </c>
     </row>
-    <row r="34" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="8"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+    <row r="34" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8"/>
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -1624,8 +2008,8 @@
       <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="L34" s="11"/>
+      <c r="H34" s="8"/>
+      <c r="L34" s="8"/>
       <c r="M34" s="1">
         <v>-13</v>
       </c>
@@ -1633,10 +2017,11 @@
         <v>62</v>
       </c>
     </row>
-    <row r="35" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="8"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+    <row r="35" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
       <c r="E35" s="1" t="s">
         <v>67</v>
       </c>
@@ -1646,8 +2031,8 @@
       <c r="G35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="L35" s="11"/>
+      <c r="H35" s="8"/>
+      <c r="L35" s="8"/>
       <c r="M35" s="1">
         <v>-21</v>
       </c>
@@ -1655,10 +2040,11 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="8"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+    <row r="36" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
       <c r="E36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1668,8 +2054,8 @@
       <c r="G36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="L36" s="11"/>
+      <c r="H36" s="8"/>
+      <c r="L36" s="8"/>
       <c r="M36" s="1">
         <v>-22</v>
       </c>
@@ -1677,10 +2063,11 @@
         <v>70</v>
       </c>
     </row>
-    <row r="37" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="8"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+    <row r="37" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
       <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
@@ -1690,8 +2077,8 @@
       <c r="G37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="L37" s="11"/>
+      <c r="H37" s="8"/>
+      <c r="L37" s="8"/>
       <c r="M37" s="1">
         <v>-31</v>
       </c>
@@ -1699,12 +2086,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="8"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="L38" s="11"/>
+    <row r="38" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="L38" s="8"/>
       <c r="M38" s="1">
         <v>-32</v>
       </c>
@@ -1712,12 +2100,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="8"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="L39" s="11"/>
+    <row r="39" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="13"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="L39" s="8"/>
       <c r="M39" s="1">
         <v>-99</v>
       </c>
@@ -1725,14 +2114,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="7" t="s">
+    <row r="40" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
+      <c r="B40" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="7">
         <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -1744,14 +2134,14 @@
       <c r="G40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="10" t="s">
+      <c r="H40" s="7" t="s">
         <v>59</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="10">
-        <v>10</v>
+      <c r="L40" s="7">
+        <v>12</v>
       </c>
       <c r="M40" s="2">
         <v>-1</v>
@@ -1760,10 +2150,11 @@
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="8"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
+    <row r="41" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
       <c r="E41" s="1" t="s">
         <v>74</v>
       </c>
@@ -1773,8 +2164,8 @@
       <c r="G41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="L41" s="11"/>
+      <c r="H41" s="8"/>
+      <c r="L41" s="8"/>
       <c r="M41" s="1">
         <v>-2</v>
       </c>
@@ -1782,10 +2173,11 @@
         <v>79</v>
       </c>
     </row>
-    <row r="42" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="8"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
+    <row r="42" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="8"/>
       <c r="E42" s="1" t="s">
         <v>46</v>
       </c>
@@ -1795,8 +2187,8 @@
       <c r="G42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="L42" s="11"/>
+      <c r="H42" s="8"/>
+      <c r="L42" s="8"/>
       <c r="M42" s="1">
         <v>-11</v>
       </c>
@@ -1804,10 +2196,11 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="8"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
+    <row r="43" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
       <c r="E43" s="1" t="s">
         <v>48</v>
       </c>
@@ -1817,8 +2210,8 @@
       <c r="G43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="L43" s="11"/>
+      <c r="H43" s="8"/>
+      <c r="L43" s="8"/>
       <c r="M43" s="1">
         <v>-12</v>
       </c>
@@ -1826,10 +2219,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="8"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
+    <row r="44" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="8"/>
       <c r="E44" s="1" t="s">
         <v>50</v>
       </c>
@@ -1839,8 +2233,8 @@
       <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="L44" s="11"/>
+      <c r="H44" s="8"/>
+      <c r="L44" s="8"/>
       <c r="M44" s="1">
         <v>-13</v>
       </c>
@@ -1848,10 +2242,11 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="8"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
+    <row r="45" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
       <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
@@ -1861,8 +2256,8 @@
       <c r="G45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="L45" s="11"/>
+      <c r="H45" s="8"/>
+      <c r="L45" s="8"/>
       <c r="M45" s="1">
         <v>-21</v>
       </c>
@@ -1870,10 +2265,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="46" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="8"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
+    <row r="46" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="8"/>
       <c r="E46" s="1" t="s">
         <v>54</v>
       </c>
@@ -1883,8 +2279,8 @@
       <c r="G46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="L46" s="11"/>
+      <c r="H46" s="8"/>
+      <c r="L46" s="8"/>
       <c r="M46" s="1">
         <v>-22</v>
       </c>
@@ -1892,12 +2288,13 @@
         <v>82</v>
       </c>
     </row>
-    <row r="47" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="8"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="L47" s="11"/>
+    <row r="47" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="L47" s="8"/>
       <c r="M47" s="1">
         <v>-23</v>
       </c>
@@ -1905,12 +2302,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="8"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="L48" s="11"/>
+    <row r="48" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="L48" s="8"/>
       <c r="M48" s="1">
         <v>-24</v>
       </c>
@@ -1918,1351 +2316,4833 @@
         <v>84</v>
       </c>
     </row>
-    <row r="49" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="9"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="5">
+    <row r="49" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N49" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N50" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="13"/>
+      <c r="B51" s="12"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="5">
         <v>-99</v>
       </c>
-      <c r="N49" s="6" t="s">
+      <c r="N51" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="7" t="s">
+    <row r="52" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
+      <c r="B52" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C52" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D52" s="7">
         <v>7</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H50" s="10" t="s">
+      <c r="H52" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
-      <c r="K50" s="2"/>
-      <c r="L50" s="10">
-        <v>10</v>
-      </c>
-      <c r="M50" s="2">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="7">
+        <v>12</v>
+      </c>
+      <c r="M52" s="2">
         <v>-1</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="N52" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="8"/>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11"/>
-      <c r="E51" s="1" t="s">
+    <row r="53" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+      <c r="E53" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="1">
+      <c r="H53" s="8"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="1">
         <v>-2</v>
       </c>
-      <c r="N51" s="4" t="s">
+      <c r="N53" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="52" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="8"/>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11"/>
-      <c r="E52" s="1" t="s">
+    <row r="54" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="L52" s="11"/>
-      <c r="M52" s="1">
-        <v>-11</v>
-      </c>
-      <c r="N52" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="8"/>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H53" s="11"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="1">
-        <v>-12</v>
-      </c>
-      <c r="N53" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="8"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H54" s="11"/>
-      <c r="L54" s="11"/>
+        <v>47</v>
+      </c>
+      <c r="H54" s="8"/>
+      <c r="L54" s="8"/>
       <c r="M54" s="1">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="N54" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="8"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
       <c r="E55" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H55" s="11"/>
-      <c r="L55" s="11"/>
+        <v>49</v>
+      </c>
+      <c r="H55" s="8"/>
+      <c r="L55" s="8"/>
       <c r="M55" s="1">
-        <v>-21</v>
+        <v>-12</v>
       </c>
       <c r="N55" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="56" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="8"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="8"/>
       <c r="E56" s="1" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>56</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="8"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N56" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="8"/>
+      <c r="E57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H57" s="8"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N57" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="8"/>
+      <c r="E58" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="L56" s="11"/>
-      <c r="M56" s="1">
+      <c r="H58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="1">
         <v>-22</v>
       </c>
-      <c r="N56" s="4" t="s">
+      <c r="N58" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="57" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="8"/>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="L57" s="11"/>
-      <c r="M57" s="1">
+    <row r="59" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="1">
         <v>-23</v>
       </c>
-      <c r="N57" s="4" t="s">
+      <c r="N59" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="58" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="8"/>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="L58" s="11"/>
-      <c r="M58" s="1">
+    <row r="60" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="1">
         <v>-24</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="N60" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="8"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="13"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="13"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
-      <c r="L59" s="13"/>
-      <c r="M59" s="14">
+    <row r="61" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N61" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N62" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="1">
         <v>-99</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="N63" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="7" t="s">
+    <row r="64" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
+      <c r="B64" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C64" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D64" s="7">
         <v>3</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E64" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F64" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H64" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
-      <c r="K60" s="2"/>
-      <c r="L60" s="10">
-        <v>8</v>
-      </c>
-      <c r="M60" s="2">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="7">
+        <v>10</v>
+      </c>
+      <c r="M64" s="2">
         <v>-1</v>
       </c>
-      <c r="N60" s="3" t="s">
+      <c r="N64" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="61" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="8"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14" t="s">
+    <row r="65" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="8"/>
+      <c r="E65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F61" s="14" t="s">
+      <c r="F65" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G61" s="14" t="s">
+      <c r="G65" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H61" s="13"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
-      <c r="L61" s="13"/>
-      <c r="M61" s="14">
+      <c r="H65" s="8"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="1">
         <v>-11</v>
       </c>
-      <c r="N61" s="4" t="s">
+      <c r="N65" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="8"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="13"/>
-      <c r="E62" s="14" t="s">
+    <row r="66" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F62" s="14" t="s">
+      <c r="F66" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G62" s="14" t="s">
+      <c r="G66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H62" s="13"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="14">
+      <c r="H66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="1">
         <v>-12</v>
       </c>
-      <c r="N62" s="4" t="s">
+      <c r="N66" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="8"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="13"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="13"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
-      <c r="L63" s="13"/>
-      <c r="M63" s="14">
+    <row r="67" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="1">
         <v>-13</v>
       </c>
-      <c r="N63" s="4" t="s">
+      <c r="N67" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="8"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="14">
+    <row r="68" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="1">
         <v>-21</v>
       </c>
-      <c r="N64" s="4" t="s">
+      <c r="N68" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="65" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="8"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="13"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="13"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
-      <c r="L65" s="13"/>
-      <c r="M65" s="14">
+    <row r="69" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="1">
         <v>-22</v>
       </c>
-      <c r="N65" s="4" t="s">
+      <c r="N69" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="8"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="13"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="14"/>
-      <c r="K66" s="14"/>
-      <c r="L66" s="13"/>
-      <c r="M66" s="14">
+    <row r="70" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="13"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="1">
         <v>-23</v>
       </c>
-      <c r="N66" s="4" t="s">
+      <c r="N70" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="9"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="12"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="5">
+    <row r="71" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N71" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N72" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="13"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="5"/>
+      <c r="G73" s="5"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="5"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="5">
         <v>-99</v>
       </c>
-      <c r="N67" s="6" t="s">
+      <c r="N73" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="68" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="7" t="s">
+    <row r="74" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
+      <c r="B74" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C74" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D74" s="7">
         <v>3</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E74" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F74" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H68" s="10" t="s">
+      <c r="H74" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="I68" s="2"/>
-      <c r="J68" s="2"/>
-      <c r="K68" s="2"/>
-      <c r="L68" s="10">
-        <v>8</v>
-      </c>
-      <c r="M68" s="2">
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="7">
+        <v>10</v>
+      </c>
+      <c r="M74" s="2">
         <v>-1</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="N74" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="8"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="14" t="s">
+    <row r="75" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="F69" s="14" t="s">
+      <c r="F75" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G69" s="14" t="s">
+      <c r="G75" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H69" s="13"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="14"/>
-      <c r="K69" s="14"/>
-      <c r="L69" s="13"/>
-      <c r="M69" s="14">
+      <c r="H75" s="8"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="1">
         <v>-11</v>
       </c>
-      <c r="N69" s="4" t="s">
+      <c r="N75" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="8"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="13"/>
-      <c r="E70" s="14" t="s">
+    <row r="76" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F76" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G70" s="14" t="s">
+      <c r="G76" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H70" s="13"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="14"/>
-      <c r="K70" s="14"/>
-      <c r="L70" s="13"/>
-      <c r="M70" s="14">
+      <c r="H76" s="8"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="1">
         <v>-12</v>
       </c>
-      <c r="N70" s="4" t="s">
+      <c r="N76" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="8"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="13"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="14"/>
-      <c r="K71" s="14"/>
-      <c r="L71" s="13"/>
-      <c r="M71" s="14">
+    <row r="77" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="1">
         <v>-13</v>
       </c>
-      <c r="N71" s="4" t="s">
+      <c r="N77" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="8"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="13"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="14"/>
-      <c r="K72" s="14"/>
-      <c r="L72" s="13"/>
-      <c r="M72" s="14">
+    <row r="78" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="13"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="1">
         <v>-21</v>
       </c>
-      <c r="N72" s="4" t="s">
+      <c r="N78" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="8"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="14"/>
-      <c r="K73" s="14"/>
-      <c r="L73" s="13"/>
-      <c r="M73" s="14">
+    <row r="79" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="13"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="1">
         <v>-22</v>
       </c>
-      <c r="N73" s="4" t="s">
+      <c r="N79" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="8"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="13"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="14"/>
-      <c r="K74" s="14"/>
-      <c r="L74" s="13"/>
-      <c r="M74" s="14">
+    <row r="80" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="13"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="1">
         <v>-23</v>
       </c>
-      <c r="N74" s="4" t="s">
+      <c r="N80" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="75" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="8"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="13"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="14"/>
-      <c r="K75" s="14"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="14">
+    <row r="81" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="13"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N81" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="13"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N82" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="13"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="1">
         <v>-99</v>
       </c>
-      <c r="N75" s="4" t="s">
+      <c r="N83" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="76" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="7" t="s">
+    <row r="84" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
+      <c r="B84" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C84" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D84" s="7">
         <v>4</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E84" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F84" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H84" s="7">
         <v>5</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L76" s="10">
-        <v>11</v>
-      </c>
-      <c r="M76" s="2">
+      <c r="L84" s="7">
+        <v>13</v>
+      </c>
+      <c r="M84" s="2">
         <v>-1</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="N84" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="77" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="8"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="14" t="s">
+    <row r="85" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F77" s="14" t="s">
+      <c r="F85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G77" s="14" t="s">
+      <c r="G85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H77" s="13"/>
-      <c r="I77" s="14" t="s">
+      <c r="H85" s="8"/>
+      <c r="I85" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J77" s="14" t="s">
+      <c r="J85" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K77" s="14" t="s">
+      <c r="K85" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L77" s="13"/>
-      <c r="M77" s="14">
+      <c r="L85" s="8"/>
+      <c r="M85" s="1">
         <v>-2</v>
       </c>
-      <c r="N77" s="4" t="s">
+      <c r="N85" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="78" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="8"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="14" t="s">
+    <row r="86" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F78" s="14" t="s">
+      <c r="F86" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G78" s="14" t="s">
+      <c r="G86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="13"/>
-      <c r="I78" s="14" t="s">
+      <c r="H86" s="8"/>
+      <c r="I86" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J78" s="14" t="s">
+      <c r="J86" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K78" s="14" t="s">
+      <c r="K86" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L78" s="13"/>
-      <c r="M78" s="14">
+      <c r="L86" s="8"/>
+      <c r="M86" s="1">
         <v>-11</v>
       </c>
-      <c r="N78" s="4" t="s">
+      <c r="N86" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="8"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="14" t="s">
+    <row r="87" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F79" s="14" t="s">
+      <c r="F87" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G79" s="14" t="s">
+      <c r="G87" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H79" s="13"/>
-      <c r="I79" s="14" t="s">
+      <c r="H87" s="8"/>
+      <c r="I87" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J79" s="14" t="s">
+      <c r="J87" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K79" s="14" t="s">
+      <c r="K87" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L79" s="13"/>
-      <c r="M79" s="14">
+      <c r="L87" s="8"/>
+      <c r="M87" s="1">
         <v>-12</v>
       </c>
-      <c r="N79" s="4" t="s">
+      <c r="N87" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="8"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="13"/>
-      <c r="I80" s="14" t="s">
+    <row r="88" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J80" s="14" t="s">
+      <c r="J88" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K80" s="14" t="s">
+      <c r="K88" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L80" s="13"/>
-      <c r="M80" s="14">
+      <c r="L88" s="8"/>
+      <c r="M88" s="1">
         <v>-13</v>
       </c>
-      <c r="N80" s="4" t="s">
+      <c r="N88" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="81" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="8"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="13"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="14"/>
-      <c r="K81" s="14"/>
-      <c r="L81" s="13"/>
-      <c r="M81" s="14">
+    <row r="89" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="1">
         <v>-21</v>
       </c>
-      <c r="N81" s="4" t="s">
+      <c r="N89" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="82" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="8"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="13"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="14"/>
-      <c r="K82" s="14"/>
-      <c r="L82" s="13"/>
-      <c r="M82" s="14">
+    <row r="90" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="13"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="1">
         <v>-22</v>
       </c>
-      <c r="N82" s="4" t="s">
+      <c r="N90" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="83" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="8"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="13"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="14"/>
-      <c r="K83" s="14"/>
-      <c r="L83" s="13"/>
-      <c r="M83" s="14">
+    <row r="91" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="1">
         <v>-23</v>
       </c>
-      <c r="N83" s="4" t="s">
+      <c r="N91" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="8"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="13"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="14"/>
-      <c r="K84" s="14"/>
-      <c r="L84" s="13"/>
-      <c r="M84" s="14">
+    <row r="92" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="1">
         <v>-24</v>
       </c>
-      <c r="N84" s="4" t="s">
+      <c r="N92" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="8"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="13"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="14"/>
-      <c r="K85" s="14"/>
-      <c r="L85" s="13"/>
-      <c r="M85" s="14">
+    <row r="93" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="1">
         <v>-25</v>
       </c>
-      <c r="N85" s="4" t="s">
+      <c r="N93" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="9"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="5"/>
-      <c r="F86" s="5"/>
-      <c r="G86" s="5"/>
-      <c r="H86" s="12"/>
-      <c r="I86" s="5"/>
-      <c r="J86" s="5"/>
-      <c r="K86" s="5"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="5">
+    <row r="94" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N94" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N95" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="13"/>
+      <c r="B96" s="12"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="5">
         <v>-99</v>
       </c>
-      <c r="N86" s="6" t="s">
+      <c r="N96" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="87" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="7" t="s">
+    <row r="97" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
+      <c r="B97" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C97" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D97" s="7">
         <v>4</v>
       </c>
-      <c r="E87" s="2" t="s">
+      <c r="E97" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F97" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H87" s="10">
+      <c r="H97" s="7">
         <v>5</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L87" s="10">
-        <v>11</v>
-      </c>
-      <c r="M87" s="2">
+      <c r="L97" s="7">
+        <v>13</v>
+      </c>
+      <c r="M97" s="2">
         <v>-1</v>
       </c>
-      <c r="N87" s="3" t="s">
+      <c r="N97" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="88" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="8"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="14" t="s">
+    <row r="98" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F88" s="14" t="s">
+      <c r="F98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G88" s="14" t="s">
+      <c r="G98" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H88" s="13"/>
-      <c r="I88" s="14" t="s">
+      <c r="H98" s="8"/>
+      <c r="I98" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J88" s="14" t="s">
+      <c r="J98" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K88" s="14" t="s">
+      <c r="K98" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L88" s="13"/>
-      <c r="M88" s="14">
+      <c r="L98" s="8"/>
+      <c r="M98" s="1">
         <v>-2</v>
       </c>
-      <c r="N88" s="4" t="s">
+      <c r="N98" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="89" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="8"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="14" t="s">
+    <row r="99" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="F89" s="14" t="s">
+      <c r="F99" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G89" s="14" t="s">
+      <c r="G99" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H89" s="13"/>
-      <c r="I89" s="14" t="s">
+      <c r="H99" s="8"/>
+      <c r="I99" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="J89" s="14" t="s">
+      <c r="J99" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K89" s="14" t="s">
+      <c r="K99" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L89" s="13"/>
-      <c r="M89" s="14">
+      <c r="L99" s="8"/>
+      <c r="M99" s="1">
         <v>-11</v>
       </c>
-      <c r="N89" s="4" t="s">
+      <c r="N99" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="90" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="8"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="14" t="s">
+    <row r="100" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="13"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F90" s="14" t="s">
+      <c r="F100" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G90" s="14" t="s">
+      <c r="G100" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H90" s="13"/>
-      <c r="I90" s="14" t="s">
+      <c r="H100" s="8"/>
+      <c r="I100" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J90" s="14" t="s">
+      <c r="J100" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K90" s="14" t="s">
+      <c r="K100" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L90" s="13"/>
-      <c r="M90" s="14">
+      <c r="L100" s="8"/>
+      <c r="M100" s="1">
         <v>-12</v>
       </c>
-      <c r="N90" s="4" t="s">
+      <c r="N100" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="91" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="8"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="13"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="13"/>
-      <c r="I91" s="14" t="s">
+    <row r="101" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="8"/>
+      <c r="D101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="J91" s="14" t="s">
+      <c r="J101" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K91" s="14" t="s">
+      <c r="K101" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L91" s="13"/>
-      <c r="M91" s="14">
+      <c r="L101" s="8"/>
+      <c r="M101" s="1">
         <v>-13</v>
       </c>
-      <c r="N91" s="4" t="s">
+      <c r="N101" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="92" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="8"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="13"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="13"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="14"/>
-      <c r="K92" s="14"/>
-      <c r="L92" s="13"/>
-      <c r="M92" s="14">
+    <row r="102" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="13"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="8"/>
+      <c r="D102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="1">
         <v>-21</v>
       </c>
-      <c r="N92" s="4" t="s">
+      <c r="N102" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="8"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="13"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="13"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="14"/>
-      <c r="K93" s="14"/>
-      <c r="L93" s="13"/>
-      <c r="M93" s="14">
+    <row r="103" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="1">
         <v>-22</v>
       </c>
-      <c r="N93" s="4" t="s">
+      <c r="N103" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="94" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="8"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="13"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="13"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="14"/>
-      <c r="K94" s="14"/>
-      <c r="L94" s="13"/>
-      <c r="M94" s="14">
+    <row r="104" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="8"/>
+      <c r="D104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="1">
         <v>-23</v>
       </c>
-      <c r="N94" s="4" t="s">
+      <c r="N104" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="8"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="13"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="13"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="14"/>
-      <c r="K95" s="14"/>
-      <c r="L95" s="13"/>
-      <c r="M95" s="14">
+    <row r="105" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="8"/>
+      <c r="D105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="1">
         <v>-24</v>
       </c>
-      <c r="N95" s="4" t="s">
+      <c r="N105" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="96" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="8"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="13"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="13"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="14"/>
-      <c r="K96" s="14"/>
-      <c r="L96" s="13"/>
-      <c r="M96" s="14">
+    <row r="106" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="13"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="8"/>
+      <c r="D106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="1">
         <v>-25</v>
       </c>
-      <c r="N96" s="4" t="s">
+      <c r="N106" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="97" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B97" s="9"/>
-      <c r="C97" s="12"/>
-      <c r="D97" s="12"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="12"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="5">
+    <row r="107" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="13"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="8"/>
+      <c r="D107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N107" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="13"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="8"/>
+      <c r="D108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N108" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="13"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="8"/>
+      <c r="D109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="1">
         <v>-99</v>
       </c>
-      <c r="N97" s="6" t="s">
+      <c r="N109" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="98" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="100" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="101" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="102" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="104" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="106" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="112" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="113" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="114" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="115" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="116" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="117" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="118" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="119" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="120" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="121" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="122" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="123" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="124" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="125" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="126" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="127" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="128" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="129" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="130" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="131" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="132" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="133" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="134" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="135" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="136" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="137" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="138" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="139" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="140" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="141" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="142" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="144" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="145" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="147" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="148" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="150" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="151" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="152" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="153" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="154" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="155" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="156" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="157" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="158" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="159" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="160" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="161" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="162" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="163" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="164" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="165" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="166" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="167" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="168" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="169" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="170" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="171" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="172" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="173" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="174" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="175" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="176" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="177" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="178" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="179" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="180" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="181" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="182" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="183" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="184" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="185" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="186" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="187" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="188" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="189" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="190" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="191" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="192" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="193" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="194" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="195" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="196" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="197" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="198" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="199" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="200" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="201" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="202" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="203" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="204" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="205" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="206" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="207" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="208" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="209" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="210" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="211" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="212" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="213" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="214" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="215" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="216" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="217" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="218" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="219" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="220" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="221" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="222" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="223" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="224" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="225" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="226" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="227" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="228" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="229" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="230" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="231" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="232" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="233" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="234" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="235" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="236" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="237" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="238" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="239" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="240" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="241" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="242" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="243" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="244" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="245" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="246" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="247" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="248" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="249" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="250" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="251" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="252" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="253" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="B110" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="D110" s="7">
+        <v>5</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H110" s="7">
+        <v>1</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L110" s="7">
+        <v>14</v>
+      </c>
+      <c r="M110" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="8"/>
+      <c r="D111" s="8"/>
+      <c r="E111" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N111" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="13"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="8"/>
+      <c r="D112" s="8"/>
+      <c r="E112" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N112" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="8"/>
+      <c r="D113" s="8"/>
+      <c r="E113" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H113" s="8"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N113" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="13"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="8"/>
+      <c r="D114" s="8"/>
+      <c r="E114" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N114" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="8"/>
+      <c r="D115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N115" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="13"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="8"/>
+      <c r="D116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N116" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="8"/>
+      <c r="D117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N117" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="13"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="8"/>
+      <c r="D118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N118" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N119" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="13"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N120" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="13"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N121" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="13"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="8"/>
+      <c r="D122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N122" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="13"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="8"/>
+      <c r="D123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="1">
+        <v>-99</v>
+      </c>
+      <c r="N123" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="13"/>
+      <c r="B124" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D124" s="7">
+        <v>5</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G124" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H124" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="7">
+        <v>17</v>
+      </c>
+      <c r="M124" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="13"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="8"/>
+      <c r="D125" s="8"/>
+      <c r="E125" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H125" s="8"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N125" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="13"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="8"/>
+      <c r="D126" s="8"/>
+      <c r="E126" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N126" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="13"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="8"/>
+      <c r="D127" s="8"/>
+      <c r="E127" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H127" s="8"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N127" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="13"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="8"/>
+      <c r="D128" s="8"/>
+      <c r="E128" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="H128" s="8"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N128" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="13"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="8"/>
+      <c r="D129" s="8"/>
+      <c r="H129" s="8"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N129" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="13"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="8"/>
+      <c r="D130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N130" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="13"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="8"/>
+      <c r="D131" s="8"/>
+      <c r="H131" s="8"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N131" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="13"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="8"/>
+      <c r="D132" s="8"/>
+      <c r="H132" s="8"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N132" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="13"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="8"/>
+      <c r="D133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N133" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="13"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="8"/>
+      <c r="D134" s="8"/>
+      <c r="H134" s="8"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N134" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="13"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="8"/>
+      <c r="D135" s="8"/>
+      <c r="H135" s="8"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N135" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="13"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="8"/>
+      <c r="D136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="1">
+        <v>-26</v>
+      </c>
+      <c r="N136" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="13"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="8"/>
+      <c r="D137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="1">
+        <v>-27</v>
+      </c>
+      <c r="N137" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="13"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="8"/>
+      <c r="D138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N138" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="13"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="8"/>
+      <c r="D139" s="8"/>
+      <c r="H139" s="8"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N139" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="13"/>
+      <c r="B140" s="12"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="9"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="5"/>
+      <c r="L140" s="9"/>
+      <c r="M140" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N140" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="13"/>
+      <c r="B141" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="C141" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D141" s="7">
+        <v>4</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H141" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="7">
+        <v>17</v>
+      </c>
+      <c r="M141" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N141" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="13"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="8"/>
+      <c r="D142" s="8"/>
+      <c r="E142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H142" s="8"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N142" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="13"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="8"/>
+      <c r="D143" s="8"/>
+      <c r="E143" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H143" s="8"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N143" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="13"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="8"/>
+      <c r="D144" s="8"/>
+      <c r="E144" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N144" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="13"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="8"/>
+      <c r="D145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N145" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="13"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="8"/>
+      <c r="D146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N146" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="13"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="8"/>
+      <c r="D147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N147" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="13"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="8"/>
+      <c r="D148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N148" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="13"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="8"/>
+      <c r="D149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N149" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="13"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="8"/>
+      <c r="D150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N150" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="13"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="8"/>
+      <c r="D151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N151" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="13"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="8"/>
+      <c r="D152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N152" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="13"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="8"/>
+      <c r="D153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="1">
+        <v>-26</v>
+      </c>
+      <c r="N153" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="13"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="8"/>
+      <c r="D154" s="8"/>
+      <c r="H154" s="8"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="1">
+        <v>-27</v>
+      </c>
+      <c r="N154" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="13"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="8"/>
+      <c r="D155" s="8"/>
+      <c r="H155" s="8"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N155" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="13"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="8"/>
+      <c r="D156" s="8"/>
+      <c r="H156" s="8"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N156" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="13"/>
+      <c r="B157" s="12"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="9"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="5"/>
+      <c r="L157" s="9"/>
+      <c r="M157" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N157" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="13"/>
+      <c r="B158" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="D158" s="7">
+        <v>4</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H158" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I158" s="2"/>
+      <c r="J158" s="2"/>
+      <c r="K158" s="2"/>
+      <c r="L158" s="7">
+        <v>18</v>
+      </c>
+      <c r="M158" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N158" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="13"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="8"/>
+      <c r="D159" s="8"/>
+      <c r="E159" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G159" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H159" s="8"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N159" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="13"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="8"/>
+      <c r="D160" s="8"/>
+      <c r="E160" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F160" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G160" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H160" s="8"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N160" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="13"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="8"/>
+      <c r="D161" s="8"/>
+      <c r="E161" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G161" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H161" s="8"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N161" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="13"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="8"/>
+      <c r="D162" s="8"/>
+      <c r="H162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N162" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="13"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="8"/>
+      <c r="D163" s="8"/>
+      <c r="H163" s="8"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N163" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="13"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="8"/>
+      <c r="D164" s="8"/>
+      <c r="H164" s="8"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N164" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="13"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="8"/>
+      <c r="D165" s="8"/>
+      <c r="H165" s="8"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="13"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="8"/>
+      <c r="D166" s="8"/>
+      <c r="H166" s="8"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N166" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="13"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="8"/>
+      <c r="D167" s="8"/>
+      <c r="H167" s="8"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N167" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="13"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="8"/>
+      <c r="D168" s="8"/>
+      <c r="H168" s="8"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N168" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="13"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="8"/>
+      <c r="D169" s="8"/>
+      <c r="H169" s="8"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N169" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="13"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="8"/>
+      <c r="D170" s="8"/>
+      <c r="H170" s="8"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="1">
+        <v>-26</v>
+      </c>
+      <c r="N170" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="13"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="8"/>
+      <c r="D171" s="8"/>
+      <c r="H171" s="8"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="1">
+        <v>-27</v>
+      </c>
+      <c r="N171" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="13"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="8"/>
+      <c r="D172" s="8"/>
+      <c r="H172" s="8"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="1">
+        <v>-28</v>
+      </c>
+      <c r="N172" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="13"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="8"/>
+      <c r="D173" s="8"/>
+      <c r="H173" s="8"/>
+      <c r="L173" s="8"/>
+      <c r="M173" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N173" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="174" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="13"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="8"/>
+      <c r="D174" s="8"/>
+      <c r="H174" s="8"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N174" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="175" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="13"/>
+      <c r="B175" s="12"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9"/>
+      <c r="E175" s="5"/>
+      <c r="F175" s="5"/>
+      <c r="G175" s="5"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="5"/>
+      <c r="L175" s="9"/>
+      <c r="M175" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N175" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="13"/>
+      <c r="B176" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D176" s="7">
+        <v>3</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F176" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G176" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H176" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="7">
+        <v>16</v>
+      </c>
+      <c r="M176" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N176" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="177" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="13"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="8"/>
+      <c r="D177" s="8"/>
+      <c r="E177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H177" s="8"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N177" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="178" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="13"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="8"/>
+      <c r="D178" s="8"/>
+      <c r="E178" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H178" s="8"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N178" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="179" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="13"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="8"/>
+      <c r="D179" s="8"/>
+      <c r="H179" s="8"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N179" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="180" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="13"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="8"/>
+      <c r="D180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N180" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="13"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="8"/>
+      <c r="D181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N181" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="182" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="13"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="8"/>
+      <c r="D182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N182" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="183" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="13"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="8"/>
+      <c r="D183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="L183" s="8"/>
+      <c r="M183" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N183" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="184" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="13"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="8"/>
+      <c r="D184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="L184" s="8"/>
+      <c r="M184" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N184" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="185" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="13"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="8"/>
+      <c r="D185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N185" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="186" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="13"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="8"/>
+      <c r="D186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N186" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="187" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="13"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="8"/>
+      <c r="D187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="1">
+        <v>-26</v>
+      </c>
+      <c r="N187" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="188" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="13"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="8"/>
+      <c r="D188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="1">
+        <v>-27</v>
+      </c>
+      <c r="N188" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="189" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="13"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="8"/>
+      <c r="D189" s="8"/>
+      <c r="H189" s="8"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N189" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="190" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="13"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="8"/>
+      <c r="D190" s="8"/>
+      <c r="H190" s="8"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N190" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="191" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A191" s="13"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="14"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="15"/>
+      <c r="K191" s="15"/>
+      <c r="L191" s="14"/>
+      <c r="M191" s="15">
+        <v>-99</v>
+      </c>
+      <c r="N191" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="13"/>
+      <c r="B192" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D192" s="7">
+        <v>2</v>
+      </c>
+      <c r="E192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G192" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H192" s="7">
+        <v>1</v>
+      </c>
+      <c r="I192" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J192" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K192" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L192" s="7">
+        <v>16</v>
+      </c>
+      <c r="M192" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="N192" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="193" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="13"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G193" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H193" s="14"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="15"/>
+      <c r="L193" s="14"/>
+      <c r="M193" s="15">
+        <v>-1</v>
+      </c>
+      <c r="N193" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="194" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="13"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="14"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="15"/>
+      <c r="K194" s="15"/>
+      <c r="L194" s="14"/>
+      <c r="M194" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N194" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="195" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="13"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="15"/>
+      <c r="J195" s="15"/>
+      <c r="K195" s="15"/>
+      <c r="L195" s="14"/>
+      <c r="M195" s="15">
+        <v>-11</v>
+      </c>
+      <c r="N195" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="196" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="13"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="14"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="15"/>
+      <c r="K196" s="15"/>
+      <c r="L196" s="14"/>
+      <c r="M196" s="15">
+        <v>-12</v>
+      </c>
+      <c r="N196" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="13"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="14"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="14"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="15"/>
+      <c r="K197" s="15"/>
+      <c r="L197" s="14"/>
+      <c r="M197" s="15">
+        <v>-13</v>
+      </c>
+      <c r="N197" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="13"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="14"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="15"/>
+      <c r="J198" s="15"/>
+      <c r="K198" s="15"/>
+      <c r="L198" s="14"/>
+      <c r="M198" s="15">
+        <v>-14</v>
+      </c>
+      <c r="N198" s="4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="199" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A199" s="13"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="14"/>
+      <c r="D199" s="14"/>
+      <c r="E199" s="15"/>
+      <c r="F199" s="15"/>
+      <c r="G199" s="15"/>
+      <c r="H199" s="14"/>
+      <c r="I199" s="15"/>
+      <c r="J199" s="15"/>
+      <c r="K199" s="15"/>
+      <c r="L199" s="14"/>
+      <c r="M199" s="15">
+        <v>-21</v>
+      </c>
+      <c r="N199" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="200" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A200" s="13"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="14"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="15"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
+      <c r="H200" s="14"/>
+      <c r="I200" s="15"/>
+      <c r="J200" s="15"/>
+      <c r="K200" s="15"/>
+      <c r="L200" s="14"/>
+      <c r="M200" s="15">
+        <v>-22</v>
+      </c>
+      <c r="N200" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A201" s="13"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="14"/>
+      <c r="D201" s="14"/>
+      <c r="E201" s="15"/>
+      <c r="F201" s="15"/>
+      <c r="G201" s="15"/>
+      <c r="H201" s="14"/>
+      <c r="I201" s="15"/>
+      <c r="J201" s="15"/>
+      <c r="K201" s="15"/>
+      <c r="L201" s="14"/>
+      <c r="M201" s="15">
+        <v>-23</v>
+      </c>
+      <c r="N201" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A202" s="13"/>
+      <c r="B202" s="11"/>
+      <c r="C202" s="14"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="15"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
+      <c r="H202" s="14"/>
+      <c r="I202" s="15"/>
+      <c r="J202" s="15"/>
+      <c r="K202" s="15"/>
+      <c r="L202" s="14"/>
+      <c r="M202" s="15">
+        <v>-24</v>
+      </c>
+      <c r="N202" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A203" s="13"/>
+      <c r="B203" s="11"/>
+      <c r="C203" s="14"/>
+      <c r="D203" s="14"/>
+      <c r="E203" s="15"/>
+      <c r="F203" s="15"/>
+      <c r="G203" s="15"/>
+      <c r="H203" s="14"/>
+      <c r="I203" s="15"/>
+      <c r="J203" s="15"/>
+      <c r="K203" s="15"/>
+      <c r="L203" s="14"/>
+      <c r="M203" s="15">
+        <v>-31</v>
+      </c>
+      <c r="N203" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A204" s="13"/>
+      <c r="B204" s="11"/>
+      <c r="C204" s="14"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="15"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
+      <c r="H204" s="14"/>
+      <c r="I204" s="15"/>
+      <c r="J204" s="15"/>
+      <c r="K204" s="15"/>
+      <c r="L204" s="14"/>
+      <c r="M204" s="15">
+        <v>-32</v>
+      </c>
+      <c r="N204" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A205" s="13"/>
+      <c r="B205" s="11"/>
+      <c r="C205" s="14"/>
+      <c r="D205" s="14"/>
+      <c r="E205" s="15"/>
+      <c r="F205" s="15"/>
+      <c r="G205" s="15"/>
+      <c r="H205" s="14"/>
+      <c r="I205" s="15"/>
+      <c r="J205" s="15"/>
+      <c r="K205" s="15"/>
+      <c r="L205" s="14"/>
+      <c r="M205" s="15">
+        <v>-99</v>
+      </c>
+      <c r="N205" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="13"/>
+      <c r="B206" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="D206" s="7">
+        <v>1</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G206" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H206" s="7">
+        <v>7</v>
+      </c>
+      <c r="I206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J206" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="K206" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L206" s="7">
+        <v>6</v>
+      </c>
+      <c r="M206" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N206" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="13"/>
+      <c r="B207" s="11"/>
+      <c r="C207" s="14"/>
+      <c r="D207" s="14"/>
+      <c r="E207" s="15"/>
+      <c r="F207" s="15"/>
+      <c r="G207" s="15"/>
+      <c r="H207" s="14"/>
+      <c r="I207" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J207" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="K207" s="15"/>
+      <c r="L207" s="14"/>
+      <c r="M207" s="15">
+        <v>-11</v>
+      </c>
+      <c r="N207" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="13"/>
+      <c r="B208" s="11"/>
+      <c r="C208" s="14"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="15"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
+      <c r="H208" s="14"/>
+      <c r="I208" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J208" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="K208" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L208" s="14"/>
+      <c r="M208" s="15">
+        <v>-21</v>
+      </c>
+      <c r="N208" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A209" s="13"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="14"/>
+      <c r="D209" s="14"/>
+      <c r="E209" s="15"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="15"/>
+      <c r="H209" s="14"/>
+      <c r="I209" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="J209" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="K209" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="L209" s="14"/>
+      <c r="M209" s="15">
+        <v>-31</v>
+      </c>
+      <c r="N209" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="13"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="14"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="15"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
+      <c r="H210" s="14"/>
+      <c r="I210" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="J210" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K210" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="L210" s="14"/>
+      <c r="M210" s="15">
+        <v>-32</v>
+      </c>
+      <c r="N210" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A211" s="13"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="14"/>
+      <c r="D211" s="14"/>
+      <c r="E211" s="15"/>
+      <c r="F211" s="15"/>
+      <c r="G211" s="15"/>
+      <c r="H211" s="14"/>
+      <c r="I211" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="J211" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K211" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="L211" s="14"/>
+      <c r="M211" s="15">
+        <v>-99</v>
+      </c>
+      <c r="N211" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="13"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="14"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
+      <c r="H212" s="14"/>
+      <c r="I212" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="J212" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="K212" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L212" s="14"/>
+      <c r="M212" s="15"/>
+      <c r="N212" s="4"/>
+    </row>
+    <row r="213" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B213" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D213" s="7">
+        <v>3</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G213" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H213" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I213" s="2"/>
+      <c r="J213" s="2"/>
+      <c r="K213" s="2"/>
+      <c r="L213" s="7">
+        <v>15</v>
+      </c>
+      <c r="M213" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N213" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="11"/>
+      <c r="C214" s="14"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F214" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G214" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H214" s="14"/>
+      <c r="I214" s="15"/>
+      <c r="J214" s="15"/>
+      <c r="K214" s="15"/>
+      <c r="L214" s="14"/>
+      <c r="M214" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N214" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="11"/>
+      <c r="C215" s="14"/>
+      <c r="D215" s="14"/>
+      <c r="E215" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="F215" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="G215" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H215" s="14"/>
+      <c r="I215" s="15"/>
+      <c r="J215" s="15"/>
+      <c r="K215" s="15"/>
+      <c r="L215" s="14"/>
+      <c r="M215" s="15">
+        <v>-11</v>
+      </c>
+      <c r="N215" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="11"/>
+      <c r="C216" s="14"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="15"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
+      <c r="H216" s="14"/>
+      <c r="I216" s="15"/>
+      <c r="J216" s="15"/>
+      <c r="K216" s="15"/>
+      <c r="L216" s="14"/>
+      <c r="M216" s="15">
+        <v>-12</v>
+      </c>
+      <c r="N216" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="11"/>
+      <c r="C217" s="14"/>
+      <c r="D217" s="14"/>
+      <c r="E217" s="15"/>
+      <c r="F217" s="15"/>
+      <c r="G217" s="15"/>
+      <c r="H217" s="14"/>
+      <c r="I217" s="15"/>
+      <c r="J217" s="15"/>
+      <c r="K217" s="15"/>
+      <c r="L217" s="14"/>
+      <c r="M217" s="15">
+        <v>-13</v>
+      </c>
+      <c r="N217" s="4" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="11"/>
+      <c r="C218" s="14"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="15"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
+      <c r="H218" s="14"/>
+      <c r="I218" s="15"/>
+      <c r="J218" s="15"/>
+      <c r="K218" s="15"/>
+      <c r="L218" s="14"/>
+      <c r="M218" s="15">
+        <v>-14</v>
+      </c>
+      <c r="N218" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="11"/>
+      <c r="C219" s="14"/>
+      <c r="D219" s="14"/>
+      <c r="E219" s="15"/>
+      <c r="F219" s="15"/>
+      <c r="G219" s="15"/>
+      <c r="H219" s="14"/>
+      <c r="I219" s="15"/>
+      <c r="J219" s="15"/>
+      <c r="K219" s="15"/>
+      <c r="L219" s="14"/>
+      <c r="M219" s="15">
+        <v>-15</v>
+      </c>
+      <c r="N219" s="4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="11"/>
+      <c r="C220" s="14"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="15"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
+      <c r="H220" s="14"/>
+      <c r="I220" s="15"/>
+      <c r="J220" s="15"/>
+      <c r="K220" s="15"/>
+      <c r="L220" s="14"/>
+      <c r="M220" s="15">
+        <v>-21</v>
+      </c>
+      <c r="N220" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="11"/>
+      <c r="C221" s="14"/>
+      <c r="D221" s="14"/>
+      <c r="E221" s="15"/>
+      <c r="F221" s="15"/>
+      <c r="G221" s="15"/>
+      <c r="H221" s="14"/>
+      <c r="I221" s="15"/>
+      <c r="J221" s="15"/>
+      <c r="K221" s="15"/>
+      <c r="L221" s="14"/>
+      <c r="M221" s="15">
+        <v>-22</v>
+      </c>
+      <c r="N221" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="11"/>
+      <c r="C222" s="14"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="15"/>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="15"/>
+      <c r="J222" s="15"/>
+      <c r="K222" s="15"/>
+      <c r="L222" s="14"/>
+      <c r="M222" s="15">
+        <v>-23</v>
+      </c>
+      <c r="N222" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="11"/>
+      <c r="C223" s="14"/>
+      <c r="D223" s="14"/>
+      <c r="E223" s="15"/>
+      <c r="F223" s="15"/>
+      <c r="G223" s="15"/>
+      <c r="H223" s="14"/>
+      <c r="I223" s="15"/>
+      <c r="J223" s="15"/>
+      <c r="K223" s="15"/>
+      <c r="L223" s="14"/>
+      <c r="M223" s="15">
+        <v>-24</v>
+      </c>
+      <c r="N223" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="11"/>
+      <c r="C224" s="14"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="15"/>
+      <c r="F224" s="15"/>
+      <c r="G224" s="15"/>
+      <c r="H224" s="14"/>
+      <c r="I224" s="15"/>
+      <c r="J224" s="15"/>
+      <c r="K224" s="15"/>
+      <c r="L224" s="14"/>
+      <c r="M224" s="15">
+        <v>-25</v>
+      </c>
+      <c r="N224" s="4" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="225" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="11"/>
+      <c r="C225" s="14"/>
+      <c r="D225" s="14"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="15"/>
+      <c r="G225" s="15"/>
+      <c r="H225" s="14"/>
+      <c r="I225" s="15"/>
+      <c r="J225" s="15"/>
+      <c r="K225" s="15"/>
+      <c r="L225" s="14"/>
+      <c r="M225" s="15">
+        <v>-31</v>
+      </c>
+      <c r="N225" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="226" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="11"/>
+      <c r="C226" s="14"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="15"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
+      <c r="H226" s="14"/>
+      <c r="I226" s="15"/>
+      <c r="J226" s="15"/>
+      <c r="K226" s="15"/>
+      <c r="L226" s="14"/>
+      <c r="M226" s="15">
+        <v>-32</v>
+      </c>
+      <c r="N226" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="227" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B227" s="12"/>
+      <c r="C227" s="9"/>
+      <c r="D227" s="9"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="9"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="5"/>
+      <c r="L227" s="9"/>
+      <c r="M227" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N227" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="228" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D228" s="7">
+        <v>3</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G228" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H228" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2"/>
+      <c r="K228" s="2"/>
+      <c r="L228" s="7">
+        <v>14</v>
+      </c>
+      <c r="M228" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N228" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="229" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="11"/>
+      <c r="C229" s="14"/>
+      <c r="D229" s="14"/>
+      <c r="E229" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F229" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G229" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H229" s="14"/>
+      <c r="I229" s="15"/>
+      <c r="J229" s="15"/>
+      <c r="K229" s="15"/>
+      <c r="L229" s="14"/>
+      <c r="M229" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N229" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="230" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="11"/>
+      <c r="C230" s="14"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F230" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G230" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H230" s="14"/>
+      <c r="I230" s="15"/>
+      <c r="J230" s="15"/>
+      <c r="K230" s="15"/>
+      <c r="L230" s="14"/>
+      <c r="M230" s="15">
+        <v>-11</v>
+      </c>
+      <c r="N230" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="231" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="11"/>
+      <c r="C231" s="14"/>
+      <c r="D231" s="14"/>
+      <c r="E231" s="15"/>
+      <c r="F231" s="15"/>
+      <c r="G231" s="15"/>
+      <c r="H231" s="14"/>
+      <c r="I231" s="15"/>
+      <c r="J231" s="15"/>
+      <c r="K231" s="15"/>
+      <c r="L231" s="14"/>
+      <c r="M231" s="15">
+        <v>-12</v>
+      </c>
+      <c r="N231" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="232" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="11"/>
+      <c r="C232" s="14"/>
+      <c r="D232" s="14"/>
+      <c r="E232" s="15"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="15"/>
+      <c r="H232" s="14"/>
+      <c r="I232" s="15"/>
+      <c r="J232" s="15"/>
+      <c r="K232" s="15"/>
+      <c r="L232" s="14"/>
+      <c r="M232" s="15">
+        <v>-13</v>
+      </c>
+      <c r="N232" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="233" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="11"/>
+      <c r="C233" s="14"/>
+      <c r="D233" s="14"/>
+      <c r="E233" s="15"/>
+      <c r="F233" s="15"/>
+      <c r="G233" s="15"/>
+      <c r="H233" s="14"/>
+      <c r="I233" s="15"/>
+      <c r="J233" s="15"/>
+      <c r="K233" s="15"/>
+      <c r="L233" s="14"/>
+      <c r="M233" s="15">
+        <v>-14</v>
+      </c>
+      <c r="N233" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="234" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="11"/>
+      <c r="C234" s="14"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="15"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
+      <c r="H234" s="14"/>
+      <c r="I234" s="15"/>
+      <c r="J234" s="15"/>
+      <c r="K234" s="15"/>
+      <c r="L234" s="14"/>
+      <c r="M234" s="15">
+        <v>-21</v>
+      </c>
+      <c r="N234" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="235" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="11"/>
+      <c r="C235" s="14"/>
+      <c r="D235" s="14"/>
+      <c r="E235" s="15"/>
+      <c r="F235" s="15"/>
+      <c r="G235" s="15"/>
+      <c r="H235" s="14"/>
+      <c r="I235" s="15"/>
+      <c r="J235" s="15"/>
+      <c r="K235" s="15"/>
+      <c r="L235" s="14"/>
+      <c r="M235" s="15">
+        <v>-22</v>
+      </c>
+      <c r="N235" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="236" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="11"/>
+      <c r="C236" s="14"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="15"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="15"/>
+      <c r="H236" s="14"/>
+      <c r="I236" s="15"/>
+      <c r="J236" s="15"/>
+      <c r="K236" s="15"/>
+      <c r="L236" s="14"/>
+      <c r="M236" s="15">
+        <v>-23</v>
+      </c>
+      <c r="N236" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="237" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="11"/>
+      <c r="C237" s="14"/>
+      <c r="D237" s="14"/>
+      <c r="E237" s="15"/>
+      <c r="F237" s="15"/>
+      <c r="G237" s="15"/>
+      <c r="H237" s="14"/>
+      <c r="I237" s="15"/>
+      <c r="J237" s="15"/>
+      <c r="K237" s="15"/>
+      <c r="L237" s="14"/>
+      <c r="M237" s="15">
+        <v>-24</v>
+      </c>
+      <c r="N237" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="238" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="11"/>
+      <c r="C238" s="14"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="15"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
+      <c r="H238" s="14"/>
+      <c r="I238" s="15"/>
+      <c r="J238" s="15"/>
+      <c r="K238" s="15"/>
+      <c r="L238" s="14"/>
+      <c r="M238" s="15">
+        <v>-25</v>
+      </c>
+      <c r="N238" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="239" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="11"/>
+      <c r="C239" s="14"/>
+      <c r="D239" s="14"/>
+      <c r="E239" s="15"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="15"/>
+      <c r="H239" s="14"/>
+      <c r="I239" s="15"/>
+      <c r="J239" s="15"/>
+      <c r="K239" s="15"/>
+      <c r="L239" s="14"/>
+      <c r="M239" s="15">
+        <v>-31</v>
+      </c>
+      <c r="N239" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="240" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="11"/>
+      <c r="C240" s="14"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="15"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="15"/>
+      <c r="J240" s="15"/>
+      <c r="K240" s="15"/>
+      <c r="L240" s="14"/>
+      <c r="M240" s="15">
+        <v>-32</v>
+      </c>
+      <c r="N240" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="241" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="11"/>
+      <c r="C241" s="14"/>
+      <c r="D241" s="14"/>
+      <c r="E241" s="15"/>
+      <c r="F241" s="15"/>
+      <c r="G241" s="15"/>
+      <c r="H241" s="14"/>
+      <c r="I241" s="15"/>
+      <c r="J241" s="15"/>
+      <c r="K241" s="15"/>
+      <c r="L241" s="14"/>
+      <c r="M241" s="15">
+        <v>-99</v>
+      </c>
+      <c r="N241" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="242" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="D242" s="7">
+        <v>4</v>
+      </c>
+      <c r="E242" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G242" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H242" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I242" s="2"/>
+      <c r="J242" s="2"/>
+      <c r="K242" s="2"/>
+      <c r="L242" s="7">
+        <v>16</v>
+      </c>
+      <c r="M242" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N242" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="243" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="11"/>
+      <c r="C243" s="14"/>
+      <c r="D243" s="14"/>
+      <c r="E243" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F243" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G243" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H243" s="14"/>
+      <c r="I243" s="15"/>
+      <c r="J243" s="15"/>
+      <c r="K243" s="15"/>
+      <c r="L243" s="14"/>
+      <c r="M243" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N243" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="244" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="11"/>
+      <c r="C244" s="14"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F244" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G244" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H244" s="14"/>
+      <c r="I244" s="15"/>
+      <c r="J244" s="15"/>
+      <c r="K244" s="15"/>
+      <c r="L244" s="14"/>
+      <c r="M244" s="15">
+        <v>-11</v>
+      </c>
+      <c r="N244" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="245" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="11"/>
+      <c r="C245" s="14"/>
+      <c r="D245" s="14"/>
+      <c r="E245" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F245" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G245" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="H245" s="14"/>
+      <c r="I245" s="15"/>
+      <c r="J245" s="15"/>
+      <c r="K245" s="15"/>
+      <c r="L245" s="14"/>
+      <c r="M245" s="15">
+        <v>-12</v>
+      </c>
+      <c r="N245" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="11"/>
+      <c r="C246" s="14"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="15"/>
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
+      <c r="H246" s="14"/>
+      <c r="I246" s="15"/>
+      <c r="J246" s="15"/>
+      <c r="K246" s="15"/>
+      <c r="L246" s="14"/>
+      <c r="M246" s="15">
+        <v>-13</v>
+      </c>
+      <c r="N246" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="247" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="11"/>
+      <c r="C247" s="14"/>
+      <c r="D247" s="14"/>
+      <c r="E247" s="15"/>
+      <c r="F247" s="15"/>
+      <c r="G247" s="15"/>
+      <c r="H247" s="14"/>
+      <c r="I247" s="15"/>
+      <c r="J247" s="15"/>
+      <c r="K247" s="15"/>
+      <c r="L247" s="14"/>
+      <c r="M247" s="15">
+        <v>-14</v>
+      </c>
+      <c r="N247" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="248" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="11"/>
+      <c r="C248" s="14"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="15"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="15"/>
+      <c r="H248" s="14"/>
+      <c r="I248" s="15"/>
+      <c r="J248" s="15"/>
+      <c r="K248" s="15"/>
+      <c r="L248" s="14"/>
+      <c r="M248" s="15">
+        <v>-15</v>
+      </c>
+      <c r="N248" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="249" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="11"/>
+      <c r="C249" s="14"/>
+      <c r="D249" s="14"/>
+      <c r="E249" s="15"/>
+      <c r="F249" s="15"/>
+      <c r="G249" s="15"/>
+      <c r="H249" s="14"/>
+      <c r="I249" s="15"/>
+      <c r="J249" s="15"/>
+      <c r="K249" s="15"/>
+      <c r="L249" s="14"/>
+      <c r="M249" s="15">
+        <v>-21</v>
+      </c>
+      <c r="N249" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="250" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="11"/>
+      <c r="C250" s="14"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="15"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="15"/>
+      <c r="H250" s="14"/>
+      <c r="I250" s="15"/>
+      <c r="J250" s="15"/>
+      <c r="K250" s="15"/>
+      <c r="L250" s="14"/>
+      <c r="M250" s="15">
+        <v>-22</v>
+      </c>
+      <c r="N250" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="251" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="11"/>
+      <c r="C251" s="14"/>
+      <c r="D251" s="14"/>
+      <c r="E251" s="15"/>
+      <c r="F251" s="15"/>
+      <c r="G251" s="15"/>
+      <c r="H251" s="14"/>
+      <c r="I251" s="15"/>
+      <c r="J251" s="15"/>
+      <c r="K251" s="15"/>
+      <c r="L251" s="14"/>
+      <c r="M251" s="15">
+        <v>-23</v>
+      </c>
+      <c r="N251" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="252" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="11"/>
+      <c r="C252" s="14"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="15"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="15"/>
+      <c r="H252" s="14"/>
+      <c r="I252" s="15"/>
+      <c r="J252" s="15"/>
+      <c r="K252" s="15"/>
+      <c r="L252" s="14"/>
+      <c r="M252" s="15">
+        <v>-24</v>
+      </c>
+      <c r="N252" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="253" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="11"/>
+      <c r="C253" s="14"/>
+      <c r="D253" s="14"/>
+      <c r="E253" s="15"/>
+      <c r="F253" s="15"/>
+      <c r="G253" s="15"/>
+      <c r="H253" s="14"/>
+      <c r="I253" s="15"/>
+      <c r="J253" s="15"/>
+      <c r="K253" s="15"/>
+      <c r="L253" s="14"/>
+      <c r="M253" s="15">
+        <v>-25</v>
+      </c>
+      <c r="N253" s="4" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="254" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="11"/>
+      <c r="C254" s="14"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="15"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="15"/>
+      <c r="H254" s="14"/>
+      <c r="I254" s="15"/>
+      <c r="J254" s="15"/>
+      <c r="K254" s="15"/>
+      <c r="L254" s="14"/>
+      <c r="M254" s="15">
+        <v>-26</v>
+      </c>
+      <c r="N254" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="255" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="11"/>
+      <c r="C255" s="14"/>
+      <c r="D255" s="14"/>
+      <c r="E255" s="15"/>
+      <c r="F255" s="15"/>
+      <c r="G255" s="15"/>
+      <c r="H255" s="14"/>
+      <c r="I255" s="15"/>
+      <c r="J255" s="15"/>
+      <c r="K255" s="15"/>
+      <c r="L255" s="14"/>
+      <c r="M255" s="15">
+        <v>-31</v>
+      </c>
+      <c r="N255" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="256" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="11"/>
+      <c r="C256" s="14"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="15"/>
+      <c r="F256" s="15"/>
+      <c r="G256" s="15"/>
+      <c r="H256" s="14"/>
+      <c r="I256" s="15"/>
+      <c r="J256" s="15"/>
+      <c r="K256" s="15"/>
+      <c r="L256" s="14"/>
+      <c r="M256" s="15">
+        <v>-32</v>
+      </c>
+      <c r="N256" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B257" s="12"/>
+      <c r="C257" s="9"/>
+      <c r="D257" s="9"/>
+      <c r="E257" s="5"/>
+      <c r="F257" s="5"/>
+      <c r="G257" s="5"/>
+      <c r="H257" s="9"/>
+      <c r="I257" s="5"/>
+      <c r="J257" s="5"/>
+      <c r="K257" s="5"/>
+      <c r="L257" s="9"/>
+      <c r="M257" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N257" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="258" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="D258" s="7">
+        <v>3</v>
+      </c>
+      <c r="E258" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G258" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H258" s="7">
+        <v>1</v>
+      </c>
+      <c r="I258" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J258" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K258" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L258" s="7">
+        <v>15</v>
+      </c>
+      <c r="M258" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N258" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="259" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="11"/>
+      <c r="C259" s="14"/>
+      <c r="D259" s="14"/>
+      <c r="E259" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F259" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G259" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H259" s="14"/>
+      <c r="I259" s="15"/>
+      <c r="J259" s="15"/>
+      <c r="K259" s="15"/>
+      <c r="L259" s="14"/>
+      <c r="M259" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N259" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="11"/>
+      <c r="C260" s="14"/>
+      <c r="D260" s="14"/>
+      <c r="E260" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F260" s="15" t="s">
+        <v>187</v>
+      </c>
+      <c r="G260" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="H260" s="14"/>
+      <c r="I260" s="15"/>
+      <c r="J260" s="15"/>
+      <c r="K260" s="15"/>
+      <c r="L260" s="14"/>
+      <c r="M260" s="15">
+        <v>-11</v>
+      </c>
+      <c r="N260" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="261" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="11"/>
+      <c r="C261" s="14"/>
+      <c r="D261" s="14"/>
+      <c r="E261" s="15"/>
+      <c r="F261" s="15"/>
+      <c r="G261" s="15"/>
+      <c r="H261" s="14"/>
+      <c r="I261" s="15"/>
+      <c r="J261" s="15"/>
+      <c r="K261" s="15"/>
+      <c r="L261" s="14"/>
+      <c r="M261" s="15">
+        <v>-12</v>
+      </c>
+      <c r="N261" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="262" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="11"/>
+      <c r="C262" s="14"/>
+      <c r="D262" s="14"/>
+      <c r="E262" s="15"/>
+      <c r="F262" s="15"/>
+      <c r="G262" s="15"/>
+      <c r="H262" s="14"/>
+      <c r="I262" s="15"/>
+      <c r="J262" s="15"/>
+      <c r="K262" s="15"/>
+      <c r="L262" s="14"/>
+      <c r="M262" s="15">
+        <v>-13</v>
+      </c>
+      <c r="N262" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="263" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="11"/>
+      <c r="C263" s="14"/>
+      <c r="D263" s="14"/>
+      <c r="E263" s="15"/>
+      <c r="F263" s="15"/>
+      <c r="G263" s="15"/>
+      <c r="H263" s="14"/>
+      <c r="I263" s="15"/>
+      <c r="J263" s="15"/>
+      <c r="K263" s="15"/>
+      <c r="L263" s="14"/>
+      <c r="M263" s="15">
+        <v>-14</v>
+      </c>
+      <c r="N263" s="4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="264" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="11"/>
+      <c r="C264" s="14"/>
+      <c r="D264" s="14"/>
+      <c r="E264" s="15"/>
+      <c r="F264" s="15"/>
+      <c r="G264" s="15"/>
+      <c r="H264" s="14"/>
+      <c r="I264" s="15"/>
+      <c r="J264" s="15"/>
+      <c r="K264" s="15"/>
+      <c r="L264" s="14"/>
+      <c r="M264" s="15">
+        <v>-15</v>
+      </c>
+      <c r="N264" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="265" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="11"/>
+      <c r="C265" s="14"/>
+      <c r="D265" s="14"/>
+      <c r="E265" s="15"/>
+      <c r="F265" s="15"/>
+      <c r="G265" s="15"/>
+      <c r="H265" s="14"/>
+      <c r="I265" s="15"/>
+      <c r="J265" s="15"/>
+      <c r="K265" s="15"/>
+      <c r="L265" s="14"/>
+      <c r="M265" s="15">
+        <v>-21</v>
+      </c>
+      <c r="N265" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="266" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="11"/>
+      <c r="C266" s="14"/>
+      <c r="D266" s="14"/>
+      <c r="E266" s="15"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="15"/>
+      <c r="H266" s="14"/>
+      <c r="I266" s="15"/>
+      <c r="J266" s="15"/>
+      <c r="K266" s="15"/>
+      <c r="L266" s="14"/>
+      <c r="M266" s="15">
+        <v>-22</v>
+      </c>
+      <c r="N266" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="267" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="11"/>
+      <c r="C267" s="14"/>
+      <c r="D267" s="14"/>
+      <c r="E267" s="15"/>
+      <c r="F267" s="15"/>
+      <c r="G267" s="15"/>
+      <c r="H267" s="14"/>
+      <c r="I267" s="15"/>
+      <c r="J267" s="15"/>
+      <c r="K267" s="15"/>
+      <c r="L267" s="14"/>
+      <c r="M267" s="15">
+        <v>-23</v>
+      </c>
+      <c r="N267" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="268" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="11"/>
+      <c r="C268" s="14"/>
+      <c r="D268" s="14"/>
+      <c r="E268" s="15"/>
+      <c r="F268" s="15"/>
+      <c r="G268" s="15"/>
+      <c r="H268" s="14"/>
+      <c r="I268" s="15"/>
+      <c r="J268" s="15"/>
+      <c r="K268" s="15"/>
+      <c r="L268" s="14"/>
+      <c r="M268" s="15">
+        <v>-24</v>
+      </c>
+      <c r="N268" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="269" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="11"/>
+      <c r="C269" s="14"/>
+      <c r="D269" s="14"/>
+      <c r="E269" s="15"/>
+      <c r="F269" s="15"/>
+      <c r="G269" s="15"/>
+      <c r="H269" s="14"/>
+      <c r="I269" s="15"/>
+      <c r="J269" s="15"/>
+      <c r="K269" s="15"/>
+      <c r="L269" s="14"/>
+      <c r="M269" s="15">
+        <v>-25</v>
+      </c>
+      <c r="N269" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="270" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="11"/>
+      <c r="C270" s="14"/>
+      <c r="D270" s="14"/>
+      <c r="E270" s="15"/>
+      <c r="F270" s="15"/>
+      <c r="G270" s="15"/>
+      <c r="H270" s="14"/>
+      <c r="I270" s="15"/>
+      <c r="J270" s="15"/>
+      <c r="K270" s="15"/>
+      <c r="L270" s="14"/>
+      <c r="M270" s="15">
+        <v>-31</v>
+      </c>
+      <c r="N270" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="271" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="11"/>
+      <c r="C271" s="14"/>
+      <c r="D271" s="14"/>
+      <c r="E271" s="15"/>
+      <c r="F271" s="15"/>
+      <c r="G271" s="15"/>
+      <c r="H271" s="14"/>
+      <c r="I271" s="15"/>
+      <c r="J271" s="15"/>
+      <c r="K271" s="15"/>
+      <c r="L271" s="14"/>
+      <c r="M271" s="15">
+        <v>-32</v>
+      </c>
+      <c r="N271" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="272" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B272" s="12"/>
+      <c r="C272" s="9"/>
+      <c r="D272" s="9"/>
+      <c r="E272" s="5"/>
+      <c r="F272" s="5"/>
+      <c r="G272" s="5"/>
+      <c r="H272" s="9"/>
+      <c r="I272" s="5"/>
+      <c r="J272" s="5"/>
+      <c r="K272" s="5"/>
+      <c r="L272" s="9"/>
+      <c r="M272" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N272" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="273" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D273" s="7">
+        <v>2</v>
+      </c>
+      <c r="E273" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F273" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="G273" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H273" s="7">
+        <v>1</v>
+      </c>
+      <c r="I273" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J273" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K273" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="L273" s="7">
+        <v>14</v>
+      </c>
+      <c r="M273" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N273" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="274" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="11"/>
+      <c r="C274" s="14"/>
+      <c r="D274" s="14"/>
+      <c r="E274" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F274" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G274" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="H274" s="14"/>
+      <c r="I274" s="15"/>
+      <c r="J274" s="15"/>
+      <c r="K274" s="15"/>
+      <c r="L274" s="14"/>
+      <c r="M274" s="15">
+        <v>-2</v>
+      </c>
+      <c r="N274" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="275" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="11"/>
+      <c r="C275" s="14"/>
+      <c r="D275" s="14"/>
+      <c r="E275" s="15"/>
+      <c r="F275" s="15"/>
+      <c r="G275" s="15"/>
+      <c r="H275" s="14"/>
+      <c r="I275" s="15"/>
+      <c r="J275" s="15"/>
+      <c r="K275" s="15"/>
+      <c r="L275" s="14"/>
+      <c r="M275" s="15">
+        <v>-11</v>
+      </c>
+      <c r="N275" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="276" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="11"/>
+      <c r="C276" s="14"/>
+      <c r="D276" s="14"/>
+      <c r="E276" s="15"/>
+      <c r="F276" s="15"/>
+      <c r="G276" s="15"/>
+      <c r="H276" s="14"/>
+      <c r="I276" s="15"/>
+      <c r="J276" s="15"/>
+      <c r="K276" s="15"/>
+      <c r="L276" s="14"/>
+      <c r="M276" s="15">
+        <v>-12</v>
+      </c>
+      <c r="N276" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="277" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="11"/>
+      <c r="C277" s="14"/>
+      <c r="D277" s="14"/>
+      <c r="E277" s="15"/>
+      <c r="F277" s="15"/>
+      <c r="G277" s="15"/>
+      <c r="H277" s="14"/>
+      <c r="I277" s="15"/>
+      <c r="J277" s="15"/>
+      <c r="K277" s="15"/>
+      <c r="L277" s="14"/>
+      <c r="M277" s="15">
+        <v>-13</v>
+      </c>
+      <c r="N277" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="278" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="11"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="15"/>
+      <c r="F278" s="15"/>
+      <c r="G278" s="15"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="15"/>
+      <c r="J278" s="15"/>
+      <c r="K278" s="15"/>
+      <c r="L278" s="14"/>
+      <c r="M278" s="15">
+        <v>-14</v>
+      </c>
+      <c r="N278" s="4" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="279" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="11"/>
+      <c r="C279" s="14"/>
+      <c r="D279" s="14"/>
+      <c r="E279" s="15"/>
+      <c r="F279" s="15"/>
+      <c r="G279" s="15"/>
+      <c r="H279" s="14"/>
+      <c r="I279" s="15"/>
+      <c r="J279" s="15"/>
+      <c r="K279" s="15"/>
+      <c r="L279" s="14"/>
+      <c r="M279" s="15">
+        <v>-21</v>
+      </c>
+      <c r="N279" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="280" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="11"/>
+      <c r="C280" s="14"/>
+      <c r="D280" s="14"/>
+      <c r="E280" s="15"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="15"/>
+      <c r="H280" s="14"/>
+      <c r="I280" s="15"/>
+      <c r="J280" s="15"/>
+      <c r="K280" s="15"/>
+      <c r="L280" s="14"/>
+      <c r="M280" s="15">
+        <v>-22</v>
+      </c>
+      <c r="N280" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="281" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="11"/>
+      <c r="C281" s="14"/>
+      <c r="D281" s="14"/>
+      <c r="E281" s="15"/>
+      <c r="F281" s="15"/>
+      <c r="G281" s="15"/>
+      <c r="H281" s="14"/>
+      <c r="I281" s="15"/>
+      <c r="J281" s="15"/>
+      <c r="K281" s="15"/>
+      <c r="L281" s="14"/>
+      <c r="M281" s="15">
+        <v>-23</v>
+      </c>
+      <c r="N281" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="282" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="11"/>
+      <c r="C282" s="14"/>
+      <c r="D282" s="14"/>
+      <c r="E282" s="15"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="15"/>
+      <c r="H282" s="14"/>
+      <c r="I282" s="15"/>
+      <c r="J282" s="15"/>
+      <c r="K282" s="15"/>
+      <c r="L282" s="14"/>
+      <c r="M282" s="15">
+        <v>-24</v>
+      </c>
+      <c r="N282" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="283" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="11"/>
+      <c r="C283" s="14"/>
+      <c r="D283" s="14"/>
+      <c r="E283" s="15"/>
+      <c r="F283" s="15"/>
+      <c r="G283" s="15"/>
+      <c r="H283" s="14"/>
+      <c r="I283" s="15"/>
+      <c r="J283" s="15"/>
+      <c r="K283" s="15"/>
+      <c r="L283" s="14"/>
+      <c r="M283" s="15">
+        <v>-25</v>
+      </c>
+      <c r="N283" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="284" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="11"/>
+      <c r="C284" s="14"/>
+      <c r="D284" s="14"/>
+      <c r="E284" s="15"/>
+      <c r="F284" s="15"/>
+      <c r="G284" s="15"/>
+      <c r="H284" s="14"/>
+      <c r="I284" s="15"/>
+      <c r="J284" s="15"/>
+      <c r="K284" s="15"/>
+      <c r="L284" s="14"/>
+      <c r="M284" s="15">
+        <v>-31</v>
+      </c>
+      <c r="N284" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="285" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="11"/>
+      <c r="C285" s="14"/>
+      <c r="D285" s="14"/>
+      <c r="E285" s="15"/>
+      <c r="F285" s="15"/>
+      <c r="G285" s="15"/>
+      <c r="H285" s="14"/>
+      <c r="I285" s="15"/>
+      <c r="J285" s="15"/>
+      <c r="K285" s="15"/>
+      <c r="L285" s="14"/>
+      <c r="M285" s="15">
+        <v>-32</v>
+      </c>
+      <c r="N285" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="286" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B286" s="12"/>
+      <c r="C286" s="9"/>
+      <c r="D286" s="9"/>
+      <c r="E286" s="5"/>
+      <c r="F286" s="5"/>
+      <c r="G286" s="5"/>
+      <c r="H286" s="9"/>
+      <c r="I286" s="5"/>
+      <c r="J286" s="5"/>
+      <c r="K286" s="5"/>
+      <c r="L286" s="9"/>
+      <c r="M286" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N286" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="287" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="B87:B97"/>
-    <mergeCell ref="C87:C97"/>
-    <mergeCell ref="D87:D97"/>
-    <mergeCell ref="H87:H97"/>
-    <mergeCell ref="L87:L97"/>
-    <mergeCell ref="L76:L86"/>
-    <mergeCell ref="H76:H86"/>
-    <mergeCell ref="D76:D86"/>
-    <mergeCell ref="B76:B86"/>
-    <mergeCell ref="C76:C86"/>
-    <mergeCell ref="B68:B75"/>
-    <mergeCell ref="C68:C75"/>
-    <mergeCell ref="D68:D75"/>
-    <mergeCell ref="H68:H75"/>
-    <mergeCell ref="L68:L75"/>
-    <mergeCell ref="L60:L67"/>
-    <mergeCell ref="H60:H67"/>
-    <mergeCell ref="D60:D67"/>
-    <mergeCell ref="B60:B67"/>
-    <mergeCell ref="C60:C67"/>
+  <mergeCells count="112">
+    <mergeCell ref="L273:L286"/>
+    <mergeCell ref="H273:H286"/>
+    <mergeCell ref="D273:D286"/>
+    <mergeCell ref="B273:B286"/>
+    <mergeCell ref="C273:C286"/>
+    <mergeCell ref="L258:L272"/>
+    <mergeCell ref="H258:H272"/>
+    <mergeCell ref="D258:D272"/>
+    <mergeCell ref="C258:C272"/>
+    <mergeCell ref="B258:B272"/>
+    <mergeCell ref="L242:L257"/>
+    <mergeCell ref="H242:H257"/>
+    <mergeCell ref="D242:D257"/>
+    <mergeCell ref="B228:B241"/>
+    <mergeCell ref="C228:C241"/>
+    <mergeCell ref="B242:B257"/>
+    <mergeCell ref="C242:C257"/>
+    <mergeCell ref="H213:H227"/>
+    <mergeCell ref="L213:L227"/>
+    <mergeCell ref="L228:L241"/>
+    <mergeCell ref="H228:H241"/>
+    <mergeCell ref="D228:D241"/>
+    <mergeCell ref="A110:A212"/>
+    <mergeCell ref="B213:B227"/>
+    <mergeCell ref="D213:D227"/>
+    <mergeCell ref="C213:C227"/>
+    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="C206:C212"/>
+    <mergeCell ref="D206:D212"/>
+    <mergeCell ref="H206:H212"/>
+    <mergeCell ref="L206:L212"/>
+    <mergeCell ref="B192:B205"/>
+    <mergeCell ref="C192:C205"/>
+    <mergeCell ref="D192:D205"/>
+    <mergeCell ref="H192:H205"/>
+    <mergeCell ref="L192:L205"/>
+    <mergeCell ref="A2:A109"/>
+    <mergeCell ref="L110:L123"/>
+    <mergeCell ref="H110:H123"/>
+    <mergeCell ref="D110:D123"/>
+    <mergeCell ref="B110:B123"/>
+    <mergeCell ref="C110:C123"/>
+    <mergeCell ref="B52:B63"/>
+    <mergeCell ref="C52:C63"/>
+    <mergeCell ref="D52:D63"/>
+    <mergeCell ref="H52:H63"/>
+    <mergeCell ref="L52:L63"/>
+    <mergeCell ref="L40:L51"/>
+    <mergeCell ref="H40:H51"/>
+    <mergeCell ref="D40:D51"/>
+    <mergeCell ref="B40:B51"/>
+    <mergeCell ref="C40:C51"/>
+    <mergeCell ref="B12:B21"/>
+    <mergeCell ref="C12:C21"/>
+    <mergeCell ref="D12:D21"/>
+    <mergeCell ref="H12:H21"/>
+    <mergeCell ref="L12:L21"/>
+    <mergeCell ref="B2:B11"/>
+    <mergeCell ref="C2:C11"/>
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="L2:L11"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="L31:L39"/>
     <mergeCell ref="L22:L30"/>
     <mergeCell ref="H22:H30"/>
     <mergeCell ref="D22:D30"/>
     <mergeCell ref="B22:B30"/>
     <mergeCell ref="C22:C30"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="L31:L39"/>
-    <mergeCell ref="B2:B11"/>
-    <mergeCell ref="C2:C11"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="L2:L11"/>
-    <mergeCell ref="B12:B21"/>
-    <mergeCell ref="C12:C21"/>
-    <mergeCell ref="D12:D21"/>
-    <mergeCell ref="H12:H21"/>
-    <mergeCell ref="L12:L21"/>
-    <mergeCell ref="L40:L49"/>
-    <mergeCell ref="H40:H49"/>
-    <mergeCell ref="D40:D49"/>
-    <mergeCell ref="B40:B49"/>
-    <mergeCell ref="C40:C49"/>
-    <mergeCell ref="B50:B59"/>
-    <mergeCell ref="C50:C59"/>
-    <mergeCell ref="D50:D59"/>
-    <mergeCell ref="H50:H59"/>
-    <mergeCell ref="L50:L59"/>
+    <mergeCell ref="L64:L73"/>
+    <mergeCell ref="H64:H73"/>
+    <mergeCell ref="D64:D73"/>
+    <mergeCell ref="B64:B73"/>
+    <mergeCell ref="C64:C73"/>
+    <mergeCell ref="B74:B83"/>
+    <mergeCell ref="C74:C83"/>
+    <mergeCell ref="D74:D83"/>
+    <mergeCell ref="H74:H83"/>
+    <mergeCell ref="L74:L83"/>
+    <mergeCell ref="L84:L96"/>
+    <mergeCell ref="H84:H96"/>
+    <mergeCell ref="D84:D96"/>
+    <mergeCell ref="B84:B96"/>
+    <mergeCell ref="C84:C96"/>
+    <mergeCell ref="B97:B109"/>
+    <mergeCell ref="C97:C109"/>
+    <mergeCell ref="D97:D109"/>
+    <mergeCell ref="H97:H109"/>
+    <mergeCell ref="L97:L109"/>
+    <mergeCell ref="L124:L140"/>
+    <mergeCell ref="H124:H140"/>
+    <mergeCell ref="D124:D140"/>
+    <mergeCell ref="B124:B140"/>
+    <mergeCell ref="C124:C140"/>
+    <mergeCell ref="H141:H157"/>
+    <mergeCell ref="L141:L157"/>
+    <mergeCell ref="B141:B157"/>
+    <mergeCell ref="C141:C157"/>
+    <mergeCell ref="D141:D157"/>
+    <mergeCell ref="B158:B175"/>
+    <mergeCell ref="C158:C175"/>
+    <mergeCell ref="D158:D175"/>
+    <mergeCell ref="H158:H175"/>
+    <mergeCell ref="L158:L175"/>
+    <mergeCell ref="L176:L191"/>
+    <mergeCell ref="H176:H191"/>
+    <mergeCell ref="B176:B191"/>
+    <mergeCell ref="C176:C191"/>
+    <mergeCell ref="D176:D191"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API.xlsx
+++ b/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\SE\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1E62D3D-B39E-4328-9AD7-B96A6A34DA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99402041-19C0-40B8-8EBD-E35B16180C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="248">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -633,10 +633,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>查询结果拼接成的字符串，每两个结果之间使用\r\t分隔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>≥0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -826,6 +822,182 @@
   </si>
   <si>
     <t>查询课程ID的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学任务组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师给自己的课程新增教学任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content_url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学任务的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学任务的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个长度小于512的字符串</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学任务对应的视频地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程是否存在的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要新建教学内容的课程不在数据库中，不准新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程教师的操作成功，但是没有结果</t>
+  </si>
+  <si>
+    <t>查询课程教师的sql操作无法顺利执行</t>
+  </si>
+  <si>
+    <t>插入教学任务的sql操作无法顺利执行</t>
+  </si>
+  <si>
+    <t>edit_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑教学任务信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学内容ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程中的最大教学任务编号的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询教学任务是否在指定课程中的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改教学任务的sql操作无法顺利执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要修改教学内容的课程不在数据库中，不准新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加教学任务的课程的教师并非课程所有者，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改教学内容的教师并非课程所有者，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前教学内容不在课程中，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_class</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除教学任务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除教学任务的sql操作无法顺利执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除教学内容的教师并非课程所有者，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前教学内容不在课程中，不准删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_class_id_by_course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询一门课程下的所有教学任务的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询结果拼接成的字符串，每两个结果之间使用\t\r分隔</t>
+  </si>
+  <si>
+    <t>查询课程中教学任务数量的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询教学任务ID的sql操作无法顺利执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_info_by_class_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定教学内容的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教学任务的创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询教学内容信息的的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该ID不在教学内容数据库内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业与提交组</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,6 +1141,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -985,9 +1160,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1276,10 +1448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N300"/>
+  <dimension ref="A1:N521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A261" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D291" sqref="D291"/>
+    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A362" sqref="A362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1337,16 +1509,16 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="8">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1358,7 +1530,7 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="8">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1370,7 +1542,7 @@
       <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="8">
         <v>10</v>
       </c>
       <c r="M2" s="2">
@@ -1381,10 +1553,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1394,8 +1566,8 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="L3" s="9"/>
       <c r="M3" s="1">
         <v>-11</v>
       </c>
@@ -1404,12 +1576,12 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="L4" s="8"/>
+      <c r="A4" s="7"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="L4" s="9"/>
       <c r="M4" s="1">
         <v>-12</v>
       </c>
@@ -1418,12 +1590,12 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="L5" s="9"/>
       <c r="M5" s="1">
         <v>-13</v>
       </c>
@@ -1432,12 +1604,12 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="L6" s="8"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="L6" s="9"/>
       <c r="M6" s="1">
         <v>-21</v>
       </c>
@@ -1446,12 +1618,12 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="L7" s="9"/>
       <c r="M7" s="1">
         <v>-22</v>
       </c>
@@ -1460,12 +1632,12 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="L8" s="8"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="L8" s="9"/>
       <c r="M8" s="1">
         <v>-23</v>
       </c>
@@ -1474,12 +1646,12 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="L9" s="9"/>
       <c r="M9" s="1">
         <v>-31</v>
       </c>
@@ -1488,12 +1660,12 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="L10" s="9"/>
       <c r="M10" s="1">
         <v>-32</v>
       </c>
@@ -1502,18 +1674,18 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="13"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="9"/>
+      <c r="H11" s="10"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="9"/>
+      <c r="L11" s="10"/>
       <c r="M11" s="5">
         <v>-99</v>
       </c>
@@ -1522,14 +1694,14 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="7"/>
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="8">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1541,7 +1713,7 @@
       <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="8">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1553,7 +1725,7 @@
       <c r="K12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="7">
+      <c r="L12" s="8">
         <v>10</v>
       </c>
       <c r="M12" s="2">
@@ -1564,10 +1736,10 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1577,8 +1749,8 @@
       <c r="G13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="H13" s="9"/>
+      <c r="L13" s="9"/>
       <c r="M13" s="1">
         <v>-11</v>
       </c>
@@ -1587,12 +1759,12 @@
       </c>
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="L14" s="8"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="L14" s="9"/>
       <c r="M14" s="1">
         <v>-12</v>
       </c>
@@ -1601,12 +1773,12 @@
       </c>
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="L15" s="9"/>
       <c r="M15" s="1">
         <v>-13</v>
       </c>
@@ -1615,12 +1787,12 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="L16" s="8"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="L16" s="9"/>
       <c r="M16" s="1">
         <v>-21</v>
       </c>
@@ -1629,12 +1801,12 @@
       </c>
     </row>
     <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="L17" s="8"/>
+      <c r="A17" s="7"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="L17" s="9"/>
       <c r="M17" s="1">
         <v>-22</v>
       </c>
@@ -1643,12 +1815,12 @@
       </c>
     </row>
     <row r="18" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="L18" s="8"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="L18" s="9"/>
       <c r="M18" s="1">
         <v>-23</v>
       </c>
@@ -1657,12 +1829,12 @@
       </c>
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="L19" s="8"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="L19" s="9"/>
       <c r="M19" s="1">
         <v>-31</v>
       </c>
@@ -1671,12 +1843,12 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="L20" s="8"/>
+      <c r="A20" s="7"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="L20" s="9"/>
       <c r="M20" s="1">
         <v>-32</v>
       </c>
@@ -1685,18 +1857,18 @@
       </c>
     </row>
     <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="13"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="A21" s="7"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="10"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="9"/>
+      <c r="L21" s="10"/>
       <c r="M21" s="5">
         <v>-99</v>
       </c>
@@ -1705,14 +1877,14 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="7"/>
+      <c r="B22" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="8">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1724,13 +1896,13 @@
       <c r="G22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="7" t="s">
+      <c r="H22" s="8" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="7">
+      <c r="L22" s="8">
         <v>9</v>
       </c>
       <c r="M22" s="2">
@@ -1741,10 +1913,10 @@
       </c>
     </row>
     <row r="23" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="A23" s="7"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1754,8 +1926,8 @@
       <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="L23" s="8"/>
+      <c r="H23" s="9"/>
+      <c r="L23" s="9"/>
       <c r="M23" s="1">
         <v>-11</v>
       </c>
@@ -1764,10 +1936,10 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="A24" s="7"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
       <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1777,8 +1949,8 @@
       <c r="G24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="8"/>
-      <c r="L24" s="8"/>
+      <c r="H24" s="9"/>
+      <c r="L24" s="9"/>
       <c r="M24" s="1">
         <v>-12</v>
       </c>
@@ -1787,10 +1959,10 @@
       </c>
     </row>
     <row r="25" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="12"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
       <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1800,8 +1972,8 @@
       <c r="G25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="L25" s="8"/>
+      <c r="H25" s="9"/>
+      <c r="L25" s="9"/>
       <c r="M25" s="1">
         <v>-13</v>
       </c>
@@ -1810,10 +1982,10 @@
       </c>
     </row>
     <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="A26" s="7"/>
+      <c r="B26" s="12"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
       <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1823,8 +1995,8 @@
       <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="8"/>
-      <c r="L26" s="8"/>
+      <c r="H26" s="9"/>
+      <c r="L26" s="9"/>
       <c r="M26" s="1">
         <v>-21</v>
       </c>
@@ -1833,10 +2005,10 @@
       </c>
     </row>
     <row r="27" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="12"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
       <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1846,8 +2018,8 @@
       <c r="G27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="8"/>
-      <c r="L27" s="8"/>
+      <c r="H27" s="9"/>
+      <c r="L27" s="9"/>
       <c r="M27" s="1">
         <v>-22</v>
       </c>
@@ -1856,10 +2028,10 @@
       </c>
     </row>
     <row r="28" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="A28" s="7"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
       <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1869,8 +2041,8 @@
       <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="8"/>
-      <c r="L28" s="8"/>
+      <c r="H28" s="9"/>
+      <c r="L28" s="9"/>
       <c r="M28" s="1">
         <v>-31</v>
       </c>
@@ -1879,12 +2051,12 @@
       </c>
     </row>
     <row r="29" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="L29" s="8"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="12"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="L29" s="9"/>
       <c r="M29" s="1">
         <v>-32</v>
       </c>
@@ -1893,18 +2065,18 @@
       </c>
     </row>
     <row r="30" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="13"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
+      <c r="A30" s="7"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="9"/>
+      <c r="H30" s="10"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="9"/>
+      <c r="L30" s="10"/>
       <c r="M30" s="5">
         <v>-99</v>
       </c>
@@ -1913,14 +2085,14 @@
       </c>
     </row>
     <row r="31" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="7"/>
+      <c r="B31" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D31" s="8">
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -1932,13 +2104,13 @@
       <c r="G31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="7" t="s">
+      <c r="H31" s="8" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="7">
+      <c r="L31" s="8">
         <v>9</v>
       </c>
       <c r="M31" s="2">
@@ -1949,10 +2121,10 @@
       </c>
     </row>
     <row r="32" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="A32" s="7"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
@@ -1962,8 +2134,8 @@
       <c r="G32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="L32" s="8"/>
+      <c r="H32" s="9"/>
+      <c r="L32" s="9"/>
       <c r="M32" s="1">
         <v>-11</v>
       </c>
@@ -1972,10 +2144,10 @@
       </c>
     </row>
     <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="A33" s="7"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
       <c r="E33" s="1" t="s">
         <v>46</v>
       </c>
@@ -1985,8 +2157,8 @@
       <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="8"/>
-      <c r="L33" s="8"/>
+      <c r="H33" s="9"/>
+      <c r="L33" s="9"/>
       <c r="M33" s="1">
         <v>-12</v>
       </c>
@@ -1995,10 +2167,10 @@
       </c>
     </row>
     <row r="34" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="7"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2008,8 +2180,8 @@
       <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="L34" s="8"/>
+      <c r="H34" s="9"/>
+      <c r="L34" s="9"/>
       <c r="M34" s="1">
         <v>-13</v>
       </c>
@@ -2018,10 +2190,10 @@
       </c>
     </row>
     <row r="35" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="12"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="1" t="s">
         <v>67</v>
       </c>
@@ -2031,8 +2203,8 @@
       <c r="G35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="8"/>
-      <c r="L35" s="8"/>
+      <c r="H35" s="9"/>
+      <c r="L35" s="9"/>
       <c r="M35" s="1">
         <v>-21</v>
       </c>
@@ -2041,10 +2213,10 @@
       </c>
     </row>
     <row r="36" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
+      <c r="A36" s="7"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
       <c r="E36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2054,8 +2226,8 @@
       <c r="G36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="8"/>
-      <c r="L36" s="8"/>
+      <c r="H36" s="9"/>
+      <c r="L36" s="9"/>
       <c r="M36" s="1">
         <v>-22</v>
       </c>
@@ -2064,10 +2236,10 @@
       </c>
     </row>
     <row r="37" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
       <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
@@ -2077,8 +2249,8 @@
       <c r="G37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="8"/>
-      <c r="L37" s="8"/>
+      <c r="H37" s="9"/>
+      <c r="L37" s="9"/>
       <c r="M37" s="1">
         <v>-31</v>
       </c>
@@ -2087,12 +2259,12 @@
       </c>
     </row>
     <row r="38" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="L38" s="8"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="L38" s="9"/>
       <c r="M38" s="1">
         <v>-32</v>
       </c>
@@ -2101,12 +2273,12 @@
       </c>
     </row>
     <row r="39" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="13"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="8"/>
-      <c r="D39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="L39" s="8"/>
+      <c r="A39" s="7"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="L39" s="9"/>
       <c r="M39" s="1">
         <v>-99</v>
       </c>
@@ -2115,14 +2287,14 @@
       </c>
     </row>
     <row r="40" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
-      <c r="B40" s="10" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D40" s="8">
         <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -2134,13 +2306,13 @@
       <c r="G40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="H40" s="8" t="s">
         <v>59</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="7">
+      <c r="L40" s="8">
         <v>12</v>
       </c>
       <c r="M40" s="2">
@@ -2151,10 +2323,10 @@
       </c>
     </row>
     <row r="41" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="8"/>
+      <c r="A41" s="7"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
       <c r="E41" s="1" t="s">
         <v>74</v>
       </c>
@@ -2164,8 +2336,8 @@
       <c r="G41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="L41" s="8"/>
+      <c r="H41" s="9"/>
+      <c r="L41" s="9"/>
       <c r="M41" s="1">
         <v>-2</v>
       </c>
@@ -2174,10 +2346,10 @@
       </c>
     </row>
     <row r="42" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
+      <c r="A42" s="7"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
       <c r="E42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2187,8 +2359,8 @@
       <c r="G42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="8"/>
-      <c r="L42" s="8"/>
+      <c r="H42" s="9"/>
+      <c r="L42" s="9"/>
       <c r="M42" s="1">
         <v>-11</v>
       </c>
@@ -2197,10 +2369,10 @@
       </c>
     </row>
     <row r="43" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
+      <c r="A43" s="7"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
       <c r="E43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2210,8 +2382,8 @@
       <c r="G43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="L43" s="8"/>
+      <c r="H43" s="9"/>
+      <c r="L43" s="9"/>
       <c r="M43" s="1">
         <v>-12</v>
       </c>
@@ -2220,10 +2392,10 @@
       </c>
     </row>
     <row r="44" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="8"/>
-      <c r="D44" s="8"/>
+      <c r="A44" s="7"/>
+      <c r="B44" s="12"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
       <c r="E44" s="1" t="s">
         <v>50</v>
       </c>
@@ -2233,8 +2405,8 @@
       <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="8"/>
-      <c r="L44" s="8"/>
+      <c r="H44" s="9"/>
+      <c r="L44" s="9"/>
       <c r="M44" s="1">
         <v>-13</v>
       </c>
@@ -2243,10 +2415,10 @@
       </c>
     </row>
     <row r="45" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="8"/>
-      <c r="D45" s="8"/>
+      <c r="A45" s="7"/>
+      <c r="B45" s="12"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9"/>
       <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
@@ -2256,8 +2428,8 @@
       <c r="G45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="8"/>
-      <c r="L45" s="8"/>
+      <c r="H45" s="9"/>
+      <c r="L45" s="9"/>
       <c r="M45" s="1">
         <v>-21</v>
       </c>
@@ -2266,10 +2438,10 @@
       </c>
     </row>
     <row r="46" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="12"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9"/>
       <c r="E46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2279,8 +2451,8 @@
       <c r="G46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="8"/>
-      <c r="L46" s="8"/>
+      <c r="H46" s="9"/>
+      <c r="L46" s="9"/>
       <c r="M46" s="1">
         <v>-22</v>
       </c>
@@ -2289,12 +2461,12 @@
       </c>
     </row>
     <row r="47" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="8"/>
-      <c r="D47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="L47" s="8"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="12"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="L47" s="9"/>
       <c r="M47" s="1">
         <v>-23</v>
       </c>
@@ -2303,12 +2475,12 @@
       </c>
     </row>
     <row r="48" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="8"/>
-      <c r="D48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="L48" s="8"/>
+      <c r="A48" s="7"/>
+      <c r="B48" s="12"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="L48" s="9"/>
       <c r="M48" s="1">
         <v>-24</v>
       </c>
@@ -2317,12 +2489,12 @@
       </c>
     </row>
     <row r="49" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="8"/>
-      <c r="D49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="L49" s="8"/>
+      <c r="A49" s="7"/>
+      <c r="B49" s="12"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="L49" s="9"/>
       <c r="M49" s="1">
         <v>-31</v>
       </c>
@@ -2331,12 +2503,12 @@
       </c>
     </row>
     <row r="50" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="8"/>
-      <c r="D50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="L50" s="8"/>
+      <c r="A50" s="7"/>
+      <c r="B50" s="12"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="L50" s="9"/>
       <c r="M50" s="1">
         <v>-32</v>
       </c>
@@ -2345,18 +2517,18 @@
       </c>
     </row>
     <row r="51" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="13"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="9"/>
-      <c r="D51" s="9"/>
+      <c r="A51" s="7"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="10"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="9"/>
+      <c r="H51" s="10"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="9"/>
+      <c r="L51" s="10"/>
       <c r="M51" s="5">
         <v>-99</v>
       </c>
@@ -2365,14 +2537,14 @@
       </c>
     </row>
     <row r="52" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
-      <c r="B52" s="10" t="s">
+      <c r="A52" s="7"/>
+      <c r="B52" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D52" s="8">
         <v>7</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -2384,13 +2556,13 @@
       <c r="G52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H52" s="7" t="s">
+      <c r="H52" s="8" t="s">
         <v>59</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="7">
+      <c r="L52" s="8">
         <v>12</v>
       </c>
       <c r="M52" s="2">
@@ -2401,10 +2573,10 @@
       </c>
     </row>
     <row r="53" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="8"/>
-      <c r="D53" s="8"/>
+      <c r="A53" s="7"/>
+      <c r="B53" s="12"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9"/>
       <c r="E53" s="1" t="s">
         <v>74</v>
       </c>
@@ -2414,8 +2586,8 @@
       <c r="G53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="8"/>
-      <c r="L53" s="8"/>
+      <c r="H53" s="9"/>
+      <c r="L53" s="9"/>
       <c r="M53" s="1">
         <v>-2</v>
       </c>
@@ -2424,10 +2596,10 @@
       </c>
     </row>
     <row r="54" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="8"/>
-      <c r="D54" s="8"/>
+      <c r="A54" s="7"/>
+      <c r="B54" s="12"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9"/>
       <c r="E54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2437,8 +2609,8 @@
       <c r="G54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="8"/>
-      <c r="L54" s="8"/>
+      <c r="H54" s="9"/>
+      <c r="L54" s="9"/>
       <c r="M54" s="1">
         <v>-11</v>
       </c>
@@ -2447,10 +2619,10 @@
       </c>
     </row>
     <row r="55" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="8"/>
-      <c r="D55" s="8"/>
+      <c r="A55" s="7"/>
+      <c r="B55" s="12"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
       <c r="E55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2460,8 +2632,8 @@
       <c r="G55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H55" s="8"/>
-      <c r="L55" s="8"/>
+      <c r="H55" s="9"/>
+      <c r="L55" s="9"/>
       <c r="M55" s="1">
         <v>-12</v>
       </c>
@@ -2470,10 +2642,10 @@
       </c>
     </row>
     <row r="56" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="8"/>
-      <c r="D56" s="8"/>
+      <c r="A56" s="7"/>
+      <c r="B56" s="12"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9"/>
       <c r="E56" s="1" t="s">
         <v>67</v>
       </c>
@@ -2483,8 +2655,8 @@
       <c r="G56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H56" s="8"/>
-      <c r="L56" s="8"/>
+      <c r="H56" s="9"/>
+      <c r="L56" s="9"/>
       <c r="M56" s="1">
         <v>-13</v>
       </c>
@@ -2493,10 +2665,10 @@
       </c>
     </row>
     <row r="57" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
-      <c r="B57" s="11"/>
-      <c r="C57" s="8"/>
-      <c r="D57" s="8"/>
+      <c r="A57" s="7"/>
+      <c r="B57" s="12"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9"/>
       <c r="E57" s="1" t="s">
         <v>52</v>
       </c>
@@ -2506,8 +2678,8 @@
       <c r="G57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="L57" s="8"/>
+      <c r="H57" s="9"/>
+      <c r="L57" s="9"/>
       <c r="M57" s="1">
         <v>-21</v>
       </c>
@@ -2516,10 +2688,10 @@
       </c>
     </row>
     <row r="58" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="8"/>
-      <c r="D58" s="8"/>
+      <c r="A58" s="7"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
       <c r="E58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2529,8 +2701,8 @@
       <c r="G58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="L58" s="8"/>
+      <c r="H58" s="9"/>
+      <c r="L58" s="9"/>
       <c r="M58" s="1">
         <v>-22</v>
       </c>
@@ -2539,12 +2711,12 @@
       </c>
     </row>
     <row r="59" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
-      <c r="B59" s="11"/>
-      <c r="C59" s="8"/>
-      <c r="D59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="L59" s="8"/>
+      <c r="A59" s="7"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="L59" s="9"/>
       <c r="M59" s="1">
         <v>-23</v>
       </c>
@@ -2553,12 +2725,12 @@
       </c>
     </row>
     <row r="60" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="8"/>
-      <c r="D60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="L60" s="8"/>
+      <c r="A60" s="7"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="L60" s="9"/>
       <c r="M60" s="1">
         <v>-24</v>
       </c>
@@ -2567,12 +2739,12 @@
       </c>
     </row>
     <row r="61" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
-      <c r="B61" s="11"/>
-      <c r="C61" s="8"/>
-      <c r="D61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="L61" s="8"/>
+      <c r="A61" s="7"/>
+      <c r="B61" s="12"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="L61" s="9"/>
       <c r="M61" s="1">
         <v>-31</v>
       </c>
@@ -2581,12 +2753,12 @@
       </c>
     </row>
     <row r="62" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
-      <c r="B62" s="11"/>
-      <c r="C62" s="8"/>
-      <c r="D62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="L62" s="8"/>
+      <c r="A62" s="7"/>
+      <c r="B62" s="12"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="L62" s="9"/>
       <c r="M62" s="1">
         <v>-32</v>
       </c>
@@ -2595,12 +2767,12 @@
       </c>
     </row>
     <row r="63" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="13"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="8"/>
-      <c r="D63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="L63" s="8"/>
+      <c r="A63" s="7"/>
+      <c r="B63" s="12"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="L63" s="9"/>
       <c r="M63" s="1">
         <v>-99</v>
       </c>
@@ -2609,14 +2781,14 @@
       </c>
     </row>
     <row r="64" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
-      <c r="B64" s="10" t="s">
+      <c r="A64" s="7"/>
+      <c r="B64" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D64" s="8">
         <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -2628,13 +2800,13 @@
       <c r="G64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H64" s="7" t="s">
+      <c r="H64" s="8" t="s">
         <v>59</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="7">
+      <c r="L64" s="8">
         <v>10</v>
       </c>
       <c r="M64" s="2">
@@ -2645,10 +2817,10 @@
       </c>
     </row>
     <row r="65" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="8"/>
-      <c r="D65" s="8"/>
+      <c r="A65" s="7"/>
+      <c r="B65" s="12"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9"/>
       <c r="E65" s="1" t="s">
         <v>91</v>
       </c>
@@ -2658,8 +2830,8 @@
       <c r="G65" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H65" s="8"/>
-      <c r="L65" s="8"/>
+      <c r="H65" s="9"/>
+      <c r="L65" s="9"/>
       <c r="M65" s="1">
         <v>-11</v>
       </c>
@@ -2668,10 +2840,10 @@
       </c>
     </row>
     <row r="66" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="8"/>
+      <c r="A66" s="7"/>
+      <c r="B66" s="12"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9"/>
       <c r="E66" s="1" t="s">
         <v>92</v>
       </c>
@@ -2681,8 +2853,8 @@
       <c r="G66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H66" s="8"/>
-      <c r="L66" s="8"/>
+      <c r="H66" s="9"/>
+      <c r="L66" s="9"/>
       <c r="M66" s="1">
         <v>-12</v>
       </c>
@@ -2691,12 +2863,12 @@
       </c>
     </row>
     <row r="67" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="8"/>
-      <c r="D67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="L67" s="8"/>
+      <c r="A67" s="7"/>
+      <c r="B67" s="12"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="L67" s="9"/>
       <c r="M67" s="1">
         <v>-13</v>
       </c>
@@ -2705,12 +2877,12 @@
       </c>
     </row>
     <row r="68" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="8"/>
-      <c r="D68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="L68" s="8"/>
+      <c r="A68" s="7"/>
+      <c r="B68" s="12"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="L68" s="9"/>
       <c r="M68" s="1">
         <v>-21</v>
       </c>
@@ -2719,12 +2891,12 @@
       </c>
     </row>
     <row r="69" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="8"/>
-      <c r="D69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="L69" s="8"/>
+      <c r="A69" s="7"/>
+      <c r="B69" s="12"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="L69" s="9"/>
       <c r="M69" s="1">
         <v>-22</v>
       </c>
@@ -2733,12 +2905,12 @@
       </c>
     </row>
     <row r="70" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="8"/>
-      <c r="D70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="L70" s="8"/>
+      <c r="A70" s="7"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="L70" s="9"/>
       <c r="M70" s="1">
         <v>-23</v>
       </c>
@@ -2747,12 +2919,12 @@
       </c>
     </row>
     <row r="71" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
-      <c r="B71" s="11"/>
-      <c r="C71" s="8"/>
-      <c r="D71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="L71" s="8"/>
+      <c r="A71" s="7"/>
+      <c r="B71" s="12"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="L71" s="9"/>
       <c r="M71" s="1">
         <v>-31</v>
       </c>
@@ -2761,12 +2933,12 @@
       </c>
     </row>
     <row r="72" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
-      <c r="B72" s="11"/>
-      <c r="C72" s="8"/>
-      <c r="D72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="L72" s="8"/>
+      <c r="A72" s="7"/>
+      <c r="B72" s="12"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="L72" s="9"/>
       <c r="M72" s="1">
         <v>-32</v>
       </c>
@@ -2775,18 +2947,18 @@
       </c>
     </row>
     <row r="73" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="13"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="9"/>
-      <c r="D73" s="9"/>
+      <c r="A73" s="7"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="10"/>
+      <c r="D73" s="10"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="9"/>
+      <c r="H73" s="10"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="9"/>
+      <c r="L73" s="10"/>
       <c r="M73" s="5">
         <v>-99</v>
       </c>
@@ -2795,14 +2967,14 @@
       </c>
     </row>
     <row r="74" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
-      <c r="B74" s="10" t="s">
+      <c r="A74" s="7"/>
+      <c r="B74" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D74" s="8">
         <v>3</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -2814,13 +2986,13 @@
       <c r="G74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="7" t="s">
+      <c r="H74" s="8" t="s">
         <v>59</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="7">
+      <c r="L74" s="8">
         <v>10</v>
       </c>
       <c r="M74" s="2">
@@ -2831,10 +3003,10 @@
       </c>
     </row>
     <row r="75" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
-      <c r="B75" s="11"/>
-      <c r="C75" s="8"/>
-      <c r="D75" s="8"/>
+      <c r="A75" s="7"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
       <c r="E75" s="1" t="s">
         <v>91</v>
       </c>
@@ -2844,8 +3016,8 @@
       <c r="G75" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H75" s="8"/>
-      <c r="L75" s="8"/>
+      <c r="H75" s="9"/>
+      <c r="L75" s="9"/>
       <c r="M75" s="1">
         <v>-11</v>
       </c>
@@ -2854,10 +3026,10 @@
       </c>
     </row>
     <row r="76" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
-      <c r="B76" s="11"/>
-      <c r="C76" s="8"/>
-      <c r="D76" s="8"/>
+      <c r="A76" s="7"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
       <c r="E76" s="1" t="s">
         <v>92</v>
       </c>
@@ -2867,8 +3039,8 @@
       <c r="G76" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H76" s="8"/>
-      <c r="L76" s="8"/>
+      <c r="H76" s="9"/>
+      <c r="L76" s="9"/>
       <c r="M76" s="1">
         <v>-12</v>
       </c>
@@ -2877,12 +3049,12 @@
       </c>
     </row>
     <row r="77" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
-      <c r="B77" s="11"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="L77" s="8"/>
+      <c r="A77" s="7"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="L77" s="9"/>
       <c r="M77" s="1">
         <v>-13</v>
       </c>
@@ -2891,12 +3063,12 @@
       </c>
     </row>
     <row r="78" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
-      <c r="B78" s="11"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="L78" s="8"/>
+      <c r="A78" s="7"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="L78" s="9"/>
       <c r="M78" s="1">
         <v>-21</v>
       </c>
@@ -2905,12 +3077,12 @@
       </c>
     </row>
     <row r="79" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
-      <c r="B79" s="11"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="L79" s="8"/>
+      <c r="A79" s="7"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="L79" s="9"/>
       <c r="M79" s="1">
         <v>-22</v>
       </c>
@@ -2919,12 +3091,12 @@
       </c>
     </row>
     <row r="80" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13"/>
-      <c r="B80" s="11"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="L80" s="8"/>
+      <c r="A80" s="7"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="L80" s="9"/>
       <c r="M80" s="1">
         <v>-23</v>
       </c>
@@ -2933,12 +3105,12 @@
       </c>
     </row>
     <row r="81" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="L81" s="8"/>
+      <c r="A81" s="7"/>
+      <c r="B81" s="12"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="L81" s="9"/>
       <c r="M81" s="1">
         <v>-31</v>
       </c>
@@ -2947,12 +3119,12 @@
       </c>
     </row>
     <row r="82" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
-      <c r="B82" s="11"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="L82" s="8"/>
+      <c r="A82" s="7"/>
+      <c r="B82" s="12"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="L82" s="9"/>
       <c r="M82" s="1">
         <v>-32</v>
       </c>
@@ -2961,12 +3133,12 @@
       </c>
     </row>
     <row r="83" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="13"/>
-      <c r="B83" s="11"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="L83" s="8"/>
+      <c r="A83" s="7"/>
+      <c r="B83" s="12"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="L83" s="9"/>
       <c r="M83" s="1">
         <v>-99</v>
       </c>
@@ -2975,14 +3147,14 @@
       </c>
     </row>
     <row r="84" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
-      <c r="B84" s="10" t="s">
+      <c r="A84" s="7"/>
+      <c r="B84" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="7" t="s">
+      <c r="C84" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D84" s="8">
         <v>4</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -2994,7 +3166,7 @@
       <c r="G84" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H84" s="7">
+      <c r="H84" s="8">
         <v>5</v>
       </c>
       <c r="I84" s="2" t="s">
@@ -3006,7 +3178,7 @@
       <c r="K84" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L84" s="7">
+      <c r="L84" s="8">
         <v>13</v>
       </c>
       <c r="M84" s="2">
@@ -3017,10 +3189,10 @@
       </c>
     </row>
     <row r="85" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
-      <c r="B85" s="11"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
+      <c r="A85" s="7"/>
+      <c r="B85" s="12"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
       <c r="E85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3030,7 +3202,7 @@
       <c r="G85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H85" s="8"/>
+      <c r="H85" s="9"/>
       <c r="I85" s="1" t="s">
         <v>48</v>
       </c>
@@ -3040,7 +3212,7 @@
       <c r="K85" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L85" s="8"/>
+      <c r="L85" s="9"/>
       <c r="M85" s="1">
         <v>-2</v>
       </c>
@@ -3049,10 +3221,10 @@
       </c>
     </row>
     <row r="86" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
+      <c r="A86" s="7"/>
+      <c r="B86" s="12"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
       <c r="E86" s="1" t="s">
         <v>102</v>
       </c>
@@ -3062,7 +3234,7 @@
       <c r="G86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H86" s="8"/>
+      <c r="H86" s="9"/>
       <c r="I86" s="1" t="s">
         <v>50</v>
       </c>
@@ -3072,7 +3244,7 @@
       <c r="K86" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L86" s="8"/>
+      <c r="L86" s="9"/>
       <c r="M86" s="1">
         <v>-11</v>
       </c>
@@ -3081,10 +3253,10 @@
       </c>
     </row>
     <row r="87" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
-      <c r="B87" s="11"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
+      <c r="A87" s="7"/>
+      <c r="B87" s="12"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
       <c r="E87" s="1" t="s">
         <v>15</v>
       </c>
@@ -3094,7 +3266,7 @@
       <c r="G87" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H87" s="8"/>
+      <c r="H87" s="9"/>
       <c r="I87" s="1" t="s">
         <v>52</v>
       </c>
@@ -3104,7 +3276,7 @@
       <c r="K87" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L87" s="8"/>
+      <c r="L87" s="9"/>
       <c r="M87" s="1">
         <v>-12</v>
       </c>
@@ -3113,11 +3285,11 @@
       </c>
     </row>
     <row r="88" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
-      <c r="B88" s="11"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="H88" s="8"/>
+      <c r="A88" s="7"/>
+      <c r="B88" s="12"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="H88" s="9"/>
       <c r="I88" s="1" t="s">
         <v>54</v>
       </c>
@@ -3127,7 +3299,7 @@
       <c r="K88" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L88" s="8"/>
+      <c r="L88" s="9"/>
       <c r="M88" s="1">
         <v>-13</v>
       </c>
@@ -3136,12 +3308,12 @@
       </c>
     </row>
     <row r="89" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
-      <c r="B89" s="11"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="L89" s="8"/>
+      <c r="A89" s="7"/>
+      <c r="B89" s="12"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="L89" s="9"/>
       <c r="M89" s="1">
         <v>-21</v>
       </c>
@@ -3150,12 +3322,12 @@
       </c>
     </row>
     <row r="90" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="L90" s="8"/>
+      <c r="A90" s="7"/>
+      <c r="B90" s="12"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="L90" s="9"/>
       <c r="M90" s="1">
         <v>-22</v>
       </c>
@@ -3164,12 +3336,12 @@
       </c>
     </row>
     <row r="91" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
-      <c r="B91" s="11"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="L91" s="8"/>
+      <c r="A91" s="7"/>
+      <c r="B91" s="12"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="L91" s="9"/>
       <c r="M91" s="1">
         <v>-23</v>
       </c>
@@ -3178,12 +3350,12 @@
       </c>
     </row>
     <row r="92" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
-      <c r="B92" s="11"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="L92" s="8"/>
+      <c r="A92" s="7"/>
+      <c r="B92" s="12"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="L92" s="9"/>
       <c r="M92" s="1">
         <v>-24</v>
       </c>
@@ -3192,12 +3364,12 @@
       </c>
     </row>
     <row r="93" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
-      <c r="B93" s="11"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="L93" s="8"/>
+      <c r="A93" s="7"/>
+      <c r="B93" s="12"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="L93" s="9"/>
       <c r="M93" s="1">
         <v>-25</v>
       </c>
@@ -3206,12 +3378,12 @@
       </c>
     </row>
     <row r="94" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
-      <c r="B94" s="11"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="L94" s="8"/>
+      <c r="A94" s="7"/>
+      <c r="B94" s="12"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="L94" s="9"/>
       <c r="M94" s="1">
         <v>-31</v>
       </c>
@@ -3220,12 +3392,12 @@
       </c>
     </row>
     <row r="95" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="L95" s="8"/>
+      <c r="A95" s="7"/>
+      <c r="B95" s="12"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="L95" s="9"/>
       <c r="M95" s="1">
         <v>-32</v>
       </c>
@@ -3234,18 +3406,18 @@
       </c>
     </row>
     <row r="96" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="13"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="9"/>
-      <c r="D96" s="9"/>
+      <c r="A96" s="7"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
-      <c r="H96" s="9"/>
+      <c r="H96" s="10"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="9"/>
+      <c r="L96" s="10"/>
       <c r="M96" s="5">
         <v>-99</v>
       </c>
@@ -3254,14 +3426,14 @@
       </c>
     </row>
     <row r="97" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
-      <c r="B97" s="10" t="s">
+      <c r="A97" s="7"/>
+      <c r="B97" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="7">
+      <c r="D97" s="8">
         <v>4</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -3273,7 +3445,7 @@
       <c r="G97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H97" s="7">
+      <c r="H97" s="8">
         <v>5</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -3285,7 +3457,7 @@
       <c r="K97" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L97" s="7">
+      <c r="L97" s="8">
         <v>13</v>
       </c>
       <c r="M97" s="2">
@@ -3296,10 +3468,10 @@
       </c>
     </row>
     <row r="98" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
-      <c r="B98" s="11"/>
-      <c r="C98" s="8"/>
-      <c r="D98" s="8"/>
+      <c r="A98" s="7"/>
+      <c r="B98" s="12"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9"/>
       <c r="E98" s="1" t="s">
         <v>74</v>
       </c>
@@ -3309,7 +3481,7 @@
       <c r="G98" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H98" s="8"/>
+      <c r="H98" s="9"/>
       <c r="I98" s="1" t="s">
         <v>48</v>
       </c>
@@ -3319,7 +3491,7 @@
       <c r="K98" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L98" s="8"/>
+      <c r="L98" s="9"/>
       <c r="M98" s="1">
         <v>-2</v>
       </c>
@@ -3328,10 +3500,10 @@
       </c>
     </row>
     <row r="99" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="8"/>
-      <c r="D99" s="8"/>
+      <c r="A99" s="7"/>
+      <c r="B99" s="12"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9"/>
       <c r="E99" s="1" t="s">
         <v>102</v>
       </c>
@@ -3341,7 +3513,7 @@
       <c r="G99" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H99" s="8"/>
+      <c r="H99" s="9"/>
       <c r="I99" s="1" t="s">
         <v>67</v>
       </c>
@@ -3351,7 +3523,7 @@
       <c r="K99" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L99" s="8"/>
+      <c r="L99" s="9"/>
       <c r="M99" s="1">
         <v>-11</v>
       </c>
@@ -3360,10 +3532,10 @@
       </c>
     </row>
     <row r="100" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
-      <c r="B100" s="11"/>
-      <c r="C100" s="8"/>
-      <c r="D100" s="8"/>
+      <c r="A100" s="7"/>
+      <c r="B100" s="12"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9"/>
       <c r="E100" s="1" t="s">
         <v>36</v>
       </c>
@@ -3373,7 +3545,7 @@
       <c r="G100" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H100" s="8"/>
+      <c r="H100" s="9"/>
       <c r="I100" s="1" t="s">
         <v>52</v>
       </c>
@@ -3383,7 +3555,7 @@
       <c r="K100" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L100" s="8"/>
+      <c r="L100" s="9"/>
       <c r="M100" s="1">
         <v>-12</v>
       </c>
@@ -3392,11 +3564,11 @@
       </c>
     </row>
     <row r="101" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
-      <c r="B101" s="11"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="H101" s="8"/>
+      <c r="A101" s="7"/>
+      <c r="B101" s="12"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9"/>
+      <c r="H101" s="9"/>
       <c r="I101" s="1" t="s">
         <v>54</v>
       </c>
@@ -3406,7 +3578,7 @@
       <c r="K101" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L101" s="8"/>
+      <c r="L101" s="9"/>
       <c r="M101" s="1">
         <v>-13</v>
       </c>
@@ -3415,12 +3587,12 @@
       </c>
     </row>
     <row r="102" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
-      <c r="B102" s="11"/>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="L102" s="8"/>
+      <c r="A102" s="7"/>
+      <c r="B102" s="12"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="L102" s="9"/>
       <c r="M102" s="1">
         <v>-21</v>
       </c>
@@ -3429,12 +3601,12 @@
       </c>
     </row>
     <row r="103" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
-      <c r="B103" s="11"/>
-      <c r="C103" s="8"/>
-      <c r="D103" s="8"/>
-      <c r="H103" s="8"/>
-      <c r="L103" s="8"/>
+      <c r="A103" s="7"/>
+      <c r="B103" s="12"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9"/>
+      <c r="H103" s="9"/>
+      <c r="L103" s="9"/>
       <c r="M103" s="1">
         <v>-22</v>
       </c>
@@ -3443,12 +3615,12 @@
       </c>
     </row>
     <row r="104" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
-      <c r="B104" s="11"/>
-      <c r="C104" s="8"/>
-      <c r="D104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="L104" s="8"/>
+      <c r="A104" s="7"/>
+      <c r="B104" s="12"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="L104" s="9"/>
       <c r="M104" s="1">
         <v>-23</v>
       </c>
@@ -3457,12 +3629,12 @@
       </c>
     </row>
     <row r="105" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="13"/>
-      <c r="B105" s="11"/>
-      <c r="C105" s="8"/>
-      <c r="D105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="L105" s="8"/>
+      <c r="A105" s="7"/>
+      <c r="B105" s="12"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="L105" s="9"/>
       <c r="M105" s="1">
         <v>-24</v>
       </c>
@@ -3471,12 +3643,12 @@
       </c>
     </row>
     <row r="106" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="13"/>
-      <c r="B106" s="11"/>
-      <c r="C106" s="8"/>
-      <c r="D106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="L106" s="8"/>
+      <c r="A106" s="7"/>
+      <c r="B106" s="12"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="L106" s="9"/>
       <c r="M106" s="1">
         <v>-25</v>
       </c>
@@ -3485,12 +3657,12 @@
       </c>
     </row>
     <row r="107" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="13"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="8"/>
-      <c r="D107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="L107" s="8"/>
+      <c r="A107" s="7"/>
+      <c r="B107" s="12"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="L107" s="9"/>
       <c r="M107" s="1">
         <v>-31</v>
       </c>
@@ -3499,12 +3671,12 @@
       </c>
     </row>
     <row r="108" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="8"/>
-      <c r="D108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="L108" s="8"/>
+      <c r="A108" s="7"/>
+      <c r="B108" s="12"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="L108" s="9"/>
       <c r="M108" s="1">
         <v>-32</v>
       </c>
@@ -3513,12 +3685,12 @@
       </c>
     </row>
     <row r="109" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="13"/>
-      <c r="B109" s="11"/>
-      <c r="C109" s="8"/>
-      <c r="D109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="L109" s="8"/>
+      <c r="A109" s="7"/>
+      <c r="B109" s="12"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="L109" s="9"/>
       <c r="M109" s="1">
         <v>-99</v>
       </c>
@@ -3527,16 +3699,16 @@
       </c>
     </row>
     <row r="110" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="B110" s="10" t="s">
+      <c r="A110" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B110" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="7" t="s">
+      <c r="C110" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D110" s="7">
+      <c r="D110" s="8">
         <v>5</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -3548,7 +3720,7 @@
       <c r="G110" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H110" s="7">
+      <c r="H110" s="8">
         <v>1</v>
       </c>
       <c r="I110" s="2" t="s">
@@ -3560,7 +3732,7 @@
       <c r="K110" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L110" s="7">
+      <c r="L110" s="8">
         <v>14</v>
       </c>
       <c r="M110" s="2">
@@ -3571,10 +3743,10 @@
       </c>
     </row>
     <row r="111" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
-      <c r="B111" s="11"/>
-      <c r="C111" s="8"/>
-      <c r="D111" s="8"/>
+      <c r="A111" s="7"/>
+      <c r="B111" s="12"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
       <c r="E111" s="1" t="s">
         <v>15</v>
       </c>
@@ -3584,8 +3756,8 @@
       <c r="G111" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H111" s="8"/>
-      <c r="L111" s="8"/>
+      <c r="H111" s="9"/>
+      <c r="L111" s="9"/>
       <c r="M111" s="1">
         <v>-2</v>
       </c>
@@ -3594,10 +3766,10 @@
       </c>
     </row>
     <row r="112" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
-      <c r="B112" s="11"/>
-      <c r="C112" s="8"/>
-      <c r="D112" s="8"/>
+      <c r="A112" s="7"/>
+      <c r="B112" s="12"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
       <c r="E112" s="1" t="s">
         <v>74</v>
       </c>
@@ -3607,8 +3779,8 @@
       <c r="G112" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H112" s="8"/>
-      <c r="L112" s="8"/>
+      <c r="H112" s="9"/>
+      <c r="L112" s="9"/>
       <c r="M112" s="1">
         <v>-11</v>
       </c>
@@ -3617,10 +3789,10 @@
       </c>
     </row>
     <row r="113" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="13"/>
-      <c r="B113" s="11"/>
-      <c r="C113" s="8"/>
-      <c r="D113" s="8"/>
+      <c r="A113" s="7"/>
+      <c r="B113" s="12"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
       <c r="E113" s="1" t="s">
         <v>119</v>
       </c>
@@ -3630,8 +3802,8 @@
       <c r="G113" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H113" s="8"/>
-      <c r="L113" s="8"/>
+      <c r="H113" s="9"/>
+      <c r="L113" s="9"/>
       <c r="M113" s="1">
         <v>-12</v>
       </c>
@@ -3640,10 +3812,10 @@
       </c>
     </row>
     <row r="114" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="13"/>
-      <c r="B114" s="11"/>
-      <c r="C114" s="8"/>
-      <c r="D114" s="8"/>
+      <c r="A114" s="7"/>
+      <c r="B114" s="12"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
       <c r="E114" s="1" t="s">
         <v>120</v>
       </c>
@@ -3653,8 +3825,8 @@
       <c r="G114" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H114" s="8"/>
-      <c r="L114" s="8"/>
+      <c r="H114" s="9"/>
+      <c r="L114" s="9"/>
       <c r="M114" s="1">
         <v>-13</v>
       </c>
@@ -3663,12 +3835,12 @@
       </c>
     </row>
     <row r="115" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
-      <c r="B115" s="11"/>
-      <c r="C115" s="8"/>
-      <c r="D115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="L115" s="8"/>
+      <c r="A115" s="7"/>
+      <c r="B115" s="12"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="L115" s="9"/>
       <c r="M115" s="1">
         <v>-14</v>
       </c>
@@ -3677,12 +3849,12 @@
       </c>
     </row>
     <row r="116" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="13"/>
-      <c r="B116" s="11"/>
-      <c r="C116" s="8"/>
-      <c r="D116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="L116" s="8"/>
+      <c r="A116" s="7"/>
+      <c r="B116" s="12"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="L116" s="9"/>
       <c r="M116" s="1">
         <v>-21</v>
       </c>
@@ -3691,12 +3863,12 @@
       </c>
     </row>
     <row r="117" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
-      <c r="B117" s="11"/>
-      <c r="C117" s="8"/>
-      <c r="D117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="L117" s="8"/>
+      <c r="A117" s="7"/>
+      <c r="B117" s="12"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="L117" s="9"/>
       <c r="M117" s="1">
         <v>-22</v>
       </c>
@@ -3705,12 +3877,12 @@
       </c>
     </row>
     <row r="118" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="13"/>
-      <c r="B118" s="11"/>
-      <c r="C118" s="8"/>
-      <c r="D118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="L118" s="8"/>
+      <c r="A118" s="7"/>
+      <c r="B118" s="12"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="L118" s="9"/>
       <c r="M118" s="1">
         <v>-23</v>
       </c>
@@ -3719,12 +3891,12 @@
       </c>
     </row>
     <row r="119" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="13"/>
-      <c r="B119" s="11"/>
-      <c r="C119" s="8"/>
-      <c r="D119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="L119" s="8"/>
+      <c r="A119" s="7"/>
+      <c r="B119" s="12"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="L119" s="9"/>
       <c r="M119" s="1">
         <v>-24</v>
       </c>
@@ -3733,12 +3905,12 @@
       </c>
     </row>
     <row r="120" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
-      <c r="B120" s="11"/>
-      <c r="C120" s="8"/>
-      <c r="D120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="L120" s="8"/>
+      <c r="A120" s="7"/>
+      <c r="B120" s="12"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="L120" s="9"/>
       <c r="M120" s="1">
         <v>-25</v>
       </c>
@@ -3747,12 +3919,12 @@
       </c>
     </row>
     <row r="121" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
-      <c r="B121" s="11"/>
-      <c r="C121" s="8"/>
-      <c r="D121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="L121" s="8"/>
+      <c r="A121" s="7"/>
+      <c r="B121" s="12"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="L121" s="9"/>
       <c r="M121" s="1">
         <v>-31</v>
       </c>
@@ -3761,12 +3933,12 @@
       </c>
     </row>
     <row r="122" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="13"/>
-      <c r="B122" s="11"/>
-      <c r="C122" s="8"/>
-      <c r="D122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="L122" s="8"/>
+      <c r="A122" s="7"/>
+      <c r="B122" s="12"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="L122" s="9"/>
       <c r="M122" s="1">
         <v>-32</v>
       </c>
@@ -3775,12 +3947,12 @@
       </c>
     </row>
     <row r="123" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="13"/>
-      <c r="B123" s="11"/>
-      <c r="C123" s="8"/>
-      <c r="D123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="L123" s="8"/>
+      <c r="A123" s="7"/>
+      <c r="B123" s="12"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="L123" s="9"/>
       <c r="M123" s="1">
         <v>-99</v>
       </c>
@@ -3789,14 +3961,14 @@
       </c>
     </row>
     <row r="124" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="13"/>
-      <c r="B124" s="10" t="s">
+      <c r="A124" s="7"/>
+      <c r="B124" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="7">
+      <c r="D124" s="8">
         <v>5</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -3808,13 +3980,13 @@
       <c r="G124" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H124" s="7" t="s">
+      <c r="H124" s="8" t="s">
         <v>132</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="7">
+      <c r="L124" s="8">
         <v>17</v>
       </c>
       <c r="M124" s="2">
@@ -3825,10 +3997,10 @@
       </c>
     </row>
     <row r="125" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="13"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="8"/>
-      <c r="D125" s="8"/>
+      <c r="A125" s="7"/>
+      <c r="B125" s="12"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9"/>
       <c r="E125" s="1" t="s">
         <v>15</v>
       </c>
@@ -3838,8 +4010,8 @@
       <c r="G125" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H125" s="8"/>
-      <c r="L125" s="8"/>
+      <c r="H125" s="9"/>
+      <c r="L125" s="9"/>
       <c r="M125" s="1">
         <v>-2</v>
       </c>
@@ -3848,10 +4020,10 @@
       </c>
     </row>
     <row r="126" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="13"/>
-      <c r="B126" s="11"/>
-      <c r="C126" s="8"/>
-      <c r="D126" s="8"/>
+      <c r="A126" s="7"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9"/>
       <c r="E126" s="1" t="s">
         <v>74</v>
       </c>
@@ -3861,8 +4033,8 @@
       <c r="G126" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H126" s="8"/>
-      <c r="L126" s="8"/>
+      <c r="H126" s="9"/>
+      <c r="L126" s="9"/>
       <c r="M126" s="1">
         <v>-11</v>
       </c>
@@ -3871,10 +4043,10 @@
       </c>
     </row>
     <row r="127" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="13"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="8"/>
-      <c r="D127" s="8"/>
+      <c r="A127" s="7"/>
+      <c r="B127" s="12"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9"/>
       <c r="E127" s="1" t="s">
         <v>119</v>
       </c>
@@ -3884,8 +4056,8 @@
       <c r="G127" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H127" s="8"/>
-      <c r="L127" s="8"/>
+      <c r="H127" s="9"/>
+      <c r="L127" s="9"/>
       <c r="M127" s="1">
         <v>-12</v>
       </c>
@@ -3894,10 +4066,10 @@
       </c>
     </row>
     <row r="128" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
-      <c r="B128" s="11"/>
-      <c r="C128" s="8"/>
-      <c r="D128" s="8"/>
+      <c r="A128" s="7"/>
+      <c r="B128" s="12"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9"/>
       <c r="E128" s="1" t="s">
         <v>120</v>
       </c>
@@ -3907,8 +4079,8 @@
       <c r="G128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H128" s="8"/>
-      <c r="L128" s="8"/>
+      <c r="H128" s="9"/>
+      <c r="L128" s="9"/>
       <c r="M128" s="1">
         <v>-13</v>
       </c>
@@ -3917,12 +4089,12 @@
       </c>
     </row>
     <row r="129" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="13"/>
-      <c r="B129" s="11"/>
-      <c r="C129" s="8"/>
-      <c r="D129" s="8"/>
-      <c r="H129" s="8"/>
-      <c r="L129" s="8"/>
+      <c r="A129" s="7"/>
+      <c r="B129" s="12"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9"/>
+      <c r="H129" s="9"/>
+      <c r="L129" s="9"/>
       <c r="M129" s="1">
         <v>-14</v>
       </c>
@@ -3931,12 +4103,12 @@
       </c>
     </row>
     <row r="130" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="13"/>
-      <c r="B130" s="11"/>
-      <c r="C130" s="8"/>
-      <c r="D130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="L130" s="8"/>
+      <c r="A130" s="7"/>
+      <c r="B130" s="12"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="L130" s="9"/>
       <c r="M130" s="1">
         <v>-15</v>
       </c>
@@ -3945,12 +4117,12 @@
       </c>
     </row>
     <row r="131" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="13"/>
-      <c r="B131" s="11"/>
-      <c r="C131" s="8"/>
-      <c r="D131" s="8"/>
-      <c r="H131" s="8"/>
-      <c r="L131" s="8"/>
+      <c r="A131" s="7"/>
+      <c r="B131" s="12"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9"/>
+      <c r="H131" s="9"/>
+      <c r="L131" s="9"/>
       <c r="M131" s="1">
         <v>-21</v>
       </c>
@@ -3959,12 +4131,12 @@
       </c>
     </row>
     <row r="132" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="13"/>
-      <c r="B132" s="11"/>
-      <c r="C132" s="8"/>
-      <c r="D132" s="8"/>
-      <c r="H132" s="8"/>
-      <c r="L132" s="8"/>
+      <c r="A132" s="7"/>
+      <c r="B132" s="12"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9"/>
+      <c r="H132" s="9"/>
+      <c r="L132" s="9"/>
       <c r="M132" s="1">
         <v>-22</v>
       </c>
@@ -3973,12 +4145,12 @@
       </c>
     </row>
     <row r="133" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="13"/>
-      <c r="B133" s="11"/>
-      <c r="C133" s="8"/>
-      <c r="D133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="L133" s="8"/>
+      <c r="A133" s="7"/>
+      <c r="B133" s="12"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="L133" s="9"/>
       <c r="M133" s="1">
         <v>-23</v>
       </c>
@@ -3987,12 +4159,12 @@
       </c>
     </row>
     <row r="134" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="13"/>
-      <c r="B134" s="11"/>
-      <c r="C134" s="8"/>
-      <c r="D134" s="8"/>
-      <c r="H134" s="8"/>
-      <c r="L134" s="8"/>
+      <c r="A134" s="7"/>
+      <c r="B134" s="12"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9"/>
+      <c r="H134" s="9"/>
+      <c r="L134" s="9"/>
       <c r="M134" s="1">
         <v>-24</v>
       </c>
@@ -4001,12 +4173,12 @@
       </c>
     </row>
     <row r="135" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="13"/>
-      <c r="B135" s="11"/>
-      <c r="C135" s="8"/>
-      <c r="D135" s="8"/>
-      <c r="H135" s="8"/>
-      <c r="L135" s="8"/>
+      <c r="A135" s="7"/>
+      <c r="B135" s="12"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9"/>
+      <c r="H135" s="9"/>
+      <c r="L135" s="9"/>
       <c r="M135" s="1">
         <v>-25</v>
       </c>
@@ -4015,12 +4187,12 @@
       </c>
     </row>
     <row r="136" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="13"/>
-      <c r="B136" s="11"/>
-      <c r="C136" s="8"/>
-      <c r="D136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="L136" s="8"/>
+      <c r="A136" s="7"/>
+      <c r="B136" s="12"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="L136" s="9"/>
       <c r="M136" s="1">
         <v>-26</v>
       </c>
@@ -4029,12 +4201,12 @@
       </c>
     </row>
     <row r="137" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="13"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="8"/>
-      <c r="D137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="L137" s="8"/>
+      <c r="A137" s="7"/>
+      <c r="B137" s="12"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="L137" s="9"/>
       <c r="M137" s="1">
         <v>-27</v>
       </c>
@@ -4043,12 +4215,12 @@
       </c>
     </row>
     <row r="138" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="13"/>
-      <c r="B138" s="11"/>
-      <c r="C138" s="8"/>
-      <c r="D138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="L138" s="8"/>
+      <c r="A138" s="7"/>
+      <c r="B138" s="12"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="L138" s="9"/>
       <c r="M138" s="1">
         <v>-31</v>
       </c>
@@ -4057,12 +4229,12 @@
       </c>
     </row>
     <row r="139" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="13"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="8"/>
-      <c r="D139" s="8"/>
-      <c r="H139" s="8"/>
-      <c r="L139" s="8"/>
+      <c r="A139" s="7"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9"/>
+      <c r="H139" s="9"/>
+      <c r="L139" s="9"/>
       <c r="M139" s="1">
         <v>-32</v>
       </c>
@@ -4071,18 +4243,18 @@
       </c>
     </row>
     <row r="140" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="13"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
+      <c r="A140" s="7"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="9"/>
+      <c r="H140" s="10"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
-      <c r="L140" s="9"/>
+      <c r="L140" s="10"/>
       <c r="M140" s="5">
         <v>-99</v>
       </c>
@@ -4091,14 +4263,14 @@
       </c>
     </row>
     <row r="141" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="13"/>
-      <c r="B141" s="10" t="s">
+      <c r="A141" s="7"/>
+      <c r="B141" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="7" t="s">
+      <c r="C141" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="7">
+      <c r="D141" s="8">
         <v>4</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -4110,13 +4282,13 @@
       <c r="G141" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H141" s="7" t="s">
+      <c r="H141" s="8" t="s">
         <v>132</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="7">
+      <c r="L141" s="8">
         <v>17</v>
       </c>
       <c r="M141" s="2">
@@ -4127,10 +4299,10 @@
       </c>
     </row>
     <row r="142" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="13"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="8"/>
-      <c r="D142" s="8"/>
+      <c r="A142" s="7"/>
+      <c r="B142" s="12"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9"/>
       <c r="E142" s="1" t="s">
         <v>15</v>
       </c>
@@ -4140,8 +4312,8 @@
       <c r="G142" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H142" s="8"/>
-      <c r="L142" s="8"/>
+      <c r="H142" s="9"/>
+      <c r="L142" s="9"/>
       <c r="M142" s="1">
         <v>-2</v>
       </c>
@@ -4150,10 +4322,10 @@
       </c>
     </row>
     <row r="143" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="13"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="8"/>
-      <c r="D143" s="8"/>
+      <c r="A143" s="7"/>
+      <c r="B143" s="12"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9"/>
       <c r="E143" s="1" t="s">
         <v>74</v>
       </c>
@@ -4163,8 +4335,8 @@
       <c r="G143" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H143" s="8"/>
-      <c r="L143" s="8"/>
+      <c r="H143" s="9"/>
+      <c r="L143" s="9"/>
       <c r="M143" s="1">
         <v>-11</v>
       </c>
@@ -4173,10 +4345,10 @@
       </c>
     </row>
     <row r="144" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="13"/>
-      <c r="B144" s="11"/>
-      <c r="C144" s="8"/>
-      <c r="D144" s="8"/>
+      <c r="A144" s="7"/>
+      <c r="B144" s="12"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
       <c r="E144" s="1" t="s">
         <v>141</v>
       </c>
@@ -4186,8 +4358,8 @@
       <c r="G144" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H144" s="8"/>
-      <c r="L144" s="8"/>
+      <c r="H144" s="9"/>
+      <c r="L144" s="9"/>
       <c r="M144" s="1">
         <v>-12</v>
       </c>
@@ -4196,12 +4368,12 @@
       </c>
     </row>
     <row r="145" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="13"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="8"/>
-      <c r="D145" s="8"/>
-      <c r="H145" s="8"/>
-      <c r="L145" s="8"/>
+      <c r="A145" s="7"/>
+      <c r="B145" s="12"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9"/>
+      <c r="H145" s="9"/>
+      <c r="L145" s="9"/>
       <c r="M145" s="1">
         <v>-13</v>
       </c>
@@ -4210,12 +4382,12 @@
       </c>
     </row>
     <row r="146" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="13"/>
-      <c r="B146" s="11"/>
-      <c r="C146" s="8"/>
-      <c r="D146" s="8"/>
-      <c r="H146" s="8"/>
-      <c r="L146" s="8"/>
+      <c r="A146" s="7"/>
+      <c r="B146" s="12"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9"/>
+      <c r="H146" s="9"/>
+      <c r="L146" s="9"/>
       <c r="M146" s="1">
         <v>-14</v>
       </c>
@@ -4224,12 +4396,12 @@
       </c>
     </row>
     <row r="147" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="13"/>
-      <c r="B147" s="11"/>
-      <c r="C147" s="8"/>
-      <c r="D147" s="8"/>
-      <c r="H147" s="8"/>
-      <c r="L147" s="8"/>
+      <c r="A147" s="7"/>
+      <c r="B147" s="12"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9"/>
+      <c r="H147" s="9"/>
+      <c r="L147" s="9"/>
       <c r="M147" s="1">
         <v>-15</v>
       </c>
@@ -4238,12 +4410,12 @@
       </c>
     </row>
     <row r="148" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="13"/>
-      <c r="B148" s="11"/>
-      <c r="C148" s="8"/>
-      <c r="D148" s="8"/>
-      <c r="H148" s="8"/>
-      <c r="L148" s="8"/>
+      <c r="A148" s="7"/>
+      <c r="B148" s="12"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9"/>
+      <c r="H148" s="9"/>
+      <c r="L148" s="9"/>
       <c r="M148" s="1">
         <v>-21</v>
       </c>
@@ -4252,12 +4424,12 @@
       </c>
     </row>
     <row r="149" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="13"/>
-      <c r="B149" s="11"/>
-      <c r="C149" s="8"/>
-      <c r="D149" s="8"/>
-      <c r="H149" s="8"/>
-      <c r="L149" s="8"/>
+      <c r="A149" s="7"/>
+      <c r="B149" s="12"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9"/>
+      <c r="H149" s="9"/>
+      <c r="L149" s="9"/>
       <c r="M149" s="1">
         <v>-22</v>
       </c>
@@ -4266,12 +4438,12 @@
       </c>
     </row>
     <row r="150" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="13"/>
-      <c r="B150" s="11"/>
-      <c r="C150" s="8"/>
-      <c r="D150" s="8"/>
-      <c r="H150" s="8"/>
-      <c r="L150" s="8"/>
+      <c r="A150" s="7"/>
+      <c r="B150" s="12"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9"/>
+      <c r="H150" s="9"/>
+      <c r="L150" s="9"/>
       <c r="M150" s="1">
         <v>-23</v>
       </c>
@@ -4280,12 +4452,12 @@
       </c>
     </row>
     <row r="151" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="13"/>
-      <c r="B151" s="11"/>
-      <c r="C151" s="8"/>
-      <c r="D151" s="8"/>
-      <c r="H151" s="8"/>
-      <c r="L151" s="8"/>
+      <c r="A151" s="7"/>
+      <c r="B151" s="12"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9"/>
+      <c r="H151" s="9"/>
+      <c r="L151" s="9"/>
       <c r="M151" s="1">
         <v>-24</v>
       </c>
@@ -4294,12 +4466,12 @@
       </c>
     </row>
     <row r="152" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="13"/>
-      <c r="B152" s="11"/>
-      <c r="C152" s="8"/>
-      <c r="D152" s="8"/>
-      <c r="H152" s="8"/>
-      <c r="L152" s="8"/>
+      <c r="A152" s="7"/>
+      <c r="B152" s="12"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="L152" s="9"/>
       <c r="M152" s="1">
         <v>-25</v>
       </c>
@@ -4308,12 +4480,12 @@
       </c>
     </row>
     <row r="153" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="13"/>
-      <c r="B153" s="11"/>
-      <c r="C153" s="8"/>
-      <c r="D153" s="8"/>
-      <c r="H153" s="8"/>
-      <c r="L153" s="8"/>
+      <c r="A153" s="7"/>
+      <c r="B153" s="12"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9"/>
+      <c r="H153" s="9"/>
+      <c r="L153" s="9"/>
       <c r="M153" s="1">
         <v>-26</v>
       </c>
@@ -4322,12 +4494,12 @@
       </c>
     </row>
     <row r="154" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="13"/>
-      <c r="B154" s="11"/>
-      <c r="C154" s="8"/>
-      <c r="D154" s="8"/>
-      <c r="H154" s="8"/>
-      <c r="L154" s="8"/>
+      <c r="A154" s="7"/>
+      <c r="B154" s="12"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9"/>
+      <c r="H154" s="9"/>
+      <c r="L154" s="9"/>
       <c r="M154" s="1">
         <v>-27</v>
       </c>
@@ -4336,12 +4508,12 @@
       </c>
     </row>
     <row r="155" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="13"/>
-      <c r="B155" s="11"/>
-      <c r="C155" s="8"/>
-      <c r="D155" s="8"/>
-      <c r="H155" s="8"/>
-      <c r="L155" s="8"/>
+      <c r="A155" s="7"/>
+      <c r="B155" s="12"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="H155" s="9"/>
+      <c r="L155" s="9"/>
       <c r="M155" s="1">
         <v>-31</v>
       </c>
@@ -4350,12 +4522,12 @@
       </c>
     </row>
     <row r="156" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="13"/>
-      <c r="B156" s="11"/>
-      <c r="C156" s="8"/>
-      <c r="D156" s="8"/>
-      <c r="H156" s="8"/>
-      <c r="L156" s="8"/>
+      <c r="A156" s="7"/>
+      <c r="B156" s="12"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9"/>
+      <c r="H156" s="9"/>
+      <c r="L156" s="9"/>
       <c r="M156" s="1">
         <v>-32</v>
       </c>
@@ -4364,18 +4536,18 @@
       </c>
     </row>
     <row r="157" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="13"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="9"/>
-      <c r="D157" s="9"/>
+      <c r="A157" s="7"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="10"/>
+      <c r="D157" s="10"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="9"/>
+      <c r="H157" s="10"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
-      <c r="L157" s="9"/>
+      <c r="L157" s="10"/>
       <c r="M157" s="5">
         <v>-99</v>
       </c>
@@ -4384,14 +4556,14 @@
       </c>
     </row>
     <row r="158" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="13"/>
-      <c r="B158" s="10" t="s">
+      <c r="A158" s="7"/>
+      <c r="B158" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="C158" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="C158" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="D158" s="7">
+      <c r="D158" s="8">
         <v>4</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -4403,13 +4575,13 @@
       <c r="G158" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H158" s="7" t="s">
+      <c r="H158" s="8" t="s">
         <v>132</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
-      <c r="L158" s="7">
+      <c r="L158" s="8">
         <v>18</v>
       </c>
       <c r="M158" s="2">
@@ -4420,10 +4592,10 @@
       </c>
     </row>
     <row r="159" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="13"/>
-      <c r="B159" s="11"/>
-      <c r="C159" s="8"/>
-      <c r="D159" s="8"/>
+      <c r="A159" s="7"/>
+      <c r="B159" s="12"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9"/>
       <c r="E159" s="1" t="s">
         <v>15</v>
       </c>
@@ -4433,8 +4605,8 @@
       <c r="G159" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H159" s="8"/>
-      <c r="L159" s="8"/>
+      <c r="H159" s="9"/>
+      <c r="L159" s="9"/>
       <c r="M159" s="1">
         <v>-2</v>
       </c>
@@ -4443,10 +4615,10 @@
       </c>
     </row>
     <row r="160" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="13"/>
-      <c r="B160" s="11"/>
-      <c r="C160" s="8"/>
-      <c r="D160" s="8"/>
+      <c r="A160" s="7"/>
+      <c r="B160" s="12"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9"/>
       <c r="E160" s="1" t="s">
         <v>74</v>
       </c>
@@ -4456,8 +4628,8 @@
       <c r="G160" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H160" s="8"/>
-      <c r="L160" s="8"/>
+      <c r="H160" s="9"/>
+      <c r="L160" s="9"/>
       <c r="M160" s="1">
         <v>-11</v>
       </c>
@@ -4466,21 +4638,21 @@
       </c>
     </row>
     <row r="161" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="13"/>
-      <c r="B161" s="11"/>
-      <c r="C161" s="8"/>
-      <c r="D161" s="8"/>
+      <c r="A161" s="7"/>
+      <c r="B161" s="12"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9"/>
       <c r="E161" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="G161" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="H161" s="8"/>
-      <c r="L161" s="8"/>
+      <c r="G161" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="H161" s="9"/>
+      <c r="L161" s="9"/>
       <c r="M161" s="1">
         <v>-12</v>
       </c>
@@ -4489,12 +4661,12 @@
       </c>
     </row>
     <row r="162" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="13"/>
-      <c r="B162" s="11"/>
-      <c r="C162" s="8"/>
-      <c r="D162" s="8"/>
-      <c r="H162" s="8"/>
-      <c r="L162" s="8"/>
+      <c r="A162" s="7"/>
+      <c r="B162" s="12"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9"/>
+      <c r="H162" s="9"/>
+      <c r="L162" s="9"/>
       <c r="M162" s="1">
         <v>-13</v>
       </c>
@@ -4503,12 +4675,12 @@
       </c>
     </row>
     <row r="163" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="13"/>
-      <c r="B163" s="11"/>
-      <c r="C163" s="8"/>
-      <c r="D163" s="8"/>
-      <c r="H163" s="8"/>
-      <c r="L163" s="8"/>
+      <c r="A163" s="7"/>
+      <c r="B163" s="12"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="H163" s="9"/>
+      <c r="L163" s="9"/>
       <c r="M163" s="1">
         <v>-14</v>
       </c>
@@ -4517,12 +4689,12 @@
       </c>
     </row>
     <row r="164" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="13"/>
-      <c r="B164" s="11"/>
-      <c r="C164" s="8"/>
-      <c r="D164" s="8"/>
-      <c r="H164" s="8"/>
-      <c r="L164" s="8"/>
+      <c r="A164" s="7"/>
+      <c r="B164" s="12"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="L164" s="9"/>
       <c r="M164" s="1">
         <v>-15</v>
       </c>
@@ -4531,12 +4703,12 @@
       </c>
     </row>
     <row r="165" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="13"/>
-      <c r="B165" s="11"/>
-      <c r="C165" s="8"/>
-      <c r="D165" s="8"/>
-      <c r="H165" s="8"/>
-      <c r="L165" s="8"/>
+      <c r="A165" s="7"/>
+      <c r="B165" s="12"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9"/>
+      <c r="H165" s="9"/>
+      <c r="L165" s="9"/>
       <c r="M165" s="1">
         <v>-21</v>
       </c>
@@ -4545,12 +4717,12 @@
       </c>
     </row>
     <row r="166" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="13"/>
-      <c r="B166" s="11"/>
-      <c r="C166" s="8"/>
-      <c r="D166" s="8"/>
-      <c r="H166" s="8"/>
-      <c r="L166" s="8"/>
+      <c r="A166" s="7"/>
+      <c r="B166" s="12"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9"/>
+      <c r="H166" s="9"/>
+      <c r="L166" s="9"/>
       <c r="M166" s="1">
         <v>-22</v>
       </c>
@@ -4559,12 +4731,12 @@
       </c>
     </row>
     <row r="167" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="13"/>
-      <c r="B167" s="11"/>
-      <c r="C167" s="8"/>
-      <c r="D167" s="8"/>
-      <c r="H167" s="8"/>
-      <c r="L167" s="8"/>
+      <c r="A167" s="7"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9"/>
+      <c r="H167" s="9"/>
+      <c r="L167" s="9"/>
       <c r="M167" s="1">
         <v>-23</v>
       </c>
@@ -4573,12 +4745,12 @@
       </c>
     </row>
     <row r="168" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="13"/>
-      <c r="B168" s="11"/>
-      <c r="C168" s="8"/>
-      <c r="D168" s="8"/>
-      <c r="H168" s="8"/>
-      <c r="L168" s="8"/>
+      <c r="A168" s="7"/>
+      <c r="B168" s="12"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="H168" s="9"/>
+      <c r="L168" s="9"/>
       <c r="M168" s="1">
         <v>-24</v>
       </c>
@@ -4587,12 +4759,12 @@
       </c>
     </row>
     <row r="169" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="13"/>
-      <c r="B169" s="11"/>
-      <c r="C169" s="8"/>
-      <c r="D169" s="8"/>
-      <c r="H169" s="8"/>
-      <c r="L169" s="8"/>
+      <c r="A169" s="7"/>
+      <c r="B169" s="12"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9"/>
+      <c r="H169" s="9"/>
+      <c r="L169" s="9"/>
       <c r="M169" s="1">
         <v>-25</v>
       </c>
@@ -4601,12 +4773,12 @@
       </c>
     </row>
     <row r="170" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="13"/>
-      <c r="B170" s="11"/>
-      <c r="C170" s="8"/>
-      <c r="D170" s="8"/>
-      <c r="H170" s="8"/>
-      <c r="L170" s="8"/>
+      <c r="A170" s="7"/>
+      <c r="B170" s="12"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9"/>
+      <c r="H170" s="9"/>
+      <c r="L170" s="9"/>
       <c r="M170" s="1">
         <v>-26</v>
       </c>
@@ -4615,12 +4787,12 @@
       </c>
     </row>
     <row r="171" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="13"/>
-      <c r="B171" s="11"/>
-      <c r="C171" s="8"/>
-      <c r="D171" s="8"/>
-      <c r="H171" s="8"/>
-      <c r="L171" s="8"/>
+      <c r="A171" s="7"/>
+      <c r="B171" s="12"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9"/>
+      <c r="H171" s="9"/>
+      <c r="L171" s="9"/>
       <c r="M171" s="1">
         <v>-27</v>
       </c>
@@ -4629,12 +4801,12 @@
       </c>
     </row>
     <row r="172" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="13"/>
-      <c r="B172" s="11"/>
-      <c r="C172" s="8"/>
-      <c r="D172" s="8"/>
-      <c r="H172" s="8"/>
-      <c r="L172" s="8"/>
+      <c r="A172" s="7"/>
+      <c r="B172" s="12"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9"/>
+      <c r="H172" s="9"/>
+      <c r="L172" s="9"/>
       <c r="M172" s="1">
         <v>-28</v>
       </c>
@@ -4643,12 +4815,12 @@
       </c>
     </row>
     <row r="173" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="13"/>
-      <c r="B173" s="11"/>
-      <c r="C173" s="8"/>
-      <c r="D173" s="8"/>
-      <c r="H173" s="8"/>
-      <c r="L173" s="8"/>
+      <c r="A173" s="7"/>
+      <c r="B173" s="12"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9"/>
+      <c r="H173" s="9"/>
+      <c r="L173" s="9"/>
       <c r="M173" s="1">
         <v>-31</v>
       </c>
@@ -4657,12 +4829,12 @@
       </c>
     </row>
     <row r="174" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="13"/>
-      <c r="B174" s="11"/>
-      <c r="C174" s="8"/>
-      <c r="D174" s="8"/>
-      <c r="H174" s="8"/>
-      <c r="L174" s="8"/>
+      <c r="A174" s="7"/>
+      <c r="B174" s="12"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9"/>
+      <c r="H174" s="9"/>
+      <c r="L174" s="9"/>
       <c r="M174" s="1">
         <v>-32</v>
       </c>
@@ -4671,18 +4843,18 @@
       </c>
     </row>
     <row r="175" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="13"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="9"/>
-      <c r="D175" s="9"/>
+      <c r="A175" s="7"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="10"/>
+      <c r="D175" s="10"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="9"/>
+      <c r="H175" s="10"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
-      <c r="L175" s="9"/>
+      <c r="L175" s="10"/>
       <c r="M175" s="5">
         <v>-99</v>
       </c>
@@ -4691,14 +4863,14 @@
       </c>
     </row>
     <row r="176" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="13"/>
-      <c r="B176" s="10" t="s">
+      <c r="A176" s="7"/>
+      <c r="B176" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="D176" s="7">
+      <c r="D176" s="8">
         <v>3</v>
       </c>
       <c r="E176" s="2" t="s">
@@ -4710,13 +4882,13 @@
       <c r="G176" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H176" s="7" t="s">
+      <c r="H176" s="8" t="s">
         <v>132</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-      <c r="L176" s="7">
+      <c r="L176" s="8">
         <v>16</v>
       </c>
       <c r="M176" s="2">
@@ -4727,10 +4899,10 @@
       </c>
     </row>
     <row r="177" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="13"/>
-      <c r="B177" s="11"/>
-      <c r="C177" s="8"/>
-      <c r="D177" s="8"/>
+      <c r="A177" s="7"/>
+      <c r="B177" s="12"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9"/>
       <c r="E177" s="1" t="s">
         <v>15</v>
       </c>
@@ -4740,8 +4912,8 @@
       <c r="G177" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H177" s="8"/>
-      <c r="L177" s="8"/>
+      <c r="H177" s="9"/>
+      <c r="L177" s="9"/>
       <c r="M177" s="1">
         <v>-2</v>
       </c>
@@ -4750,15 +4922,15 @@
       </c>
     </row>
     <row r="178" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="13"/>
-      <c r="B178" s="11"/>
-      <c r="C178" s="8"/>
-      <c r="D178" s="8"/>
+      <c r="A178" s="7"/>
+      <c r="B178" s="12"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9"/>
       <c r="E178" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H178" s="8"/>
-      <c r="L178" s="8"/>
+      <c r="H178" s="9"/>
+      <c r="L178" s="9"/>
       <c r="M178" s="1">
         <v>-11</v>
       </c>
@@ -4767,12 +4939,12 @@
       </c>
     </row>
     <row r="179" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="13"/>
-      <c r="B179" s="11"/>
-      <c r="C179" s="8"/>
-      <c r="D179" s="8"/>
-      <c r="H179" s="8"/>
-      <c r="L179" s="8"/>
+      <c r="A179" s="7"/>
+      <c r="B179" s="12"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9"/>
+      <c r="H179" s="9"/>
+      <c r="L179" s="9"/>
       <c r="M179" s="1">
         <v>-12</v>
       </c>
@@ -4781,12 +4953,12 @@
       </c>
     </row>
     <row r="180" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="13"/>
-      <c r="B180" s="11"/>
-      <c r="C180" s="8"/>
-      <c r="D180" s="8"/>
-      <c r="H180" s="8"/>
-      <c r="L180" s="8"/>
+      <c r="A180" s="7"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9"/>
+      <c r="H180" s="9"/>
+      <c r="L180" s="9"/>
       <c r="M180" s="1">
         <v>-13</v>
       </c>
@@ -4795,12 +4967,12 @@
       </c>
     </row>
     <row r="181" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="13"/>
-      <c r="B181" s="11"/>
-      <c r="C181" s="8"/>
-      <c r="D181" s="8"/>
-      <c r="H181" s="8"/>
-      <c r="L181" s="8"/>
+      <c r="A181" s="7"/>
+      <c r="B181" s="12"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9"/>
+      <c r="H181" s="9"/>
+      <c r="L181" s="9"/>
       <c r="M181" s="1">
         <v>-14</v>
       </c>
@@ -4809,12 +4981,12 @@
       </c>
     </row>
     <row r="182" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="13"/>
-      <c r="B182" s="11"/>
-      <c r="C182" s="8"/>
-      <c r="D182" s="8"/>
-      <c r="H182" s="8"/>
-      <c r="L182" s="8"/>
+      <c r="A182" s="7"/>
+      <c r="B182" s="12"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9"/>
+      <c r="H182" s="9"/>
+      <c r="L182" s="9"/>
       <c r="M182" s="1">
         <v>-21</v>
       </c>
@@ -4823,12 +4995,12 @@
       </c>
     </row>
     <row r="183" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="13"/>
-      <c r="B183" s="11"/>
-      <c r="C183" s="8"/>
-      <c r="D183" s="8"/>
-      <c r="H183" s="8"/>
-      <c r="L183" s="8"/>
+      <c r="A183" s="7"/>
+      <c r="B183" s="12"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9"/>
+      <c r="H183" s="9"/>
+      <c r="L183" s="9"/>
       <c r="M183" s="1">
         <v>-22</v>
       </c>
@@ -4837,12 +5009,12 @@
       </c>
     </row>
     <row r="184" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="13"/>
-      <c r="B184" s="11"/>
-      <c r="C184" s="8"/>
-      <c r="D184" s="8"/>
-      <c r="H184" s="8"/>
-      <c r="L184" s="8"/>
+      <c r="A184" s="7"/>
+      <c r="B184" s="12"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9"/>
+      <c r="H184" s="9"/>
+      <c r="L184" s="9"/>
       <c r="M184" s="1">
         <v>-23</v>
       </c>
@@ -4851,12 +5023,12 @@
       </c>
     </row>
     <row r="185" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="13"/>
-      <c r="B185" s="11"/>
-      <c r="C185" s="8"/>
-      <c r="D185" s="8"/>
-      <c r="H185" s="8"/>
-      <c r="L185" s="8"/>
+      <c r="A185" s="7"/>
+      <c r="B185" s="12"/>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="H185" s="9"/>
+      <c r="L185" s="9"/>
       <c r="M185" s="1">
         <v>-24</v>
       </c>
@@ -4865,12 +5037,12 @@
       </c>
     </row>
     <row r="186" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="13"/>
-      <c r="B186" s="11"/>
-      <c r="C186" s="8"/>
-      <c r="D186" s="8"/>
-      <c r="H186" s="8"/>
-      <c r="L186" s="8"/>
+      <c r="A186" s="7"/>
+      <c r="B186" s="12"/>
+      <c r="C186" s="9"/>
+      <c r="D186" s="9"/>
+      <c r="H186" s="9"/>
+      <c r="L186" s="9"/>
       <c r="M186" s="1">
         <v>-25</v>
       </c>
@@ -4879,12 +5051,12 @@
       </c>
     </row>
     <row r="187" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="13"/>
-      <c r="B187" s="11"/>
-      <c r="C187" s="8"/>
-      <c r="D187" s="8"/>
-      <c r="H187" s="8"/>
-      <c r="L187" s="8"/>
+      <c r="A187" s="7"/>
+      <c r="B187" s="12"/>
+      <c r="C187" s="9"/>
+      <c r="D187" s="9"/>
+      <c r="H187" s="9"/>
+      <c r="L187" s="9"/>
       <c r="M187" s="1">
         <v>-26</v>
       </c>
@@ -4893,12 +5065,12 @@
       </c>
     </row>
     <row r="188" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="13"/>
-      <c r="B188" s="11"/>
-      <c r="C188" s="8"/>
-      <c r="D188" s="8"/>
-      <c r="H188" s="8"/>
-      <c r="L188" s="8"/>
+      <c r="A188" s="7"/>
+      <c r="B188" s="12"/>
+      <c r="C188" s="9"/>
+      <c r="D188" s="9"/>
+      <c r="H188" s="9"/>
+      <c r="L188" s="9"/>
       <c r="M188" s="1">
         <v>-27</v>
       </c>
@@ -4907,12 +5079,12 @@
       </c>
     </row>
     <row r="189" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="13"/>
-      <c r="B189" s="11"/>
-      <c r="C189" s="8"/>
-      <c r="D189" s="8"/>
-      <c r="H189" s="8"/>
-      <c r="L189" s="8"/>
+      <c r="A189" s="7"/>
+      <c r="B189" s="12"/>
+      <c r="C189" s="9"/>
+      <c r="D189" s="9"/>
+      <c r="H189" s="9"/>
+      <c r="L189" s="9"/>
       <c r="M189" s="1">
         <v>-31</v>
       </c>
@@ -4921,12 +5093,12 @@
       </c>
     </row>
     <row r="190" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="13"/>
-      <c r="B190" s="11"/>
-      <c r="C190" s="8"/>
-      <c r="D190" s="8"/>
-      <c r="H190" s="8"/>
-      <c r="L190" s="8"/>
+      <c r="A190" s="7"/>
+      <c r="B190" s="12"/>
+      <c r="C190" s="9"/>
+      <c r="D190" s="9"/>
+      <c r="H190" s="9"/>
+      <c r="L190" s="9"/>
       <c r="M190" s="1">
         <v>-32</v>
       </c>
@@ -4935,19 +5107,13 @@
       </c>
     </row>
     <row r="191" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A191" s="13"/>
-      <c r="B191" s="11"/>
-      <c r="C191" s="14"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="15"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="15"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="15"/>
-      <c r="L191" s="14"/>
-      <c r="M191" s="15">
+      <c r="A191" s="7"/>
+      <c r="B191" s="12"/>
+      <c r="C191" s="9"/>
+      <c r="D191" s="9"/>
+      <c r="H191" s="9"/>
+      <c r="L191" s="9"/>
+      <c r="M191" s="1">
         <v>-99</v>
       </c>
       <c r="N191" s="4" t="s">
@@ -4955,14 +5121,14 @@
       </c>
     </row>
     <row r="192" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="13"/>
-      <c r="B192" s="10" t="s">
+      <c r="A192" s="7"/>
+      <c r="B192" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="C192" s="7" t="s">
+      <c r="C192" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="D192" s="7">
+      <c r="D192" s="8">
         <v>2</v>
       </c>
       <c r="E192" s="2" t="s">
@@ -4974,7 +5140,7 @@
       <c r="G192" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H192" s="7">
+      <c r="H192" s="8">
         <v>1</v>
       </c>
       <c r="I192" s="2" t="s">
@@ -4984,38 +5150,35 @@
         <v>154</v>
       </c>
       <c r="K192" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L192" s="8">
+        <v>16</v>
+      </c>
+      <c r="M192" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="L192" s="7">
-        <v>16</v>
-      </c>
-      <c r="M192" s="2" t="s">
+      <c r="N192" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="N192" s="3" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="193" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="13"/>
-      <c r="B193" s="11"/>
-      <c r="C193" s="14"/>
-      <c r="D193" s="14"/>
-      <c r="E193" s="15" t="s">
+      <c r="A193" s="7"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="9"/>
+      <c r="D193" s="9"/>
+      <c r="E193" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F193" s="15" t="s">
+      <c r="F193" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G193" s="15" t="s">
+      <c r="G193" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H193" s="14"/>
-      <c r="I193" s="15"/>
-      <c r="J193" s="15"/>
-      <c r="K193" s="15"/>
-      <c r="L193" s="14"/>
-      <c r="M193" s="15">
+      <c r="H193" s="9"/>
+      <c r="L193" s="9"/>
+      <c r="M193" s="1">
         <v>-1</v>
       </c>
       <c r="N193" s="4" t="s">
@@ -5023,19 +5186,13 @@
       </c>
     </row>
     <row r="194" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="13"/>
-      <c r="B194" s="11"/>
-      <c r="C194" s="14"/>
-      <c r="D194" s="14"/>
-      <c r="E194" s="15"/>
-      <c r="F194" s="15"/>
-      <c r="G194" s="15"/>
-      <c r="H194" s="14"/>
-      <c r="I194" s="15"/>
-      <c r="J194" s="15"/>
-      <c r="K194" s="15"/>
-      <c r="L194" s="14"/>
-      <c r="M194" s="15">
+      <c r="A194" s="7"/>
+      <c r="B194" s="12"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="H194" s="9"/>
+      <c r="L194" s="9"/>
+      <c r="M194" s="1">
         <v>-2</v>
       </c>
       <c r="N194" s="4" t="s">
@@ -5043,19 +5200,13 @@
       </c>
     </row>
     <row r="195" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A195" s="13"/>
-      <c r="B195" s="11"/>
-      <c r="C195" s="14"/>
-      <c r="D195" s="14"/>
-      <c r="E195" s="15"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="15"/>
-      <c r="H195" s="14"/>
-      <c r="I195" s="15"/>
-      <c r="J195" s="15"/>
-      <c r="K195" s="15"/>
-      <c r="L195" s="14"/>
-      <c r="M195" s="15">
+      <c r="A195" s="7"/>
+      <c r="B195" s="12"/>
+      <c r="C195" s="9"/>
+      <c r="D195" s="9"/>
+      <c r="H195" s="9"/>
+      <c r="L195" s="9"/>
+      <c r="M195" s="1">
         <v>-11</v>
       </c>
       <c r="N195" s="4" t="s">
@@ -5063,19 +5214,13 @@
       </c>
     </row>
     <row r="196" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="13"/>
-      <c r="B196" s="11"/>
-      <c r="C196" s="14"/>
-      <c r="D196" s="14"/>
-      <c r="E196" s="15"/>
-      <c r="F196" s="15"/>
-      <c r="G196" s="15"/>
-      <c r="H196" s="14"/>
-      <c r="I196" s="15"/>
-      <c r="J196" s="15"/>
-      <c r="K196" s="15"/>
-      <c r="L196" s="14"/>
-      <c r="M196" s="15">
+      <c r="A196" s="7"/>
+      <c r="B196" s="12"/>
+      <c r="C196" s="9"/>
+      <c r="D196" s="9"/>
+      <c r="H196" s="9"/>
+      <c r="L196" s="9"/>
+      <c r="M196" s="1">
         <v>-12</v>
       </c>
       <c r="N196" s="4" t="s">
@@ -5083,59 +5228,41 @@
       </c>
     </row>
     <row r="197" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="13"/>
-      <c r="B197" s="11"/>
-      <c r="C197" s="14"/>
-      <c r="D197" s="14"/>
-      <c r="E197" s="15"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="15"/>
-      <c r="H197" s="14"/>
-      <c r="I197" s="15"/>
-      <c r="J197" s="15"/>
-      <c r="K197" s="15"/>
-      <c r="L197" s="14"/>
-      <c r="M197" s="15">
+      <c r="A197" s="7"/>
+      <c r="B197" s="12"/>
+      <c r="C197" s="9"/>
+      <c r="D197" s="9"/>
+      <c r="H197" s="9"/>
+      <c r="L197" s="9"/>
+      <c r="M197" s="1">
         <v>-13</v>
       </c>
       <c r="N197" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="198" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="7"/>
+      <c r="B198" s="12"/>
+      <c r="C198" s="9"/>
+      <c r="D198" s="9"/>
+      <c r="H198" s="9"/>
+      <c r="L198" s="9"/>
+      <c r="M198" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N198" s="4" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="198" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A198" s="13"/>
-      <c r="B198" s="11"/>
-      <c r="C198" s="14"/>
-      <c r="D198" s="14"/>
-      <c r="E198" s="15"/>
-      <c r="F198" s="15"/>
-      <c r="G198" s="15"/>
-      <c r="H198" s="14"/>
-      <c r="I198" s="15"/>
-      <c r="J198" s="15"/>
-      <c r="K198" s="15"/>
-      <c r="L198" s="14"/>
-      <c r="M198" s="15">
-        <v>-14</v>
-      </c>
-      <c r="N198" s="4" t="s">
-        <v>159</v>
-      </c>
-    </row>
     <row r="199" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A199" s="13"/>
-      <c r="B199" s="11"/>
-      <c r="C199" s="14"/>
-      <c r="D199" s="14"/>
-      <c r="E199" s="15"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="15"/>
-      <c r="H199" s="14"/>
-      <c r="I199" s="15"/>
-      <c r="J199" s="15"/>
-      <c r="K199" s="15"/>
-      <c r="L199" s="14"/>
-      <c r="M199" s="15">
+      <c r="A199" s="7"/>
+      <c r="B199" s="12"/>
+      <c r="C199" s="9"/>
+      <c r="D199" s="9"/>
+      <c r="H199" s="9"/>
+      <c r="L199" s="9"/>
+      <c r="M199" s="1">
         <v>-21</v>
       </c>
       <c r="N199" s="4" t="s">
@@ -5143,19 +5270,13 @@
       </c>
     </row>
     <row r="200" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A200" s="13"/>
-      <c r="B200" s="11"/>
-      <c r="C200" s="14"/>
-      <c r="D200" s="14"/>
-      <c r="E200" s="15"/>
-      <c r="F200" s="15"/>
-      <c r="G200" s="15"/>
-      <c r="H200" s="14"/>
-      <c r="I200" s="15"/>
-      <c r="J200" s="15"/>
-      <c r="K200" s="15"/>
-      <c r="L200" s="14"/>
-      <c r="M200" s="15">
+      <c r="A200" s="7"/>
+      <c r="B200" s="12"/>
+      <c r="C200" s="9"/>
+      <c r="D200" s="9"/>
+      <c r="H200" s="9"/>
+      <c r="L200" s="9"/>
+      <c r="M200" s="1">
         <v>-22</v>
       </c>
       <c r="N200" s="4" t="s">
@@ -5163,19 +5284,13 @@
       </c>
     </row>
     <row r="201" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A201" s="13"/>
-      <c r="B201" s="11"/>
-      <c r="C201" s="14"/>
-      <c r="D201" s="14"/>
-      <c r="E201" s="15"/>
-      <c r="F201" s="15"/>
-      <c r="G201" s="15"/>
-      <c r="H201" s="14"/>
-      <c r="I201" s="15"/>
-      <c r="J201" s="15"/>
-      <c r="K201" s="15"/>
-      <c r="L201" s="14"/>
-      <c r="M201" s="15">
+      <c r="A201" s="7"/>
+      <c r="B201" s="12"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="9"/>
+      <c r="H201" s="9"/>
+      <c r="L201" s="9"/>
+      <c r="M201" s="1">
         <v>-23</v>
       </c>
       <c r="N201" s="4" t="s">
@@ -5183,19 +5298,13 @@
       </c>
     </row>
     <row r="202" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A202" s="13"/>
-      <c r="B202" s="11"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="15"/>
-      <c r="F202" s="15"/>
-      <c r="G202" s="15"/>
-      <c r="H202" s="14"/>
-      <c r="I202" s="15"/>
-      <c r="J202" s="15"/>
-      <c r="K202" s="15"/>
-      <c r="L202" s="14"/>
-      <c r="M202" s="15">
+      <c r="A202" s="7"/>
+      <c r="B202" s="12"/>
+      <c r="C202" s="9"/>
+      <c r="D202" s="9"/>
+      <c r="H202" s="9"/>
+      <c r="L202" s="9"/>
+      <c r="M202" s="1">
         <v>-24</v>
       </c>
       <c r="N202" s="4" t="s">
@@ -5203,19 +5312,13 @@
       </c>
     </row>
     <row r="203" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A203" s="13"/>
-      <c r="B203" s="11"/>
-      <c r="C203" s="14"/>
-      <c r="D203" s="14"/>
-      <c r="E203" s="15"/>
-      <c r="F203" s="15"/>
-      <c r="G203" s="15"/>
-      <c r="H203" s="14"/>
-      <c r="I203" s="15"/>
-      <c r="J203" s="15"/>
-      <c r="K203" s="15"/>
-      <c r="L203" s="14"/>
-      <c r="M203" s="15">
+      <c r="A203" s="7"/>
+      <c r="B203" s="12"/>
+      <c r="C203" s="9"/>
+      <c r="D203" s="9"/>
+      <c r="H203" s="9"/>
+      <c r="L203" s="9"/>
+      <c r="M203" s="1">
         <v>-31</v>
       </c>
       <c r="N203" s="4" t="s">
@@ -5223,19 +5326,13 @@
       </c>
     </row>
     <row r="204" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="13"/>
-      <c r="B204" s="11"/>
-      <c r="C204" s="14"/>
-      <c r="D204" s="14"/>
-      <c r="E204" s="15"/>
-      <c r="F204" s="15"/>
-      <c r="G204" s="15"/>
-      <c r="H204" s="14"/>
-      <c r="I204" s="15"/>
-      <c r="J204" s="15"/>
-      <c r="K204" s="15"/>
-      <c r="L204" s="14"/>
-      <c r="M204" s="15">
+      <c r="A204" s="7"/>
+      <c r="B204" s="12"/>
+      <c r="C204" s="9"/>
+      <c r="D204" s="9"/>
+      <c r="H204" s="9"/>
+      <c r="L204" s="9"/>
+      <c r="M204" s="1">
         <v>-32</v>
       </c>
       <c r="N204" s="4" t="s">
@@ -5243,19 +5340,13 @@
       </c>
     </row>
     <row r="205" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A205" s="13"/>
-      <c r="B205" s="11"/>
-      <c r="C205" s="14"/>
-      <c r="D205" s="14"/>
-      <c r="E205" s="15"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
-      <c r="H205" s="14"/>
-      <c r="I205" s="15"/>
-      <c r="J205" s="15"/>
-      <c r="K205" s="15"/>
-      <c r="L205" s="14"/>
-      <c r="M205" s="15">
+      <c r="A205" s="7"/>
+      <c r="B205" s="12"/>
+      <c r="C205" s="9"/>
+      <c r="D205" s="9"/>
+      <c r="H205" s="9"/>
+      <c r="L205" s="9"/>
+      <c r="M205" s="1">
         <v>-99</v>
       </c>
       <c r="N205" s="4" t="s">
@@ -5263,14 +5354,14 @@
       </c>
     </row>
     <row r="206" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="13"/>
-      <c r="B206" s="10" t="s">
+      <c r="A206" s="7"/>
+      <c r="B206" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C206" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="C206" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="D206" s="7">
+      <c r="D206" s="8">
         <v>1</v>
       </c>
       <c r="E206" s="2" t="s">
@@ -5282,7 +5373,7 @@
       <c r="G206" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H206" s="7">
+      <c r="H206" s="8">
         <v>7</v>
       </c>
       <c r="I206" s="2" t="s">
@@ -5292,9 +5383,9 @@
         <v>40</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="L206" s="7">
+        <v>165</v>
+      </c>
+      <c r="L206" s="8">
         <v>6</v>
       </c>
       <c r="M206" s="2">
@@ -5305,75 +5396,65 @@
       </c>
     </row>
     <row r="207" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="13"/>
-      <c r="B207" s="11"/>
-      <c r="C207" s="14"/>
-      <c r="D207" s="14"/>
-      <c r="E207" s="15"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
-      <c r="H207" s="14"/>
-      <c r="I207" s="15" t="s">
+      <c r="A207" s="7"/>
+      <c r="B207" s="12"/>
+      <c r="C207" s="9"/>
+      <c r="D207" s="9"/>
+      <c r="H207" s="9"/>
+      <c r="I207" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J207" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="K207" s="15"/>
-      <c r="L207" s="14"/>
-      <c r="M207" s="15">
+      <c r="J207" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="L207" s="9"/>
+      <c r="M207" s="1">
         <v>-11</v>
       </c>
       <c r="N207" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A208" s="7"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="9"/>
+      <c r="D208" s="9"/>
+      <c r="H208" s="9"/>
+      <c r="I208" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J208" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K208" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="L208" s="9"/>
+      <c r="M208" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N208" s="4" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="208" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="13"/>
-      <c r="B208" s="11"/>
-      <c r="C208" s="14"/>
-      <c r="D208" s="14"/>
-      <c r="E208" s="15"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="15"/>
-      <c r="H208" s="14"/>
-      <c r="I208" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J208" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="K208" s="15" t="s">
-        <v>143</v>
-      </c>
-      <c r="L208" s="14"/>
-      <c r="M208" s="15">
-        <v>-21</v>
-      </c>
-      <c r="N208" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
     <row r="209" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="13"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="14"/>
-      <c r="D209" s="14"/>
-      <c r="E209" s="15"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="15"/>
-      <c r="H209" s="14"/>
-      <c r="I209" s="15" t="s">
+      <c r="A209" s="7"/>
+      <c r="B209" s="12"/>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="J209" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="K209" s="15" t="s">
+      <c r="J209" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="K209" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L209" s="14"/>
-      <c r="M209" s="15">
+      <c r="L209" s="9"/>
+      <c r="M209" s="1">
         <v>-31</v>
       </c>
       <c r="N209" s="4" t="s">
@@ -5381,25 +5462,22 @@
       </c>
     </row>
     <row r="210" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="13"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="14"/>
-      <c r="D210" s="14"/>
-      <c r="E210" s="15"/>
-      <c r="F210" s="15"/>
-      <c r="G210" s="15"/>
-      <c r="H210" s="14"/>
-      <c r="I210" s="15" t="s">
+      <c r="A210" s="7"/>
+      <c r="B210" s="12"/>
+      <c r="C210" s="9"/>
+      <c r="D210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="J210" s="15" t="s">
+      <c r="J210" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K210" s="15" t="s">
+      <c r="K210" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L210" s="14"/>
-      <c r="M210" s="15">
+      <c r="L210" s="9"/>
+      <c r="M210" s="1">
         <v>-32</v>
       </c>
       <c r="N210" s="4" t="s">
@@ -5407,25 +5485,22 @@
       </c>
     </row>
     <row r="211" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="13"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="14"/>
-      <c r="D211" s="14"/>
-      <c r="E211" s="15"/>
-      <c r="F211" s="15"/>
-      <c r="G211" s="15"/>
-      <c r="H211" s="14"/>
-      <c r="I211" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="J211" s="15" t="s">
+      <c r="A211" s="7"/>
+      <c r="B211" s="12"/>
+      <c r="C211" s="9"/>
+      <c r="D211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J211" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K211" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="L211" s="14"/>
-      <c r="M211" s="15">
+      <c r="K211" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="L211" s="9"/>
+      <c r="M211" s="1">
         <v>-99</v>
       </c>
       <c r="N211" s="4" t="s">
@@ -5433,38 +5508,34 @@
       </c>
     </row>
     <row r="212" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="13"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="14"/>
-      <c r="D212" s="14"/>
-      <c r="E212" s="15"/>
-      <c r="F212" s="15"/>
-      <c r="G212" s="15"/>
-      <c r="H212" s="14"/>
-      <c r="I212" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="J212" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="K212" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="L212" s="14"/>
-      <c r="M212" s="15"/>
+      <c r="A212" s="7"/>
+      <c r="B212" s="12"/>
+      <c r="C212" s="9"/>
+      <c r="D212" s="9"/>
+      <c r="H212" s="9"/>
+      <c r="I212" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="J212" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K212" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L212" s="9"/>
       <c r="N212" s="4"/>
     </row>
     <row r="213" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
+      <c r="A213" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="C213" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="B213" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="D213" s="7">
+      <c r="D213" s="8">
         <v>3</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -5476,13 +5547,13 @@
       <c r="G213" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H213" s="7" t="s">
+      <c r="H213" s="8" t="s">
         <v>59</v>
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
-      <c r="L213" s="7">
+      <c r="L213" s="8">
         <v>15</v>
       </c>
       <c r="M213" s="2">
@@ -5493,24 +5564,22 @@
       </c>
     </row>
     <row r="214" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B214" s="11"/>
-      <c r="C214" s="14"/>
-      <c r="D214" s="14"/>
-      <c r="E214" s="15" t="s">
+      <c r="A214" s="7"/>
+      <c r="B214" s="12"/>
+      <c r="C214" s="9"/>
+      <c r="D214" s="9"/>
+      <c r="E214" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F214" s="15" t="s">
+      <c r="F214" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G214" s="15" t="s">
+      <c r="G214" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H214" s="14"/>
-      <c r="I214" s="15"/>
-      <c r="J214" s="15"/>
-      <c r="K214" s="15"/>
-      <c r="L214" s="14"/>
-      <c r="M214" s="15">
+      <c r="H214" s="9"/>
+      <c r="L214" s="9"/>
+      <c r="M214" s="1">
         <v>-2</v>
       </c>
       <c r="N214" s="4" t="s">
@@ -5518,24 +5587,22 @@
       </c>
     </row>
     <row r="215" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B215" s="11"/>
-      <c r="C215" s="14"/>
-      <c r="D215" s="14"/>
-      <c r="E215" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F215" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="G215" s="15" t="s">
+      <c r="A215" s="7"/>
+      <c r="B215" s="12"/>
+      <c r="C215" s="9"/>
+      <c r="D215" s="9"/>
+      <c r="E215" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F215" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G215" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H215" s="14"/>
-      <c r="I215" s="15"/>
-      <c r="J215" s="15"/>
-      <c r="K215" s="15"/>
-      <c r="L215" s="14"/>
-      <c r="M215" s="15">
+      <c r="H215" s="9"/>
+      <c r="L215" s="9"/>
+      <c r="M215" s="1">
         <v>-11</v>
       </c>
       <c r="N215" s="4" t="s">
@@ -5543,18 +5610,13 @@
       </c>
     </row>
     <row r="216" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="11"/>
-      <c r="C216" s="14"/>
-      <c r="D216" s="14"/>
-      <c r="E216" s="15"/>
-      <c r="F216" s="15"/>
-      <c r="G216" s="15"/>
-      <c r="H216" s="14"/>
-      <c r="I216" s="15"/>
-      <c r="J216" s="15"/>
-      <c r="K216" s="15"/>
-      <c r="L216" s="14"/>
-      <c r="M216" s="15">
+      <c r="A216" s="7"/>
+      <c r="B216" s="12"/>
+      <c r="C216" s="9"/>
+      <c r="D216" s="9"/>
+      <c r="H216" s="9"/>
+      <c r="L216" s="9"/>
+      <c r="M216" s="1">
         <v>-12</v>
       </c>
       <c r="N216" s="4" t="s">
@@ -5562,75 +5624,55 @@
       </c>
     </row>
     <row r="217" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B217" s="11"/>
-      <c r="C217" s="14"/>
-      <c r="D217" s="14"/>
-      <c r="E217" s="15"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="15"/>
-      <c r="H217" s="14"/>
-      <c r="I217" s="15"/>
-      <c r="J217" s="15"/>
-      <c r="K217" s="15"/>
-      <c r="L217" s="14"/>
-      <c r="M217" s="15">
+      <c r="A217" s="7"/>
+      <c r="B217" s="12"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="H217" s="9"/>
+      <c r="L217" s="9"/>
+      <c r="M217" s="1">
         <v>-13</v>
       </c>
       <c r="N217" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A218" s="7"/>
+      <c r="B218" s="12"/>
+      <c r="C218" s="9"/>
+      <c r="D218" s="9"/>
+      <c r="H218" s="9"/>
+      <c r="L218" s="9"/>
+      <c r="M218" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N218" s="4" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="218" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B218" s="11"/>
-      <c r="C218" s="14"/>
-      <c r="D218" s="14"/>
-      <c r="E218" s="15"/>
-      <c r="F218" s="15"/>
-      <c r="G218" s="15"/>
-      <c r="H218" s="14"/>
-      <c r="I218" s="15"/>
-      <c r="J218" s="15"/>
-      <c r="K218" s="15"/>
-      <c r="L218" s="14"/>
-      <c r="M218" s="15">
-        <v>-14</v>
-      </c>
-      <c r="N218" s="4" t="s">
+    <row r="219" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A219" s="7"/>
+      <c r="B219" s="12"/>
+      <c r="C219" s="9"/>
+      <c r="D219" s="9"/>
+      <c r="H219" s="9"/>
+      <c r="L219" s="9"/>
+      <c r="M219" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N219" s="4" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="219" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B219" s="11"/>
-      <c r="C219" s="14"/>
-      <c r="D219" s="14"/>
-      <c r="E219" s="15"/>
-      <c r="F219" s="15"/>
-      <c r="G219" s="15"/>
-      <c r="H219" s="14"/>
-      <c r="I219" s="15"/>
-      <c r="J219" s="15"/>
-      <c r="K219" s="15"/>
-      <c r="L219" s="14"/>
-      <c r="M219" s="15">
-        <v>-15</v>
-      </c>
-      <c r="N219" s="4" t="s">
-        <v>182</v>
-      </c>
-    </row>
     <row r="220" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B220" s="11"/>
-      <c r="C220" s="14"/>
-      <c r="D220" s="14"/>
-      <c r="E220" s="15"/>
-      <c r="F220" s="15"/>
-      <c r="G220" s="15"/>
-      <c r="H220" s="14"/>
-      <c r="I220" s="15"/>
-      <c r="J220" s="15"/>
-      <c r="K220" s="15"/>
-      <c r="L220" s="14"/>
-      <c r="M220" s="15">
+      <c r="A220" s="7"/>
+      <c r="B220" s="12"/>
+      <c r="C220" s="9"/>
+      <c r="D220" s="9"/>
+      <c r="H220" s="9"/>
+      <c r="L220" s="9"/>
+      <c r="M220" s="1">
         <v>-21</v>
       </c>
       <c r="N220" s="4" t="s">
@@ -5638,18 +5680,13 @@
       </c>
     </row>
     <row r="221" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B221" s="11"/>
-      <c r="C221" s="14"/>
-      <c r="D221" s="14"/>
-      <c r="E221" s="15"/>
-      <c r="F221" s="15"/>
-      <c r="G221" s="15"/>
-      <c r="H221" s="14"/>
-      <c r="I221" s="15"/>
-      <c r="J221" s="15"/>
-      <c r="K221" s="15"/>
-      <c r="L221" s="14"/>
-      <c r="M221" s="15">
+      <c r="A221" s="7"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="9"/>
+      <c r="D221" s="9"/>
+      <c r="H221" s="9"/>
+      <c r="L221" s="9"/>
+      <c r="M221" s="1">
         <v>-22</v>
       </c>
       <c r="N221" s="4" t="s">
@@ -5657,18 +5694,13 @@
       </c>
     </row>
     <row r="222" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B222" s="11"/>
-      <c r="C222" s="14"/>
-      <c r="D222" s="14"/>
-      <c r="E222" s="15"/>
-      <c r="F222" s="15"/>
-      <c r="G222" s="15"/>
-      <c r="H222" s="14"/>
-      <c r="I222" s="15"/>
-      <c r="J222" s="15"/>
-      <c r="K222" s="15"/>
-      <c r="L222" s="14"/>
-      <c r="M222" s="15">
+      <c r="A222" s="7"/>
+      <c r="B222" s="12"/>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="L222" s="9"/>
+      <c r="M222" s="1">
         <v>-23</v>
       </c>
       <c r="N222" s="4" t="s">
@@ -5676,18 +5708,13 @@
       </c>
     </row>
     <row r="223" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B223" s="11"/>
-      <c r="C223" s="14"/>
-      <c r="D223" s="14"/>
-      <c r="E223" s="15"/>
-      <c r="F223" s="15"/>
-      <c r="G223" s="15"/>
-      <c r="H223" s="14"/>
-      <c r="I223" s="15"/>
-      <c r="J223" s="15"/>
-      <c r="K223" s="15"/>
-      <c r="L223" s="14"/>
-      <c r="M223" s="15">
+      <c r="A223" s="7"/>
+      <c r="B223" s="12"/>
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="H223" s="9"/>
+      <c r="L223" s="9"/>
+      <c r="M223" s="1">
         <v>-24</v>
       </c>
       <c r="N223" s="4" t="s">
@@ -5695,74 +5722,60 @@
       </c>
     </row>
     <row r="224" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B224" s="11"/>
-      <c r="C224" s="14"/>
-      <c r="D224" s="14"/>
-      <c r="E224" s="15"/>
-      <c r="F224" s="15"/>
-      <c r="G224" s="15"/>
-      <c r="H224" s="14"/>
-      <c r="I224" s="15"/>
-      <c r="J224" s="15"/>
-      <c r="K224" s="15"/>
-      <c r="L224" s="14"/>
-      <c r="M224" s="15">
+      <c r="A224" s="7"/>
+      <c r="B224" s="12"/>
+      <c r="C224" s="9"/>
+      <c r="D224" s="9"/>
+      <c r="H224" s="9"/>
+      <c r="L224" s="9"/>
+      <c r="M224" s="1">
         <v>-25</v>
       </c>
       <c r="N224" s="4" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="225" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B225" s="11"/>
-      <c r="C225" s="14"/>
-      <c r="D225" s="14"/>
-      <c r="E225" s="15"/>
-      <c r="F225" s="15"/>
-      <c r="G225" s="15"/>
-      <c r="H225" s="14"/>
-      <c r="I225" s="15"/>
-      <c r="J225" s="15"/>
-      <c r="K225" s="15"/>
-      <c r="L225" s="14"/>
-      <c r="M225" s="15">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A225" s="7"/>
+      <c r="B225" s="12"/>
+      <c r="C225" s="9"/>
+      <c r="D225" s="9"/>
+      <c r="H225" s="9"/>
+      <c r="L225" s="9"/>
+      <c r="M225" s="1">
         <v>-31</v>
       </c>
       <c r="N225" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B226" s="11"/>
-      <c r="C226" s="14"/>
-      <c r="D226" s="14"/>
-      <c r="E226" s="15"/>
-      <c r="F226" s="15"/>
-      <c r="G226" s="15"/>
-      <c r="H226" s="14"/>
-      <c r="I226" s="15"/>
-      <c r="J226" s="15"/>
-      <c r="K226" s="15"/>
-      <c r="L226" s="14"/>
-      <c r="M226" s="15">
+    <row r="226" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A226" s="7"/>
+      <c r="B226" s="12"/>
+      <c r="C226" s="9"/>
+      <c r="D226" s="9"/>
+      <c r="H226" s="9"/>
+      <c r="L226" s="9"/>
+      <c r="M226" s="1">
         <v>-32</v>
       </c>
       <c r="N226" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="12"/>
-      <c r="C227" s="9"/>
-      <c r="D227" s="9"/>
+    <row r="227" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A227" s="7"/>
+      <c r="B227" s="13"/>
+      <c r="C227" s="10"/>
+      <c r="D227" s="10"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
-      <c r="H227" s="9"/>
+      <c r="H227" s="10"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
-      <c r="L227" s="9"/>
+      <c r="L227" s="10"/>
       <c r="M227" s="5">
         <v>-99</v>
       </c>
@@ -5770,14 +5783,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="228" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B228" s="10" t="s">
+    <row r="228" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A228" s="7"/>
+      <c r="B228" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="C228" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="C228" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D228" s="7">
+      <c r="D228" s="8">
         <v>3</v>
       </c>
       <c r="E228" s="2" t="s">
@@ -5789,13 +5803,13 @@
       <c r="G228" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H228" s="7" t="s">
+      <c r="H228" s="8" t="s">
         <v>132</v>
       </c>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
-      <c r="L228" s="7">
+      <c r="L228" s="8">
         <v>14</v>
       </c>
       <c r="M228" s="2">
@@ -5805,273 +5819,215 @@
         <v>21</v>
       </c>
     </row>
-    <row r="229" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B229" s="11"/>
-      <c r="C229" s="14"/>
-      <c r="D229" s="14"/>
-      <c r="E229" s="15" t="s">
+    <row r="229" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A229" s="7"/>
+      <c r="B229" s="12"/>
+      <c r="C229" s="9"/>
+      <c r="D229" s="9"/>
+      <c r="E229" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F229" s="15" t="s">
+      <c r="F229" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G229" s="15" t="s">
+      <c r="G229" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H229" s="14"/>
-      <c r="I229" s="15"/>
-      <c r="J229" s="15"/>
-      <c r="K229" s="15"/>
-      <c r="L229" s="14"/>
-      <c r="M229" s="15">
+      <c r="H229" s="9"/>
+      <c r="L229" s="9"/>
+      <c r="M229" s="1">
         <v>-2</v>
       </c>
       <c r="N229" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="230" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B230" s="11"/>
-      <c r="C230" s="14"/>
-      <c r="D230" s="14"/>
-      <c r="E230" s="15" t="s">
+    <row r="230" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A230" s="7"/>
+      <c r="B230" s="12"/>
+      <c r="C230" s="9"/>
+      <c r="D230" s="9"/>
+      <c r="E230" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F230" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G230" s="15" t="s">
+      <c r="F230" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G230" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H230" s="14"/>
-      <c r="I230" s="15"/>
-      <c r="J230" s="15"/>
-      <c r="K230" s="15"/>
-      <c r="L230" s="14"/>
-      <c r="M230" s="15">
+      <c r="H230" s="9"/>
+      <c r="L230" s="9"/>
+      <c r="M230" s="1">
         <v>-11</v>
       </c>
       <c r="N230" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="231" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B231" s="11"/>
-      <c r="C231" s="14"/>
-      <c r="D231" s="14"/>
-      <c r="E231" s="15"/>
-      <c r="F231" s="15"/>
-      <c r="G231" s="15"/>
-      <c r="H231" s="14"/>
-      <c r="I231" s="15"/>
-      <c r="J231" s="15"/>
-      <c r="K231" s="15"/>
-      <c r="L231" s="14"/>
-      <c r="M231" s="15">
+    <row r="231" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A231" s="7"/>
+      <c r="B231" s="12"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="H231" s="9"/>
+      <c r="L231" s="9"/>
+      <c r="M231" s="1">
         <v>-12</v>
       </c>
       <c r="N231" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="232" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B232" s="11"/>
-      <c r="C232" s="14"/>
-      <c r="D232" s="14"/>
-      <c r="E232" s="15"/>
-      <c r="F232" s="15"/>
-      <c r="G232" s="15"/>
-      <c r="H232" s="14"/>
-      <c r="I232" s="15"/>
-      <c r="J232" s="15"/>
-      <c r="K232" s="15"/>
-      <c r="L232" s="14"/>
-      <c r="M232" s="15">
+    <row r="232" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A232" s="7"/>
+      <c r="B232" s="12"/>
+      <c r="C232" s="9"/>
+      <c r="D232" s="9"/>
+      <c r="H232" s="9"/>
+      <c r="L232" s="9"/>
+      <c r="M232" s="1">
         <v>-13</v>
       </c>
       <c r="N232" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="233" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B233" s="11"/>
-      <c r="C233" s="14"/>
-      <c r="D233" s="14"/>
-      <c r="E233" s="15"/>
-      <c r="F233" s="15"/>
-      <c r="G233" s="15"/>
-      <c r="H233" s="14"/>
-      <c r="I233" s="15"/>
-      <c r="J233" s="15"/>
-      <c r="K233" s="15"/>
-      <c r="L233" s="14"/>
-      <c r="M233" s="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="233" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A233" s="7"/>
+      <c r="B233" s="12"/>
+      <c r="C233" s="9"/>
+      <c r="D233" s="9"/>
+      <c r="H233" s="9"/>
+      <c r="L233" s="9"/>
+      <c r="M233" s="1">
         <v>-14</v>
       </c>
       <c r="N233" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="234" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B234" s="11"/>
-      <c r="C234" s="14"/>
-      <c r="D234" s="14"/>
-      <c r="E234" s="15"/>
-      <c r="F234" s="15"/>
-      <c r="G234" s="15"/>
-      <c r="H234" s="14"/>
-      <c r="I234" s="15"/>
-      <c r="J234" s="15"/>
-      <c r="K234" s="15"/>
-      <c r="L234" s="14"/>
-      <c r="M234" s="15">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="234" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A234" s="7"/>
+      <c r="B234" s="12"/>
+      <c r="C234" s="9"/>
+      <c r="D234" s="9"/>
+      <c r="H234" s="9"/>
+      <c r="L234" s="9"/>
+      <c r="M234" s="1">
         <v>-21</v>
       </c>
       <c r="N234" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="235" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B235" s="11"/>
-      <c r="C235" s="14"/>
-      <c r="D235" s="14"/>
-      <c r="E235" s="15"/>
-      <c r="F235" s="15"/>
-      <c r="G235" s="15"/>
-      <c r="H235" s="14"/>
-      <c r="I235" s="15"/>
-      <c r="J235" s="15"/>
-      <c r="K235" s="15"/>
-      <c r="L235" s="14"/>
-      <c r="M235" s="15">
+    <row r="235" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A235" s="7"/>
+      <c r="B235" s="12"/>
+      <c r="C235" s="9"/>
+      <c r="D235" s="9"/>
+      <c r="H235" s="9"/>
+      <c r="L235" s="9"/>
+      <c r="M235" s="1">
         <v>-22</v>
       </c>
       <c r="N235" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="236" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B236" s="11"/>
-      <c r="C236" s="14"/>
-      <c r="D236" s="14"/>
-      <c r="E236" s="15"/>
-      <c r="F236" s="15"/>
-      <c r="G236" s="15"/>
-      <c r="H236" s="14"/>
-      <c r="I236" s="15"/>
-      <c r="J236" s="15"/>
-      <c r="K236" s="15"/>
-      <c r="L236" s="14"/>
-      <c r="M236" s="15">
+    <row r="236" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A236" s="7"/>
+      <c r="B236" s="12"/>
+      <c r="C236" s="9"/>
+      <c r="D236" s="9"/>
+      <c r="H236" s="9"/>
+      <c r="L236" s="9"/>
+      <c r="M236" s="1">
         <v>-23</v>
       </c>
       <c r="N236" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="237" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B237" s="11"/>
-      <c r="C237" s="14"/>
-      <c r="D237" s="14"/>
-      <c r="E237" s="15"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="15"/>
-      <c r="H237" s="14"/>
-      <c r="I237" s="15"/>
-      <c r="J237" s="15"/>
-      <c r="K237" s="15"/>
-      <c r="L237" s="14"/>
-      <c r="M237" s="15">
+    <row r="237" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A237" s="7"/>
+      <c r="B237" s="12"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="H237" s="9"/>
+      <c r="L237" s="9"/>
+      <c r="M237" s="1">
         <v>-24</v>
       </c>
       <c r="N237" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="238" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B238" s="11"/>
-      <c r="C238" s="14"/>
-      <c r="D238" s="14"/>
-      <c r="E238" s="15"/>
-      <c r="F238" s="15"/>
-      <c r="G238" s="15"/>
-      <c r="H238" s="14"/>
-      <c r="I238" s="15"/>
-      <c r="J238" s="15"/>
-      <c r="K238" s="15"/>
-      <c r="L238" s="14"/>
-      <c r="M238" s="15">
+    <row r="238" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A238" s="7"/>
+      <c r="B238" s="12"/>
+      <c r="C238" s="9"/>
+      <c r="D238" s="9"/>
+      <c r="H238" s="9"/>
+      <c r="L238" s="9"/>
+      <c r="M238" s="1">
         <v>-25</v>
       </c>
       <c r="N238" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="239" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B239" s="11"/>
-      <c r="C239" s="14"/>
-      <c r="D239" s="14"/>
-      <c r="E239" s="15"/>
-      <c r="F239" s="15"/>
-      <c r="G239" s="15"/>
-      <c r="H239" s="14"/>
-      <c r="I239" s="15"/>
-      <c r="J239" s="15"/>
-      <c r="K239" s="15"/>
-      <c r="L239" s="14"/>
-      <c r="M239" s="15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="239" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A239" s="7"/>
+      <c r="B239" s="12"/>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="H239" s="9"/>
+      <c r="L239" s="9"/>
+      <c r="M239" s="1">
         <v>-31</v>
       </c>
       <c r="N239" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B240" s="11"/>
-      <c r="C240" s="14"/>
-      <c r="D240" s="14"/>
-      <c r="E240" s="15"/>
-      <c r="F240" s="15"/>
-      <c r="G240" s="15"/>
-      <c r="H240" s="14"/>
-      <c r="I240" s="15"/>
-      <c r="J240" s="15"/>
-      <c r="K240" s="15"/>
-      <c r="L240" s="14"/>
-      <c r="M240" s="15">
+    <row r="240" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A240" s="7"/>
+      <c r="B240" s="12"/>
+      <c r="C240" s="9"/>
+      <c r="D240" s="9"/>
+      <c r="H240" s="9"/>
+      <c r="L240" s="9"/>
+      <c r="M240" s="1">
         <v>-32</v>
       </c>
       <c r="N240" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="241" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="11"/>
-      <c r="C241" s="14"/>
-      <c r="D241" s="14"/>
-      <c r="E241" s="15"/>
-      <c r="F241" s="15"/>
-      <c r="G241" s="15"/>
-      <c r="H241" s="14"/>
-      <c r="I241" s="15"/>
-      <c r="J241" s="15"/>
-      <c r="K241" s="15"/>
-      <c r="L241" s="14"/>
-      <c r="M241" s="15">
+    <row r="241" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A241" s="7"/>
+      <c r="B241" s="12"/>
+      <c r="C241" s="9"/>
+      <c r="D241" s="9"/>
+      <c r="H241" s="9"/>
+      <c r="L241" s="9"/>
+      <c r="M241" s="1">
         <v>-99</v>
       </c>
       <c r="N241" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="242" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B242" s="10" t="s">
+    <row r="242" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A242" s="7"/>
+      <c r="B242" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C242" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C242" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="D242" s="7">
+      <c r="D242" s="8">
         <v>4</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -6083,13 +6039,13 @@
       <c r="G242" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H242" s="7" t="s">
+      <c r="H242" s="8" t="s">
         <v>132</v>
       </c>
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
-      <c r="L242" s="7">
+      <c r="L242" s="8">
         <v>16</v>
       </c>
       <c r="M242" s="2">
@@ -6099,302 +6055,242 @@
         <v>21</v>
       </c>
     </row>
-    <row r="243" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B243" s="11"/>
-      <c r="C243" s="14"/>
-      <c r="D243" s="14"/>
-      <c r="E243" s="15" t="s">
+    <row r="243" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A243" s="7"/>
+      <c r="B243" s="12"/>
+      <c r="C243" s="9"/>
+      <c r="D243" s="9"/>
+      <c r="E243" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F243" s="15" t="s">
+      <c r="F243" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G243" s="15" t="s">
+      <c r="G243" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H243" s="14"/>
-      <c r="I243" s="15"/>
-      <c r="J243" s="15"/>
-      <c r="K243" s="15"/>
-      <c r="L243" s="14"/>
-      <c r="M243" s="15">
+      <c r="H243" s="9"/>
+      <c r="L243" s="9"/>
+      <c r="M243" s="1">
         <v>-2</v>
       </c>
       <c r="N243" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="244" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B244" s="11"/>
-      <c r="C244" s="14"/>
-      <c r="D244" s="14"/>
-      <c r="E244" s="15" t="s">
+    <row r="244" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A244" s="7"/>
+      <c r="B244" s="12"/>
+      <c r="C244" s="9"/>
+      <c r="D244" s="9"/>
+      <c r="E244" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F244" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G244" s="15" t="s">
+      <c r="F244" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G244" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H244" s="14"/>
-      <c r="I244" s="15"/>
-      <c r="J244" s="15"/>
-      <c r="K244" s="15"/>
-      <c r="L244" s="14"/>
-      <c r="M244" s="15">
+      <c r="H244" s="9"/>
+      <c r="L244" s="9"/>
+      <c r="M244" s="1">
         <v>-11</v>
       </c>
       <c r="N244" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="245" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B245" s="11"/>
-      <c r="C245" s="14"/>
-      <c r="D245" s="14"/>
-      <c r="E245" s="15" t="s">
+    <row r="245" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A245" s="7"/>
+      <c r="B245" s="12"/>
+      <c r="C245" s="9"/>
+      <c r="D245" s="9"/>
+      <c r="E245" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F245" s="15" t="s">
+      <c r="F245" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G245" s="15" t="s">
+      <c r="G245" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H245" s="14"/>
-      <c r="I245" s="15"/>
-      <c r="J245" s="15"/>
-      <c r="K245" s="15"/>
-      <c r="L245" s="14"/>
-      <c r="M245" s="15">
+      <c r="H245" s="9"/>
+      <c r="L245" s="9"/>
+      <c r="M245" s="1">
         <v>-12</v>
       </c>
       <c r="N245" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="246" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B246" s="11"/>
-      <c r="C246" s="14"/>
-      <c r="D246" s="14"/>
-      <c r="E246" s="15"/>
-      <c r="F246" s="15"/>
-      <c r="G246" s="15"/>
-      <c r="H246" s="14"/>
-      <c r="I246" s="15"/>
-      <c r="J246" s="15"/>
-      <c r="K246" s="15"/>
-      <c r="L246" s="14"/>
-      <c r="M246" s="15">
+    <row r="246" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A246" s="7"/>
+      <c r="B246" s="12"/>
+      <c r="C246" s="9"/>
+      <c r="D246" s="9"/>
+      <c r="H246" s="9"/>
+      <c r="L246" s="9"/>
+      <c r="M246" s="1">
         <v>-13</v>
       </c>
       <c r="N246" s="4" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="247" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B247" s="11"/>
-      <c r="C247" s="14"/>
-      <c r="D247" s="14"/>
-      <c r="E247" s="15"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="15"/>
-      <c r="H247" s="14"/>
-      <c r="I247" s="15"/>
-      <c r="J247" s="15"/>
-      <c r="K247" s="15"/>
-      <c r="L247" s="14"/>
-      <c r="M247" s="15">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="247" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A247" s="7"/>
+      <c r="B247" s="12"/>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="H247" s="9"/>
+      <c r="L247" s="9"/>
+      <c r="M247" s="1">
         <v>-14</v>
       </c>
       <c r="N247" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="248" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B248" s="11"/>
-      <c r="C248" s="14"/>
-      <c r="D248" s="14"/>
-      <c r="E248" s="15"/>
-      <c r="F248" s="15"/>
-      <c r="G248" s="15"/>
-      <c r="H248" s="14"/>
-      <c r="I248" s="15"/>
-      <c r="J248" s="15"/>
-      <c r="K248" s="15"/>
-      <c r="L248" s="14"/>
-      <c r="M248" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="248" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A248" s="7"/>
+      <c r="B248" s="12"/>
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="H248" s="9"/>
+      <c r="L248" s="9"/>
+      <c r="M248" s="1">
         <v>-15</v>
       </c>
       <c r="N248" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="249" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B249" s="11"/>
-      <c r="C249" s="14"/>
-      <c r="D249" s="14"/>
-      <c r="E249" s="15"/>
-      <c r="F249" s="15"/>
-      <c r="G249" s="15"/>
-      <c r="H249" s="14"/>
-      <c r="I249" s="15"/>
-      <c r="J249" s="15"/>
-      <c r="K249" s="15"/>
-      <c r="L249" s="14"/>
-      <c r="M249" s="15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A249" s="7"/>
+      <c r="B249" s="12"/>
+      <c r="C249" s="9"/>
+      <c r="D249" s="9"/>
+      <c r="H249" s="9"/>
+      <c r="L249" s="9"/>
+      <c r="M249" s="1">
         <v>-21</v>
       </c>
       <c r="N249" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="250" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B250" s="11"/>
-      <c r="C250" s="14"/>
-      <c r="D250" s="14"/>
-      <c r="E250" s="15"/>
-      <c r="F250" s="15"/>
-      <c r="G250" s="15"/>
-      <c r="H250" s="14"/>
-      <c r="I250" s="15"/>
-      <c r="J250" s="15"/>
-      <c r="K250" s="15"/>
-      <c r="L250" s="14"/>
-      <c r="M250" s="15">
+    <row r="250" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A250" s="7"/>
+      <c r="B250" s="12"/>
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+      <c r="H250" s="9"/>
+      <c r="L250" s="9"/>
+      <c r="M250" s="1">
         <v>-22</v>
       </c>
       <c r="N250" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="251" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B251" s="11"/>
-      <c r="C251" s="14"/>
-      <c r="D251" s="14"/>
-      <c r="E251" s="15"/>
-      <c r="F251" s="15"/>
-      <c r="G251" s="15"/>
-      <c r="H251" s="14"/>
-      <c r="I251" s="15"/>
-      <c r="J251" s="15"/>
-      <c r="K251" s="15"/>
-      <c r="L251" s="14"/>
-      <c r="M251" s="15">
+    <row r="251" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A251" s="7"/>
+      <c r="B251" s="12"/>
+      <c r="C251" s="9"/>
+      <c r="D251" s="9"/>
+      <c r="H251" s="9"/>
+      <c r="L251" s="9"/>
+      <c r="M251" s="1">
         <v>-23</v>
       </c>
       <c r="N251" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="252" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B252" s="11"/>
-      <c r="C252" s="14"/>
-      <c r="D252" s="14"/>
-      <c r="E252" s="15"/>
-      <c r="F252" s="15"/>
-      <c r="G252" s="15"/>
-      <c r="H252" s="14"/>
-      <c r="I252" s="15"/>
-      <c r="J252" s="15"/>
-      <c r="K252" s="15"/>
-      <c r="L252" s="14"/>
-      <c r="M252" s="15">
+    <row r="252" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A252" s="7"/>
+      <c r="B252" s="12"/>
+      <c r="C252" s="9"/>
+      <c r="D252" s="9"/>
+      <c r="H252" s="9"/>
+      <c r="L252" s="9"/>
+      <c r="M252" s="1">
         <v>-24</v>
       </c>
       <c r="N252" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="253" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B253" s="11"/>
-      <c r="C253" s="14"/>
-      <c r="D253" s="14"/>
-      <c r="E253" s="15"/>
-      <c r="F253" s="15"/>
-      <c r="G253" s="15"/>
-      <c r="H253" s="14"/>
-      <c r="I253" s="15"/>
-      <c r="J253" s="15"/>
-      <c r="K253" s="15"/>
-      <c r="L253" s="14"/>
-      <c r="M253" s="15">
+    <row r="253" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A253" s="7"/>
+      <c r="B253" s="12"/>
+      <c r="C253" s="9"/>
+      <c r="D253" s="9"/>
+      <c r="H253" s="9"/>
+      <c r="L253" s="9"/>
+      <c r="M253" s="1">
         <v>-25</v>
       </c>
       <c r="N253" s="4" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="254" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B254" s="11"/>
-      <c r="C254" s="14"/>
-      <c r="D254" s="14"/>
-      <c r="E254" s="15"/>
-      <c r="F254" s="15"/>
-      <c r="G254" s="15"/>
-      <c r="H254" s="14"/>
-      <c r="I254" s="15"/>
-      <c r="J254" s="15"/>
-      <c r="K254" s="15"/>
-      <c r="L254" s="14"/>
-      <c r="M254" s="15">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="254" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A254" s="7"/>
+      <c r="B254" s="12"/>
+      <c r="C254" s="9"/>
+      <c r="D254" s="9"/>
+      <c r="H254" s="9"/>
+      <c r="L254" s="9"/>
+      <c r="M254" s="1">
         <v>-26</v>
       </c>
       <c r="N254" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="255" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B255" s="11"/>
-      <c r="C255" s="14"/>
-      <c r="D255" s="14"/>
-      <c r="E255" s="15"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="15"/>
-      <c r="H255" s="14"/>
-      <c r="I255" s="15"/>
-      <c r="J255" s="15"/>
-      <c r="K255" s="15"/>
-      <c r="L255" s="14"/>
-      <c r="M255" s="15">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="255" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A255" s="7"/>
+      <c r="B255" s="12"/>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+      <c r="H255" s="9"/>
+      <c r="L255" s="9"/>
+      <c r="M255" s="1">
         <v>-31</v>
       </c>
       <c r="N255" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B256" s="11"/>
-      <c r="C256" s="14"/>
-      <c r="D256" s="14"/>
-      <c r="E256" s="15"/>
-      <c r="F256" s="15"/>
-      <c r="G256" s="15"/>
-      <c r="H256" s="14"/>
-      <c r="I256" s="15"/>
-      <c r="J256" s="15"/>
-      <c r="K256" s="15"/>
-      <c r="L256" s="14"/>
-      <c r="M256" s="15">
+    <row r="256" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A256" s="7"/>
+      <c r="B256" s="12"/>
+      <c r="C256" s="9"/>
+      <c r="D256" s="9"/>
+      <c r="H256" s="9"/>
+      <c r="L256" s="9"/>
+      <c r="M256" s="1">
         <v>-32</v>
       </c>
       <c r="N256" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="257" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="12"/>
-      <c r="C257" s="9"/>
-      <c r="D257" s="9"/>
+    <row r="257" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A257" s="7"/>
+      <c r="B257" s="13"/>
+      <c r="C257" s="10"/>
+      <c r="D257" s="10"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
-      <c r="H257" s="9"/>
+      <c r="H257" s="10"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
-      <c r="L257" s="9"/>
+      <c r="L257" s="10"/>
       <c r="M257" s="5">
         <v>-99</v>
       </c>
@@ -6402,14 +6298,15 @@
         <v>32</v>
       </c>
     </row>
-    <row r="258" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B258" s="10" t="s">
+    <row r="258" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A258" s="7"/>
+      <c r="B258" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="C258" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C258" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="D258" s="7">
+      <c r="D258" s="8">
         <v>3</v>
       </c>
       <c r="E258" s="2" t="s">
@@ -6421,7 +6318,7 @@
       <c r="G258" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H258" s="7">
+      <c r="H258" s="8">
         <v>1</v>
       </c>
       <c r="I258" s="2" t="s">
@@ -6431,9 +6328,9 @@
         <v>154</v>
       </c>
       <c r="K258" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L258" s="7">
+        <v>236</v>
+      </c>
+      <c r="L258" s="8">
         <v>15</v>
       </c>
       <c r="M258" s="2">
@@ -6443,277 +6340,219 @@
         <v>21</v>
       </c>
     </row>
-    <row r="259" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B259" s="11"/>
-      <c r="C259" s="14"/>
-      <c r="D259" s="14"/>
-      <c r="E259" s="15" t="s">
+    <row r="259" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A259" s="7"/>
+      <c r="B259" s="12"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9"/>
+      <c r="E259" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F259" s="15" t="s">
+      <c r="F259" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G259" s="15" t="s">
+      <c r="G259" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H259" s="14"/>
-      <c r="I259" s="15"/>
-      <c r="J259" s="15"/>
-      <c r="K259" s="15"/>
-      <c r="L259" s="14"/>
-      <c r="M259" s="15">
+      <c r="H259" s="9"/>
+      <c r="L259" s="9"/>
+      <c r="M259" s="1">
         <v>-2</v>
       </c>
       <c r="N259" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="260" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B260" s="11"/>
-      <c r="C260" s="14"/>
-      <c r="D260" s="14"/>
-      <c r="E260" s="15" t="s">
+    <row r="260" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A260" s="7"/>
+      <c r="B260" s="12"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9"/>
+      <c r="E260" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F260" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="G260" s="15" t="s">
+      <c r="F260" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G260" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H260" s="14"/>
-      <c r="I260" s="15"/>
-      <c r="J260" s="15"/>
-      <c r="K260" s="15"/>
-      <c r="L260" s="14"/>
-      <c r="M260" s="15">
+      <c r="H260" s="9"/>
+      <c r="L260" s="9"/>
+      <c r="M260" s="1">
         <v>-11</v>
       </c>
       <c r="N260" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B261" s="11"/>
-      <c r="C261" s="14"/>
-      <c r="D261" s="14"/>
-      <c r="E261" s="15"/>
-      <c r="F261" s="15"/>
-      <c r="G261" s="15"/>
-      <c r="H261" s="14"/>
-      <c r="I261" s="15"/>
-      <c r="J261" s="15"/>
-      <c r="K261" s="15"/>
-      <c r="L261" s="14"/>
-      <c r="M261" s="15">
+    <row r="261" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A261" s="7"/>
+      <c r="B261" s="12"/>
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="H261" s="9"/>
+      <c r="L261" s="9"/>
+      <c r="M261" s="1">
         <v>-12</v>
       </c>
       <c r="N261" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="262" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B262" s="11"/>
-      <c r="C262" s="14"/>
-      <c r="D262" s="14"/>
-      <c r="E262" s="15"/>
-      <c r="F262" s="15"/>
-      <c r="G262" s="15"/>
-      <c r="H262" s="14"/>
-      <c r="I262" s="15"/>
-      <c r="J262" s="15"/>
-      <c r="K262" s="15"/>
-      <c r="L262" s="14"/>
-      <c r="M262" s="15">
+    <row r="262" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A262" s="7"/>
+      <c r="B262" s="12"/>
+      <c r="C262" s="9"/>
+      <c r="D262" s="9"/>
+      <c r="H262" s="9"/>
+      <c r="L262" s="9"/>
+      <c r="M262" s="1">
         <v>-13</v>
       </c>
       <c r="N262" s="4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="263" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B263" s="11"/>
-      <c r="C263" s="14"/>
-      <c r="D263" s="14"/>
-      <c r="E263" s="15"/>
-      <c r="F263" s="15"/>
-      <c r="G263" s="15"/>
-      <c r="H263" s="14"/>
-      <c r="I263" s="15"/>
-      <c r="J263" s="15"/>
-      <c r="K263" s="15"/>
-      <c r="L263" s="14"/>
-      <c r="M263" s="15">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="263" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A263" s="7"/>
+      <c r="B263" s="12"/>
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="H263" s="9"/>
+      <c r="L263" s="9"/>
+      <c r="M263" s="1">
         <v>-14</v>
       </c>
       <c r="N263" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="264" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A264" s="7"/>
+      <c r="B264" s="12"/>
+      <c r="C264" s="9"/>
+      <c r="D264" s="9"/>
+      <c r="H264" s="9"/>
+      <c r="L264" s="9"/>
+      <c r="M264" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N264" s="4" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="264" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B264" s="11"/>
-      <c r="C264" s="14"/>
-      <c r="D264" s="14"/>
-      <c r="E264" s="15"/>
-      <c r="F264" s="15"/>
-      <c r="G264" s="15"/>
-      <c r="H264" s="14"/>
-      <c r="I264" s="15"/>
-      <c r="J264" s="15"/>
-      <c r="K264" s="15"/>
-      <c r="L264" s="14"/>
-      <c r="M264" s="15">
-        <v>-15</v>
-      </c>
-      <c r="N264" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="265" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B265" s="11"/>
-      <c r="C265" s="14"/>
-      <c r="D265" s="14"/>
-      <c r="E265" s="15"/>
-      <c r="F265" s="15"/>
-      <c r="G265" s="15"/>
-      <c r="H265" s="14"/>
-      <c r="I265" s="15"/>
-      <c r="J265" s="15"/>
-      <c r="K265" s="15"/>
-      <c r="L265" s="14"/>
-      <c r="M265" s="15">
+    <row r="265" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A265" s="7"/>
+      <c r="B265" s="12"/>
+      <c r="C265" s="9"/>
+      <c r="D265" s="9"/>
+      <c r="H265" s="9"/>
+      <c r="L265" s="9"/>
+      <c r="M265" s="1">
         <v>-21</v>
       </c>
       <c r="N265" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="266" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B266" s="11"/>
-      <c r="C266" s="14"/>
-      <c r="D266" s="14"/>
-      <c r="E266" s="15"/>
-      <c r="F266" s="15"/>
-      <c r="G266" s="15"/>
-      <c r="H266" s="14"/>
-      <c r="I266" s="15"/>
-      <c r="J266" s="15"/>
-      <c r="K266" s="15"/>
-      <c r="L266" s="14"/>
-      <c r="M266" s="15">
+    <row r="266" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A266" s="7"/>
+      <c r="B266" s="12"/>
+      <c r="C266" s="9"/>
+      <c r="D266" s="9"/>
+      <c r="H266" s="9"/>
+      <c r="L266" s="9"/>
+      <c r="M266" s="1">
         <v>-22</v>
       </c>
       <c r="N266" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="267" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B267" s="11"/>
-      <c r="C267" s="14"/>
-      <c r="D267" s="14"/>
-      <c r="E267" s="15"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="15"/>
-      <c r="H267" s="14"/>
-      <c r="I267" s="15"/>
-      <c r="J267" s="15"/>
-      <c r="K267" s="15"/>
-      <c r="L267" s="14"/>
-      <c r="M267" s="15">
+    <row r="267" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A267" s="7"/>
+      <c r="B267" s="12"/>
+      <c r="C267" s="9"/>
+      <c r="D267" s="9"/>
+      <c r="H267" s="9"/>
+      <c r="L267" s="9"/>
+      <c r="M267" s="1">
         <v>-23</v>
       </c>
       <c r="N267" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="268" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B268" s="11"/>
-      <c r="C268" s="14"/>
-      <c r="D268" s="14"/>
-      <c r="E268" s="15"/>
-      <c r="F268" s="15"/>
-      <c r="G268" s="15"/>
-      <c r="H268" s="14"/>
-      <c r="I268" s="15"/>
-      <c r="J268" s="15"/>
-      <c r="K268" s="15"/>
-      <c r="L268" s="14"/>
-      <c r="M268" s="15">
+    <row r="268" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="7"/>
+      <c r="B268" s="12"/>
+      <c r="C268" s="9"/>
+      <c r="D268" s="9"/>
+      <c r="H268" s="9"/>
+      <c r="L268" s="9"/>
+      <c r="M268" s="1">
         <v>-24</v>
       </c>
       <c r="N268" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="269" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B269" s="11"/>
-      <c r="C269" s="14"/>
-      <c r="D269" s="14"/>
-      <c r="E269" s="15"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="15"/>
-      <c r="H269" s="14"/>
-      <c r="I269" s="15"/>
-      <c r="J269" s="15"/>
-      <c r="K269" s="15"/>
-      <c r="L269" s="14"/>
-      <c r="M269" s="15">
+    <row r="269" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A269" s="7"/>
+      <c r="B269" s="12"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="H269" s="9"/>
+      <c r="L269" s="9"/>
+      <c r="M269" s="1">
         <v>-25</v>
       </c>
       <c r="N269" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="270" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B270" s="11"/>
-      <c r="C270" s="14"/>
-      <c r="D270" s="14"/>
-      <c r="E270" s="15"/>
-      <c r="F270" s="15"/>
-      <c r="G270" s="15"/>
-      <c r="H270" s="14"/>
-      <c r="I270" s="15"/>
-      <c r="J270" s="15"/>
-      <c r="K270" s="15"/>
-      <c r="L270" s="14"/>
-      <c r="M270" s="15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="270" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A270" s="7"/>
+      <c r="B270" s="12"/>
+      <c r="C270" s="9"/>
+      <c r="D270" s="9"/>
+      <c r="H270" s="9"/>
+      <c r="L270" s="9"/>
+      <c r="M270" s="1">
         <v>-31</v>
       </c>
       <c r="N270" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B271" s="11"/>
-      <c r="C271" s="14"/>
-      <c r="D271" s="14"/>
-      <c r="E271" s="15"/>
-      <c r="F271" s="15"/>
-      <c r="G271" s="15"/>
-      <c r="H271" s="14"/>
-      <c r="I271" s="15"/>
-      <c r="J271" s="15"/>
-      <c r="K271" s="15"/>
-      <c r="L271" s="14"/>
-      <c r="M271" s="15">
+    <row r="271" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A271" s="7"/>
+      <c r="B271" s="12"/>
+      <c r="C271" s="9"/>
+      <c r="D271" s="9"/>
+      <c r="H271" s="9"/>
+      <c r="L271" s="9"/>
+      <c r="M271" s="1">
         <v>-32</v>
       </c>
       <c r="N271" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="12"/>
-      <c r="C272" s="9"/>
-      <c r="D272" s="9"/>
+    <row r="272" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A272" s="7"/>
+      <c r="B272" s="13"/>
+      <c r="C272" s="10"/>
+      <c r="D272" s="10"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
-      <c r="H272" s="9"/>
+      <c r="H272" s="10"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
       <c r="K272" s="5"/>
-      <c r="L272" s="9"/>
+      <c r="L272" s="10"/>
       <c r="M272" s="5">
         <v>-99</v>
       </c>
@@ -6721,26 +6560,27 @@
         <v>32</v>
       </c>
     </row>
-    <row r="273" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B273" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="D273" s="7">
+    <row r="273" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A273" s="7"/>
+      <c r="B273" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C273" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D273" s="8">
         <v>2</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>118</v>
       </c>
       <c r="F273" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G273" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H273" s="7">
+      <c r="H273" s="8">
         <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
@@ -6750,9 +6590,9 @@
         <v>154</v>
       </c>
       <c r="K273" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L273" s="7">
+        <v>236</v>
+      </c>
+      <c r="L273" s="8">
         <v>14</v>
       </c>
       <c r="M273" s="2">
@@ -6762,275 +6602,2013 @@
         <v>21</v>
       </c>
     </row>
-    <row r="274" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B274" s="11"/>
-      <c r="C274" s="14"/>
-      <c r="D274" s="14"/>
-      <c r="E274" s="15" t="s">
+    <row r="274" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A274" s="7"/>
+      <c r="B274" s="12"/>
+      <c r="C274" s="9"/>
+      <c r="D274" s="9"/>
+      <c r="E274" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F274" s="15" t="s">
+      <c r="F274" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G274" s="15" t="s">
+      <c r="G274" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H274" s="14"/>
-      <c r="I274" s="15"/>
-      <c r="J274" s="15"/>
-      <c r="K274" s="15"/>
-      <c r="L274" s="14"/>
-      <c r="M274" s="15">
+      <c r="H274" s="9"/>
+      <c r="L274" s="9"/>
+      <c r="M274" s="1">
         <v>-2</v>
       </c>
       <c r="N274" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="275" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B275" s="11"/>
-      <c r="C275" s="14"/>
-      <c r="D275" s="14"/>
-      <c r="E275" s="15"/>
-      <c r="F275" s="15"/>
-      <c r="G275" s="15"/>
-      <c r="H275" s="14"/>
-      <c r="I275" s="15"/>
-      <c r="J275" s="15"/>
-      <c r="K275" s="15"/>
-      <c r="L275" s="14"/>
-      <c r="M275" s="15">
+    <row r="275" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="7"/>
+      <c r="B275" s="12"/>
+      <c r="C275" s="9"/>
+      <c r="D275" s="9"/>
+      <c r="H275" s="9"/>
+      <c r="L275" s="9"/>
+      <c r="M275" s="1">
         <v>-11</v>
       </c>
       <c r="N275" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="276" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B276" s="11"/>
-      <c r="C276" s="14"/>
-      <c r="D276" s="14"/>
-      <c r="E276" s="15"/>
-      <c r="F276" s="15"/>
-      <c r="G276" s="15"/>
-      <c r="H276" s="14"/>
-      <c r="I276" s="15"/>
-      <c r="J276" s="15"/>
-      <c r="K276" s="15"/>
-      <c r="L276" s="14"/>
-      <c r="M276" s="15">
+    <row r="276" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="7"/>
+      <c r="B276" s="12"/>
+      <c r="C276" s="9"/>
+      <c r="D276" s="9"/>
+      <c r="H276" s="9"/>
+      <c r="L276" s="9"/>
+      <c r="M276" s="1">
         <v>-12</v>
       </c>
       <c r="N276" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="277" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B277" s="11"/>
-      <c r="C277" s="14"/>
-      <c r="D277" s="14"/>
-      <c r="E277" s="15"/>
-      <c r="F277" s="15"/>
-      <c r="G277" s="15"/>
-      <c r="H277" s="14"/>
-      <c r="I277" s="15"/>
-      <c r="J277" s="15"/>
-      <c r="K277" s="15"/>
-      <c r="L277" s="14"/>
-      <c r="M277" s="15">
+    <row r="277" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="7"/>
+      <c r="B277" s="12"/>
+      <c r="C277" s="9"/>
+      <c r="D277" s="9"/>
+      <c r="H277" s="9"/>
+      <c r="L277" s="9"/>
+      <c r="M277" s="1">
         <v>-13</v>
       </c>
       <c r="N277" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="278" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A278" s="7"/>
+      <c r="B278" s="12"/>
+      <c r="C278" s="9"/>
+      <c r="D278" s="9"/>
+      <c r="H278" s="9"/>
+      <c r="L278" s="9"/>
+      <c r="M278" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N278" s="4" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="278" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B278" s="11"/>
-      <c r="C278" s="14"/>
-      <c r="D278" s="14"/>
-      <c r="E278" s="15"/>
-      <c r="F278" s="15"/>
-      <c r="G278" s="15"/>
-      <c r="H278" s="14"/>
-      <c r="I278" s="15"/>
-      <c r="J278" s="15"/>
-      <c r="K278" s="15"/>
-      <c r="L278" s="14"/>
-      <c r="M278" s="15">
-        <v>-14</v>
-      </c>
-      <c r="N278" s="4" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="279" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B279" s="11"/>
-      <c r="C279" s="14"/>
-      <c r="D279" s="14"/>
-      <c r="E279" s="15"/>
-      <c r="F279" s="15"/>
-      <c r="G279" s="15"/>
-      <c r="H279" s="14"/>
-      <c r="I279" s="15"/>
-      <c r="J279" s="15"/>
-      <c r="K279" s="15"/>
-      <c r="L279" s="14"/>
-      <c r="M279" s="15">
+    <row r="279" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A279" s="7"/>
+      <c r="B279" s="12"/>
+      <c r="C279" s="9"/>
+      <c r="D279" s="9"/>
+      <c r="H279" s="9"/>
+      <c r="L279" s="9"/>
+      <c r="M279" s="1">
         <v>-21</v>
       </c>
       <c r="N279" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="280" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B280" s="11"/>
-      <c r="C280" s="14"/>
-      <c r="D280" s="14"/>
-      <c r="E280" s="15"/>
-      <c r="F280" s="15"/>
-      <c r="G280" s="15"/>
-      <c r="H280" s="14"/>
-      <c r="I280" s="15"/>
-      <c r="J280" s="15"/>
-      <c r="K280" s="15"/>
-      <c r="L280" s="14"/>
-      <c r="M280" s="15">
+    <row r="280" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A280" s="7"/>
+      <c r="B280" s="12"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="H280" s="9"/>
+      <c r="L280" s="9"/>
+      <c r="M280" s="1">
         <v>-22</v>
       </c>
       <c r="N280" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="281" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B281" s="11"/>
-      <c r="C281" s="14"/>
-      <c r="D281" s="14"/>
-      <c r="E281" s="15"/>
-      <c r="F281" s="15"/>
-      <c r="G281" s="15"/>
-      <c r="H281" s="14"/>
-      <c r="I281" s="15"/>
-      <c r="J281" s="15"/>
-      <c r="K281" s="15"/>
-      <c r="L281" s="14"/>
-      <c r="M281" s="15">
+    <row r="281" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A281" s="7"/>
+      <c r="B281" s="12"/>
+      <c r="C281" s="9"/>
+      <c r="D281" s="9"/>
+      <c r="H281" s="9"/>
+      <c r="L281" s="9"/>
+      <c r="M281" s="1">
         <v>-23</v>
       </c>
       <c r="N281" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="282" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B282" s="11"/>
-      <c r="C282" s="14"/>
-      <c r="D282" s="14"/>
-      <c r="E282" s="15"/>
-      <c r="F282" s="15"/>
-      <c r="G282" s="15"/>
-      <c r="H282" s="14"/>
-      <c r="I282" s="15"/>
-      <c r="J282" s="15"/>
-      <c r="K282" s="15"/>
-      <c r="L282" s="14"/>
-      <c r="M282" s="15">
+    <row r="282" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A282" s="7"/>
+      <c r="B282" s="12"/>
+      <c r="C282" s="9"/>
+      <c r="D282" s="9"/>
+      <c r="H282" s="9"/>
+      <c r="L282" s="9"/>
+      <c r="M282" s="1">
         <v>-24</v>
       </c>
       <c r="N282" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="283" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B283" s="11"/>
-      <c r="C283" s="14"/>
-      <c r="D283" s="14"/>
-      <c r="E283" s="15"/>
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
-      <c r="H283" s="14"/>
-      <c r="I283" s="15"/>
-      <c r="J283" s="15"/>
-      <c r="K283" s="15"/>
-      <c r="L283" s="14"/>
-      <c r="M283" s="15">
+    <row r="283" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="7"/>
+      <c r="B283" s="12"/>
+      <c r="C283" s="9"/>
+      <c r="D283" s="9"/>
+      <c r="H283" s="9"/>
+      <c r="L283" s="9"/>
+      <c r="M283" s="1">
         <v>-25</v>
       </c>
       <c r="N283" s="4" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="284" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B284" s="11"/>
-      <c r="C284" s="14"/>
-      <c r="D284" s="14"/>
-      <c r="E284" s="15"/>
-      <c r="F284" s="15"/>
-      <c r="G284" s="15"/>
-      <c r="H284" s="14"/>
-      <c r="I284" s="15"/>
-      <c r="J284" s="15"/>
-      <c r="K284" s="15"/>
-      <c r="L284" s="14"/>
-      <c r="M284" s="15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="7"/>
+      <c r="B284" s="12"/>
+      <c r="C284" s="9"/>
+      <c r="D284" s="9"/>
+      <c r="H284" s="9"/>
+      <c r="L284" s="9"/>
+      <c r="M284" s="1">
         <v>-31</v>
       </c>
       <c r="N284" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B285" s="11"/>
-      <c r="C285" s="14"/>
-      <c r="D285" s="14"/>
-      <c r="E285" s="15"/>
-      <c r="F285" s="15"/>
-      <c r="G285" s="15"/>
-      <c r="H285" s="14"/>
-      <c r="I285" s="15"/>
-      <c r="J285" s="15"/>
-      <c r="K285" s="15"/>
-      <c r="L285" s="14"/>
-      <c r="M285" s="15">
+    <row r="285" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="7"/>
+      <c r="B285" s="12"/>
+      <c r="C285" s="9"/>
+      <c r="D285" s="9"/>
+      <c r="H285" s="9"/>
+      <c r="L285" s="9"/>
+      <c r="M285" s="1">
         <v>-32</v>
       </c>
       <c r="N285" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="286" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A286" s="7"/>
       <c r="B286" s="12"/>
       <c r="C286" s="9"/>
       <c r="D286" s="9"/>
-      <c r="E286" s="5"/>
-      <c r="F286" s="5"/>
-      <c r="G286" s="5"/>
       <c r="H286" s="9"/>
-      <c r="I286" s="5"/>
-      <c r="J286" s="5"/>
-      <c r="K286" s="5"/>
       <c r="L286" s="9"/>
-      <c r="M286" s="5">
+      <c r="M286" s="1">
         <v>-99</v>
       </c>
-      <c r="N286" s="6" t="s">
+      <c r="N286" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="287" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="288" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="289" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="290" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="291" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="292" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="293" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="294" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="295" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="296" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="297" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="298" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="299" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="300" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B287" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C287" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D287" s="8">
+        <v>6</v>
+      </c>
+      <c r="E287" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G287" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H287" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I287" s="2"/>
+      <c r="J287" s="2"/>
+      <c r="K287" s="2"/>
+      <c r="L287" s="8">
+        <v>18</v>
+      </c>
+      <c r="M287" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N287" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="288" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="7"/>
+      <c r="B288" s="12"/>
+      <c r="C288" s="9"/>
+      <c r="D288" s="9"/>
+      <c r="E288" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H288" s="9"/>
+      <c r="L288" s="9"/>
+      <c r="M288" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N288" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="289" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A289" s="7"/>
+      <c r="B289" s="12"/>
+      <c r="C289" s="9"/>
+      <c r="D289" s="9"/>
+      <c r="E289" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H289" s="9"/>
+      <c r="L289" s="9"/>
+      <c r="M289" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N289" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="290" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A290" s="7"/>
+      <c r="B290" s="12"/>
+      <c r="C290" s="9"/>
+      <c r="D290" s="9"/>
+      <c r="E290" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H290" s="9"/>
+      <c r="L290" s="9"/>
+      <c r="M290" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N290" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="291" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A291" s="7"/>
+      <c r="B291" s="12"/>
+      <c r="C291" s="9"/>
+      <c r="D291" s="9"/>
+      <c r="E291" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H291" s="9"/>
+      <c r="L291" s="9"/>
+      <c r="M291" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N291" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="292" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A292" s="7"/>
+      <c r="B292" s="12"/>
+      <c r="C292" s="9"/>
+      <c r="D292" s="9"/>
+      <c r="E292" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="H292" s="9"/>
+      <c r="L292" s="9"/>
+      <c r="M292" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N292" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="293" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A293" s="7"/>
+      <c r="B293" s="12"/>
+      <c r="C293" s="9"/>
+      <c r="D293" s="9"/>
+      <c r="H293" s="9"/>
+      <c r="L293" s="9"/>
+      <c r="M293" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N293" s="4" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="294" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A294" s="7"/>
+      <c r="B294" s="12"/>
+      <c r="C294" s="9"/>
+      <c r="D294" s="9"/>
+      <c r="H294" s="9"/>
+      <c r="L294" s="9"/>
+      <c r="M294" s="1">
+        <v>-16</v>
+      </c>
+      <c r="N294" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="295" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A295" s="7"/>
+      <c r="B295" s="12"/>
+      <c r="C295" s="9"/>
+      <c r="D295" s="9"/>
+      <c r="H295" s="9"/>
+      <c r="L295" s="9"/>
+      <c r="M295" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N295" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="296" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A296" s="7"/>
+      <c r="B296" s="12"/>
+      <c r="C296" s="9"/>
+      <c r="D296" s="9"/>
+      <c r="H296" s="9"/>
+      <c r="L296" s="9"/>
+      <c r="M296" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N296" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="297" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A297" s="7"/>
+      <c r="B297" s="12"/>
+      <c r="C297" s="9"/>
+      <c r="D297" s="9"/>
+      <c r="H297" s="9"/>
+      <c r="L297" s="9"/>
+      <c r="M297" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N297" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="298" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A298" s="7"/>
+      <c r="B298" s="12"/>
+      <c r="C298" s="9"/>
+      <c r="D298" s="9"/>
+      <c r="H298" s="9"/>
+      <c r="L298" s="9"/>
+      <c r="M298" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N298" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="299" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A299" s="7"/>
+      <c r="B299" s="12"/>
+      <c r="C299" s="9"/>
+      <c r="D299" s="9"/>
+      <c r="H299" s="9"/>
+      <c r="L299" s="9"/>
+      <c r="M299" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N299" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="300" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A300" s="7"/>
+      <c r="B300" s="12"/>
+      <c r="C300" s="9"/>
+      <c r="D300" s="9"/>
+      <c r="H300" s="9"/>
+      <c r="L300" s="9"/>
+      <c r="M300" s="1">
+        <v>-26</v>
+      </c>
+      <c r="N300" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="301" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A301" s="7"/>
+      <c r="B301" s="12"/>
+      <c r="C301" s="9"/>
+      <c r="D301" s="9"/>
+      <c r="H301" s="9"/>
+      <c r="L301" s="9"/>
+      <c r="M301" s="1">
+        <v>-27</v>
+      </c>
+      <c r="N301" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="302" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A302" s="7"/>
+      <c r="B302" s="12"/>
+      <c r="C302" s="9"/>
+      <c r="D302" s="9"/>
+      <c r="H302" s="9"/>
+      <c r="L302" s="9"/>
+      <c r="M302" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N302" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="303" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A303" s="7"/>
+      <c r="B303" s="12"/>
+      <c r="C303" s="9"/>
+      <c r="D303" s="9"/>
+      <c r="H303" s="9"/>
+      <c r="L303" s="9"/>
+      <c r="M303" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N303" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="304" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A304" s="7"/>
+      <c r="B304" s="12"/>
+      <c r="C304" s="15"/>
+      <c r="D304" s="15"/>
+      <c r="E304" s="14"/>
+      <c r="F304" s="14"/>
+      <c r="G304" s="14"/>
+      <c r="H304" s="15"/>
+      <c r="I304" s="14"/>
+      <c r="J304" s="14"/>
+      <c r="K304" s="14"/>
+      <c r="L304" s="15"/>
+      <c r="M304" s="14">
+        <v>-99</v>
+      </c>
+      <c r="N304" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="305" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A305" s="7"/>
+      <c r="B305" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="C305" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D305" s="8">
+        <v>7</v>
+      </c>
+      <c r="E305" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F305" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G305" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H305" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I305" s="2"/>
+      <c r="J305" s="2"/>
+      <c r="K305" s="2"/>
+      <c r="L305" s="8">
+        <v>19</v>
+      </c>
+      <c r="M305" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N305" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A306" s="7"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="15"/>
+      <c r="D306" s="15"/>
+      <c r="E306" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F306" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G306" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H306" s="15"/>
+      <c r="I306" s="14"/>
+      <c r="J306" s="14"/>
+      <c r="K306" s="14"/>
+      <c r="L306" s="15"/>
+      <c r="M306" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N306" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A307" s="7"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="15"/>
+      <c r="D307" s="15"/>
+      <c r="E307" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F307" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G307" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H307" s="15"/>
+      <c r="I307" s="14"/>
+      <c r="J307" s="14"/>
+      <c r="K307" s="14"/>
+      <c r="L307" s="15"/>
+      <c r="M307" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N307" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="308" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A308" s="7"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="15"/>
+      <c r="D308" s="15"/>
+      <c r="E308" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F308" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G308" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H308" s="15"/>
+      <c r="I308" s="14"/>
+      <c r="J308" s="14"/>
+      <c r="K308" s="14"/>
+      <c r="L308" s="15"/>
+      <c r="M308" s="14">
+        <v>-12</v>
+      </c>
+      <c r="N308" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="309" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A309" s="7"/>
+      <c r="B309" s="12"/>
+      <c r="C309" s="15"/>
+      <c r="D309" s="15"/>
+      <c r="E309" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="F309" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G309" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="H309" s="15"/>
+      <c r="I309" s="14"/>
+      <c r="J309" s="14"/>
+      <c r="K309" s="14"/>
+      <c r="L309" s="15"/>
+      <c r="M309" s="14">
+        <v>-13</v>
+      </c>
+      <c r="N309" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="310" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A310" s="7"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="15"/>
+      <c r="D310" s="15"/>
+      <c r="E310" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="F310" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G310" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="H310" s="15"/>
+      <c r="I310" s="14"/>
+      <c r="J310" s="14"/>
+      <c r="K310" s="14"/>
+      <c r="L310" s="15"/>
+      <c r="M310" s="14">
+        <v>-14</v>
+      </c>
+      <c r="N310" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="311" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A311" s="7"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="15"/>
+      <c r="D311" s="15"/>
+      <c r="E311" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="F311" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="G311" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H311" s="15"/>
+      <c r="I311" s="14"/>
+      <c r="J311" s="14"/>
+      <c r="K311" s="14"/>
+      <c r="L311" s="15"/>
+      <c r="M311" s="14">
+        <v>-15</v>
+      </c>
+      <c r="N311" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="312" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A312" s="7"/>
+      <c r="B312" s="12"/>
+      <c r="C312" s="15"/>
+      <c r="D312" s="15"/>
+      <c r="H312" s="15"/>
+      <c r="I312" s="14"/>
+      <c r="J312" s="14"/>
+      <c r="K312" s="14"/>
+      <c r="L312" s="15"/>
+      <c r="M312" s="14">
+        <v>-16</v>
+      </c>
+      <c r="N312" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="313" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A313" s="7"/>
+      <c r="B313" s="12"/>
+      <c r="C313" s="15"/>
+      <c r="D313" s="15"/>
+      <c r="E313" s="14"/>
+      <c r="F313" s="14"/>
+      <c r="G313" s="14"/>
+      <c r="H313" s="15"/>
+      <c r="I313" s="14"/>
+      <c r="J313" s="14"/>
+      <c r="K313" s="14"/>
+      <c r="L313" s="15"/>
+      <c r="M313" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N313" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="314" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A314" s="7"/>
+      <c r="B314" s="12"/>
+      <c r="C314" s="15"/>
+      <c r="D314" s="15"/>
+      <c r="E314" s="14"/>
+      <c r="F314" s="14"/>
+      <c r="G314" s="14"/>
+      <c r="H314" s="15"/>
+      <c r="I314" s="14"/>
+      <c r="J314" s="14"/>
+      <c r="K314" s="14"/>
+      <c r="L314" s="15"/>
+      <c r="M314" s="14">
+        <v>-22</v>
+      </c>
+      <c r="N314" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="315" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A315" s="7"/>
+      <c r="B315" s="12"/>
+      <c r="C315" s="15"/>
+      <c r="D315" s="15"/>
+      <c r="E315" s="14"/>
+      <c r="F315" s="14"/>
+      <c r="G315" s="14"/>
+      <c r="H315" s="15"/>
+      <c r="I315" s="14"/>
+      <c r="J315" s="14"/>
+      <c r="K315" s="14"/>
+      <c r="L315" s="15"/>
+      <c r="M315" s="14">
+        <v>-23</v>
+      </c>
+      <c r="N315" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="316" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A316" s="7"/>
+      <c r="B316" s="12"/>
+      <c r="C316" s="15"/>
+      <c r="D316" s="15"/>
+      <c r="E316" s="14"/>
+      <c r="F316" s="14"/>
+      <c r="G316" s="14"/>
+      <c r="H316" s="15"/>
+      <c r="I316" s="14"/>
+      <c r="J316" s="14"/>
+      <c r="K316" s="14"/>
+      <c r="L316" s="15"/>
+      <c r="M316" s="14">
+        <v>-24</v>
+      </c>
+      <c r="N316" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="317" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A317" s="7"/>
+      <c r="B317" s="12"/>
+      <c r="C317" s="15"/>
+      <c r="D317" s="15"/>
+      <c r="E317" s="14"/>
+      <c r="F317" s="14"/>
+      <c r="G317" s="14"/>
+      <c r="H317" s="15"/>
+      <c r="I317" s="14"/>
+      <c r="J317" s="14"/>
+      <c r="K317" s="14"/>
+      <c r="L317" s="15"/>
+      <c r="M317" s="14">
+        <v>-25</v>
+      </c>
+      <c r="N317" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="318" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A318" s="7"/>
+      <c r="B318" s="12"/>
+      <c r="C318" s="15"/>
+      <c r="D318" s="15"/>
+      <c r="E318" s="14"/>
+      <c r="F318" s="14"/>
+      <c r="G318" s="14"/>
+      <c r="H318" s="15"/>
+      <c r="I318" s="14"/>
+      <c r="J318" s="14"/>
+      <c r="K318" s="14"/>
+      <c r="L318" s="15"/>
+      <c r="M318" s="14">
+        <v>-26</v>
+      </c>
+      <c r="N318" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="319" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A319" s="7"/>
+      <c r="B319" s="12"/>
+      <c r="C319" s="15"/>
+      <c r="D319" s="15"/>
+      <c r="E319" s="14"/>
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="15"/>
+      <c r="I319" s="14"/>
+      <c r="J319" s="14"/>
+      <c r="K319" s="14"/>
+      <c r="L319" s="15"/>
+      <c r="M319" s="14">
+        <v>-27</v>
+      </c>
+      <c r="N319" s="4" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="320" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A320" s="7"/>
+      <c r="B320" s="12"/>
+      <c r="C320" s="15"/>
+      <c r="D320" s="15"/>
+      <c r="E320" s="14"/>
+      <c r="F320" s="14"/>
+      <c r="G320" s="14"/>
+      <c r="H320" s="15"/>
+      <c r="I320" s="14"/>
+      <c r="J320" s="14"/>
+      <c r="K320" s="14"/>
+      <c r="L320" s="15"/>
+      <c r="M320" s="14">
+        <v>-28</v>
+      </c>
+      <c r="N320" s="4" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="321" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A321" s="7"/>
+      <c r="B321" s="12"/>
+      <c r="C321" s="15"/>
+      <c r="D321" s="15"/>
+      <c r="E321" s="14"/>
+      <c r="F321" s="14"/>
+      <c r="G321" s="14"/>
+      <c r="H321" s="15"/>
+      <c r="I321" s="14"/>
+      <c r="J321" s="14"/>
+      <c r="K321" s="14"/>
+      <c r="L321" s="15"/>
+      <c r="M321" s="14">
+        <v>-31</v>
+      </c>
+      <c r="N321" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A322" s="7"/>
+      <c r="B322" s="12"/>
+      <c r="C322" s="15"/>
+      <c r="D322" s="15"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="14"/>
+      <c r="H322" s="15"/>
+      <c r="I322" s="14"/>
+      <c r="J322" s="14"/>
+      <c r="K322" s="14"/>
+      <c r="L322" s="15"/>
+      <c r="M322" s="14">
+        <v>-32</v>
+      </c>
+      <c r="N322" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="323" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A323" s="7"/>
+      <c r="B323" s="13"/>
+      <c r="C323" s="10"/>
+      <c r="D323" s="10"/>
+      <c r="E323" s="5"/>
+      <c r="F323" s="5"/>
+      <c r="G323" s="5"/>
+      <c r="H323" s="10"/>
+      <c r="I323" s="5"/>
+      <c r="J323" s="5"/>
+      <c r="K323" s="5"/>
+      <c r="L323" s="10"/>
+      <c r="M323" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N323" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="324" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A324" s="7"/>
+      <c r="B324" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C324" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="D324" s="8">
+        <v>4</v>
+      </c>
+      <c r="E324" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G324" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H324" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I324" s="2"/>
+      <c r="J324" s="2"/>
+      <c r="K324" s="2"/>
+      <c r="L324" s="8">
+        <v>19</v>
+      </c>
+      <c r="M324" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N324" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="325" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A325" s="7"/>
+      <c r="B325" s="12"/>
+      <c r="C325" s="15"/>
+      <c r="D325" s="15"/>
+      <c r="E325" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F325" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G325" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H325" s="15"/>
+      <c r="I325" s="14"/>
+      <c r="J325" s="14"/>
+      <c r="K325" s="14"/>
+      <c r="L325" s="15"/>
+      <c r="M325" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N325" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="326" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A326" s="7"/>
+      <c r="B326" s="12"/>
+      <c r="C326" s="15"/>
+      <c r="D326" s="15"/>
+      <c r="E326" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F326" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G326" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H326" s="15"/>
+      <c r="I326" s="14"/>
+      <c r="J326" s="14"/>
+      <c r="K326" s="14"/>
+      <c r="L326" s="15"/>
+      <c r="M326" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N326" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="327" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A327" s="7"/>
+      <c r="B327" s="12"/>
+      <c r="C327" s="15"/>
+      <c r="D327" s="15"/>
+      <c r="E327" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F327" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G327" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H327" s="15"/>
+      <c r="I327" s="14"/>
+      <c r="J327" s="14"/>
+      <c r="K327" s="14"/>
+      <c r="L327" s="15"/>
+      <c r="M327" s="14">
+        <v>-12</v>
+      </c>
+      <c r="N327" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="328" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="7"/>
+      <c r="B328" s="12"/>
+      <c r="C328" s="15"/>
+      <c r="D328" s="15"/>
+      <c r="H328" s="15"/>
+      <c r="I328" s="14"/>
+      <c r="J328" s="14"/>
+      <c r="K328" s="14"/>
+      <c r="L328" s="15"/>
+      <c r="M328" s="14">
+        <v>-13</v>
+      </c>
+      <c r="N328" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="329" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="7"/>
+      <c r="B329" s="12"/>
+      <c r="C329" s="15"/>
+      <c r="D329" s="15"/>
+      <c r="E329" s="14"/>
+      <c r="F329" s="14"/>
+      <c r="G329" s="14"/>
+      <c r="H329" s="15"/>
+      <c r="I329" s="14"/>
+      <c r="J329" s="14"/>
+      <c r="K329" s="14"/>
+      <c r="L329" s="15"/>
+      <c r="M329" s="14">
+        <v>-14</v>
+      </c>
+      <c r="N329" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="330" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="7"/>
+      <c r="B330" s="12"/>
+      <c r="C330" s="15"/>
+      <c r="D330" s="15"/>
+      <c r="E330" s="14"/>
+      <c r="F330" s="14"/>
+      <c r="G330" s="14"/>
+      <c r="H330" s="15"/>
+      <c r="I330" s="14"/>
+      <c r="J330" s="14"/>
+      <c r="K330" s="14"/>
+      <c r="L330" s="15"/>
+      <c r="M330" s="14">
+        <v>-15</v>
+      </c>
+      <c r="N330" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="331" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="7"/>
+      <c r="B331" s="12"/>
+      <c r="C331" s="15"/>
+      <c r="D331" s="15"/>
+      <c r="E331" s="14"/>
+      <c r="F331" s="14"/>
+      <c r="G331" s="14"/>
+      <c r="H331" s="15"/>
+      <c r="I331" s="14"/>
+      <c r="J331" s="14"/>
+      <c r="K331" s="14"/>
+      <c r="L331" s="15"/>
+      <c r="M331" s="14">
+        <v>-16</v>
+      </c>
+      <c r="N331" s="4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="332" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="7"/>
+      <c r="B332" s="12"/>
+      <c r="C332" s="15"/>
+      <c r="D332" s="15"/>
+      <c r="E332" s="14"/>
+      <c r="F332" s="14"/>
+      <c r="G332" s="14"/>
+      <c r="H332" s="15"/>
+      <c r="I332" s="14"/>
+      <c r="J332" s="14"/>
+      <c r="K332" s="14"/>
+      <c r="L332" s="15"/>
+      <c r="M332" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N332" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="333" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="7"/>
+      <c r="B333" s="12"/>
+      <c r="C333" s="15"/>
+      <c r="D333" s="15"/>
+      <c r="E333" s="14"/>
+      <c r="F333" s="14"/>
+      <c r="G333" s="14"/>
+      <c r="H333" s="15"/>
+      <c r="I333" s="14"/>
+      <c r="J333" s="14"/>
+      <c r="K333" s="14"/>
+      <c r="L333" s="15"/>
+      <c r="M333" s="14">
+        <v>-22</v>
+      </c>
+      <c r="N333" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="334" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="7"/>
+      <c r="B334" s="12"/>
+      <c r="C334" s="15"/>
+      <c r="D334" s="15"/>
+      <c r="E334" s="14"/>
+      <c r="F334" s="14"/>
+      <c r="G334" s="14"/>
+      <c r="H334" s="15"/>
+      <c r="I334" s="14"/>
+      <c r="J334" s="14"/>
+      <c r="K334" s="14"/>
+      <c r="L334" s="15"/>
+      <c r="M334" s="14">
+        <v>-23</v>
+      </c>
+      <c r="N334" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="335" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="7"/>
+      <c r="B335" s="12"/>
+      <c r="C335" s="15"/>
+      <c r="D335" s="15"/>
+      <c r="E335" s="14"/>
+      <c r="F335" s="14"/>
+      <c r="G335" s="14"/>
+      <c r="H335" s="15"/>
+      <c r="I335" s="14"/>
+      <c r="J335" s="14"/>
+      <c r="K335" s="14"/>
+      <c r="L335" s="15"/>
+      <c r="M335" s="14">
+        <v>-24</v>
+      </c>
+      <c r="N335" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="336" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A336" s="7"/>
+      <c r="B336" s="12"/>
+      <c r="C336" s="15"/>
+      <c r="D336" s="15"/>
+      <c r="E336" s="14"/>
+      <c r="F336" s="14"/>
+      <c r="G336" s="14"/>
+      <c r="H336" s="15"/>
+      <c r="I336" s="14"/>
+      <c r="J336" s="14"/>
+      <c r="K336" s="14"/>
+      <c r="L336" s="15"/>
+      <c r="M336" s="14">
+        <v>-25</v>
+      </c>
+      <c r="N336" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="337" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A337" s="7"/>
+      <c r="B337" s="12"/>
+      <c r="C337" s="15"/>
+      <c r="D337" s="15"/>
+      <c r="E337" s="14"/>
+      <c r="F337" s="14"/>
+      <c r="G337" s="14"/>
+      <c r="H337" s="15"/>
+      <c r="I337" s="14"/>
+      <c r="J337" s="14"/>
+      <c r="K337" s="14"/>
+      <c r="L337" s="15"/>
+      <c r="M337" s="14">
+        <v>-26</v>
+      </c>
+      <c r="N337" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="338" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A338" s="7"/>
+      <c r="B338" s="12"/>
+      <c r="C338" s="15"/>
+      <c r="D338" s="15"/>
+      <c r="E338" s="14"/>
+      <c r="F338" s="14"/>
+      <c r="G338" s="14"/>
+      <c r="H338" s="15"/>
+      <c r="I338" s="14"/>
+      <c r="J338" s="14"/>
+      <c r="K338" s="14"/>
+      <c r="L338" s="15"/>
+      <c r="M338" s="14">
+        <v>-27</v>
+      </c>
+      <c r="N338" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="339" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A339" s="7"/>
+      <c r="B339" s="12"/>
+      <c r="C339" s="15"/>
+      <c r="D339" s="15"/>
+      <c r="E339" s="14"/>
+      <c r="F339" s="14"/>
+      <c r="G339" s="14"/>
+      <c r="H339" s="15"/>
+      <c r="I339" s="14"/>
+      <c r="J339" s="14"/>
+      <c r="K339" s="14"/>
+      <c r="L339" s="15"/>
+      <c r="M339" s="14">
+        <v>-28</v>
+      </c>
+      <c r="N339" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="340" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A340" s="7"/>
+      <c r="B340" s="12"/>
+      <c r="C340" s="15"/>
+      <c r="D340" s="15"/>
+      <c r="E340" s="14"/>
+      <c r="F340" s="14"/>
+      <c r="G340" s="14"/>
+      <c r="H340" s="15"/>
+      <c r="I340" s="14"/>
+      <c r="J340" s="14"/>
+      <c r="K340" s="14"/>
+      <c r="L340" s="15"/>
+      <c r="M340" s="14">
+        <v>-31</v>
+      </c>
+      <c r="N340" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A341" s="7"/>
+      <c r="B341" s="12"/>
+      <c r="C341" s="15"/>
+      <c r="D341" s="15"/>
+      <c r="E341" s="14"/>
+      <c r="F341" s="14"/>
+      <c r="G341" s="14"/>
+      <c r="H341" s="15"/>
+      <c r="I341" s="14"/>
+      <c r="J341" s="14"/>
+      <c r="K341" s="14"/>
+      <c r="L341" s="15"/>
+      <c r="M341" s="14">
+        <v>-32</v>
+      </c>
+      <c r="N341" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A342" s="7"/>
+      <c r="B342" s="12"/>
+      <c r="C342" s="15"/>
+      <c r="D342" s="15"/>
+      <c r="E342" s="14"/>
+      <c r="F342" s="14"/>
+      <c r="G342" s="14"/>
+      <c r="H342" s="15"/>
+      <c r="I342" s="14"/>
+      <c r="J342" s="14"/>
+      <c r="K342" s="14"/>
+      <c r="L342" s="15"/>
+      <c r="M342" s="14">
+        <v>-99</v>
+      </c>
+      <c r="N342" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="343" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A343" s="7"/>
+      <c r="B343" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C343" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="D343" s="8">
+        <v>4</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G343" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H343" s="8">
+        <v>1</v>
+      </c>
+      <c r="I343" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="J343" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K343" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L343" s="8">
+        <v>13</v>
+      </c>
+      <c r="M343" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N343" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="344" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A344" s="7"/>
+      <c r="B344" s="12"/>
+      <c r="C344" s="15"/>
+      <c r="D344" s="15"/>
+      <c r="E344" s="14" t="s">
+        <v>239</v>
+      </c>
+      <c r="F344" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="G344" s="14" t="s">
+        <v>240</v>
+      </c>
+      <c r="H344" s="15"/>
+      <c r="I344" s="14"/>
+      <c r="J344" s="14"/>
+      <c r="K344" s="14"/>
+      <c r="L344" s="15"/>
+      <c r="M344" s="14">
+        <v>-2</v>
+      </c>
+      <c r="N344" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="345" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A345" s="7"/>
+      <c r="B345" s="12"/>
+      <c r="C345" s="15"/>
+      <c r="D345" s="15"/>
+      <c r="E345" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F345" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G345" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="H345" s="15"/>
+      <c r="I345" s="14"/>
+      <c r="J345" s="14"/>
+      <c r="K345" s="14"/>
+      <c r="L345" s="15"/>
+      <c r="M345" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N345" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="346" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A346" s="7"/>
+      <c r="B346" s="12"/>
+      <c r="C346" s="15"/>
+      <c r="D346" s="15"/>
+      <c r="E346" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="F346" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G346" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H346" s="15"/>
+      <c r="I346" s="14"/>
+      <c r="J346" s="14"/>
+      <c r="K346" s="14"/>
+      <c r="L346" s="15"/>
+      <c r="M346" s="14">
+        <v>-12</v>
+      </c>
+      <c r="N346" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="347" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A347" s="7"/>
+      <c r="B347" s="12"/>
+      <c r="C347" s="15"/>
+      <c r="D347" s="15"/>
+      <c r="H347" s="15"/>
+      <c r="I347" s="14"/>
+      <c r="J347" s="14"/>
+      <c r="K347" s="14"/>
+      <c r="L347" s="15"/>
+      <c r="M347" s="14">
+        <v>-13</v>
+      </c>
+      <c r="N347" s="4" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="348" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A348" s="7"/>
+      <c r="B348" s="12"/>
+      <c r="C348" s="15"/>
+      <c r="D348" s="15"/>
+      <c r="E348" s="14"/>
+      <c r="F348" s="14"/>
+      <c r="G348" s="14"/>
+      <c r="H348" s="15"/>
+      <c r="I348" s="14"/>
+      <c r="J348" s="14"/>
+      <c r="K348" s="14"/>
+      <c r="L348" s="15"/>
+      <c r="M348" s="14">
+        <v>-14</v>
+      </c>
+      <c r="N348" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="349" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A349" s="7"/>
+      <c r="B349" s="12"/>
+      <c r="C349" s="15"/>
+      <c r="D349" s="15"/>
+      <c r="E349" s="14"/>
+      <c r="F349" s="14"/>
+      <c r="G349" s="14"/>
+      <c r="H349" s="15"/>
+      <c r="I349" s="14"/>
+      <c r="J349" s="14"/>
+      <c r="K349" s="14"/>
+      <c r="L349" s="15"/>
+      <c r="M349" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N349" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="350" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A350" s="7"/>
+      <c r="B350" s="12"/>
+      <c r="C350" s="15"/>
+      <c r="D350" s="15"/>
+      <c r="E350" s="14"/>
+      <c r="F350" s="14"/>
+      <c r="G350" s="14"/>
+      <c r="H350" s="15"/>
+      <c r="I350" s="14"/>
+      <c r="J350" s="14"/>
+      <c r="K350" s="14"/>
+      <c r="L350" s="15"/>
+      <c r="M350" s="14">
+        <v>-22</v>
+      </c>
+      <c r="N350" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A351" s="7"/>
+      <c r="B351" s="12"/>
+      <c r="C351" s="15"/>
+      <c r="D351" s="15"/>
+      <c r="E351" s="14"/>
+      <c r="F351" s="14"/>
+      <c r="G351" s="14"/>
+      <c r="H351" s="15"/>
+      <c r="I351" s="14"/>
+      <c r="J351" s="14"/>
+      <c r="K351" s="14"/>
+      <c r="L351" s="15"/>
+      <c r="M351" s="14">
+        <v>-23</v>
+      </c>
+      <c r="N351" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A352" s="7"/>
+      <c r="B352" s="12"/>
+      <c r="C352" s="15"/>
+      <c r="D352" s="15"/>
+      <c r="E352" s="14"/>
+      <c r="F352" s="14"/>
+      <c r="G352" s="14"/>
+      <c r="H352" s="15"/>
+      <c r="I352" s="14"/>
+      <c r="J352" s="14"/>
+      <c r="K352" s="14"/>
+      <c r="L352" s="15"/>
+      <c r="M352" s="14">
+        <v>-24</v>
+      </c>
+      <c r="N352" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A353" s="7"/>
+      <c r="B353" s="12"/>
+      <c r="C353" s="15"/>
+      <c r="D353" s="15"/>
+      <c r="E353" s="14"/>
+      <c r="F353" s="14"/>
+      <c r="G353" s="14"/>
+      <c r="H353" s="15"/>
+      <c r="I353" s="14"/>
+      <c r="J353" s="14"/>
+      <c r="K353" s="14"/>
+      <c r="L353" s="15"/>
+      <c r="M353" s="14">
+        <v>-31</v>
+      </c>
+      <c r="N353" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A354" s="7"/>
+      <c r="B354" s="12"/>
+      <c r="C354" s="15"/>
+      <c r="D354" s="15"/>
+      <c r="E354" s="14"/>
+      <c r="F354" s="14"/>
+      <c r="G354" s="14"/>
+      <c r="H354" s="15"/>
+      <c r="I354" s="14"/>
+      <c r="J354" s="14"/>
+      <c r="K354" s="14"/>
+      <c r="L354" s="15"/>
+      <c r="M354" s="14">
+        <v>-32</v>
+      </c>
+      <c r="N354" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A355" s="7"/>
+      <c r="B355" s="13"/>
+      <c r="C355" s="10"/>
+      <c r="D355" s="10"/>
+      <c r="E355" s="5"/>
+      <c r="F355" s="5"/>
+      <c r="G355" s="5"/>
+      <c r="H355" s="10"/>
+      <c r="I355" s="5"/>
+      <c r="J355" s="5"/>
+      <c r="K355" s="5"/>
+      <c r="L355" s="10"/>
+      <c r="M355" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N355" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A356" s="7"/>
+      <c r="B356" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C356" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D356" s="8">
+        <v>2</v>
+      </c>
+      <c r="E356" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G356" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H356" s="8">
+        <v>4</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J356" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K356" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L356" s="8">
+        <v>6</v>
+      </c>
+      <c r="M356" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N356" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A357" s="7"/>
+      <c r="B357" s="12"/>
+      <c r="C357" s="14"/>
+      <c r="D357" s="15"/>
+      <c r="E357" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="F357" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G357" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="H357" s="15"/>
+      <c r="I357" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="J357" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="K357" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="L357" s="15"/>
+      <c r="M357" s="14">
+        <v>-11</v>
+      </c>
+      <c r="N357" s="4" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A358" s="7"/>
+      <c r="B358" s="12"/>
+      <c r="C358" s="14"/>
+      <c r="D358" s="15"/>
+      <c r="E358" s="14"/>
+      <c r="F358" s="14"/>
+      <c r="G358" s="14"/>
+      <c r="H358" s="15"/>
+      <c r="I358" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="J358" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="K358" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="L358" s="15"/>
+      <c r="M358" s="14">
+        <v>-21</v>
+      </c>
+      <c r="N358" s="4" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A359" s="7"/>
+      <c r="B359" s="12"/>
+      <c r="C359" s="14"/>
+      <c r="D359" s="15"/>
+      <c r="E359" s="14"/>
+      <c r="F359" s="14"/>
+      <c r="G359" s="14"/>
+      <c r="H359" s="15"/>
+      <c r="I359" s="14" t="s">
+        <v>243</v>
+      </c>
+      <c r="J359" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="K359" s="14" t="s">
+        <v>244</v>
+      </c>
+      <c r="L359" s="15"/>
+      <c r="M359" s="14">
+        <v>-31</v>
+      </c>
+      <c r="N359" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A360" s="7"/>
+      <c r="B360" s="12"/>
+      <c r="C360" s="14"/>
+      <c r="D360" s="15"/>
+      <c r="E360" s="14"/>
+      <c r="F360" s="14"/>
+      <c r="G360" s="14"/>
+      <c r="H360" s="15"/>
+      <c r="I360" s="14"/>
+      <c r="J360" s="14"/>
+      <c r="K360" s="14"/>
+      <c r="L360" s="15"/>
+      <c r="M360" s="14">
+        <v>-32</v>
+      </c>
+      <c r="N360" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A361" s="7"/>
+      <c r="B361" s="13"/>
+      <c r="C361" s="5"/>
+      <c r="D361" s="10"/>
+      <c r="E361" s="5"/>
+      <c r="F361" s="5"/>
+      <c r="G361" s="5"/>
+      <c r="H361" s="10"/>
+      <c r="I361" s="5"/>
+      <c r="J361" s="5"/>
+      <c r="K361" s="5"/>
+      <c r="L361" s="10"/>
+      <c r="M361" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N361" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A362" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="364" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="365" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="366" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="367" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="368" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="369" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="370" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="371" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="372" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="373" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="374" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="375" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="376" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="377" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="378" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="379" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="380" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="381" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="382" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="383" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="384" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="385" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="386" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="387" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="388" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="389" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="390" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="391" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="392" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="393" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="394" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="395" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="396" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="397" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="398" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="399" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="400" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="401" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="402" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="403" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="404" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="405" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="406" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="407" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="408" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="409" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="410" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="411" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="412" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="413" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="414" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="415" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="416" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="417" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="418" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="419" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="420" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="421" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="422" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="423" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="424" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="425" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="426" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="427" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="428" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="429" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="430" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="431" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="432" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="433" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="434" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="435" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="436" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="437" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="449" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="450" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="451" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="452" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="453" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="454" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="455" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="456" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="457" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="458" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="459" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="460" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="461" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="462" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="463" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="464" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="465" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="466" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="467" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="468" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="469" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="470" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="471" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="472" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="473" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="474" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="475" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="476" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="477" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="478" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="479" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="480" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="481" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="482" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="483" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="484" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="485" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="486" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="487" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="488" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="489" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="490" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="491" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="492" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="493" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="494" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="495" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="496" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="497" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="498" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="499" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="500" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="501" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="502" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="503" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="504" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="505" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="506" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="507" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="508" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="509" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="510" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="511" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="512" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="513" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="514" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="515" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="516" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="517" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="518" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="519" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="520" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="521" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="112">
+  <mergeCells count="138">
+    <mergeCell ref="A287:A361"/>
+    <mergeCell ref="B343:B355"/>
+    <mergeCell ref="C343:C355"/>
+    <mergeCell ref="D343:D355"/>
+    <mergeCell ref="H343:H355"/>
+    <mergeCell ref="L343:L355"/>
+    <mergeCell ref="L356:L361"/>
+    <mergeCell ref="H356:H361"/>
+    <mergeCell ref="D356:D361"/>
+    <mergeCell ref="B356:B361"/>
+    <mergeCell ref="L305:L323"/>
+    <mergeCell ref="H305:H323"/>
+    <mergeCell ref="D305:D323"/>
+    <mergeCell ref="B305:B323"/>
+    <mergeCell ref="C305:C323"/>
+    <mergeCell ref="L324:L342"/>
+    <mergeCell ref="H324:H342"/>
+    <mergeCell ref="D324:D342"/>
+    <mergeCell ref="C324:C342"/>
+    <mergeCell ref="B324:B342"/>
     <mergeCell ref="L273:L286"/>
     <mergeCell ref="H273:H286"/>
     <mergeCell ref="D273:D286"/>
@@ -7053,20 +8631,22 @@
     <mergeCell ref="L228:L241"/>
     <mergeCell ref="H228:H241"/>
     <mergeCell ref="D228:D241"/>
-    <mergeCell ref="A110:A212"/>
-    <mergeCell ref="B213:B227"/>
-    <mergeCell ref="D213:D227"/>
-    <mergeCell ref="C213:C227"/>
-    <mergeCell ref="B206:B212"/>
-    <mergeCell ref="C206:C212"/>
-    <mergeCell ref="D206:D212"/>
-    <mergeCell ref="H206:H212"/>
     <mergeCell ref="L206:L212"/>
     <mergeCell ref="B192:B205"/>
     <mergeCell ref="C192:C205"/>
     <mergeCell ref="D192:D205"/>
     <mergeCell ref="H192:H205"/>
     <mergeCell ref="L192:L205"/>
+    <mergeCell ref="L124:L140"/>
+    <mergeCell ref="H124:H140"/>
+    <mergeCell ref="D124:D140"/>
+    <mergeCell ref="B124:B140"/>
+    <mergeCell ref="C124:C140"/>
+    <mergeCell ref="H141:H157"/>
+    <mergeCell ref="L141:L157"/>
+    <mergeCell ref="B141:B157"/>
+    <mergeCell ref="C141:C157"/>
+    <mergeCell ref="D141:D157"/>
     <mergeCell ref="A2:A109"/>
     <mergeCell ref="L110:L123"/>
     <mergeCell ref="H110:H123"/>
@@ -7123,16 +8703,12 @@
     <mergeCell ref="D97:D109"/>
     <mergeCell ref="H97:H109"/>
     <mergeCell ref="L97:L109"/>
-    <mergeCell ref="L124:L140"/>
-    <mergeCell ref="H124:H140"/>
-    <mergeCell ref="D124:D140"/>
-    <mergeCell ref="B124:B140"/>
-    <mergeCell ref="C124:C140"/>
-    <mergeCell ref="H141:H157"/>
-    <mergeCell ref="L141:L157"/>
-    <mergeCell ref="B141:B157"/>
-    <mergeCell ref="C141:C157"/>
-    <mergeCell ref="D141:D157"/>
+    <mergeCell ref="A213:A286"/>
+    <mergeCell ref="L287:L304"/>
+    <mergeCell ref="H287:H304"/>
+    <mergeCell ref="D287:D304"/>
+    <mergeCell ref="C287:C304"/>
+    <mergeCell ref="B287:B304"/>
     <mergeCell ref="B158:B175"/>
     <mergeCell ref="C158:C175"/>
     <mergeCell ref="D158:D175"/>
@@ -7143,6 +8719,14 @@
     <mergeCell ref="B176:B191"/>
     <mergeCell ref="C176:C191"/>
     <mergeCell ref="D176:D191"/>
+    <mergeCell ref="A110:A212"/>
+    <mergeCell ref="B213:B227"/>
+    <mergeCell ref="D213:D227"/>
+    <mergeCell ref="C213:C227"/>
+    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="C206:C212"/>
+    <mergeCell ref="D206:D212"/>
+    <mergeCell ref="H206:H212"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API.xlsx
+++ b/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\SE\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99402041-19C0-40B8-8EBD-E35B16180C33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9800CA3-7200-41C7-82CC-568CD1608471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="853" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="283">
   <si>
     <t>接口名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -998,6 +998,146 @@
   </si>
   <si>
     <t>作业与提交组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>add_homework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>教师给自己的课程新增作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>deadline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业的描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业的标题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询最大作业编号的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插入作业的sql操作无法顺利执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要新建作业的课程不在数据库中，不准新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程教师的操作成功，但是没有结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加作业的课程的教师并非课程所有者，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homework_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询作业是否在指定课程中的sql操作失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改作业的sql操作无法顺利执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改作业的教师并非课程所有者，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要修改作业的课程不在数据库中，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前作业不在课程中，不准修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>edit_homework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编辑作业信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>delete_homework</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除作业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除作业的sql操作无法顺利执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>要删除作业的课程不在数据库中，不准新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前作业不在课程中，不准删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_homework_id_by_course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户查询一门课程下的所有作业的ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询课程中作业数量的sql操作执行失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询作业ID的sql操作无法顺利执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>get_info_by_homework_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取指定作业的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业的截至时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作业的创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该ID不在作业数据库内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询作业信息的的sql操作执行失败</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1121,7 +1261,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1144,15 +1284,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1162,10 +1293,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1450,8 +1584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N521"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A350" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A362" sqref="A362"/>
+    <sheetView tabSelected="1" topLeftCell="A422" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O433" sqref="O433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1512,13 +1646,13 @@
       <c r="A2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="11">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -1530,7 +1664,7 @@
       <c r="G2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="11">
         <v>1</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -1542,7 +1676,7 @@
       <c r="K2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="8">
+      <c r="L2" s="11">
         <v>10</v>
       </c>
       <c r="M2" s="2">
@@ -1554,9 +1688,9 @@
     </row>
     <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,8 +1700,8 @@
       <c r="G3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="L3" s="9"/>
+      <c r="H3" s="12"/>
+      <c r="L3" s="12"/>
       <c r="M3" s="1">
         <v>-11</v>
       </c>
@@ -1577,11 +1711,11 @@
     </row>
     <row r="4" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="L4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="L4" s="12"/>
       <c r="M4" s="1">
         <v>-12</v>
       </c>
@@ -1591,11 +1725,11 @@
     </row>
     <row r="5" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="L5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="L5" s="12"/>
       <c r="M5" s="1">
         <v>-13</v>
       </c>
@@ -1605,11 +1739,11 @@
     </row>
     <row r="6" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7"/>
-      <c r="B6" s="12"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="L6" s="9"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="L6" s="12"/>
       <c r="M6" s="1">
         <v>-21</v>
       </c>
@@ -1619,11 +1753,11 @@
     </row>
     <row r="7" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="L7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="L7" s="12"/>
       <c r="M7" s="1">
         <v>-22</v>
       </c>
@@ -1633,11 +1767,11 @@
     </row>
     <row r="8" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="L8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="L8" s="12"/>
       <c r="M8" s="1">
         <v>-23</v>
       </c>
@@ -1647,11 +1781,11 @@
     </row>
     <row r="9" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="L9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="L9" s="12"/>
       <c r="M9" s="1">
         <v>-31</v>
       </c>
@@ -1661,11 +1795,11 @@
     </row>
     <row r="10" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="L10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="L10" s="12"/>
       <c r="M10" s="1">
         <v>-32</v>
       </c>
@@ -1675,17 +1809,17 @@
     </row>
     <row r="11" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="10"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="10"/>
+      <c r="L11" s="13"/>
       <c r="M11" s="5">
         <v>-99</v>
       </c>
@@ -1695,13 +1829,13 @@
     </row>
     <row r="12" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="11">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -1713,7 +1847,7 @@
       <c r="G12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="11">
         <v>1</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -1725,7 +1859,7 @@
       <c r="K12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="11">
         <v>10</v>
       </c>
       <c r="M12" s="2">
@@ -1737,9 +1871,9 @@
     </row>
     <row r="13" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1749,8 +1883,8 @@
       <c r="G13" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="H13" s="12"/>
+      <c r="L13" s="12"/>
       <c r="M13" s="1">
         <v>-11</v>
       </c>
@@ -1760,11 +1894,11 @@
     </row>
     <row r="14" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="L14" s="12"/>
       <c r="M14" s="1">
         <v>-12</v>
       </c>
@@ -1774,11 +1908,11 @@
     </row>
     <row r="15" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="L15" s="12"/>
       <c r="M15" s="1">
         <v>-13</v>
       </c>
@@ -1788,11 +1922,11 @@
     </row>
     <row r="16" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="L16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="L16" s="12"/>
       <c r="M16" s="1">
         <v>-21</v>
       </c>
@@ -1802,11 +1936,11 @@
     </row>
     <row r="17" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="L17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="H17" s="12"/>
+      <c r="L17" s="12"/>
       <c r="M17" s="1">
         <v>-22</v>
       </c>
@@ -1816,11 +1950,11 @@
     </row>
     <row r="18" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="L18" s="9"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="L18" s="12"/>
       <c r="M18" s="1">
         <v>-23</v>
       </c>
@@ -1830,11 +1964,11 @@
     </row>
     <row r="19" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="L19" s="9"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="H19" s="12"/>
+      <c r="L19" s="12"/>
       <c r="M19" s="1">
         <v>-31</v>
       </c>
@@ -1844,11 +1978,11 @@
     </row>
     <row r="20" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="L20" s="9"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="H20" s="12"/>
+      <c r="L20" s="12"/>
       <c r="M20" s="1">
         <v>-32</v>
       </c>
@@ -1858,17 +1992,17 @@
     </row>
     <row r="21" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="7"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="10"/>
+      <c r="L21" s="13"/>
       <c r="M21" s="5">
         <v>-99</v>
       </c>
@@ -1878,13 +2012,13 @@
     </row>
     <row r="22" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="8">
+      <c r="D22" s="11">
         <v>7</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -1896,13 +2030,13 @@
       <c r="G22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="8">
+      <c r="L22" s="11">
         <v>9</v>
       </c>
       <c r="M22" s="2">
@@ -1914,9 +2048,9 @@
     </row>
     <row r="23" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
@@ -1926,8 +2060,8 @@
       <c r="G23" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="9"/>
-      <c r="L23" s="9"/>
+      <c r="H23" s="12"/>
+      <c r="L23" s="12"/>
       <c r="M23" s="1">
         <v>-11</v>
       </c>
@@ -1937,9 +2071,9 @@
     </row>
     <row r="24" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
       <c r="E24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1949,8 +2083,8 @@
       <c r="G24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="9"/>
-      <c r="L24" s="9"/>
+      <c r="H24" s="12"/>
+      <c r="L24" s="12"/>
       <c r="M24" s="1">
         <v>-12</v>
       </c>
@@ -1960,9 +2094,9 @@
     </row>
     <row r="25" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
       <c r="E25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1972,8 +2106,8 @@
       <c r="G25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H25" s="9"/>
-      <c r="L25" s="9"/>
+      <c r="H25" s="12"/>
+      <c r="L25" s="12"/>
       <c r="M25" s="1">
         <v>-13</v>
       </c>
@@ -1983,9 +2117,9 @@
     </row>
     <row r="26" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
       <c r="E26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1995,8 +2129,8 @@
       <c r="G26" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H26" s="9"/>
-      <c r="L26" s="9"/>
+      <c r="H26" s="12"/>
+      <c r="L26" s="12"/>
       <c r="M26" s="1">
         <v>-21</v>
       </c>
@@ -2006,9 +2140,9 @@
     </row>
     <row r="27" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
       <c r="E27" s="1" t="s">
         <v>52</v>
       </c>
@@ -2018,8 +2152,8 @@
       <c r="G27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H27" s="9"/>
-      <c r="L27" s="9"/>
+      <c r="H27" s="12"/>
+      <c r="L27" s="12"/>
       <c r="M27" s="1">
         <v>-22</v>
       </c>
@@ -2029,9 +2163,9 @@
     </row>
     <row r="28" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
       <c r="E28" s="1" t="s">
         <v>54</v>
       </c>
@@ -2041,8 +2175,8 @@
       <c r="G28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="L28" s="9"/>
+      <c r="H28" s="12"/>
+      <c r="L28" s="12"/>
       <c r="M28" s="1">
         <v>-31</v>
       </c>
@@ -2052,11 +2186,11 @@
     </row>
     <row r="29" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="L29" s="9"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="L29" s="12"/>
       <c r="M29" s="1">
         <v>-32</v>
       </c>
@@ -2066,17 +2200,17 @@
     </row>
     <row r="30" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="7"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="13"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="10"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="5"/>
       <c r="J30" s="5"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="10"/>
+      <c r="L30" s="13"/>
       <c r="M30" s="5">
         <v>-99</v>
       </c>
@@ -2086,13 +2220,13 @@
     </row>
     <row r="31" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="8">
+      <c r="D31" s="11">
         <v>7</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -2104,13 +2238,13 @@
       <c r="G31" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="H31" s="8" t="s">
+      <c r="H31" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="8">
+      <c r="L31" s="11">
         <v>9</v>
       </c>
       <c r="M31" s="2">
@@ -2122,9 +2256,9 @@
     </row>
     <row r="32" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
@@ -2134,8 +2268,8 @@
       <c r="G32" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H32" s="9"/>
-      <c r="L32" s="9"/>
+      <c r="H32" s="12"/>
+      <c r="L32" s="12"/>
       <c r="M32" s="1">
         <v>-11</v>
       </c>
@@ -2145,9 +2279,9 @@
     </row>
     <row r="33" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="1" t="s">
         <v>46</v>
       </c>
@@ -2157,8 +2291,8 @@
       <c r="G33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H33" s="9"/>
-      <c r="L33" s="9"/>
+      <c r="H33" s="12"/>
+      <c r="L33" s="12"/>
       <c r="M33" s="1">
         <v>-12</v>
       </c>
@@ -2168,9 +2302,9 @@
     </row>
     <row r="34" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="1" t="s">
         <v>48</v>
       </c>
@@ -2180,8 +2314,8 @@
       <c r="G34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="9"/>
-      <c r="L34" s="9"/>
+      <c r="H34" s="12"/>
+      <c r="L34" s="12"/>
       <c r="M34" s="1">
         <v>-13</v>
       </c>
@@ -2191,9 +2325,9 @@
     </row>
     <row r="35" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
       <c r="E35" s="1" t="s">
         <v>67</v>
       </c>
@@ -2203,8 +2337,8 @@
       <c r="G35" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="H35" s="12"/>
+      <c r="L35" s="12"/>
       <c r="M35" s="1">
         <v>-21</v>
       </c>
@@ -2214,9 +2348,9 @@
     </row>
     <row r="36" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
       <c r="E36" s="1" t="s">
         <v>52</v>
       </c>
@@ -2226,8 +2360,8 @@
       <c r="G36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H36" s="9"/>
-      <c r="L36" s="9"/>
+      <c r="H36" s="12"/>
+      <c r="L36" s="12"/>
       <c r="M36" s="1">
         <v>-22</v>
       </c>
@@ -2237,9 +2371,9 @@
     </row>
     <row r="37" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
       <c r="E37" s="1" t="s">
         <v>54</v>
       </c>
@@ -2249,8 +2383,8 @@
       <c r="G37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H37" s="9"/>
-      <c r="L37" s="9"/>
+      <c r="H37" s="12"/>
+      <c r="L37" s="12"/>
       <c r="M37" s="1">
         <v>-31</v>
       </c>
@@ -2260,11 +2394,11 @@
     </row>
     <row r="38" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="L38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="L38" s="12"/>
       <c r="M38" s="1">
         <v>-32</v>
       </c>
@@ -2274,11 +2408,11 @@
     </row>
     <row r="39" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="7"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="L39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="L39" s="12"/>
       <c r="M39" s="1">
         <v>-99</v>
       </c>
@@ -2288,13 +2422,13 @@
     </row>
     <row r="40" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="8">
+      <c r="D40" s="11">
         <v>7</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -2306,13 +2440,13 @@
       <c r="G40" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H40" s="8" t="s">
+      <c r="H40" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="8">
+      <c r="L40" s="11">
         <v>12</v>
       </c>
       <c r="M40" s="2">
@@ -2324,9 +2458,9 @@
     </row>
     <row r="41" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
       <c r="E41" s="1" t="s">
         <v>74</v>
       </c>
@@ -2336,8 +2470,8 @@
       <c r="G41" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H41" s="9"/>
-      <c r="L41" s="9"/>
+      <c r="H41" s="12"/>
+      <c r="L41" s="12"/>
       <c r="M41" s="1">
         <v>-2</v>
       </c>
@@ -2347,9 +2481,9 @@
     </row>
     <row r="42" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
       <c r="E42" s="1" t="s">
         <v>46</v>
       </c>
@@ -2359,8 +2493,8 @@
       <c r="G42" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H42" s="9"/>
-      <c r="L42" s="9"/>
+      <c r="H42" s="12"/>
+      <c r="L42" s="12"/>
       <c r="M42" s="1">
         <v>-11</v>
       </c>
@@ -2370,9 +2504,9 @@
     </row>
     <row r="43" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
       <c r="E43" s="1" t="s">
         <v>48</v>
       </c>
@@ -2382,8 +2516,8 @@
       <c r="G43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H43" s="9"/>
-      <c r="L43" s="9"/>
+      <c r="H43" s="12"/>
+      <c r="L43" s="12"/>
       <c r="M43" s="1">
         <v>-12</v>
       </c>
@@ -2393,9 +2527,9 @@
     </row>
     <row r="44" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
       <c r="E44" s="1" t="s">
         <v>50</v>
       </c>
@@ -2405,8 +2539,8 @@
       <c r="G44" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="H44" s="9"/>
-      <c r="L44" s="9"/>
+      <c r="H44" s="12"/>
+      <c r="L44" s="12"/>
       <c r="M44" s="1">
         <v>-13</v>
       </c>
@@ -2416,9 +2550,9 @@
     </row>
     <row r="45" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
       <c r="E45" s="1" t="s">
         <v>52</v>
       </c>
@@ -2428,8 +2562,8 @@
       <c r="G45" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H45" s="9"/>
-      <c r="L45" s="9"/>
+      <c r="H45" s="12"/>
+      <c r="L45" s="12"/>
       <c r="M45" s="1">
         <v>-21</v>
       </c>
@@ -2439,9 +2573,9 @@
     </row>
     <row r="46" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
+      <c r="B46" s="9"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
       <c r="E46" s="1" t="s">
         <v>54</v>
       </c>
@@ -2451,8 +2585,8 @@
       <c r="G46" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H46" s="9"/>
-      <c r="L46" s="9"/>
+      <c r="H46" s="12"/>
+      <c r="L46" s="12"/>
       <c r="M46" s="1">
         <v>-22</v>
       </c>
@@ -2462,11 +2596,11 @@
     </row>
     <row r="47" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="L47" s="9"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="L47" s="12"/>
       <c r="M47" s="1">
         <v>-23</v>
       </c>
@@ -2476,11 +2610,11 @@
     </row>
     <row r="48" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
-      <c r="H48" s="9"/>
-      <c r="L48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="L48" s="12"/>
       <c r="M48" s="1">
         <v>-24</v>
       </c>
@@ -2490,11 +2624,11 @@
     </row>
     <row r="49" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
-      <c r="H49" s="9"/>
-      <c r="L49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="L49" s="12"/>
       <c r="M49" s="1">
         <v>-31</v>
       </c>
@@ -2504,11 +2638,11 @@
     </row>
     <row r="50" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="H50" s="9"/>
-      <c r="L50" s="9"/>
+      <c r="B50" s="9"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="H50" s="12"/>
+      <c r="L50" s="12"/>
       <c r="M50" s="1">
         <v>-32</v>
       </c>
@@ -2518,17 +2652,17 @@
     </row>
     <row r="51" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="7"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="5"/>
-      <c r="H51" s="10"/>
+      <c r="H51" s="13"/>
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="10"/>
+      <c r="L51" s="13"/>
       <c r="M51" s="5">
         <v>-99</v>
       </c>
@@ -2538,13 +2672,13 @@
     </row>
     <row r="52" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D52" s="11">
         <v>7</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -2556,13 +2690,13 @@
       <c r="G52" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H52" s="8" t="s">
+      <c r="H52" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="8">
+      <c r="L52" s="11">
         <v>12</v>
       </c>
       <c r="M52" s="2">
@@ -2574,9 +2708,9 @@
     </row>
     <row r="53" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="9"/>
-      <c r="D53" s="9"/>
+      <c r="B53" s="9"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
       <c r="E53" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,8 +2720,8 @@
       <c r="G53" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H53" s="9"/>
-      <c r="L53" s="9"/>
+      <c r="H53" s="12"/>
+      <c r="L53" s="12"/>
       <c r="M53" s="1">
         <v>-2</v>
       </c>
@@ -2597,9 +2731,9 @@
     </row>
     <row r="54" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="7"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="9"/>
-      <c r="D54" s="9"/>
+      <c r="B54" s="9"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
       <c r="E54" s="1" t="s">
         <v>46</v>
       </c>
@@ -2609,8 +2743,8 @@
       <c r="G54" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H54" s="9"/>
-      <c r="L54" s="9"/>
+      <c r="H54" s="12"/>
+      <c r="L54" s="12"/>
       <c r="M54" s="1">
         <v>-11</v>
       </c>
@@ -2620,9 +2754,9 @@
     </row>
     <row r="55" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="7"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="9"/>
-      <c r="D55" s="9"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
       <c r="E55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2632,8 +2766,8 @@
       <c r="G55" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H55" s="9"/>
-      <c r="L55" s="9"/>
+      <c r="H55" s="12"/>
+      <c r="L55" s="12"/>
       <c r="M55" s="1">
         <v>-12</v>
       </c>
@@ -2643,9 +2777,9 @@
     </row>
     <row r="56" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="7"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="9"/>
-      <c r="D56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
       <c r="E56" s="1" t="s">
         <v>67</v>
       </c>
@@ -2655,8 +2789,8 @@
       <c r="G56" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="H56" s="9"/>
-      <c r="L56" s="9"/>
+      <c r="H56" s="12"/>
+      <c r="L56" s="12"/>
       <c r="M56" s="1">
         <v>-13</v>
       </c>
@@ -2666,9 +2800,9 @@
     </row>
     <row r="57" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="7"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="9"/>
-      <c r="D57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
       <c r="E57" s="1" t="s">
         <v>52</v>
       </c>
@@ -2678,8 +2812,8 @@
       <c r="G57" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H57" s="9"/>
-      <c r="L57" s="9"/>
+      <c r="H57" s="12"/>
+      <c r="L57" s="12"/>
       <c r="M57" s="1">
         <v>-21</v>
       </c>
@@ -2689,9 +2823,9 @@
     </row>
     <row r="58" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="9"/>
-      <c r="D58" s="9"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
       <c r="E58" s="1" t="s">
         <v>54</v>
       </c>
@@ -2701,8 +2835,8 @@
       <c r="G58" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H58" s="9"/>
-      <c r="L58" s="9"/>
+      <c r="H58" s="12"/>
+      <c r="L58" s="12"/>
       <c r="M58" s="1">
         <v>-22</v>
       </c>
@@ -2712,11 +2846,11 @@
     </row>
     <row r="59" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="7"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="9"/>
-      <c r="D59" s="9"/>
-      <c r="H59" s="9"/>
-      <c r="L59" s="9"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="L59" s="12"/>
       <c r="M59" s="1">
         <v>-23</v>
       </c>
@@ -2726,11 +2860,11 @@
     </row>
     <row r="60" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="7"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="9"/>
-      <c r="D60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="L60" s="9"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="L60" s="12"/>
       <c r="M60" s="1">
         <v>-24</v>
       </c>
@@ -2740,11 +2874,11 @@
     </row>
     <row r="61" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="7"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="9"/>
-      <c r="D61" s="9"/>
-      <c r="H61" s="9"/>
-      <c r="L61" s="9"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="L61" s="12"/>
       <c r="M61" s="1">
         <v>-31</v>
       </c>
@@ -2754,11 +2888,11 @@
     </row>
     <row r="62" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="7"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="9"/>
-      <c r="D62" s="9"/>
-      <c r="H62" s="9"/>
-      <c r="L62" s="9"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="H62" s="12"/>
+      <c r="L62" s="12"/>
       <c r="M62" s="1">
         <v>-32</v>
       </c>
@@ -2768,11 +2902,11 @@
     </row>
     <row r="63" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="7"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="9"/>
-      <c r="D63" s="9"/>
-      <c r="H63" s="9"/>
-      <c r="L63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="H63" s="12"/>
+      <c r="L63" s="12"/>
       <c r="M63" s="1">
         <v>-99</v>
       </c>
@@ -2782,13 +2916,13 @@
     </row>
     <row r="64" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="7"/>
-      <c r="B64" s="11" t="s">
+      <c r="B64" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="8">
+      <c r="D64" s="11">
         <v>3</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -2800,13 +2934,13 @@
       <c r="G64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H64" s="8" t="s">
+      <c r="H64" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="8">
+      <c r="L64" s="11">
         <v>10</v>
       </c>
       <c r="M64" s="2">
@@ -2818,9 +2952,9 @@
     </row>
     <row r="65" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="9"/>
-      <c r="D65" s="9"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
       <c r="E65" s="1" t="s">
         <v>91</v>
       </c>
@@ -2830,8 +2964,8 @@
       <c r="G65" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H65" s="9"/>
-      <c r="L65" s="9"/>
+      <c r="H65" s="12"/>
+      <c r="L65" s="12"/>
       <c r="M65" s="1">
         <v>-11</v>
       </c>
@@ -2841,9 +2975,9 @@
     </row>
     <row r="66" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="7"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="9"/>
-      <c r="D66" s="9"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
       <c r="E66" s="1" t="s">
         <v>92</v>
       </c>
@@ -2853,8 +2987,8 @@
       <c r="G66" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H66" s="9"/>
-      <c r="L66" s="9"/>
+      <c r="H66" s="12"/>
+      <c r="L66" s="12"/>
       <c r="M66" s="1">
         <v>-12</v>
       </c>
@@ -2864,11 +2998,11 @@
     </row>
     <row r="67" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="7"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="9"/>
-      <c r="D67" s="9"/>
-      <c r="H67" s="9"/>
-      <c r="L67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="L67" s="12"/>
       <c r="M67" s="1">
         <v>-13</v>
       </c>
@@ -2878,11 +3012,11 @@
     </row>
     <row r="68" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="7"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="L68" s="9"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="L68" s="12"/>
       <c r="M68" s="1">
         <v>-21</v>
       </c>
@@ -2892,11 +3026,11 @@
     </row>
     <row r="69" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="7"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="9"/>
-      <c r="D69" s="9"/>
-      <c r="H69" s="9"/>
-      <c r="L69" s="9"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="L69" s="12"/>
       <c r="M69" s="1">
         <v>-22</v>
       </c>
@@ -2906,11 +3040,11 @@
     </row>
     <row r="70" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="7"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="9"/>
-      <c r="D70" s="9"/>
-      <c r="H70" s="9"/>
-      <c r="L70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="L70" s="12"/>
       <c r="M70" s="1">
         <v>-23</v>
       </c>
@@ -2920,11 +3054,11 @@
     </row>
     <row r="71" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="7"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="L71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="L71" s="12"/>
       <c r="M71" s="1">
         <v>-31</v>
       </c>
@@ -2934,11 +3068,11 @@
     </row>
     <row r="72" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="7"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="9"/>
-      <c r="D72" s="9"/>
-      <c r="H72" s="9"/>
-      <c r="L72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="L72" s="12"/>
       <c r="M72" s="1">
         <v>-32</v>
       </c>
@@ -2948,17 +3082,17 @@
     </row>
     <row r="73" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A73" s="7"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
       <c r="E73" s="5"/>
       <c r="F73" s="5"/>
       <c r="G73" s="5"/>
-      <c r="H73" s="10"/>
+      <c r="H73" s="13"/>
       <c r="I73" s="5"/>
       <c r="J73" s="5"/>
       <c r="K73" s="5"/>
-      <c r="L73" s="10"/>
+      <c r="L73" s="13"/>
       <c r="M73" s="5">
         <v>-99</v>
       </c>
@@ -2968,13 +3102,13 @@
     </row>
     <row r="74" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="7"/>
-      <c r="B74" s="11" t="s">
+      <c r="B74" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D74" s="8">
+      <c r="D74" s="11">
         <v>3</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -2986,13 +3120,13 @@
       <c r="G74" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H74" s="8" t="s">
+      <c r="H74" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="8">
+      <c r="L74" s="11">
         <v>10</v>
       </c>
       <c r="M74" s="2">
@@ -3004,9 +3138,9 @@
     </row>
     <row r="75" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="7"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="9"/>
-      <c r="D75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
       <c r="E75" s="1" t="s">
         <v>91</v>
       </c>
@@ -3016,8 +3150,8 @@
       <c r="G75" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="H75" s="9"/>
-      <c r="L75" s="9"/>
+      <c r="H75" s="12"/>
+      <c r="L75" s="12"/>
       <c r="M75" s="1">
         <v>-11</v>
       </c>
@@ -3027,9 +3161,9 @@
     </row>
     <row r="76" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="7"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="9"/>
-      <c r="D76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
       <c r="E76" s="1" t="s">
         <v>92</v>
       </c>
@@ -3039,8 +3173,8 @@
       <c r="G76" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="H76" s="9"/>
-      <c r="L76" s="9"/>
+      <c r="H76" s="12"/>
+      <c r="L76" s="12"/>
       <c r="M76" s="1">
         <v>-12</v>
       </c>
@@ -3050,11 +3184,11 @@
     </row>
     <row r="77" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="7"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="9"/>
-      <c r="H77" s="9"/>
-      <c r="L77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="H77" s="12"/>
+      <c r="L77" s="12"/>
       <c r="M77" s="1">
         <v>-13</v>
       </c>
@@ -3064,11 +3198,11 @@
     </row>
     <row r="78" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="7"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="9"/>
-      <c r="D78" s="9"/>
-      <c r="H78" s="9"/>
-      <c r="L78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="H78" s="12"/>
+      <c r="L78" s="12"/>
       <c r="M78" s="1">
         <v>-21</v>
       </c>
@@ -3078,11 +3212,11 @@
     </row>
     <row r="79" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="7"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="9"/>
-      <c r="D79" s="9"/>
-      <c r="H79" s="9"/>
-      <c r="L79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="H79" s="12"/>
+      <c r="L79" s="12"/>
       <c r="M79" s="1">
         <v>-22</v>
       </c>
@@ -3092,11 +3226,11 @@
     </row>
     <row r="80" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="7"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="9"/>
-      <c r="D80" s="9"/>
-      <c r="H80" s="9"/>
-      <c r="L80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="H80" s="12"/>
+      <c r="L80" s="12"/>
       <c r="M80" s="1">
         <v>-23</v>
       </c>
@@ -3106,11 +3240,11 @@
     </row>
     <row r="81" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="7"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="9"/>
-      <c r="D81" s="9"/>
-      <c r="H81" s="9"/>
-      <c r="L81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="H81" s="12"/>
+      <c r="L81" s="12"/>
       <c r="M81" s="1">
         <v>-31</v>
       </c>
@@ -3120,11 +3254,11 @@
     </row>
     <row r="82" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="7"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="9"/>
-      <c r="D82" s="9"/>
-      <c r="H82" s="9"/>
-      <c r="L82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="H82" s="12"/>
+      <c r="L82" s="12"/>
       <c r="M82" s="1">
         <v>-32</v>
       </c>
@@ -3134,11 +3268,11 @@
     </row>
     <row r="83" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="7"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="9"/>
-      <c r="D83" s="9"/>
-      <c r="H83" s="9"/>
-      <c r="L83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="H83" s="12"/>
+      <c r="L83" s="12"/>
       <c r="M83" s="1">
         <v>-99</v>
       </c>
@@ -3148,13 +3282,13 @@
     </row>
     <row r="84" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="7"/>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D84" s="8">
+      <c r="D84" s="11">
         <v>4</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -3166,7 +3300,7 @@
       <c r="G84" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H84" s="8">
+      <c r="H84" s="11">
         <v>5</v>
       </c>
       <c r="I84" s="2" t="s">
@@ -3178,7 +3312,7 @@
       <c r="K84" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L84" s="8">
+      <c r="L84" s="11">
         <v>13</v>
       </c>
       <c r="M84" s="2">
@@ -3190,9 +3324,9 @@
     </row>
     <row r="85" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="7"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
       <c r="E85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3202,7 +3336,7 @@
       <c r="G85" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H85" s="9"/>
+      <c r="H85" s="12"/>
       <c r="I85" s="1" t="s">
         <v>48</v>
       </c>
@@ -3212,7 +3346,7 @@
       <c r="K85" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L85" s="9"/>
+      <c r="L85" s="12"/>
       <c r="M85" s="1">
         <v>-2</v>
       </c>
@@ -3222,9 +3356,9 @@
     </row>
     <row r="86" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="7"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
       <c r="E86" s="1" t="s">
         <v>102</v>
       </c>
@@ -3234,7 +3368,7 @@
       <c r="G86" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H86" s="9"/>
+      <c r="H86" s="12"/>
       <c r="I86" s="1" t="s">
         <v>50</v>
       </c>
@@ -3244,7 +3378,7 @@
       <c r="K86" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L86" s="9"/>
+      <c r="L86" s="12"/>
       <c r="M86" s="1">
         <v>-11</v>
       </c>
@@ -3254,9 +3388,9 @@
     </row>
     <row r="87" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="7"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="9"/>
-      <c r="D87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
       <c r="E87" s="1" t="s">
         <v>15</v>
       </c>
@@ -3266,7 +3400,7 @@
       <c r="G87" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="H87" s="9"/>
+      <c r="H87" s="12"/>
       <c r="I87" s="1" t="s">
         <v>52</v>
       </c>
@@ -3276,7 +3410,7 @@
       <c r="K87" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L87" s="9"/>
+      <c r="L87" s="12"/>
       <c r="M87" s="1">
         <v>-12</v>
       </c>
@@ -3286,10 +3420,10 @@
     </row>
     <row r="88" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="7"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="9"/>
-      <c r="D88" s="9"/>
-      <c r="H88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="H88" s="12"/>
       <c r="I88" s="1" t="s">
         <v>54</v>
       </c>
@@ -3299,7 +3433,7 @@
       <c r="K88" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L88" s="9"/>
+      <c r="L88" s="12"/>
       <c r="M88" s="1">
         <v>-13</v>
       </c>
@@ -3309,11 +3443,11 @@
     </row>
     <row r="89" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="7"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="9"/>
-      <c r="D89" s="9"/>
-      <c r="H89" s="9"/>
-      <c r="L89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="H89" s="12"/>
+      <c r="L89" s="12"/>
       <c r="M89" s="1">
         <v>-21</v>
       </c>
@@ -3323,11 +3457,11 @@
     </row>
     <row r="90" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="7"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="9"/>
-      <c r="D90" s="9"/>
-      <c r="H90" s="9"/>
-      <c r="L90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="H90" s="12"/>
+      <c r="L90" s="12"/>
       <c r="M90" s="1">
         <v>-22</v>
       </c>
@@ -3337,11 +3471,11 @@
     </row>
     <row r="91" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="7"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="H91" s="9"/>
-      <c r="L91" s="9"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="L91" s="12"/>
       <c r="M91" s="1">
         <v>-23</v>
       </c>
@@ -3351,11 +3485,11 @@
     </row>
     <row r="92" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="7"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="9"/>
-      <c r="D92" s="9"/>
-      <c r="H92" s="9"/>
-      <c r="L92" s="9"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="H92" s="12"/>
+      <c r="L92" s="12"/>
       <c r="M92" s="1">
         <v>-24</v>
       </c>
@@ -3365,11 +3499,11 @@
     </row>
     <row r="93" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="7"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="9"/>
-      <c r="D93" s="9"/>
-      <c r="H93" s="9"/>
-      <c r="L93" s="9"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="H93" s="12"/>
+      <c r="L93" s="12"/>
       <c r="M93" s="1">
         <v>-25</v>
       </c>
@@ -3379,11 +3513,11 @@
     </row>
     <row r="94" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="7"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="9"/>
-      <c r="D94" s="9"/>
-      <c r="H94" s="9"/>
-      <c r="L94" s="9"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="H94" s="12"/>
+      <c r="L94" s="12"/>
       <c r="M94" s="1">
         <v>-31</v>
       </c>
@@ -3393,11 +3527,11 @@
     </row>
     <row r="95" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="7"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="9"/>
-      <c r="D95" s="9"/>
-      <c r="H95" s="9"/>
-      <c r="L95" s="9"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="H95" s="12"/>
+      <c r="L95" s="12"/>
       <c r="M95" s="1">
         <v>-32</v>
       </c>
@@ -3407,17 +3541,17 @@
     </row>
     <row r="96" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A96" s="7"/>
-      <c r="B96" s="13"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
-      <c r="H96" s="10"/>
+      <c r="H96" s="13"/>
       <c r="I96" s="5"/>
       <c r="J96" s="5"/>
       <c r="K96" s="5"/>
-      <c r="L96" s="10"/>
+      <c r="L96" s="13"/>
       <c r="M96" s="5">
         <v>-99</v>
       </c>
@@ -3427,13 +3561,13 @@
     </row>
     <row r="97" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="7"/>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="D97" s="8">
+      <c r="D97" s="11">
         <v>4</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -3445,7 +3579,7 @@
       <c r="G97" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="H97" s="8">
+      <c r="H97" s="11">
         <v>5</v>
       </c>
       <c r="I97" s="2" t="s">
@@ -3457,7 +3591,7 @@
       <c r="K97" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L97" s="8">
+      <c r="L97" s="11">
         <v>13</v>
       </c>
       <c r="M97" s="2">
@@ -3469,9 +3603,9 @@
     </row>
     <row r="98" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="7"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="9"/>
-      <c r="D98" s="9"/>
+      <c r="B98" s="9"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
       <c r="E98" s="1" t="s">
         <v>74</v>
       </c>
@@ -3481,7 +3615,7 @@
       <c r="G98" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H98" s="9"/>
+      <c r="H98" s="12"/>
       <c r="I98" s="1" t="s">
         <v>48</v>
       </c>
@@ -3491,7 +3625,7 @@
       <c r="K98" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L98" s="9"/>
+      <c r="L98" s="12"/>
       <c r="M98" s="1">
         <v>-2</v>
       </c>
@@ -3501,9 +3635,9 @@
     </row>
     <row r="99" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="7"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="9"/>
-      <c r="D99" s="9"/>
+      <c r="B99" s="9"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
       <c r="E99" s="1" t="s">
         <v>102</v>
       </c>
@@ -3513,7 +3647,7 @@
       <c r="G99" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="H99" s="9"/>
+      <c r="H99" s="12"/>
       <c r="I99" s="1" t="s">
         <v>67</v>
       </c>
@@ -3523,7 +3657,7 @@
       <c r="K99" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="L99" s="9"/>
+      <c r="L99" s="12"/>
       <c r="M99" s="1">
         <v>-11</v>
       </c>
@@ -3533,9 +3667,9 @@
     </row>
     <row r="100" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="7"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="9"/>
-      <c r="D100" s="9"/>
+      <c r="B100" s="9"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
       <c r="E100" s="1" t="s">
         <v>36</v>
       </c>
@@ -3545,7 +3679,7 @@
       <c r="G100" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H100" s="9"/>
+      <c r="H100" s="12"/>
       <c r="I100" s="1" t="s">
         <v>52</v>
       </c>
@@ -3555,7 +3689,7 @@
       <c r="K100" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="L100" s="9"/>
+      <c r="L100" s="12"/>
       <c r="M100" s="1">
         <v>-12</v>
       </c>
@@ -3565,10 +3699,10 @@
     </row>
     <row r="101" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="7"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="9"/>
-      <c r="H101" s="9"/>
+      <c r="B101" s="9"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="H101" s="12"/>
       <c r="I101" s="1" t="s">
         <v>54</v>
       </c>
@@ -3578,7 +3712,7 @@
       <c r="K101" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="L101" s="9"/>
+      <c r="L101" s="12"/>
       <c r="M101" s="1">
         <v>-13</v>
       </c>
@@ -3588,11 +3722,11 @@
     </row>
     <row r="102" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="7"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="9"/>
-      <c r="D102" s="9"/>
-      <c r="H102" s="9"/>
-      <c r="L102" s="9"/>
+      <c r="B102" s="9"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="H102" s="12"/>
+      <c r="L102" s="12"/>
       <c r="M102" s="1">
         <v>-21</v>
       </c>
@@ -3602,11 +3736,11 @@
     </row>
     <row r="103" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="7"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="9"/>
-      <c r="D103" s="9"/>
-      <c r="H103" s="9"/>
-      <c r="L103" s="9"/>
+      <c r="B103" s="9"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="H103" s="12"/>
+      <c r="L103" s="12"/>
       <c r="M103" s="1">
         <v>-22</v>
       </c>
@@ -3616,11 +3750,11 @@
     </row>
     <row r="104" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="7"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="9"/>
-      <c r="D104" s="9"/>
-      <c r="H104" s="9"/>
-      <c r="L104" s="9"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="H104" s="12"/>
+      <c r="L104" s="12"/>
       <c r="M104" s="1">
         <v>-23</v>
       </c>
@@ -3630,11 +3764,11 @@
     </row>
     <row r="105" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="7"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="9"/>
-      <c r="H105" s="9"/>
-      <c r="L105" s="9"/>
+      <c r="B105" s="9"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="H105" s="12"/>
+      <c r="L105" s="12"/>
       <c r="M105" s="1">
         <v>-24</v>
       </c>
@@ -3644,11 +3778,11 @@
     </row>
     <row r="106" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="7"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="9"/>
-      <c r="H106" s="9"/>
-      <c r="L106" s="9"/>
+      <c r="B106" s="9"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="H106" s="12"/>
+      <c r="L106" s="12"/>
       <c r="M106" s="1">
         <v>-25</v>
       </c>
@@ -3658,11 +3792,11 @@
     </row>
     <row r="107" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="7"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="9"/>
-      <c r="D107" s="9"/>
-      <c r="H107" s="9"/>
-      <c r="L107" s="9"/>
+      <c r="B107" s="9"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="H107" s="12"/>
+      <c r="L107" s="12"/>
       <c r="M107" s="1">
         <v>-31</v>
       </c>
@@ -3672,11 +3806,11 @@
     </row>
     <row r="108" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="7"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="9"/>
-      <c r="D108" s="9"/>
-      <c r="H108" s="9"/>
-      <c r="L108" s="9"/>
+      <c r="B108" s="9"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="H108" s="12"/>
+      <c r="L108" s="12"/>
       <c r="M108" s="1">
         <v>-32</v>
       </c>
@@ -3686,11 +3820,11 @@
     </row>
     <row r="109" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A109" s="7"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="9"/>
-      <c r="D109" s="9"/>
-      <c r="H109" s="9"/>
-      <c r="L109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="H109" s="12"/>
+      <c r="L109" s="12"/>
       <c r="M109" s="1">
         <v>-99</v>
       </c>
@@ -3702,13 +3836,13 @@
       <c r="A110" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C110" s="8" t="s">
+      <c r="C110" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="D110" s="8">
+      <c r="D110" s="11">
         <v>5</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -3720,7 +3854,7 @@
       <c r="G110" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="H110" s="8">
+      <c r="H110" s="11">
         <v>1</v>
       </c>
       <c r="I110" s="2" t="s">
@@ -3732,7 +3866,7 @@
       <c r="K110" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L110" s="8">
+      <c r="L110" s="11">
         <v>14</v>
       </c>
       <c r="M110" s="2">
@@ -3744,9 +3878,9 @@
     </row>
     <row r="111" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="7"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="9"/>
-      <c r="D111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
       <c r="E111" s="1" t="s">
         <v>15</v>
       </c>
@@ -3756,8 +3890,8 @@
       <c r="G111" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H111" s="9"/>
-      <c r="L111" s="9"/>
+      <c r="H111" s="12"/>
+      <c r="L111" s="12"/>
       <c r="M111" s="1">
         <v>-2</v>
       </c>
@@ -3767,9 +3901,9 @@
     </row>
     <row r="112" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="7"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="9"/>
-      <c r="D112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
       <c r="E112" s="1" t="s">
         <v>74</v>
       </c>
@@ -3779,8 +3913,8 @@
       <c r="G112" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H112" s="9"/>
-      <c r="L112" s="9"/>
+      <c r="H112" s="12"/>
+      <c r="L112" s="12"/>
       <c r="M112" s="1">
         <v>-11</v>
       </c>
@@ -3790,9 +3924,9 @@
     </row>
     <row r="113" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="7"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
       <c r="E113" s="1" t="s">
         <v>119</v>
       </c>
@@ -3802,8 +3936,8 @@
       <c r="G113" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H113" s="9"/>
-      <c r="L113" s="9"/>
+      <c r="H113" s="12"/>
+      <c r="L113" s="12"/>
       <c r="M113" s="1">
         <v>-12</v>
       </c>
@@ -3813,9 +3947,9 @@
     </row>
     <row r="114" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="7"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
       <c r="E114" s="1" t="s">
         <v>120</v>
       </c>
@@ -3825,8 +3959,8 @@
       <c r="G114" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H114" s="9"/>
-      <c r="L114" s="9"/>
+      <c r="H114" s="12"/>
+      <c r="L114" s="12"/>
       <c r="M114" s="1">
         <v>-13</v>
       </c>
@@ -3836,11 +3970,11 @@
     </row>
     <row r="115" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="7"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="9"/>
-      <c r="D115" s="9"/>
-      <c r="H115" s="9"/>
-      <c r="L115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="H115" s="12"/>
+      <c r="L115" s="12"/>
       <c r="M115" s="1">
         <v>-14</v>
       </c>
@@ -3850,11 +3984,11 @@
     </row>
     <row r="116" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="7"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="9"/>
-      <c r="D116" s="9"/>
-      <c r="H116" s="9"/>
-      <c r="L116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="H116" s="12"/>
+      <c r="L116" s="12"/>
       <c r="M116" s="1">
         <v>-21</v>
       </c>
@@ -3864,11 +3998,11 @@
     </row>
     <row r="117" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="7"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="9"/>
-      <c r="D117" s="9"/>
-      <c r="H117" s="9"/>
-      <c r="L117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="H117" s="12"/>
+      <c r="L117" s="12"/>
       <c r="M117" s="1">
         <v>-22</v>
       </c>
@@ -3878,11 +4012,11 @@
     </row>
     <row r="118" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="7"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="9"/>
-      <c r="D118" s="9"/>
-      <c r="H118" s="9"/>
-      <c r="L118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="H118" s="12"/>
+      <c r="L118" s="12"/>
       <c r="M118" s="1">
         <v>-23</v>
       </c>
@@ -3892,11 +4026,11 @@
     </row>
     <row r="119" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="7"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="9"/>
-      <c r="D119" s="9"/>
-      <c r="H119" s="9"/>
-      <c r="L119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="H119" s="12"/>
+      <c r="L119" s="12"/>
       <c r="M119" s="1">
         <v>-24</v>
       </c>
@@ -3906,11 +4040,11 @@
     </row>
     <row r="120" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="7"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="9"/>
-      <c r="D120" s="9"/>
-      <c r="H120" s="9"/>
-      <c r="L120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="H120" s="12"/>
+      <c r="L120" s="12"/>
       <c r="M120" s="1">
         <v>-25</v>
       </c>
@@ -3920,11 +4054,11 @@
     </row>
     <row r="121" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="7"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="9"/>
-      <c r="D121" s="9"/>
-      <c r="H121" s="9"/>
-      <c r="L121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="H121" s="12"/>
+      <c r="L121" s="12"/>
       <c r="M121" s="1">
         <v>-31</v>
       </c>
@@ -3934,11 +4068,11 @@
     </row>
     <row r="122" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="H122" s="9"/>
-      <c r="L122" s="9"/>
+      <c r="B122" s="9"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="L122" s="12"/>
       <c r="M122" s="1">
         <v>-32</v>
       </c>
@@ -3948,11 +4082,11 @@
     </row>
     <row r="123" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="7"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="9"/>
-      <c r="D123" s="9"/>
-      <c r="H123" s="9"/>
-      <c r="L123" s="9"/>
+      <c r="B123" s="9"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="H123" s="12"/>
+      <c r="L123" s="12"/>
       <c r="M123" s="1">
         <v>-99</v>
       </c>
@@ -3962,13 +4096,13 @@
     </row>
     <row r="124" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="7"/>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C124" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D124" s="8">
+      <c r="D124" s="11">
         <v>5</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -3980,13 +4114,13 @@
       <c r="G124" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="H124" s="8" t="s">
+      <c r="H124" s="11" t="s">
         <v>132</v>
       </c>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="8">
+      <c r="L124" s="11">
         <v>17</v>
       </c>
       <c r="M124" s="2">
@@ -3998,9 +4132,9 @@
     </row>
     <row r="125" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="7"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="9"/>
-      <c r="D125" s="9"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
       <c r="E125" s="1" t="s">
         <v>15</v>
       </c>
@@ -4010,8 +4144,8 @@
       <c r="G125" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H125" s="9"/>
-      <c r="L125" s="9"/>
+      <c r="H125" s="12"/>
+      <c r="L125" s="12"/>
       <c r="M125" s="1">
         <v>-2</v>
       </c>
@@ -4021,9 +4155,9 @@
     </row>
     <row r="126" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="7"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="9"/>
-      <c r="D126" s="9"/>
+      <c r="B126" s="9"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
       <c r="E126" s="1" t="s">
         <v>74</v>
       </c>
@@ -4033,8 +4167,8 @@
       <c r="G126" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H126" s="9"/>
-      <c r="L126" s="9"/>
+      <c r="H126" s="12"/>
+      <c r="L126" s="12"/>
       <c r="M126" s="1">
         <v>-11</v>
       </c>
@@ -4044,9 +4178,9 @@
     </row>
     <row r="127" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="7"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="9"/>
-      <c r="D127" s="9"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
       <c r="E127" s="1" t="s">
         <v>119</v>
       </c>
@@ -4056,8 +4190,8 @@
       <c r="G127" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="H127" s="9"/>
-      <c r="L127" s="9"/>
+      <c r="H127" s="12"/>
+      <c r="L127" s="12"/>
       <c r="M127" s="1">
         <v>-12</v>
       </c>
@@ -4067,9 +4201,9 @@
     </row>
     <row r="128" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="7"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="9"/>
-      <c r="D128" s="9"/>
+      <c r="B128" s="9"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
       <c r="E128" s="1" t="s">
         <v>120</v>
       </c>
@@ -4079,8 +4213,8 @@
       <c r="G128" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="H128" s="9"/>
-      <c r="L128" s="9"/>
+      <c r="H128" s="12"/>
+      <c r="L128" s="12"/>
       <c r="M128" s="1">
         <v>-13</v>
       </c>
@@ -4090,11 +4224,11 @@
     </row>
     <row r="129" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="7"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="9"/>
-      <c r="D129" s="9"/>
-      <c r="H129" s="9"/>
-      <c r="L129" s="9"/>
+      <c r="B129" s="9"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="H129" s="12"/>
+      <c r="L129" s="12"/>
       <c r="M129" s="1">
         <v>-14</v>
       </c>
@@ -4104,11 +4238,11 @@
     </row>
     <row r="130" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="7"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="9"/>
-      <c r="D130" s="9"/>
-      <c r="H130" s="9"/>
-      <c r="L130" s="9"/>
+      <c r="B130" s="9"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="H130" s="12"/>
+      <c r="L130" s="12"/>
       <c r="M130" s="1">
         <v>-15</v>
       </c>
@@ -4118,11 +4252,11 @@
     </row>
     <row r="131" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="7"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="9"/>
-      <c r="D131" s="9"/>
-      <c r="H131" s="9"/>
-      <c r="L131" s="9"/>
+      <c r="B131" s="9"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="H131" s="12"/>
+      <c r="L131" s="12"/>
       <c r="M131" s="1">
         <v>-21</v>
       </c>
@@ -4132,11 +4266,11 @@
     </row>
     <row r="132" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="7"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="9"/>
-      <c r="D132" s="9"/>
-      <c r="H132" s="9"/>
-      <c r="L132" s="9"/>
+      <c r="B132" s="9"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="H132" s="12"/>
+      <c r="L132" s="12"/>
       <c r="M132" s="1">
         <v>-22</v>
       </c>
@@ -4146,11 +4280,11 @@
     </row>
     <row r="133" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="7"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="9"/>
-      <c r="D133" s="9"/>
-      <c r="H133" s="9"/>
-      <c r="L133" s="9"/>
+      <c r="B133" s="9"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="H133" s="12"/>
+      <c r="L133" s="12"/>
       <c r="M133" s="1">
         <v>-23</v>
       </c>
@@ -4160,11 +4294,11 @@
     </row>
     <row r="134" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="7"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="9"/>
-      <c r="D134" s="9"/>
-      <c r="H134" s="9"/>
-      <c r="L134" s="9"/>
+      <c r="B134" s="9"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="H134" s="12"/>
+      <c r="L134" s="12"/>
       <c r="M134" s="1">
         <v>-24</v>
       </c>
@@ -4174,11 +4308,11 @@
     </row>
     <row r="135" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="7"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="9"/>
-      <c r="D135" s="9"/>
-      <c r="H135" s="9"/>
-      <c r="L135" s="9"/>
+      <c r="B135" s="9"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="H135" s="12"/>
+      <c r="L135" s="12"/>
       <c r="M135" s="1">
         <v>-25</v>
       </c>
@@ -4188,11 +4322,11 @@
     </row>
     <row r="136" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="7"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="9"/>
-      <c r="D136" s="9"/>
-      <c r="H136" s="9"/>
-      <c r="L136" s="9"/>
+      <c r="B136" s="9"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="H136" s="12"/>
+      <c r="L136" s="12"/>
       <c r="M136" s="1">
         <v>-26</v>
       </c>
@@ -4202,11 +4336,11 @@
     </row>
     <row r="137" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="7"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="9"/>
-      <c r="D137" s="9"/>
-      <c r="H137" s="9"/>
-      <c r="L137" s="9"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="H137" s="12"/>
+      <c r="L137" s="12"/>
       <c r="M137" s="1">
         <v>-27</v>
       </c>
@@ -4216,11 +4350,11 @@
     </row>
     <row r="138" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="7"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="9"/>
-      <c r="D138" s="9"/>
-      <c r="H138" s="9"/>
-      <c r="L138" s="9"/>
+      <c r="B138" s="9"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="H138" s="12"/>
+      <c r="L138" s="12"/>
       <c r="M138" s="1">
         <v>-31</v>
       </c>
@@ -4230,11 +4364,11 @@
     </row>
     <row r="139" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="7"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="H139" s="9"/>
-      <c r="L139" s="9"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="L139" s="12"/>
       <c r="M139" s="1">
         <v>-32</v>
       </c>
@@ -4244,17 +4378,17 @@
     </row>
     <row r="140" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A140" s="7"/>
-      <c r="B140" s="13"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="13"/>
+      <c r="D140" s="13"/>
       <c r="E140" s="5"/>
       <c r="F140" s="5"/>
       <c r="G140" s="5"/>
-      <c r="H140" s="10"/>
+      <c r="H140" s="13"/>
       <c r="I140" s="5"/>
       <c r="J140" s="5"/>
       <c r="K140" s="5"/>
-      <c r="L140" s="10"/>
+      <c r="L140" s="13"/>
       <c r="M140" s="5">
         <v>-99</v>
       </c>
@@ -4264,13 +4398,13 @@
     </row>
     <row r="141" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="7"/>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="D141" s="8">
+      <c r="D141" s="11">
         <v>4</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -4282,13 +4416,13 @@
       <c r="G141" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H141" s="8" t="s">
+      <c r="H141" s="11" t="s">
         <v>132</v>
       </c>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="8">
+      <c r="L141" s="11">
         <v>17</v>
       </c>
       <c r="M141" s="2">
@@ -4300,9 +4434,9 @@
     </row>
     <row r="142" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="7"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="9"/>
-      <c r="D142" s="9"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
       <c r="E142" s="1" t="s">
         <v>15</v>
       </c>
@@ -4312,8 +4446,8 @@
       <c r="G142" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H142" s="9"/>
-      <c r="L142" s="9"/>
+      <c r="H142" s="12"/>
+      <c r="L142" s="12"/>
       <c r="M142" s="1">
         <v>-2</v>
       </c>
@@ -4323,9 +4457,9 @@
     </row>
     <row r="143" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="7"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
       <c r="E143" s="1" t="s">
         <v>74</v>
       </c>
@@ -4335,8 +4469,8 @@
       <c r="G143" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H143" s="9"/>
-      <c r="L143" s="9"/>
+      <c r="H143" s="12"/>
+      <c r="L143" s="12"/>
       <c r="M143" s="1">
         <v>-11</v>
       </c>
@@ -4346,9 +4480,9 @@
     </row>
     <row r="144" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="7"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
       <c r="E144" s="1" t="s">
         <v>141</v>
       </c>
@@ -4358,8 +4492,8 @@
       <c r="G144" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="H144" s="9"/>
-      <c r="L144" s="9"/>
+      <c r="H144" s="12"/>
+      <c r="L144" s="12"/>
       <c r="M144" s="1">
         <v>-12</v>
       </c>
@@ -4369,11 +4503,11 @@
     </row>
     <row r="145" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="7"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="9"/>
-      <c r="D145" s="9"/>
-      <c r="H145" s="9"/>
-      <c r="L145" s="9"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="H145" s="12"/>
+      <c r="L145" s="12"/>
       <c r="M145" s="1">
         <v>-13</v>
       </c>
@@ -4383,11 +4517,11 @@
     </row>
     <row r="146" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="7"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="9"/>
-      <c r="D146" s="9"/>
-      <c r="H146" s="9"/>
-      <c r="L146" s="9"/>
+      <c r="B146" s="9"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="L146" s="12"/>
       <c r="M146" s="1">
         <v>-14</v>
       </c>
@@ -4397,11 +4531,11 @@
     </row>
     <row r="147" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="7"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="9"/>
-      <c r="D147" s="9"/>
-      <c r="H147" s="9"/>
-      <c r="L147" s="9"/>
+      <c r="B147" s="9"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="H147" s="12"/>
+      <c r="L147" s="12"/>
       <c r="M147" s="1">
         <v>-15</v>
       </c>
@@ -4411,11 +4545,11 @@
     </row>
     <row r="148" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="7"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="9"/>
-      <c r="D148" s="9"/>
-      <c r="H148" s="9"/>
-      <c r="L148" s="9"/>
+      <c r="B148" s="9"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="L148" s="12"/>
       <c r="M148" s="1">
         <v>-21</v>
       </c>
@@ -4425,11 +4559,11 @@
     </row>
     <row r="149" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="7"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="H149" s="9"/>
-      <c r="L149" s="9"/>
+      <c r="B149" s="9"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="L149" s="12"/>
       <c r="M149" s="1">
         <v>-22</v>
       </c>
@@ -4439,11 +4573,11 @@
     </row>
     <row r="150" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="7"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="9"/>
-      <c r="D150" s="9"/>
-      <c r="H150" s="9"/>
-      <c r="L150" s="9"/>
+      <c r="B150" s="9"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="H150" s="12"/>
+      <c r="L150" s="12"/>
       <c r="M150" s="1">
         <v>-23</v>
       </c>
@@ -4453,11 +4587,11 @@
     </row>
     <row r="151" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="7"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="9"/>
-      <c r="D151" s="9"/>
-      <c r="H151" s="9"/>
-      <c r="L151" s="9"/>
+      <c r="B151" s="9"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="L151" s="12"/>
       <c r="M151" s="1">
         <v>-24</v>
       </c>
@@ -4467,11 +4601,11 @@
     </row>
     <row r="152" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="7"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="9"/>
-      <c r="D152" s="9"/>
-      <c r="H152" s="9"/>
-      <c r="L152" s="9"/>
+      <c r="B152" s="9"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="L152" s="12"/>
       <c r="M152" s="1">
         <v>-25</v>
       </c>
@@ -4481,11 +4615,11 @@
     </row>
     <row r="153" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="7"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="9"/>
-      <c r="D153" s="9"/>
-      <c r="H153" s="9"/>
-      <c r="L153" s="9"/>
+      <c r="B153" s="9"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="H153" s="12"/>
+      <c r="L153" s="12"/>
       <c r="M153" s="1">
         <v>-26</v>
       </c>
@@ -4495,11 +4629,11 @@
     </row>
     <row r="154" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="7"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="9"/>
-      <c r="D154" s="9"/>
-      <c r="H154" s="9"/>
-      <c r="L154" s="9"/>
+      <c r="B154" s="9"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="H154" s="12"/>
+      <c r="L154" s="12"/>
       <c r="M154" s="1">
         <v>-27</v>
       </c>
@@ -4509,11 +4643,11 @@
     </row>
     <row r="155" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="7"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="H155" s="9"/>
-      <c r="L155" s="9"/>
+      <c r="B155" s="9"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="H155" s="12"/>
+      <c r="L155" s="12"/>
       <c r="M155" s="1">
         <v>-31</v>
       </c>
@@ -4523,11 +4657,11 @@
     </row>
     <row r="156" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="7"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="9"/>
-      <c r="D156" s="9"/>
-      <c r="H156" s="9"/>
-      <c r="L156" s="9"/>
+      <c r="B156" s="9"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="H156" s="12"/>
+      <c r="L156" s="12"/>
       <c r="M156" s="1">
         <v>-32</v>
       </c>
@@ -4537,17 +4671,17 @@
     </row>
     <row r="157" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A157" s="7"/>
-      <c r="B157" s="13"/>
-      <c r="C157" s="10"/>
-      <c r="D157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="13"/>
       <c r="E157" s="5"/>
       <c r="F157" s="5"/>
       <c r="G157" s="5"/>
-      <c r="H157" s="10"/>
+      <c r="H157" s="13"/>
       <c r="I157" s="5"/>
       <c r="J157" s="5"/>
       <c r="K157" s="5"/>
-      <c r="L157" s="10"/>
+      <c r="L157" s="13"/>
       <c r="M157" s="5">
         <v>-99</v>
       </c>
@@ -4557,13 +4691,13 @@
     </row>
     <row r="158" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="7"/>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="C158" s="8" t="s">
+      <c r="C158" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D158" s="8">
+      <c r="D158" s="11">
         <v>4</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -4575,13 +4709,13 @@
       <c r="G158" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H158" s="8" t="s">
+      <c r="H158" s="11" t="s">
         <v>132</v>
       </c>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
-      <c r="L158" s="8">
+      <c r="L158" s="11">
         <v>18</v>
       </c>
       <c r="M158" s="2">
@@ -4593,9 +4727,9 @@
     </row>
     <row r="159" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="7"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="9"/>
-      <c r="D159" s="9"/>
+      <c r="B159" s="9"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
       <c r="E159" s="1" t="s">
         <v>15</v>
       </c>
@@ -4605,8 +4739,8 @@
       <c r="G159" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H159" s="9"/>
-      <c r="L159" s="9"/>
+      <c r="H159" s="12"/>
+      <c r="L159" s="12"/>
       <c r="M159" s="1">
         <v>-2</v>
       </c>
@@ -4616,9 +4750,9 @@
     </row>
     <row r="160" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="7"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="9"/>
-      <c r="D160" s="9"/>
+      <c r="B160" s="9"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
       <c r="E160" s="1" t="s">
         <v>74</v>
       </c>
@@ -4628,8 +4762,8 @@
       <c r="G160" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H160" s="9"/>
-      <c r="L160" s="9"/>
+      <c r="H160" s="12"/>
+      <c r="L160" s="12"/>
       <c r="M160" s="1">
         <v>-11</v>
       </c>
@@ -4639,9 +4773,9 @@
     </row>
     <row r="161" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="7"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="9"/>
-      <c r="D161" s="9"/>
+      <c r="B161" s="9"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
       <c r="E161" s="1" t="s">
         <v>163</v>
       </c>
@@ -4651,8 +4785,8 @@
       <c r="G161" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="H161" s="9"/>
-      <c r="L161" s="9"/>
+      <c r="H161" s="12"/>
+      <c r="L161" s="12"/>
       <c r="M161" s="1">
         <v>-12</v>
       </c>
@@ -4662,11 +4796,11 @@
     </row>
     <row r="162" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="7"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="H162" s="9"/>
-      <c r="L162" s="9"/>
+      <c r="B162" s="9"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="H162" s="12"/>
+      <c r="L162" s="12"/>
       <c r="M162" s="1">
         <v>-13</v>
       </c>
@@ -4676,11 +4810,11 @@
     </row>
     <row r="163" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="7"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="9"/>
-      <c r="D163" s="9"/>
-      <c r="H163" s="9"/>
-      <c r="L163" s="9"/>
+      <c r="B163" s="9"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="H163" s="12"/>
+      <c r="L163" s="12"/>
       <c r="M163" s="1">
         <v>-14</v>
       </c>
@@ -4690,11 +4824,11 @@
     </row>
     <row r="164" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="7"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="H164" s="9"/>
-      <c r="L164" s="9"/>
+      <c r="B164" s="9"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="H164" s="12"/>
+      <c r="L164" s="12"/>
       <c r="M164" s="1">
         <v>-15</v>
       </c>
@@ -4704,11 +4838,11 @@
     </row>
     <row r="165" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="7"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="9"/>
-      <c r="D165" s="9"/>
-      <c r="H165" s="9"/>
-      <c r="L165" s="9"/>
+      <c r="B165" s="9"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="H165" s="12"/>
+      <c r="L165" s="12"/>
       <c r="M165" s="1">
         <v>-21</v>
       </c>
@@ -4718,11 +4852,11 @@
     </row>
     <row r="166" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="7"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="9"/>
-      <c r="D166" s="9"/>
-      <c r="H166" s="9"/>
-      <c r="L166" s="9"/>
+      <c r="B166" s="9"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="H166" s="12"/>
+      <c r="L166" s="12"/>
       <c r="M166" s="1">
         <v>-22</v>
       </c>
@@ -4732,11 +4866,11 @@
     </row>
     <row r="167" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="7"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="9"/>
-      <c r="D167" s="9"/>
-      <c r="H167" s="9"/>
-      <c r="L167" s="9"/>
+      <c r="B167" s="9"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="H167" s="12"/>
+      <c r="L167" s="12"/>
       <c r="M167" s="1">
         <v>-23</v>
       </c>
@@ -4746,11 +4880,11 @@
     </row>
     <row r="168" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="7"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="H168" s="9"/>
-      <c r="L168" s="9"/>
+      <c r="B168" s="9"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="H168" s="12"/>
+      <c r="L168" s="12"/>
       <c r="M168" s="1">
         <v>-24</v>
       </c>
@@ -4760,11 +4894,11 @@
     </row>
     <row r="169" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="7"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9"/>
-      <c r="H169" s="9"/>
-      <c r="L169" s="9"/>
+      <c r="B169" s="9"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="H169" s="12"/>
+      <c r="L169" s="12"/>
       <c r="M169" s="1">
         <v>-25</v>
       </c>
@@ -4774,11 +4908,11 @@
     </row>
     <row r="170" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="7"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9"/>
-      <c r="H170" s="9"/>
-      <c r="L170" s="9"/>
+      <c r="B170" s="9"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="H170" s="12"/>
+      <c r="L170" s="12"/>
       <c r="M170" s="1">
         <v>-26</v>
       </c>
@@ -4788,11 +4922,11 @@
     </row>
     <row r="171" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="7"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9"/>
-      <c r="H171" s="9"/>
-      <c r="L171" s="9"/>
+      <c r="B171" s="9"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="H171" s="12"/>
+      <c r="L171" s="12"/>
       <c r="M171" s="1">
         <v>-27</v>
       </c>
@@ -4802,11 +4936,11 @@
     </row>
     <row r="172" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="7"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="9"/>
-      <c r="D172" s="9"/>
-      <c r="H172" s="9"/>
-      <c r="L172" s="9"/>
+      <c r="B172" s="9"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="H172" s="12"/>
+      <c r="L172" s="12"/>
       <c r="M172" s="1">
         <v>-28</v>
       </c>
@@ -4816,11 +4950,11 @@
     </row>
     <row r="173" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="7"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="9"/>
-      <c r="D173" s="9"/>
-      <c r="H173" s="9"/>
-      <c r="L173" s="9"/>
+      <c r="B173" s="9"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="H173" s="12"/>
+      <c r="L173" s="12"/>
       <c r="M173" s="1">
         <v>-31</v>
       </c>
@@ -4830,11 +4964,11 @@
     </row>
     <row r="174" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="7"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="9"/>
-      <c r="D174" s="9"/>
-      <c r="H174" s="9"/>
-      <c r="L174" s="9"/>
+      <c r="B174" s="9"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="L174" s="12"/>
       <c r="M174" s="1">
         <v>-32</v>
       </c>
@@ -4844,17 +4978,17 @@
     </row>
     <row r="175" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A175" s="7"/>
-      <c r="B175" s="13"/>
-      <c r="C175" s="10"/>
-      <c r="D175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="13"/>
       <c r="E175" s="5"/>
       <c r="F175" s="5"/>
       <c r="G175" s="5"/>
-      <c r="H175" s="10"/>
+      <c r="H175" s="13"/>
       <c r="I175" s="5"/>
       <c r="J175" s="5"/>
       <c r="K175" s="5"/>
-      <c r="L175" s="10"/>
+      <c r="L175" s="13"/>
       <c r="M175" s="5">
         <v>-99</v>
       </c>
@@ -4864,13 +4998,13 @@
     </row>
     <row r="176" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="7"/>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C176" s="8" t="s">
+      <c r="C176" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="D176" s="8">
+      <c r="D176" s="11">
         <v>3</v>
       </c>
       <c r="E176" s="2" t="s">
@@ -4882,13 +5016,13 @@
       <c r="G176" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H176" s="8" t="s">
+      <c r="H176" s="11" t="s">
         <v>132</v>
       </c>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-      <c r="L176" s="8">
+      <c r="L176" s="11">
         <v>16</v>
       </c>
       <c r="M176" s="2">
@@ -4900,9 +5034,9 @@
     </row>
     <row r="177" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="7"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="9"/>
-      <c r="D177" s="9"/>
+      <c r="B177" s="9"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
       <c r="E177" s="1" t="s">
         <v>15</v>
       </c>
@@ -4912,8 +5046,8 @@
       <c r="G177" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="H177" s="9"/>
-      <c r="L177" s="9"/>
+      <c r="H177" s="12"/>
+      <c r="L177" s="12"/>
       <c r="M177" s="1">
         <v>-2</v>
       </c>
@@ -4923,14 +5057,14 @@
     </row>
     <row r="178" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="7"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="9"/>
-      <c r="D178" s="9"/>
+      <c r="B178" s="9"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
       <c r="E178" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H178" s="9"/>
-      <c r="L178" s="9"/>
+      <c r="H178" s="12"/>
+      <c r="L178" s="12"/>
       <c r="M178" s="1">
         <v>-11</v>
       </c>
@@ -4940,11 +5074,11 @@
     </row>
     <row r="179" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="7"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="9"/>
-      <c r="D179" s="9"/>
-      <c r="H179" s="9"/>
-      <c r="L179" s="9"/>
+      <c r="B179" s="9"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="H179" s="12"/>
+      <c r="L179" s="12"/>
       <c r="M179" s="1">
         <v>-12</v>
       </c>
@@ -4954,11 +5088,11 @@
     </row>
     <row r="180" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="7"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="9"/>
-      <c r="D180" s="9"/>
-      <c r="H180" s="9"/>
-      <c r="L180" s="9"/>
+      <c r="B180" s="9"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="H180" s="12"/>
+      <c r="L180" s="12"/>
       <c r="M180" s="1">
         <v>-13</v>
       </c>
@@ -4968,11 +5102,11 @@
     </row>
     <row r="181" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="7"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="9"/>
-      <c r="D181" s="9"/>
-      <c r="H181" s="9"/>
-      <c r="L181" s="9"/>
+      <c r="B181" s="9"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="H181" s="12"/>
+      <c r="L181" s="12"/>
       <c r="M181" s="1">
         <v>-14</v>
       </c>
@@ -4982,11 +5116,11 @@
     </row>
     <row r="182" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="7"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="9"/>
-      <c r="D182" s="9"/>
-      <c r="H182" s="9"/>
-      <c r="L182" s="9"/>
+      <c r="B182" s="9"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="H182" s="12"/>
+      <c r="L182" s="12"/>
       <c r="M182" s="1">
         <v>-21</v>
       </c>
@@ -4996,11 +5130,11 @@
     </row>
     <row r="183" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="7"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="9"/>
-      <c r="D183" s="9"/>
-      <c r="H183" s="9"/>
-      <c r="L183" s="9"/>
+      <c r="B183" s="9"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="H183" s="12"/>
+      <c r="L183" s="12"/>
       <c r="M183" s="1">
         <v>-22</v>
       </c>
@@ -5010,11 +5144,11 @@
     </row>
     <row r="184" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="7"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="9"/>
-      <c r="D184" s="9"/>
-      <c r="H184" s="9"/>
-      <c r="L184" s="9"/>
+      <c r="B184" s="9"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="H184" s="12"/>
+      <c r="L184" s="12"/>
       <c r="M184" s="1">
         <v>-23</v>
       </c>
@@ -5024,11 +5158,11 @@
     </row>
     <row r="185" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="7"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="9"/>
-      <c r="D185" s="9"/>
-      <c r="H185" s="9"/>
-      <c r="L185" s="9"/>
+      <c r="B185" s="9"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="H185" s="12"/>
+      <c r="L185" s="12"/>
       <c r="M185" s="1">
         <v>-24</v>
       </c>
@@ -5038,11 +5172,11 @@
     </row>
     <row r="186" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="7"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="9"/>
-      <c r="D186" s="9"/>
-      <c r="H186" s="9"/>
-      <c r="L186" s="9"/>
+      <c r="B186" s="9"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="H186" s="12"/>
+      <c r="L186" s="12"/>
       <c r="M186" s="1">
         <v>-25</v>
       </c>
@@ -5052,11 +5186,11 @@
     </row>
     <row r="187" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="7"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="9"/>
-      <c r="D187" s="9"/>
-      <c r="H187" s="9"/>
-      <c r="L187" s="9"/>
+      <c r="B187" s="9"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="H187" s="12"/>
+      <c r="L187" s="12"/>
       <c r="M187" s="1">
         <v>-26</v>
       </c>
@@ -5066,11 +5200,11 @@
     </row>
     <row r="188" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="7"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="H188" s="9"/>
-      <c r="L188" s="9"/>
+      <c r="B188" s="9"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="H188" s="12"/>
+      <c r="L188" s="12"/>
       <c r="M188" s="1">
         <v>-27</v>
       </c>
@@ -5080,11 +5214,11 @@
     </row>
     <row r="189" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="7"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="9"/>
-      <c r="D189" s="9"/>
-      <c r="H189" s="9"/>
-      <c r="L189" s="9"/>
+      <c r="B189" s="9"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="H189" s="12"/>
+      <c r="L189" s="12"/>
       <c r="M189" s="1">
         <v>-31</v>
       </c>
@@ -5094,11 +5228,11 @@
     </row>
     <row r="190" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="7"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="9"/>
-      <c r="D190" s="9"/>
-      <c r="H190" s="9"/>
-      <c r="L190" s="9"/>
+      <c r="B190" s="9"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="H190" s="12"/>
+      <c r="L190" s="12"/>
       <c r="M190" s="1">
         <v>-32</v>
       </c>
@@ -5108,11 +5242,11 @@
     </row>
     <row r="191" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A191" s="7"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="9"/>
-      <c r="D191" s="9"/>
-      <c r="H191" s="9"/>
-      <c r="L191" s="9"/>
+      <c r="B191" s="9"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="H191" s="12"/>
+      <c r="L191" s="12"/>
       <c r="M191" s="1">
         <v>-99</v>
       </c>
@@ -5122,13 +5256,13 @@
     </row>
     <row r="192" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="7"/>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="C192" s="8" t="s">
+      <c r="C192" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="D192" s="8">
+      <c r="D192" s="11">
         <v>2</v>
       </c>
       <c r="E192" s="2" t="s">
@@ -5140,7 +5274,7 @@
       <c r="G192" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="H192" s="8">
+      <c r="H192" s="11">
         <v>1</v>
       </c>
       <c r="I192" s="2" t="s">
@@ -5152,7 +5286,7 @@
       <c r="K192" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L192" s="8">
+      <c r="L192" s="11">
         <v>16</v>
       </c>
       <c r="M192" s="2" t="s">
@@ -5164,9 +5298,9 @@
     </row>
     <row r="193" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="7"/>
-      <c r="B193" s="12"/>
-      <c r="C193" s="9"/>
-      <c r="D193" s="9"/>
+      <c r="B193" s="9"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
       <c r="E193" s="1" t="s">
         <v>74</v>
       </c>
@@ -5176,8 +5310,8 @@
       <c r="G193" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H193" s="9"/>
-      <c r="L193" s="9"/>
+      <c r="H193" s="12"/>
+      <c r="L193" s="12"/>
       <c r="M193" s="1">
         <v>-1</v>
       </c>
@@ -5187,11 +5321,11 @@
     </row>
     <row r="194" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="7"/>
-      <c r="B194" s="12"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-      <c r="H194" s="9"/>
-      <c r="L194" s="9"/>
+      <c r="B194" s="9"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="H194" s="12"/>
+      <c r="L194" s="12"/>
       <c r="M194" s="1">
         <v>-2</v>
       </c>
@@ -5201,11 +5335,11 @@
     </row>
     <row r="195" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="7"/>
-      <c r="B195" s="12"/>
-      <c r="C195" s="9"/>
-      <c r="D195" s="9"/>
-      <c r="H195" s="9"/>
-      <c r="L195" s="9"/>
+      <c r="B195" s="9"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="H195" s="12"/>
+      <c r="L195" s="12"/>
       <c r="M195" s="1">
         <v>-11</v>
       </c>
@@ -5215,11 +5349,11 @@
     </row>
     <row r="196" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="7"/>
-      <c r="B196" s="12"/>
-      <c r="C196" s="9"/>
-      <c r="D196" s="9"/>
-      <c r="H196" s="9"/>
-      <c r="L196" s="9"/>
+      <c r="B196" s="9"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="H196" s="12"/>
+      <c r="L196" s="12"/>
       <c r="M196" s="1">
         <v>-12</v>
       </c>
@@ -5229,11 +5363,11 @@
     </row>
     <row r="197" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="7"/>
-      <c r="B197" s="12"/>
-      <c r="C197" s="9"/>
-      <c r="D197" s="9"/>
-      <c r="H197" s="9"/>
-      <c r="L197" s="9"/>
+      <c r="B197" s="9"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="H197" s="12"/>
+      <c r="L197" s="12"/>
       <c r="M197" s="1">
         <v>-13</v>
       </c>
@@ -5243,11 +5377,11 @@
     </row>
     <row r="198" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="7"/>
-      <c r="B198" s="12"/>
-      <c r="C198" s="9"/>
-      <c r="D198" s="9"/>
-      <c r="H198" s="9"/>
-      <c r="L198" s="9"/>
+      <c r="B198" s="9"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="H198" s="12"/>
+      <c r="L198" s="12"/>
       <c r="M198" s="1">
         <v>-14</v>
       </c>
@@ -5257,11 +5391,11 @@
     </row>
     <row r="199" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="7"/>
-      <c r="B199" s="12"/>
-      <c r="C199" s="9"/>
-      <c r="D199" s="9"/>
-      <c r="H199" s="9"/>
-      <c r="L199" s="9"/>
+      <c r="B199" s="9"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="H199" s="12"/>
+      <c r="L199" s="12"/>
       <c r="M199" s="1">
         <v>-21</v>
       </c>
@@ -5271,11 +5405,11 @@
     </row>
     <row r="200" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="7"/>
-      <c r="B200" s="12"/>
-      <c r="C200" s="9"/>
-      <c r="D200" s="9"/>
-      <c r="H200" s="9"/>
-      <c r="L200" s="9"/>
+      <c r="B200" s="9"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="H200" s="12"/>
+      <c r="L200" s="12"/>
       <c r="M200" s="1">
         <v>-22</v>
       </c>
@@ -5285,11 +5419,11 @@
     </row>
     <row r="201" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="7"/>
-      <c r="B201" s="12"/>
-      <c r="C201" s="9"/>
-      <c r="D201" s="9"/>
-      <c r="H201" s="9"/>
-      <c r="L201" s="9"/>
+      <c r="B201" s="9"/>
+      <c r="C201" s="12"/>
+      <c r="D201" s="12"/>
+      <c r="H201" s="12"/>
+      <c r="L201" s="12"/>
       <c r="M201" s="1">
         <v>-23</v>
       </c>
@@ -5299,11 +5433,11 @@
     </row>
     <row r="202" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="7"/>
-      <c r="B202" s="12"/>
-      <c r="C202" s="9"/>
-      <c r="D202" s="9"/>
-      <c r="H202" s="9"/>
-      <c r="L202" s="9"/>
+      <c r="B202" s="9"/>
+      <c r="C202" s="12"/>
+      <c r="D202" s="12"/>
+      <c r="H202" s="12"/>
+      <c r="L202" s="12"/>
       <c r="M202" s="1">
         <v>-24</v>
       </c>
@@ -5313,11 +5447,11 @@
     </row>
     <row r="203" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="7"/>
-      <c r="B203" s="12"/>
-      <c r="C203" s="9"/>
-      <c r="D203" s="9"/>
-      <c r="H203" s="9"/>
-      <c r="L203" s="9"/>
+      <c r="B203" s="9"/>
+      <c r="C203" s="12"/>
+      <c r="D203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="L203" s="12"/>
       <c r="M203" s="1">
         <v>-31</v>
       </c>
@@ -5327,11 +5461,11 @@
     </row>
     <row r="204" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="7"/>
-      <c r="B204" s="12"/>
-      <c r="C204" s="9"/>
-      <c r="D204" s="9"/>
-      <c r="H204" s="9"/>
-      <c r="L204" s="9"/>
+      <c r="B204" s="9"/>
+      <c r="C204" s="12"/>
+      <c r="D204" s="12"/>
+      <c r="H204" s="12"/>
+      <c r="L204" s="12"/>
       <c r="M204" s="1">
         <v>-32</v>
       </c>
@@ -5341,11 +5475,11 @@
     </row>
     <row r="205" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A205" s="7"/>
-      <c r="B205" s="12"/>
-      <c r="C205" s="9"/>
-      <c r="D205" s="9"/>
-      <c r="H205" s="9"/>
-      <c r="L205" s="9"/>
+      <c r="B205" s="9"/>
+      <c r="C205" s="12"/>
+      <c r="D205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="L205" s="12"/>
       <c r="M205" s="1">
         <v>-99</v>
       </c>
@@ -5355,13 +5489,13 @@
     </row>
     <row r="206" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="7"/>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="C206" s="8" t="s">
+      <c r="C206" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="D206" s="8">
+      <c r="D206" s="11">
         <v>1</v>
       </c>
       <c r="E206" s="2" t="s">
@@ -5373,7 +5507,7 @@
       <c r="G206" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H206" s="8">
+      <c r="H206" s="11">
         <v>7</v>
       </c>
       <c r="I206" s="2" t="s">
@@ -5385,7 +5519,7 @@
       <c r="K206" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="L206" s="8">
+      <c r="L206" s="11">
         <v>6</v>
       </c>
       <c r="M206" s="2">
@@ -5397,17 +5531,17 @@
     </row>
     <row r="207" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="7"/>
-      <c r="B207" s="12"/>
-      <c r="C207" s="9"/>
-      <c r="D207" s="9"/>
-      <c r="H207" s="9"/>
+      <c r="B207" s="9"/>
+      <c r="C207" s="12"/>
+      <c r="D207" s="12"/>
+      <c r="H207" s="12"/>
       <c r="I207" s="1" t="s">
         <v>119</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="L207" s="9"/>
+      <c r="L207" s="12"/>
       <c r="M207" s="1">
         <v>-11</v>
       </c>
@@ -5417,10 +5551,10 @@
     </row>
     <row r="208" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="7"/>
-      <c r="B208" s="12"/>
-      <c r="C208" s="9"/>
-      <c r="D208" s="9"/>
-      <c r="H208" s="9"/>
+      <c r="B208" s="9"/>
+      <c r="C208" s="12"/>
+      <c r="D208" s="12"/>
+      <c r="H208" s="12"/>
       <c r="I208" s="1" t="s">
         <v>141</v>
       </c>
@@ -5430,7 +5564,7 @@
       <c r="K208" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="L208" s="9"/>
+      <c r="L208" s="12"/>
       <c r="M208" s="1">
         <v>-21</v>
       </c>
@@ -5440,10 +5574,10 @@
     </row>
     <row r="209" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="7"/>
-      <c r="B209" s="12"/>
-      <c r="C209" s="9"/>
-      <c r="D209" s="9"/>
-      <c r="H209" s="9"/>
+      <c r="B209" s="9"/>
+      <c r="C209" s="12"/>
+      <c r="D209" s="12"/>
+      <c r="H209" s="12"/>
       <c r="I209" s="1" t="s">
         <v>125</v>
       </c>
@@ -5453,7 +5587,7 @@
       <c r="K209" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="L209" s="9"/>
+      <c r="L209" s="12"/>
       <c r="M209" s="1">
         <v>-31</v>
       </c>
@@ -5463,10 +5597,10 @@
     </row>
     <row r="210" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="7"/>
-      <c r="B210" s="12"/>
-      <c r="C210" s="9"/>
-      <c r="D210" s="9"/>
-      <c r="H210" s="9"/>
+      <c r="B210" s="9"/>
+      <c r="C210" s="12"/>
+      <c r="D210" s="12"/>
+      <c r="H210" s="12"/>
       <c r="I210" s="1" t="s">
         <v>120</v>
       </c>
@@ -5476,7 +5610,7 @@
       <c r="K210" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L210" s="9"/>
+      <c r="L210" s="12"/>
       <c r="M210" s="1">
         <v>-32</v>
       </c>
@@ -5486,10 +5620,10 @@
     </row>
     <row r="211" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="7"/>
-      <c r="B211" s="12"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
-      <c r="H211" s="9"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="12"/>
+      <c r="D211" s="12"/>
+      <c r="H211" s="12"/>
       <c r="I211" s="1" t="s">
         <v>163</v>
       </c>
@@ -5499,7 +5633,7 @@
       <c r="K211" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="L211" s="9"/>
+      <c r="L211" s="12"/>
       <c r="M211" s="1">
         <v>-99</v>
       </c>
@@ -5509,10 +5643,10 @@
     </row>
     <row r="212" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A212" s="7"/>
-      <c r="B212" s="12"/>
-      <c r="C212" s="9"/>
-      <c r="D212" s="9"/>
-      <c r="H212" s="9"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="12"/>
+      <c r="D212" s="12"/>
+      <c r="H212" s="12"/>
       <c r="I212" s="1" t="s">
         <v>164</v>
       </c>
@@ -5522,20 +5656,20 @@
       <c r="K212" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="L212" s="9"/>
+      <c r="L212" s="12"/>
       <c r="N212" s="4"/>
     </row>
     <row r="213" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B213" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="C213" s="8" t="s">
+      <c r="C213" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D213" s="8">
+      <c r="D213" s="11">
         <v>3</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -5547,13 +5681,13 @@
       <c r="G213" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H213" s="8" t="s">
+      <c r="H213" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
-      <c r="L213" s="8">
+      <c r="L213" s="11">
         <v>15</v>
       </c>
       <c r="M213" s="2">
@@ -5565,9 +5699,9 @@
     </row>
     <row r="214" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="7"/>
-      <c r="B214" s="12"/>
-      <c r="C214" s="9"/>
-      <c r="D214" s="9"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="12"/>
+      <c r="D214" s="12"/>
       <c r="E214" s="1" t="s">
         <v>74</v>
       </c>
@@ -5577,8 +5711,8 @@
       <c r="G214" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H214" s="9"/>
-      <c r="L214" s="9"/>
+      <c r="H214" s="12"/>
+      <c r="L214" s="12"/>
       <c r="M214" s="1">
         <v>-2</v>
       </c>
@@ -5588,9 +5722,9 @@
     </row>
     <row r="215" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="7"/>
-      <c r="B215" s="12"/>
-      <c r="C215" s="9"/>
-      <c r="D215" s="9"/>
+      <c r="B215" s="9"/>
+      <c r="C215" s="12"/>
+      <c r="D215" s="12"/>
       <c r="E215" s="1" t="s">
         <v>178</v>
       </c>
@@ -5600,8 +5734,8 @@
       <c r="G215" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="H215" s="9"/>
-      <c r="L215" s="9"/>
+      <c r="H215" s="12"/>
+      <c r="L215" s="12"/>
       <c r="M215" s="1">
         <v>-11</v>
       </c>
@@ -5611,11 +5745,11 @@
     </row>
     <row r="216" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="7"/>
-      <c r="B216" s="12"/>
-      <c r="C216" s="9"/>
-      <c r="D216" s="9"/>
-      <c r="H216" s="9"/>
-      <c r="L216" s="9"/>
+      <c r="B216" s="9"/>
+      <c r="C216" s="12"/>
+      <c r="D216" s="12"/>
+      <c r="H216" s="12"/>
+      <c r="L216" s="12"/>
       <c r="M216" s="1">
         <v>-12</v>
       </c>
@@ -5625,11 +5759,11 @@
     </row>
     <row r="217" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="7"/>
-      <c r="B217" s="12"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="H217" s="9"/>
-      <c r="L217" s="9"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="12"/>
+      <c r="D217" s="12"/>
+      <c r="H217" s="12"/>
+      <c r="L217" s="12"/>
       <c r="M217" s="1">
         <v>-13</v>
       </c>
@@ -5639,11 +5773,11 @@
     </row>
     <row r="218" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="7"/>
-      <c r="B218" s="12"/>
-      <c r="C218" s="9"/>
-      <c r="D218" s="9"/>
-      <c r="H218" s="9"/>
-      <c r="L218" s="9"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="L218" s="12"/>
       <c r="M218" s="1">
         <v>-14</v>
       </c>
@@ -5653,11 +5787,11 @@
     </row>
     <row r="219" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="7"/>
-      <c r="B219" s="12"/>
-      <c r="C219" s="9"/>
-      <c r="D219" s="9"/>
-      <c r="H219" s="9"/>
-      <c r="L219" s="9"/>
+      <c r="B219" s="9"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="H219" s="12"/>
+      <c r="L219" s="12"/>
       <c r="M219" s="1">
         <v>-15</v>
       </c>
@@ -5667,11 +5801,11 @@
     </row>
     <row r="220" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="7"/>
-      <c r="B220" s="12"/>
-      <c r="C220" s="9"/>
-      <c r="D220" s="9"/>
-      <c r="H220" s="9"/>
-      <c r="L220" s="9"/>
+      <c r="B220" s="9"/>
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="L220" s="12"/>
       <c r="M220" s="1">
         <v>-21</v>
       </c>
@@ -5681,11 +5815,11 @@
     </row>
     <row r="221" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="7"/>
-      <c r="B221" s="12"/>
-      <c r="C221" s="9"/>
-      <c r="D221" s="9"/>
-      <c r="H221" s="9"/>
-      <c r="L221" s="9"/>
+      <c r="B221" s="9"/>
+      <c r="C221" s="12"/>
+      <c r="D221" s="12"/>
+      <c r="H221" s="12"/>
+      <c r="L221" s="12"/>
       <c r="M221" s="1">
         <v>-22</v>
       </c>
@@ -5695,11 +5829,11 @@
     </row>
     <row r="222" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="7"/>
-      <c r="B222" s="12"/>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="H222" s="9"/>
-      <c r="L222" s="9"/>
+      <c r="B222" s="9"/>
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="L222" s="12"/>
       <c r="M222" s="1">
         <v>-23</v>
       </c>
@@ -5709,11 +5843,11 @@
     </row>
     <row r="223" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="7"/>
-      <c r="B223" s="12"/>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
-      <c r="H223" s="9"/>
-      <c r="L223" s="9"/>
+      <c r="B223" s="9"/>
+      <c r="C223" s="12"/>
+      <c r="D223" s="12"/>
+      <c r="H223" s="12"/>
+      <c r="L223" s="12"/>
       <c r="M223" s="1">
         <v>-24</v>
       </c>
@@ -5723,11 +5857,11 @@
     </row>
     <row r="224" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="7"/>
-      <c r="B224" s="12"/>
-      <c r="C224" s="9"/>
-      <c r="D224" s="9"/>
-      <c r="H224" s="9"/>
-      <c r="L224" s="9"/>
+      <c r="B224" s="9"/>
+      <c r="C224" s="12"/>
+      <c r="D224" s="12"/>
+      <c r="H224" s="12"/>
+      <c r="L224" s="12"/>
       <c r="M224" s="1">
         <v>-25</v>
       </c>
@@ -5737,11 +5871,11 @@
     </row>
     <row r="225" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="7"/>
-      <c r="B225" s="12"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
-      <c r="H225" s="9"/>
-      <c r="L225" s="9"/>
+      <c r="B225" s="9"/>
+      <c r="C225" s="12"/>
+      <c r="D225" s="12"/>
+      <c r="H225" s="12"/>
+      <c r="L225" s="12"/>
       <c r="M225" s="1">
         <v>-31</v>
       </c>
@@ -5751,11 +5885,11 @@
     </row>
     <row r="226" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="7"/>
-      <c r="B226" s="12"/>
-      <c r="C226" s="9"/>
-      <c r="D226" s="9"/>
-      <c r="H226" s="9"/>
-      <c r="L226" s="9"/>
+      <c r="B226" s="9"/>
+      <c r="C226" s="12"/>
+      <c r="D226" s="12"/>
+      <c r="H226" s="12"/>
+      <c r="L226" s="12"/>
       <c r="M226" s="1">
         <v>-32</v>
       </c>
@@ -5765,17 +5899,17 @@
     </row>
     <row r="227" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A227" s="7"/>
-      <c r="B227" s="13"/>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
+      <c r="B227" s="10"/>
+      <c r="C227" s="13"/>
+      <c r="D227" s="13"/>
       <c r="E227" s="5"/>
       <c r="F227" s="5"/>
       <c r="G227" s="5"/>
-      <c r="H227" s="10"/>
+      <c r="H227" s="13"/>
       <c r="I227" s="5"/>
       <c r="J227" s="5"/>
       <c r="K227" s="5"/>
-      <c r="L227" s="10"/>
+      <c r="L227" s="13"/>
       <c r="M227" s="5">
         <v>-99</v>
       </c>
@@ -5785,13 +5919,13 @@
     </row>
     <row r="228" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="7"/>
-      <c r="B228" s="11" t="s">
+      <c r="B228" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C228" s="8" t="s">
+      <c r="C228" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D228" s="8">
+      <c r="D228" s="11">
         <v>3</v>
       </c>
       <c r="E228" s="2" t="s">
@@ -5803,13 +5937,13 @@
       <c r="G228" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H228" s="8" t="s">
+      <c r="H228" s="11" t="s">
         <v>132</v>
       </c>
       <c r="I228" s="2"/>
       <c r="J228" s="2"/>
       <c r="K228" s="2"/>
-      <c r="L228" s="8">
+      <c r="L228" s="11">
         <v>14</v>
       </c>
       <c r="M228" s="2">
@@ -5821,9 +5955,9 @@
     </row>
     <row r="229" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="7"/>
-      <c r="B229" s="12"/>
-      <c r="C229" s="9"/>
-      <c r="D229" s="9"/>
+      <c r="B229" s="9"/>
+      <c r="C229" s="12"/>
+      <c r="D229" s="12"/>
       <c r="E229" s="1" t="s">
         <v>74</v>
       </c>
@@ -5833,8 +5967,8 @@
       <c r="G229" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H229" s="9"/>
-      <c r="L229" s="9"/>
+      <c r="H229" s="12"/>
+      <c r="L229" s="12"/>
       <c r="M229" s="1">
         <v>-2</v>
       </c>
@@ -5844,9 +5978,9 @@
     </row>
     <row r="230" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="7"/>
-      <c r="B230" s="12"/>
-      <c r="C230" s="9"/>
-      <c r="D230" s="9"/>
+      <c r="B230" s="9"/>
+      <c r="C230" s="12"/>
+      <c r="D230" s="12"/>
       <c r="E230" s="1" t="s">
         <v>118</v>
       </c>
@@ -5856,8 +5990,8 @@
       <c r="G230" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H230" s="9"/>
-      <c r="L230" s="9"/>
+      <c r="H230" s="12"/>
+      <c r="L230" s="12"/>
       <c r="M230" s="1">
         <v>-11</v>
       </c>
@@ -5867,11 +6001,11 @@
     </row>
     <row r="231" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="7"/>
-      <c r="B231" s="12"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="H231" s="9"/>
-      <c r="L231" s="9"/>
+      <c r="B231" s="9"/>
+      <c r="C231" s="12"/>
+      <c r="D231" s="12"/>
+      <c r="H231" s="12"/>
+      <c r="L231" s="12"/>
       <c r="M231" s="1">
         <v>-12</v>
       </c>
@@ -5881,11 +6015,11 @@
     </row>
     <row r="232" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="7"/>
-      <c r="B232" s="12"/>
-      <c r="C232" s="9"/>
-      <c r="D232" s="9"/>
-      <c r="H232" s="9"/>
-      <c r="L232" s="9"/>
+      <c r="B232" s="9"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="H232" s="12"/>
+      <c r="L232" s="12"/>
       <c r="M232" s="1">
         <v>-13</v>
       </c>
@@ -5895,11 +6029,11 @@
     </row>
     <row r="233" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="7"/>
-      <c r="B233" s="12"/>
-      <c r="C233" s="9"/>
-      <c r="D233" s="9"/>
-      <c r="H233" s="9"/>
-      <c r="L233" s="9"/>
+      <c r="B233" s="9"/>
+      <c r="C233" s="12"/>
+      <c r="D233" s="12"/>
+      <c r="H233" s="12"/>
+      <c r="L233" s="12"/>
       <c r="M233" s="1">
         <v>-14</v>
       </c>
@@ -5909,11 +6043,11 @@
     </row>
     <row r="234" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="7"/>
-      <c r="B234" s="12"/>
-      <c r="C234" s="9"/>
-      <c r="D234" s="9"/>
-      <c r="H234" s="9"/>
-      <c r="L234" s="9"/>
+      <c r="B234" s="9"/>
+      <c r="C234" s="12"/>
+      <c r="D234" s="12"/>
+      <c r="H234" s="12"/>
+      <c r="L234" s="12"/>
       <c r="M234" s="1">
         <v>-21</v>
       </c>
@@ -5923,11 +6057,11 @@
     </row>
     <row r="235" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="7"/>
-      <c r="B235" s="12"/>
-      <c r="C235" s="9"/>
-      <c r="D235" s="9"/>
-      <c r="H235" s="9"/>
-      <c r="L235" s="9"/>
+      <c r="B235" s="9"/>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="H235" s="12"/>
+      <c r="L235" s="12"/>
       <c r="M235" s="1">
         <v>-22</v>
       </c>
@@ -5937,11 +6071,11 @@
     </row>
     <row r="236" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="7"/>
-      <c r="B236" s="12"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="H236" s="9"/>
-      <c r="L236" s="9"/>
+      <c r="B236" s="9"/>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="H236" s="12"/>
+      <c r="L236" s="12"/>
       <c r="M236" s="1">
         <v>-23</v>
       </c>
@@ -5951,11 +6085,11 @@
     </row>
     <row r="237" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="7"/>
-      <c r="B237" s="12"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="9"/>
-      <c r="H237" s="9"/>
-      <c r="L237" s="9"/>
+      <c r="B237" s="9"/>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="H237" s="12"/>
+      <c r="L237" s="12"/>
       <c r="M237" s="1">
         <v>-24</v>
       </c>
@@ -5965,11 +6099,11 @@
     </row>
     <row r="238" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="7"/>
-      <c r="B238" s="12"/>
-      <c r="C238" s="9"/>
-      <c r="D238" s="9"/>
-      <c r="H238" s="9"/>
-      <c r="L238" s="9"/>
+      <c r="B238" s="9"/>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="H238" s="12"/>
+      <c r="L238" s="12"/>
       <c r="M238" s="1">
         <v>-25</v>
       </c>
@@ -5979,11 +6113,11 @@
     </row>
     <row r="239" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="7"/>
-      <c r="B239" s="12"/>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
-      <c r="H239" s="9"/>
-      <c r="L239" s="9"/>
+      <c r="B239" s="9"/>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="L239" s="12"/>
       <c r="M239" s="1">
         <v>-31</v>
       </c>
@@ -5993,11 +6127,11 @@
     </row>
     <row r="240" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="7"/>
-      <c r="B240" s="12"/>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9"/>
-      <c r="H240" s="9"/>
-      <c r="L240" s="9"/>
+      <c r="B240" s="9"/>
+      <c r="C240" s="12"/>
+      <c r="D240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="L240" s="12"/>
       <c r="M240" s="1">
         <v>-32</v>
       </c>
@@ -6007,11 +6141,11 @@
     </row>
     <row r="241" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A241" s="7"/>
-      <c r="B241" s="12"/>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9"/>
-      <c r="H241" s="9"/>
-      <c r="L241" s="9"/>
+      <c r="B241" s="9"/>
+      <c r="C241" s="12"/>
+      <c r="D241" s="12"/>
+      <c r="H241" s="12"/>
+      <c r="L241" s="12"/>
       <c r="M241" s="1">
         <v>-99</v>
       </c>
@@ -6021,13 +6155,13 @@
     </row>
     <row r="242" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="7"/>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="C242" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D242" s="8">
+      <c r="D242" s="11">
         <v>4</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -6039,13 +6173,13 @@
       <c r="G242" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H242" s="8" t="s">
+      <c r="H242" s="11" t="s">
         <v>132</v>
       </c>
       <c r="I242" s="2"/>
       <c r="J242" s="2"/>
       <c r="K242" s="2"/>
-      <c r="L242" s="8">
+      <c r="L242" s="11">
         <v>16</v>
       </c>
       <c r="M242" s="2">
@@ -6057,9 +6191,9 @@
     </row>
     <row r="243" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="7"/>
-      <c r="B243" s="12"/>
-      <c r="C243" s="9"/>
-      <c r="D243" s="9"/>
+      <c r="B243" s="9"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
       <c r="E243" s="1" t="s">
         <v>74</v>
       </c>
@@ -6069,8 +6203,8 @@
       <c r="G243" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H243" s="9"/>
-      <c r="L243" s="9"/>
+      <c r="H243" s="12"/>
+      <c r="L243" s="12"/>
       <c r="M243" s="1">
         <v>-2</v>
       </c>
@@ -6080,9 +6214,9 @@
     </row>
     <row r="244" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="7"/>
-      <c r="B244" s="12"/>
-      <c r="C244" s="9"/>
-      <c r="D244" s="9"/>
+      <c r="B244" s="9"/>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
       <c r="E244" s="1" t="s">
         <v>118</v>
       </c>
@@ -6092,8 +6226,8 @@
       <c r="G244" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H244" s="9"/>
-      <c r="L244" s="9"/>
+      <c r="H244" s="12"/>
+      <c r="L244" s="12"/>
       <c r="M244" s="1">
         <v>-11</v>
       </c>
@@ -6103,9 +6237,9 @@
     </row>
     <row r="245" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="7"/>
-      <c r="B245" s="12"/>
-      <c r="C245" s="9"/>
-      <c r="D245" s="9"/>
+      <c r="B245" s="9"/>
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
       <c r="E245" s="1" t="s">
         <v>36</v>
       </c>
@@ -6115,8 +6249,8 @@
       <c r="G245" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="H245" s="9"/>
-      <c r="L245" s="9"/>
+      <c r="H245" s="12"/>
+      <c r="L245" s="12"/>
       <c r="M245" s="1">
         <v>-12</v>
       </c>
@@ -6126,11 +6260,11 @@
     </row>
     <row r="246" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="7"/>
-      <c r="B246" s="12"/>
-      <c r="C246" s="9"/>
-      <c r="D246" s="9"/>
-      <c r="H246" s="9"/>
-      <c r="L246" s="9"/>
+      <c r="B246" s="9"/>
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="H246" s="12"/>
+      <c r="L246" s="12"/>
       <c r="M246" s="1">
         <v>-13</v>
       </c>
@@ -6140,11 +6274,11 @@
     </row>
     <row r="247" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="7"/>
-      <c r="B247" s="12"/>
-      <c r="C247" s="9"/>
-      <c r="D247" s="9"/>
-      <c r="H247" s="9"/>
-      <c r="L247" s="9"/>
+      <c r="B247" s="9"/>
+      <c r="C247" s="12"/>
+      <c r="D247" s="12"/>
+      <c r="H247" s="12"/>
+      <c r="L247" s="12"/>
       <c r="M247" s="1">
         <v>-14</v>
       </c>
@@ -6154,11 +6288,11 @@
     </row>
     <row r="248" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="7"/>
-      <c r="B248" s="12"/>
-      <c r="C248" s="9"/>
-      <c r="D248" s="9"/>
-      <c r="H248" s="9"/>
-      <c r="L248" s="9"/>
+      <c r="B248" s="9"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="H248" s="12"/>
+      <c r="L248" s="12"/>
       <c r="M248" s="1">
         <v>-15</v>
       </c>
@@ -6168,11 +6302,11 @@
     </row>
     <row r="249" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="7"/>
-      <c r="B249" s="12"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-      <c r="H249" s="9"/>
-      <c r="L249" s="9"/>
+      <c r="B249" s="9"/>
+      <c r="C249" s="12"/>
+      <c r="D249" s="12"/>
+      <c r="H249" s="12"/>
+      <c r="L249" s="12"/>
       <c r="M249" s="1">
         <v>-21</v>
       </c>
@@ -6182,11 +6316,11 @@
     </row>
     <row r="250" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="7"/>
-      <c r="B250" s="12"/>
-      <c r="C250" s="9"/>
-      <c r="D250" s="9"/>
-      <c r="H250" s="9"/>
-      <c r="L250" s="9"/>
+      <c r="B250" s="9"/>
+      <c r="C250" s="12"/>
+      <c r="D250" s="12"/>
+      <c r="H250" s="12"/>
+      <c r="L250" s="12"/>
       <c r="M250" s="1">
         <v>-22</v>
       </c>
@@ -6196,11 +6330,11 @@
     </row>
     <row r="251" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="7"/>
-      <c r="B251" s="12"/>
-      <c r="C251" s="9"/>
-      <c r="D251" s="9"/>
-      <c r="H251" s="9"/>
-      <c r="L251" s="9"/>
+      <c r="B251" s="9"/>
+      <c r="C251" s="12"/>
+      <c r="D251" s="12"/>
+      <c r="H251" s="12"/>
+      <c r="L251" s="12"/>
       <c r="M251" s="1">
         <v>-23</v>
       </c>
@@ -6210,11 +6344,11 @@
     </row>
     <row r="252" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="7"/>
-      <c r="B252" s="12"/>
-      <c r="C252" s="9"/>
-      <c r="D252" s="9"/>
-      <c r="H252" s="9"/>
-      <c r="L252" s="9"/>
+      <c r="B252" s="9"/>
+      <c r="C252" s="12"/>
+      <c r="D252" s="12"/>
+      <c r="H252" s="12"/>
+      <c r="L252" s="12"/>
       <c r="M252" s="1">
         <v>-24</v>
       </c>
@@ -6224,11 +6358,11 @@
     </row>
     <row r="253" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="7"/>
-      <c r="B253" s="12"/>
-      <c r="C253" s="9"/>
-      <c r="D253" s="9"/>
-      <c r="H253" s="9"/>
-      <c r="L253" s="9"/>
+      <c r="B253" s="9"/>
+      <c r="C253" s="12"/>
+      <c r="D253" s="12"/>
+      <c r="H253" s="12"/>
+      <c r="L253" s="12"/>
       <c r="M253" s="1">
         <v>-25</v>
       </c>
@@ -6238,11 +6372,11 @@
     </row>
     <row r="254" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="7"/>
-      <c r="B254" s="12"/>
-      <c r="C254" s="9"/>
-      <c r="D254" s="9"/>
-      <c r="H254" s="9"/>
-      <c r="L254" s="9"/>
+      <c r="B254" s="9"/>
+      <c r="C254" s="12"/>
+      <c r="D254" s="12"/>
+      <c r="H254" s="12"/>
+      <c r="L254" s="12"/>
       <c r="M254" s="1">
         <v>-26</v>
       </c>
@@ -6252,11 +6386,11 @@
     </row>
     <row r="255" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="7"/>
-      <c r="B255" s="12"/>
-      <c r="C255" s="9"/>
-      <c r="D255" s="9"/>
-      <c r="H255" s="9"/>
-      <c r="L255" s="9"/>
+      <c r="B255" s="9"/>
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="H255" s="12"/>
+      <c r="L255" s="12"/>
       <c r="M255" s="1">
         <v>-31</v>
       </c>
@@ -6266,11 +6400,11 @@
     </row>
     <row r="256" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="7"/>
-      <c r="B256" s="12"/>
-      <c r="C256" s="9"/>
-      <c r="D256" s="9"/>
-      <c r="H256" s="9"/>
-      <c r="L256" s="9"/>
+      <c r="B256" s="9"/>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="H256" s="12"/>
+      <c r="L256" s="12"/>
       <c r="M256" s="1">
         <v>-32</v>
       </c>
@@ -6280,17 +6414,17 @@
     </row>
     <row r="257" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A257" s="7"/>
-      <c r="B257" s="13"/>
-      <c r="C257" s="10"/>
-      <c r="D257" s="10"/>
+      <c r="B257" s="10"/>
+      <c r="C257" s="13"/>
+      <c r="D257" s="13"/>
       <c r="E257" s="5"/>
       <c r="F257" s="5"/>
       <c r="G257" s="5"/>
-      <c r="H257" s="10"/>
+      <c r="H257" s="13"/>
       <c r="I257" s="5"/>
       <c r="J257" s="5"/>
       <c r="K257" s="5"/>
-      <c r="L257" s="10"/>
+      <c r="L257" s="13"/>
       <c r="M257" s="5">
         <v>-99</v>
       </c>
@@ -6300,13 +6434,13 @@
     </row>
     <row r="258" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="7"/>
-      <c r="B258" s="11" t="s">
+      <c r="B258" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="C258" s="8" t="s">
+      <c r="C258" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="D258" s="8">
+      <c r="D258" s="11">
         <v>3</v>
       </c>
       <c r="E258" s="2" t="s">
@@ -6318,7 +6452,7 @@
       <c r="G258" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H258" s="8">
+      <c r="H258" s="11">
         <v>1</v>
       </c>
       <c r="I258" s="2" t="s">
@@ -6330,7 +6464,7 @@
       <c r="K258" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L258" s="8">
+      <c r="L258" s="11">
         <v>15</v>
       </c>
       <c r="M258" s="2">
@@ -6342,9 +6476,9 @@
     </row>
     <row r="259" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="7"/>
-      <c r="B259" s="12"/>
-      <c r="C259" s="9"/>
-      <c r="D259" s="9"/>
+      <c r="B259" s="9"/>
+      <c r="C259" s="12"/>
+      <c r="D259" s="12"/>
       <c r="E259" s="1" t="s">
         <v>74</v>
       </c>
@@ -6354,8 +6488,8 @@
       <c r="G259" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H259" s="9"/>
-      <c r="L259" s="9"/>
+      <c r="H259" s="12"/>
+      <c r="L259" s="12"/>
       <c r="M259" s="1">
         <v>-2</v>
       </c>
@@ -6365,9 +6499,9 @@
     </row>
     <row r="260" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="7"/>
-      <c r="B260" s="12"/>
-      <c r="C260" s="9"/>
-      <c r="D260" s="9"/>
+      <c r="B260" s="9"/>
+      <c r="C260" s="12"/>
+      <c r="D260" s="12"/>
       <c r="E260" s="1" t="s">
         <v>118</v>
       </c>
@@ -6377,8 +6511,8 @@
       <c r="G260" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H260" s="9"/>
-      <c r="L260" s="9"/>
+      <c r="H260" s="12"/>
+      <c r="L260" s="12"/>
       <c r="M260" s="1">
         <v>-11</v>
       </c>
@@ -6388,11 +6522,11 @@
     </row>
     <row r="261" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="7"/>
-      <c r="B261" s="12"/>
-      <c r="C261" s="9"/>
-      <c r="D261" s="9"/>
-      <c r="H261" s="9"/>
-      <c r="L261" s="9"/>
+      <c r="B261" s="9"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="H261" s="12"/>
+      <c r="L261" s="12"/>
       <c r="M261" s="1">
         <v>-12</v>
       </c>
@@ -6402,11 +6536,11 @@
     </row>
     <row r="262" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="7"/>
-      <c r="B262" s="12"/>
-      <c r="C262" s="9"/>
-      <c r="D262" s="9"/>
-      <c r="H262" s="9"/>
-      <c r="L262" s="9"/>
+      <c r="B262" s="9"/>
+      <c r="C262" s="12"/>
+      <c r="D262" s="12"/>
+      <c r="H262" s="12"/>
+      <c r="L262" s="12"/>
       <c r="M262" s="1">
         <v>-13</v>
       </c>
@@ -6416,11 +6550,11 @@
     </row>
     <row r="263" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="7"/>
-      <c r="B263" s="12"/>
-      <c r="C263" s="9"/>
-      <c r="D263" s="9"/>
-      <c r="H263" s="9"/>
-      <c r="L263" s="9"/>
+      <c r="B263" s="9"/>
+      <c r="C263" s="12"/>
+      <c r="D263" s="12"/>
+      <c r="H263" s="12"/>
+      <c r="L263" s="12"/>
       <c r="M263" s="1">
         <v>-14</v>
       </c>
@@ -6430,11 +6564,11 @@
     </row>
     <row r="264" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="7"/>
-      <c r="B264" s="12"/>
-      <c r="C264" s="9"/>
-      <c r="D264" s="9"/>
-      <c r="H264" s="9"/>
-      <c r="L264" s="9"/>
+      <c r="B264" s="9"/>
+      <c r="C264" s="12"/>
+      <c r="D264" s="12"/>
+      <c r="H264" s="12"/>
+      <c r="L264" s="12"/>
       <c r="M264" s="1">
         <v>-15</v>
       </c>
@@ -6444,11 +6578,11 @@
     </row>
     <row r="265" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="7"/>
-      <c r="B265" s="12"/>
-      <c r="C265" s="9"/>
-      <c r="D265" s="9"/>
-      <c r="H265" s="9"/>
-      <c r="L265" s="9"/>
+      <c r="B265" s="9"/>
+      <c r="C265" s="12"/>
+      <c r="D265" s="12"/>
+      <c r="H265" s="12"/>
+      <c r="L265" s="12"/>
       <c r="M265" s="1">
         <v>-21</v>
       </c>
@@ -6458,11 +6592,11 @@
     </row>
     <row r="266" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="7"/>
-      <c r="B266" s="12"/>
-      <c r="C266" s="9"/>
-      <c r="D266" s="9"/>
-      <c r="H266" s="9"/>
-      <c r="L266" s="9"/>
+      <c r="B266" s="9"/>
+      <c r="C266" s="12"/>
+      <c r="D266" s="12"/>
+      <c r="H266" s="12"/>
+      <c r="L266" s="12"/>
       <c r="M266" s="1">
         <v>-22</v>
       </c>
@@ -6472,11 +6606,11 @@
     </row>
     <row r="267" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="7"/>
-      <c r="B267" s="12"/>
-      <c r="C267" s="9"/>
-      <c r="D267" s="9"/>
-      <c r="H267" s="9"/>
-      <c r="L267" s="9"/>
+      <c r="B267" s="9"/>
+      <c r="C267" s="12"/>
+      <c r="D267" s="12"/>
+      <c r="H267" s="12"/>
+      <c r="L267" s="12"/>
       <c r="M267" s="1">
         <v>-23</v>
       </c>
@@ -6486,11 +6620,11 @@
     </row>
     <row r="268" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="7"/>
-      <c r="B268" s="12"/>
-      <c r="C268" s="9"/>
-      <c r="D268" s="9"/>
-      <c r="H268" s="9"/>
-      <c r="L268" s="9"/>
+      <c r="B268" s="9"/>
+      <c r="C268" s="12"/>
+      <c r="D268" s="12"/>
+      <c r="H268" s="12"/>
+      <c r="L268" s="12"/>
       <c r="M268" s="1">
         <v>-24</v>
       </c>
@@ -6500,11 +6634,11 @@
     </row>
     <row r="269" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="7"/>
-      <c r="B269" s="12"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
-      <c r="H269" s="9"/>
-      <c r="L269" s="9"/>
+      <c r="B269" s="9"/>
+      <c r="C269" s="12"/>
+      <c r="D269" s="12"/>
+      <c r="H269" s="12"/>
+      <c r="L269" s="12"/>
       <c r="M269" s="1">
         <v>-25</v>
       </c>
@@ -6514,11 +6648,11 @@
     </row>
     <row r="270" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="7"/>
-      <c r="B270" s="12"/>
-      <c r="C270" s="9"/>
-      <c r="D270" s="9"/>
-      <c r="H270" s="9"/>
-      <c r="L270" s="9"/>
+      <c r="B270" s="9"/>
+      <c r="C270" s="12"/>
+      <c r="D270" s="12"/>
+      <c r="H270" s="12"/>
+      <c r="L270" s="12"/>
       <c r="M270" s="1">
         <v>-31</v>
       </c>
@@ -6528,11 +6662,11 @@
     </row>
     <row r="271" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="7"/>
-      <c r="B271" s="12"/>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9"/>
-      <c r="H271" s="9"/>
-      <c r="L271" s="9"/>
+      <c r="B271" s="9"/>
+      <c r="C271" s="12"/>
+      <c r="D271" s="12"/>
+      <c r="H271" s="12"/>
+      <c r="L271" s="12"/>
       <c r="M271" s="1">
         <v>-32</v>
       </c>
@@ -6542,17 +6676,17 @@
     </row>
     <row r="272" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A272" s="7"/>
-      <c r="B272" s="13"/>
-      <c r="C272" s="10"/>
-      <c r="D272" s="10"/>
+      <c r="B272" s="10"/>
+      <c r="C272" s="13"/>
+      <c r="D272" s="13"/>
       <c r="E272" s="5"/>
       <c r="F272" s="5"/>
       <c r="G272" s="5"/>
-      <c r="H272" s="10"/>
+      <c r="H272" s="13"/>
       <c r="I272" s="5"/>
       <c r="J272" s="5"/>
       <c r="K272" s="5"/>
-      <c r="L272" s="10"/>
+      <c r="L272" s="13"/>
       <c r="M272" s="5">
         <v>-99</v>
       </c>
@@ -6562,13 +6696,13 @@
     </row>
     <row r="273" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="7"/>
-      <c r="B273" s="11" t="s">
+      <c r="B273" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C273" s="8" t="s">
+      <c r="C273" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D273" s="8">
+      <c r="D273" s="11">
         <v>2</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -6580,7 +6714,7 @@
       <c r="G273" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H273" s="8">
+      <c r="H273" s="11">
         <v>1</v>
       </c>
       <c r="I273" s="2" t="s">
@@ -6592,7 +6726,7 @@
       <c r="K273" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L273" s="8">
+      <c r="L273" s="11">
         <v>14</v>
       </c>
       <c r="M273" s="2">
@@ -6604,9 +6738,9 @@
     </row>
     <row r="274" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="7"/>
-      <c r="B274" s="12"/>
-      <c r="C274" s="9"/>
-      <c r="D274" s="9"/>
+      <c r="B274" s="9"/>
+      <c r="C274" s="12"/>
+      <c r="D274" s="12"/>
       <c r="E274" s="1" t="s">
         <v>74</v>
       </c>
@@ -6616,8 +6750,8 @@
       <c r="G274" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H274" s="9"/>
-      <c r="L274" s="9"/>
+      <c r="H274" s="12"/>
+      <c r="L274" s="12"/>
       <c r="M274" s="1">
         <v>-2</v>
       </c>
@@ -6627,11 +6761,11 @@
     </row>
     <row r="275" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="7"/>
-      <c r="B275" s="12"/>
-      <c r="C275" s="9"/>
-      <c r="D275" s="9"/>
-      <c r="H275" s="9"/>
-      <c r="L275" s="9"/>
+      <c r="B275" s="9"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="H275" s="12"/>
+      <c r="L275" s="12"/>
       <c r="M275" s="1">
         <v>-11</v>
       </c>
@@ -6641,11 +6775,11 @@
     </row>
     <row r="276" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="7"/>
-      <c r="B276" s="12"/>
-      <c r="C276" s="9"/>
-      <c r="D276" s="9"/>
-      <c r="H276" s="9"/>
-      <c r="L276" s="9"/>
+      <c r="B276" s="9"/>
+      <c r="C276" s="12"/>
+      <c r="D276" s="12"/>
+      <c r="H276" s="12"/>
+      <c r="L276" s="12"/>
       <c r="M276" s="1">
         <v>-12</v>
       </c>
@@ -6655,11 +6789,11 @@
     </row>
     <row r="277" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="7"/>
-      <c r="B277" s="12"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
-      <c r="H277" s="9"/>
-      <c r="L277" s="9"/>
+      <c r="B277" s="9"/>
+      <c r="C277" s="12"/>
+      <c r="D277" s="12"/>
+      <c r="H277" s="12"/>
+      <c r="L277" s="12"/>
       <c r="M277" s="1">
         <v>-13</v>
       </c>
@@ -6669,11 +6803,11 @@
     </row>
     <row r="278" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="7"/>
-      <c r="B278" s="12"/>
-      <c r="C278" s="9"/>
-      <c r="D278" s="9"/>
-      <c r="H278" s="9"/>
-      <c r="L278" s="9"/>
+      <c r="B278" s="9"/>
+      <c r="C278" s="12"/>
+      <c r="D278" s="12"/>
+      <c r="H278" s="12"/>
+      <c r="L278" s="12"/>
       <c r="M278" s="1">
         <v>-14</v>
       </c>
@@ -6683,11 +6817,11 @@
     </row>
     <row r="279" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="7"/>
-      <c r="B279" s="12"/>
-      <c r="C279" s="9"/>
-      <c r="D279" s="9"/>
-      <c r="H279" s="9"/>
-      <c r="L279" s="9"/>
+      <c r="B279" s="9"/>
+      <c r="C279" s="12"/>
+      <c r="D279" s="12"/>
+      <c r="H279" s="12"/>
+      <c r="L279" s="12"/>
       <c r="M279" s="1">
         <v>-21</v>
       </c>
@@ -6697,11 +6831,11 @@
     </row>
     <row r="280" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="7"/>
-      <c r="B280" s="12"/>
-      <c r="C280" s="9"/>
-      <c r="D280" s="9"/>
-      <c r="H280" s="9"/>
-      <c r="L280" s="9"/>
+      <c r="B280" s="9"/>
+      <c r="C280" s="12"/>
+      <c r="D280" s="12"/>
+      <c r="H280" s="12"/>
+      <c r="L280" s="12"/>
       <c r="M280" s="1">
         <v>-22</v>
       </c>
@@ -6711,11 +6845,11 @@
     </row>
     <row r="281" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="7"/>
-      <c r="B281" s="12"/>
-      <c r="C281" s="9"/>
-      <c r="D281" s="9"/>
-      <c r="H281" s="9"/>
-      <c r="L281" s="9"/>
+      <c r="B281" s="9"/>
+      <c r="C281" s="12"/>
+      <c r="D281" s="12"/>
+      <c r="H281" s="12"/>
+      <c r="L281" s="12"/>
       <c r="M281" s="1">
         <v>-23</v>
       </c>
@@ -6725,11 +6859,11 @@
     </row>
     <row r="282" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="7"/>
-      <c r="B282" s="12"/>
-      <c r="C282" s="9"/>
-      <c r="D282" s="9"/>
-      <c r="H282" s="9"/>
-      <c r="L282" s="9"/>
+      <c r="B282" s="9"/>
+      <c r="C282" s="12"/>
+      <c r="D282" s="12"/>
+      <c r="H282" s="12"/>
+      <c r="L282" s="12"/>
       <c r="M282" s="1">
         <v>-24</v>
       </c>
@@ -6739,11 +6873,11 @@
     </row>
     <row r="283" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="7"/>
-      <c r="B283" s="12"/>
-      <c r="C283" s="9"/>
-      <c r="D283" s="9"/>
-      <c r="H283" s="9"/>
-      <c r="L283" s="9"/>
+      <c r="B283" s="9"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+      <c r="H283" s="12"/>
+      <c r="L283" s="12"/>
       <c r="M283" s="1">
         <v>-25</v>
       </c>
@@ -6753,11 +6887,11 @@
     </row>
     <row r="284" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="7"/>
-      <c r="B284" s="12"/>
-      <c r="C284" s="9"/>
-      <c r="D284" s="9"/>
-      <c r="H284" s="9"/>
-      <c r="L284" s="9"/>
+      <c r="B284" s="9"/>
+      <c r="C284" s="12"/>
+      <c r="D284" s="12"/>
+      <c r="H284" s="12"/>
+      <c r="L284" s="12"/>
       <c r="M284" s="1">
         <v>-31</v>
       </c>
@@ -6767,11 +6901,11 @@
     </row>
     <row r="285" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="7"/>
-      <c r="B285" s="12"/>
-      <c r="C285" s="9"/>
-      <c r="D285" s="9"/>
-      <c r="H285" s="9"/>
-      <c r="L285" s="9"/>
+      <c r="B285" s="9"/>
+      <c r="C285" s="12"/>
+      <c r="D285" s="12"/>
+      <c r="H285" s="12"/>
+      <c r="L285" s="12"/>
       <c r="M285" s="1">
         <v>-32</v>
       </c>
@@ -6781,11 +6915,11 @@
     </row>
     <row r="286" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A286" s="7"/>
-      <c r="B286" s="12"/>
-      <c r="C286" s="9"/>
-      <c r="D286" s="9"/>
-      <c r="H286" s="9"/>
-      <c r="L286" s="9"/>
+      <c r="B286" s="9"/>
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+      <c r="H286" s="12"/>
+      <c r="L286" s="12"/>
       <c r="M286" s="1">
         <v>-99</v>
       </c>
@@ -6797,13 +6931,13 @@
       <c r="A287" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="B287" s="11" t="s">
+      <c r="B287" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="C287" s="8" t="s">
+      <c r="C287" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D287" s="8">
+      <c r="D287" s="11">
         <v>6</v>
       </c>
       <c r="E287" s="2" t="s">
@@ -6815,13 +6949,13 @@
       <c r="G287" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H287" s="8" t="s">
+      <c r="H287" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I287" s="2"/>
       <c r="J287" s="2"/>
       <c r="K287" s="2"/>
-      <c r="L287" s="8">
+      <c r="L287" s="11">
         <v>18</v>
       </c>
       <c r="M287" s="2">
@@ -6833,9 +6967,9 @@
     </row>
     <row r="288" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="7"/>
-      <c r="B288" s="12"/>
-      <c r="C288" s="9"/>
-      <c r="D288" s="9"/>
+      <c r="B288" s="9"/>
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
       <c r="E288" s="1" t="s">
         <v>74</v>
       </c>
@@ -6845,8 +6979,8 @@
       <c r="G288" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H288" s="9"/>
-      <c r="L288" s="9"/>
+      <c r="H288" s="12"/>
+      <c r="L288" s="12"/>
       <c r="M288" s="1">
         <v>-2</v>
       </c>
@@ -6856,9 +6990,9 @@
     </row>
     <row r="289" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="7"/>
-      <c r="B289" s="12"/>
-      <c r="C289" s="9"/>
-      <c r="D289" s="9"/>
+      <c r="B289" s="9"/>
+      <c r="C289" s="12"/>
+      <c r="D289" s="12"/>
       <c r="E289" s="1" t="s">
         <v>118</v>
       </c>
@@ -6868,8 +7002,8 @@
       <c r="G289" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H289" s="9"/>
-      <c r="L289" s="9"/>
+      <c r="H289" s="12"/>
+      <c r="L289" s="12"/>
       <c r="M289" s="1">
         <v>-11</v>
       </c>
@@ -6879,9 +7013,9 @@
     </row>
     <row r="290" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="7"/>
-      <c r="B290" s="12"/>
-      <c r="C290" s="9"/>
-      <c r="D290" s="9"/>
+      <c r="B290" s="9"/>
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
       <c r="E290" s="1" t="s">
         <v>206</v>
       </c>
@@ -6891,8 +7025,8 @@
       <c r="G290" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H290" s="9"/>
-      <c r="L290" s="9"/>
+      <c r="H290" s="12"/>
+      <c r="L290" s="12"/>
       <c r="M290" s="1">
         <v>-12</v>
       </c>
@@ -6902,9 +7036,9 @@
     </row>
     <row r="291" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="7"/>
-      <c r="B291" s="12"/>
-      <c r="C291" s="9"/>
-      <c r="D291" s="9"/>
+      <c r="B291" s="9"/>
+      <c r="C291" s="12"/>
+      <c r="D291" s="12"/>
       <c r="E291" s="1" t="s">
         <v>207</v>
       </c>
@@ -6914,8 +7048,8 @@
       <c r="G291" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H291" s="9"/>
-      <c r="L291" s="9"/>
+      <c r="H291" s="12"/>
+      <c r="L291" s="12"/>
       <c r="M291" s="1">
         <v>-13</v>
       </c>
@@ -6925,9 +7059,9 @@
     </row>
     <row r="292" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="7"/>
-      <c r="B292" s="12"/>
-      <c r="C292" s="9"/>
-      <c r="D292" s="9"/>
+      <c r="B292" s="9"/>
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
       <c r="E292" s="1" t="s">
         <v>208</v>
       </c>
@@ -6937,8 +7071,8 @@
       <c r="G292" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H292" s="9"/>
-      <c r="L292" s="9"/>
+      <c r="H292" s="12"/>
+      <c r="L292" s="12"/>
       <c r="M292" s="1">
         <v>-14</v>
       </c>
@@ -6948,11 +7082,11 @@
     </row>
     <row r="293" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="7"/>
-      <c r="B293" s="12"/>
-      <c r="C293" s="9"/>
-      <c r="D293" s="9"/>
-      <c r="H293" s="9"/>
-      <c r="L293" s="9"/>
+      <c r="B293" s="9"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="H293" s="12"/>
+      <c r="L293" s="12"/>
       <c r="M293" s="1">
         <v>-15</v>
       </c>
@@ -6962,11 +7096,11 @@
     </row>
     <row r="294" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="7"/>
-      <c r="B294" s="12"/>
-      <c r="C294" s="9"/>
-      <c r="D294" s="9"/>
-      <c r="H294" s="9"/>
-      <c r="L294" s="9"/>
+      <c r="B294" s="9"/>
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="H294" s="12"/>
+      <c r="L294" s="12"/>
       <c r="M294" s="1">
         <v>-16</v>
       </c>
@@ -6976,11 +7110,11 @@
     </row>
     <row r="295" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="7"/>
-      <c r="B295" s="12"/>
-      <c r="C295" s="9"/>
-      <c r="D295" s="9"/>
-      <c r="H295" s="9"/>
-      <c r="L295" s="9"/>
+      <c r="B295" s="9"/>
+      <c r="C295" s="12"/>
+      <c r="D295" s="12"/>
+      <c r="H295" s="12"/>
+      <c r="L295" s="12"/>
       <c r="M295" s="1">
         <v>-21</v>
       </c>
@@ -6990,11 +7124,11 @@
     </row>
     <row r="296" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="7"/>
-      <c r="B296" s="12"/>
-      <c r="C296" s="9"/>
-      <c r="D296" s="9"/>
-      <c r="H296" s="9"/>
-      <c r="L296" s="9"/>
+      <c r="B296" s="9"/>
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="H296" s="12"/>
+      <c r="L296" s="12"/>
       <c r="M296" s="1">
         <v>-22</v>
       </c>
@@ -7004,11 +7138,11 @@
     </row>
     <row r="297" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="7"/>
-      <c r="B297" s="12"/>
-      <c r="C297" s="9"/>
-      <c r="D297" s="9"/>
-      <c r="H297" s="9"/>
-      <c r="L297" s="9"/>
+      <c r="B297" s="9"/>
+      <c r="C297" s="12"/>
+      <c r="D297" s="12"/>
+      <c r="H297" s="12"/>
+      <c r="L297" s="12"/>
       <c r="M297" s="1">
         <v>-23</v>
       </c>
@@ -7018,11 +7152,11 @@
     </row>
     <row r="298" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="7"/>
-      <c r="B298" s="12"/>
-      <c r="C298" s="9"/>
-      <c r="D298" s="9"/>
-      <c r="H298" s="9"/>
-      <c r="L298" s="9"/>
+      <c r="B298" s="9"/>
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="H298" s="12"/>
+      <c r="L298" s="12"/>
       <c r="M298" s="1">
         <v>-24</v>
       </c>
@@ -7032,11 +7166,11 @@
     </row>
     <row r="299" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="7"/>
-      <c r="B299" s="12"/>
-      <c r="C299" s="9"/>
-      <c r="D299" s="9"/>
-      <c r="H299" s="9"/>
-      <c r="L299" s="9"/>
+      <c r="B299" s="9"/>
+      <c r="C299" s="12"/>
+      <c r="D299" s="12"/>
+      <c r="H299" s="12"/>
+      <c r="L299" s="12"/>
       <c r="M299" s="1">
         <v>-25</v>
       </c>
@@ -7046,11 +7180,11 @@
     </row>
     <row r="300" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="7"/>
-      <c r="B300" s="12"/>
-      <c r="C300" s="9"/>
-      <c r="D300" s="9"/>
-      <c r="H300" s="9"/>
-      <c r="L300" s="9"/>
+      <c r="B300" s="9"/>
+      <c r="C300" s="12"/>
+      <c r="D300" s="12"/>
+      <c r="H300" s="12"/>
+      <c r="L300" s="12"/>
       <c r="M300" s="1">
         <v>-26</v>
       </c>
@@ -7060,11 +7194,11 @@
     </row>
     <row r="301" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="7"/>
-      <c r="B301" s="12"/>
-      <c r="C301" s="9"/>
-      <c r="D301" s="9"/>
-      <c r="H301" s="9"/>
-      <c r="L301" s="9"/>
+      <c r="B301" s="9"/>
+      <c r="C301" s="12"/>
+      <c r="D301" s="12"/>
+      <c r="H301" s="12"/>
+      <c r="L301" s="12"/>
       <c r="M301" s="1">
         <v>-27</v>
       </c>
@@ -7074,11 +7208,11 @@
     </row>
     <row r="302" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="7"/>
-      <c r="B302" s="12"/>
-      <c r="C302" s="9"/>
-      <c r="D302" s="9"/>
-      <c r="H302" s="9"/>
-      <c r="L302" s="9"/>
+      <c r="B302" s="9"/>
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+      <c r="H302" s="12"/>
+      <c r="L302" s="12"/>
       <c r="M302" s="1">
         <v>-31</v>
       </c>
@@ -7088,11 +7222,11 @@
     </row>
     <row r="303" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="7"/>
-      <c r="B303" s="12"/>
-      <c r="C303" s="9"/>
-      <c r="D303" s="9"/>
-      <c r="H303" s="9"/>
-      <c r="L303" s="9"/>
+      <c r="B303" s="9"/>
+      <c r="C303" s="12"/>
+      <c r="D303" s="12"/>
+      <c r="H303" s="12"/>
+      <c r="L303" s="12"/>
       <c r="M303" s="1">
         <v>-32</v>
       </c>
@@ -7102,18 +7236,12 @@
     </row>
     <row r="304" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A304" s="7"/>
-      <c r="B304" s="12"/>
-      <c r="C304" s="15"/>
-      <c r="D304" s="15"/>
-      <c r="E304" s="14"/>
-      <c r="F304" s="14"/>
-      <c r="G304" s="14"/>
-      <c r="H304" s="15"/>
-      <c r="I304" s="14"/>
-      <c r="J304" s="14"/>
-      <c r="K304" s="14"/>
-      <c r="L304" s="15"/>
-      <c r="M304" s="14">
+      <c r="B304" s="9"/>
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+      <c r="H304" s="12"/>
+      <c r="L304" s="12"/>
+      <c r="M304" s="1">
         <v>-99</v>
       </c>
       <c r="N304" s="4" t="s">
@@ -7122,13 +7250,13 @@
     </row>
     <row r="305" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="7"/>
-      <c r="B305" s="11" t="s">
+      <c r="B305" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="C305" s="8" t="s">
+      <c r="C305" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="D305" s="8">
+      <c r="D305" s="11">
         <v>7</v>
       </c>
       <c r="E305" s="2" t="s">
@@ -7140,13 +7268,13 @@
       <c r="G305" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H305" s="8" t="s">
+      <c r="H305" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
-      <c r="L305" s="8">
+      <c r="L305" s="11">
         <v>19</v>
       </c>
       <c r="M305" s="2">
@@ -7158,24 +7286,21 @@
     </row>
     <row r="306" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="7"/>
-      <c r="B306" s="12"/>
-      <c r="C306" s="15"/>
-      <c r="D306" s="15"/>
-      <c r="E306" s="14" t="s">
+      <c r="B306" s="9"/>
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F306" s="14" t="s">
+      <c r="F306" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G306" s="14" t="s">
+      <c r="G306" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H306" s="15"/>
-      <c r="I306" s="14"/>
-      <c r="J306" s="14"/>
-      <c r="K306" s="14"/>
-      <c r="L306" s="15"/>
-      <c r="M306" s="14">
+      <c r="H306" s="12"/>
+      <c r="L306" s="12"/>
+      <c r="M306" s="1">
         <v>-2</v>
       </c>
       <c r="N306" s="4" t="s">
@@ -7184,24 +7309,21 @@
     </row>
     <row r="307" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="7"/>
-      <c r="B307" s="12"/>
-      <c r="C307" s="15"/>
-      <c r="D307" s="15"/>
-      <c r="E307" s="14" t="s">
+      <c r="B307" s="9"/>
+      <c r="C307" s="12"/>
+      <c r="D307" s="12"/>
+      <c r="E307" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F307" s="14" t="s">
+      <c r="F307" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G307" s="14" t="s">
+      <c r="G307" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H307" s="15"/>
-      <c r="I307" s="14"/>
-      <c r="J307" s="14"/>
-      <c r="K307" s="14"/>
-      <c r="L307" s="15"/>
-      <c r="M307" s="14">
+      <c r="H307" s="12"/>
+      <c r="L307" s="12"/>
+      <c r="M307" s="1">
         <v>-11</v>
       </c>
       <c r="N307" s="4" t="s">
@@ -7210,24 +7332,21 @@
     </row>
     <row r="308" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="7"/>
-      <c r="B308" s="12"/>
-      <c r="C308" s="15"/>
-      <c r="D308" s="15"/>
-      <c r="E308" s="14" t="s">
+      <c r="B308" s="9"/>
+      <c r="C308" s="12"/>
+      <c r="D308" s="12"/>
+      <c r="E308" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F308" s="14" t="s">
+      <c r="F308" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G308" s="14" t="s">
+      <c r="G308" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H308" s="15"/>
-      <c r="I308" s="14"/>
-      <c r="J308" s="14"/>
-      <c r="K308" s="14"/>
-      <c r="L308" s="15"/>
-      <c r="M308" s="14">
+      <c r="H308" s="12"/>
+      <c r="L308" s="12"/>
+      <c r="M308" s="1">
         <v>-12</v>
       </c>
       <c r="N308" s="4" t="s">
@@ -7236,24 +7355,21 @@
     </row>
     <row r="309" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="7"/>
-      <c r="B309" s="12"/>
-      <c r="C309" s="15"/>
-      <c r="D309" s="15"/>
-      <c r="E309" s="14" t="s">
+      <c r="B309" s="9"/>
+      <c r="C309" s="12"/>
+      <c r="D309" s="12"/>
+      <c r="E309" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="F309" s="14" t="s">
+      <c r="F309" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="G309" s="14" t="s">
+      <c r="G309" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H309" s="15"/>
-      <c r="I309" s="14"/>
-      <c r="J309" s="14"/>
-      <c r="K309" s="14"/>
-      <c r="L309" s="15"/>
-      <c r="M309" s="14">
+      <c r="H309" s="12"/>
+      <c r="L309" s="12"/>
+      <c r="M309" s="1">
         <v>-13</v>
       </c>
       <c r="N309" s="4" t="s">
@@ -7262,24 +7378,21 @@
     </row>
     <row r="310" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="7"/>
-      <c r="B310" s="12"/>
-      <c r="C310" s="15"/>
-      <c r="D310" s="15"/>
-      <c r="E310" s="14" t="s">
+      <c r="B310" s="9"/>
+      <c r="C310" s="12"/>
+      <c r="D310" s="12"/>
+      <c r="E310" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="F310" s="14" t="s">
+      <c r="F310" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="G310" s="14" t="s">
+      <c r="G310" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="H310" s="15"/>
-      <c r="I310" s="14"/>
-      <c r="J310" s="14"/>
-      <c r="K310" s="14"/>
-      <c r="L310" s="15"/>
-      <c r="M310" s="14">
+      <c r="H310" s="12"/>
+      <c r="L310" s="12"/>
+      <c r="M310" s="1">
         <v>-14</v>
       </c>
       <c r="N310" s="4" t="s">
@@ -7288,24 +7401,21 @@
     </row>
     <row r="311" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="7"/>
-      <c r="B311" s="12"/>
-      <c r="C311" s="15"/>
-      <c r="D311" s="15"/>
-      <c r="E311" s="14" t="s">
+      <c r="B311" s="9"/>
+      <c r="C311" s="12"/>
+      <c r="D311" s="12"/>
+      <c r="E311" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="F311" s="14" t="s">
+      <c r="F311" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="G311" s="14" t="s">
+      <c r="G311" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="H311" s="15"/>
-      <c r="I311" s="14"/>
-      <c r="J311" s="14"/>
-      <c r="K311" s="14"/>
-      <c r="L311" s="15"/>
-      <c r="M311" s="14">
+      <c r="H311" s="12"/>
+      <c r="L311" s="12"/>
+      <c r="M311" s="1">
         <v>-15</v>
       </c>
       <c r="N311" s="4" t="s">
@@ -7314,15 +7424,12 @@
     </row>
     <row r="312" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="7"/>
-      <c r="B312" s="12"/>
-      <c r="C312" s="15"/>
-      <c r="D312" s="15"/>
-      <c r="H312" s="15"/>
-      <c r="I312" s="14"/>
-      <c r="J312" s="14"/>
-      <c r="K312" s="14"/>
-      <c r="L312" s="15"/>
-      <c r="M312" s="14">
+      <c r="B312" s="9"/>
+      <c r="C312" s="12"/>
+      <c r="D312" s="12"/>
+      <c r="H312" s="12"/>
+      <c r="L312" s="12"/>
+      <c r="M312" s="1">
         <v>-16</v>
       </c>
       <c r="N312" s="4" t="s">
@@ -7331,18 +7438,12 @@
     </row>
     <row r="313" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="7"/>
-      <c r="B313" s="12"/>
-      <c r="C313" s="15"/>
-      <c r="D313" s="15"/>
-      <c r="E313" s="14"/>
-      <c r="F313" s="14"/>
-      <c r="G313" s="14"/>
-      <c r="H313" s="15"/>
-      <c r="I313" s="14"/>
-      <c r="J313" s="14"/>
-      <c r="K313" s="14"/>
-      <c r="L313" s="15"/>
-      <c r="M313" s="14">
+      <c r="B313" s="9"/>
+      <c r="C313" s="12"/>
+      <c r="D313" s="12"/>
+      <c r="H313" s="12"/>
+      <c r="L313" s="12"/>
+      <c r="M313" s="1">
         <v>-21</v>
       </c>
       <c r="N313" s="4" t="s">
@@ -7351,18 +7452,12 @@
     </row>
     <row r="314" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="7"/>
-      <c r="B314" s="12"/>
-      <c r="C314" s="15"/>
-      <c r="D314" s="15"/>
-      <c r="E314" s="14"/>
-      <c r="F314" s="14"/>
-      <c r="G314" s="14"/>
-      <c r="H314" s="15"/>
-      <c r="I314" s="14"/>
-      <c r="J314" s="14"/>
-      <c r="K314" s="14"/>
-      <c r="L314" s="15"/>
-      <c r="M314" s="14">
+      <c r="B314" s="9"/>
+      <c r="C314" s="12"/>
+      <c r="D314" s="12"/>
+      <c r="H314" s="12"/>
+      <c r="L314" s="12"/>
+      <c r="M314" s="1">
         <v>-22</v>
       </c>
       <c r="N314" s="4" t="s">
@@ -7371,18 +7466,12 @@
     </row>
     <row r="315" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="7"/>
-      <c r="B315" s="12"/>
-      <c r="C315" s="15"/>
-      <c r="D315" s="15"/>
-      <c r="E315" s="14"/>
-      <c r="F315" s="14"/>
-      <c r="G315" s="14"/>
-      <c r="H315" s="15"/>
-      <c r="I315" s="14"/>
-      <c r="J315" s="14"/>
-      <c r="K315" s="14"/>
-      <c r="L315" s="15"/>
-      <c r="M315" s="14">
+      <c r="B315" s="9"/>
+      <c r="C315" s="12"/>
+      <c r="D315" s="12"/>
+      <c r="H315" s="12"/>
+      <c r="L315" s="12"/>
+      <c r="M315" s="1">
         <v>-23</v>
       </c>
       <c r="N315" s="4" t="s">
@@ -7391,18 +7480,12 @@
     </row>
     <row r="316" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="7"/>
-      <c r="B316" s="12"/>
-      <c r="C316" s="15"/>
-      <c r="D316" s="15"/>
-      <c r="E316" s="14"/>
-      <c r="F316" s="14"/>
-      <c r="G316" s="14"/>
-      <c r="H316" s="15"/>
-      <c r="I316" s="14"/>
-      <c r="J316" s="14"/>
-      <c r="K316" s="14"/>
-      <c r="L316" s="15"/>
-      <c r="M316" s="14">
+      <c r="B316" s="9"/>
+      <c r="C316" s="12"/>
+      <c r="D316" s="12"/>
+      <c r="H316" s="12"/>
+      <c r="L316" s="12"/>
+      <c r="M316" s="1">
         <v>-24</v>
       </c>
       <c r="N316" s="4" t="s">
@@ -7411,18 +7494,12 @@
     </row>
     <row r="317" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="7"/>
-      <c r="B317" s="12"/>
-      <c r="C317" s="15"/>
-      <c r="D317" s="15"/>
-      <c r="E317" s="14"/>
-      <c r="F317" s="14"/>
-      <c r="G317" s="14"/>
-      <c r="H317" s="15"/>
-      <c r="I317" s="14"/>
-      <c r="J317" s="14"/>
-      <c r="K317" s="14"/>
-      <c r="L317" s="15"/>
-      <c r="M317" s="14">
+      <c r="B317" s="9"/>
+      <c r="C317" s="12"/>
+      <c r="D317" s="12"/>
+      <c r="H317" s="12"/>
+      <c r="L317" s="12"/>
+      <c r="M317" s="1">
         <v>-25</v>
       </c>
       <c r="N317" s="4" t="s">
@@ -7431,18 +7508,12 @@
     </row>
     <row r="318" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="7"/>
-      <c r="B318" s="12"/>
-      <c r="C318" s="15"/>
-      <c r="D318" s="15"/>
-      <c r="E318" s="14"/>
-      <c r="F318" s="14"/>
-      <c r="G318" s="14"/>
-      <c r="H318" s="15"/>
-      <c r="I318" s="14"/>
-      <c r="J318" s="14"/>
-      <c r="K318" s="14"/>
-      <c r="L318" s="15"/>
-      <c r="M318" s="14">
+      <c r="B318" s="9"/>
+      <c r="C318" s="12"/>
+      <c r="D318" s="12"/>
+      <c r="H318" s="12"/>
+      <c r="L318" s="12"/>
+      <c r="M318" s="1">
         <v>-26</v>
       </c>
       <c r="N318" s="4" t="s">
@@ -7451,18 +7522,12 @@
     </row>
     <row r="319" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="7"/>
-      <c r="B319" s="12"/>
-      <c r="C319" s="15"/>
-      <c r="D319" s="15"/>
-      <c r="E319" s="14"/>
-      <c r="F319" s="14"/>
-      <c r="G319" s="14"/>
-      <c r="H319" s="15"/>
-      <c r="I319" s="14"/>
-      <c r="J319" s="14"/>
-      <c r="K319" s="14"/>
-      <c r="L319" s="15"/>
-      <c r="M319" s="14">
+      <c r="B319" s="9"/>
+      <c r="C319" s="12"/>
+      <c r="D319" s="12"/>
+      <c r="H319" s="12"/>
+      <c r="L319" s="12"/>
+      <c r="M319" s="1">
         <v>-27</v>
       </c>
       <c r="N319" s="4" t="s">
@@ -7471,18 +7536,12 @@
     </row>
     <row r="320" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="7"/>
-      <c r="B320" s="12"/>
-      <c r="C320" s="15"/>
-      <c r="D320" s="15"/>
-      <c r="E320" s="14"/>
-      <c r="F320" s="14"/>
-      <c r="G320" s="14"/>
-      <c r="H320" s="15"/>
-      <c r="I320" s="14"/>
-      <c r="J320" s="14"/>
-      <c r="K320" s="14"/>
-      <c r="L320" s="15"/>
-      <c r="M320" s="14">
+      <c r="B320" s="9"/>
+      <c r="C320" s="12"/>
+      <c r="D320" s="12"/>
+      <c r="H320" s="12"/>
+      <c r="L320" s="12"/>
+      <c r="M320" s="1">
         <v>-28</v>
       </c>
       <c r="N320" s="4" t="s">
@@ -7491,18 +7550,12 @@
     </row>
     <row r="321" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="7"/>
-      <c r="B321" s="12"/>
-      <c r="C321" s="15"/>
-      <c r="D321" s="15"/>
-      <c r="E321" s="14"/>
-      <c r="F321" s="14"/>
-      <c r="G321" s="14"/>
-      <c r="H321" s="15"/>
-      <c r="I321" s="14"/>
-      <c r="J321" s="14"/>
-      <c r="K321" s="14"/>
-      <c r="L321" s="15"/>
-      <c r="M321" s="14">
+      <c r="B321" s="9"/>
+      <c r="C321" s="12"/>
+      <c r="D321" s="12"/>
+      <c r="H321" s="12"/>
+      <c r="L321" s="12"/>
+      <c r="M321" s="1">
         <v>-31</v>
       </c>
       <c r="N321" s="4" t="s">
@@ -7511,18 +7564,12 @@
     </row>
     <row r="322" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="7"/>
-      <c r="B322" s="12"/>
-      <c r="C322" s="15"/>
-      <c r="D322" s="15"/>
-      <c r="E322" s="14"/>
-      <c r="F322" s="14"/>
-      <c r="G322" s="14"/>
-      <c r="H322" s="15"/>
-      <c r="I322" s="14"/>
-      <c r="J322" s="14"/>
-      <c r="K322" s="14"/>
-      <c r="L322" s="15"/>
-      <c r="M322" s="14">
+      <c r="B322" s="9"/>
+      <c r="C322" s="12"/>
+      <c r="D322" s="12"/>
+      <c r="H322" s="12"/>
+      <c r="L322" s="12"/>
+      <c r="M322" s="1">
         <v>-32</v>
       </c>
       <c r="N322" s="4" t="s">
@@ -7531,17 +7578,17 @@
     </row>
     <row r="323" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A323" s="7"/>
-      <c r="B323" s="13"/>
-      <c r="C323" s="10"/>
-      <c r="D323" s="10"/>
+      <c r="B323" s="10"/>
+      <c r="C323" s="13"/>
+      <c r="D323" s="13"/>
       <c r="E323" s="5"/>
       <c r="F323" s="5"/>
       <c r="G323" s="5"/>
-      <c r="H323" s="10"/>
+      <c r="H323" s="13"/>
       <c r="I323" s="5"/>
       <c r="J323" s="5"/>
       <c r="K323" s="5"/>
-      <c r="L323" s="10"/>
+      <c r="L323" s="13"/>
       <c r="M323" s="5">
         <v>-99</v>
       </c>
@@ -7551,13 +7598,13 @@
     </row>
     <row r="324" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="7"/>
-      <c r="B324" s="11" t="s">
+      <c r="B324" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="C324" s="8" t="s">
+      <c r="C324" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="D324" s="8">
+      <c r="D324" s="11">
         <v>4</v>
       </c>
       <c r="E324" s="2" t="s">
@@ -7569,13 +7616,13 @@
       <c r="G324" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H324" s="8" t="s">
+      <c r="H324" s="11" t="s">
         <v>59</v>
       </c>
       <c r="I324" s="2"/>
       <c r="J324" s="2"/>
       <c r="K324" s="2"/>
-      <c r="L324" s="8">
+      <c r="L324" s="11">
         <v>19</v>
       </c>
       <c r="M324" s="2">
@@ -7587,24 +7634,21 @@
     </row>
     <row r="325" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="7"/>
-      <c r="B325" s="12"/>
-      <c r="C325" s="15"/>
-      <c r="D325" s="15"/>
-      <c r="E325" s="14" t="s">
+      <c r="B325" s="9"/>
+      <c r="C325" s="12"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F325" s="14" t="s">
+      <c r="F325" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G325" s="14" t="s">
+      <c r="G325" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H325" s="15"/>
-      <c r="I325" s="14"/>
-      <c r="J325" s="14"/>
-      <c r="K325" s="14"/>
-      <c r="L325" s="15"/>
-      <c r="M325" s="14">
+      <c r="H325" s="12"/>
+      <c r="L325" s="12"/>
+      <c r="M325" s="1">
         <v>-2</v>
       </c>
       <c r="N325" s="4" t="s">
@@ -7613,24 +7657,21 @@
     </row>
     <row r="326" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="7"/>
-      <c r="B326" s="12"/>
-      <c r="C326" s="15"/>
-      <c r="D326" s="15"/>
-      <c r="E326" s="14" t="s">
+      <c r="B326" s="9"/>
+      <c r="C326" s="12"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F326" s="14" t="s">
+      <c r="F326" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G326" s="14" t="s">
+      <c r="G326" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H326" s="15"/>
-      <c r="I326" s="14"/>
-      <c r="J326" s="14"/>
-      <c r="K326" s="14"/>
-      <c r="L326" s="15"/>
-      <c r="M326" s="14">
+      <c r="H326" s="12"/>
+      <c r="L326" s="12"/>
+      <c r="M326" s="1">
         <v>-11</v>
       </c>
       <c r="N326" s="4" t="s">
@@ -7639,24 +7680,21 @@
     </row>
     <row r="327" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="7"/>
-      <c r="B327" s="12"/>
-      <c r="C327" s="15"/>
-      <c r="D327" s="15"/>
-      <c r="E327" s="14" t="s">
+      <c r="B327" s="9"/>
+      <c r="C327" s="12"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F327" s="14" t="s">
+      <c r="F327" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G327" s="14" t="s">
+      <c r="G327" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H327" s="15"/>
-      <c r="I327" s="14"/>
-      <c r="J327" s="14"/>
-      <c r="K327" s="14"/>
-      <c r="L327" s="15"/>
-      <c r="M327" s="14">
+      <c r="H327" s="12"/>
+      <c r="L327" s="12"/>
+      <c r="M327" s="1">
         <v>-12</v>
       </c>
       <c r="N327" s="4" t="s">
@@ -7665,15 +7703,12 @@
     </row>
     <row r="328" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="7"/>
-      <c r="B328" s="12"/>
-      <c r="C328" s="15"/>
-      <c r="D328" s="15"/>
-      <c r="H328" s="15"/>
-      <c r="I328" s="14"/>
-      <c r="J328" s="14"/>
-      <c r="K328" s="14"/>
-      <c r="L328" s="15"/>
-      <c r="M328" s="14">
+      <c r="B328" s="9"/>
+      <c r="C328" s="12"/>
+      <c r="D328" s="12"/>
+      <c r="H328" s="12"/>
+      <c r="L328" s="12"/>
+      <c r="M328" s="1">
         <v>-13</v>
       </c>
       <c r="N328" s="4" t="s">
@@ -7682,18 +7717,12 @@
     </row>
     <row r="329" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="7"/>
-      <c r="B329" s="12"/>
-      <c r="C329" s="15"/>
-      <c r="D329" s="15"/>
-      <c r="E329" s="14"/>
-      <c r="F329" s="14"/>
-      <c r="G329" s="14"/>
-      <c r="H329" s="15"/>
-      <c r="I329" s="14"/>
-      <c r="J329" s="14"/>
-      <c r="K329" s="14"/>
-      <c r="L329" s="15"/>
-      <c r="M329" s="14">
+      <c r="B329" s="9"/>
+      <c r="C329" s="12"/>
+      <c r="D329" s="12"/>
+      <c r="H329" s="12"/>
+      <c r="L329" s="12"/>
+      <c r="M329" s="1">
         <v>-14</v>
       </c>
       <c r="N329" s="4" t="s">
@@ -7702,18 +7731,12 @@
     </row>
     <row r="330" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="7"/>
-      <c r="B330" s="12"/>
-      <c r="C330" s="15"/>
-      <c r="D330" s="15"/>
-      <c r="E330" s="14"/>
-      <c r="F330" s="14"/>
-      <c r="G330" s="14"/>
-      <c r="H330" s="15"/>
-      <c r="I330" s="14"/>
-      <c r="J330" s="14"/>
-      <c r="K330" s="14"/>
-      <c r="L330" s="15"/>
-      <c r="M330" s="14">
+      <c r="B330" s="9"/>
+      <c r="C330" s="12"/>
+      <c r="D330" s="12"/>
+      <c r="H330" s="12"/>
+      <c r="L330" s="12"/>
+      <c r="M330" s="1">
         <v>-15</v>
       </c>
       <c r="N330" s="4" t="s">
@@ -7722,18 +7745,12 @@
     </row>
     <row r="331" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="7"/>
-      <c r="B331" s="12"/>
-      <c r="C331" s="15"/>
-      <c r="D331" s="15"/>
-      <c r="E331" s="14"/>
-      <c r="F331" s="14"/>
-      <c r="G331" s="14"/>
-      <c r="H331" s="15"/>
-      <c r="I331" s="14"/>
-      <c r="J331" s="14"/>
-      <c r="K331" s="14"/>
-      <c r="L331" s="15"/>
-      <c r="M331" s="14">
+      <c r="B331" s="9"/>
+      <c r="C331" s="12"/>
+      <c r="D331" s="12"/>
+      <c r="H331" s="12"/>
+      <c r="L331" s="12"/>
+      <c r="M331" s="1">
         <v>-16</v>
       </c>
       <c r="N331" s="4" t="s">
@@ -7742,18 +7759,12 @@
     </row>
     <row r="332" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="7"/>
-      <c r="B332" s="12"/>
-      <c r="C332" s="15"/>
-      <c r="D332" s="15"/>
-      <c r="E332" s="14"/>
-      <c r="F332" s="14"/>
-      <c r="G332" s="14"/>
-      <c r="H332" s="15"/>
-      <c r="I332" s="14"/>
-      <c r="J332" s="14"/>
-      <c r="K332" s="14"/>
-      <c r="L332" s="15"/>
-      <c r="M332" s="14">
+      <c r="B332" s="9"/>
+      <c r="C332" s="12"/>
+      <c r="D332" s="12"/>
+      <c r="H332" s="12"/>
+      <c r="L332" s="12"/>
+      <c r="M332" s="1">
         <v>-21</v>
       </c>
       <c r="N332" s="4" t="s">
@@ -7762,18 +7773,12 @@
     </row>
     <row r="333" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="7"/>
-      <c r="B333" s="12"/>
-      <c r="C333" s="15"/>
-      <c r="D333" s="15"/>
-      <c r="E333" s="14"/>
-      <c r="F333" s="14"/>
-      <c r="G333" s="14"/>
-      <c r="H333" s="15"/>
-      <c r="I333" s="14"/>
-      <c r="J333" s="14"/>
-      <c r="K333" s="14"/>
-      <c r="L333" s="15"/>
-      <c r="M333" s="14">
+      <c r="B333" s="9"/>
+      <c r="C333" s="12"/>
+      <c r="D333" s="12"/>
+      <c r="H333" s="12"/>
+      <c r="L333" s="12"/>
+      <c r="M333" s="1">
         <v>-22</v>
       </c>
       <c r="N333" s="4" t="s">
@@ -7782,18 +7787,12 @@
     </row>
     <row r="334" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="7"/>
-      <c r="B334" s="12"/>
-      <c r="C334" s="15"/>
-      <c r="D334" s="15"/>
-      <c r="E334" s="14"/>
-      <c r="F334" s="14"/>
-      <c r="G334" s="14"/>
-      <c r="H334" s="15"/>
-      <c r="I334" s="14"/>
-      <c r="J334" s="14"/>
-      <c r="K334" s="14"/>
-      <c r="L334" s="15"/>
-      <c r="M334" s="14">
+      <c r="B334" s="9"/>
+      <c r="C334" s="12"/>
+      <c r="D334" s="12"/>
+      <c r="H334" s="12"/>
+      <c r="L334" s="12"/>
+      <c r="M334" s="1">
         <v>-23</v>
       </c>
       <c r="N334" s="4" t="s">
@@ -7802,18 +7801,12 @@
     </row>
     <row r="335" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="7"/>
-      <c r="B335" s="12"/>
-      <c r="C335" s="15"/>
-      <c r="D335" s="15"/>
-      <c r="E335" s="14"/>
-      <c r="F335" s="14"/>
-      <c r="G335" s="14"/>
-      <c r="H335" s="15"/>
-      <c r="I335" s="14"/>
-      <c r="J335" s="14"/>
-      <c r="K335" s="14"/>
-      <c r="L335" s="15"/>
-      <c r="M335" s="14">
+      <c r="B335" s="9"/>
+      <c r="C335" s="12"/>
+      <c r="D335" s="12"/>
+      <c r="H335" s="12"/>
+      <c r="L335" s="12"/>
+      <c r="M335" s="1">
         <v>-24</v>
       </c>
       <c r="N335" s="4" t="s">
@@ -7822,18 +7815,12 @@
     </row>
     <row r="336" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="7"/>
-      <c r="B336" s="12"/>
-      <c r="C336" s="15"/>
-      <c r="D336" s="15"/>
-      <c r="E336" s="14"/>
-      <c r="F336" s="14"/>
-      <c r="G336" s="14"/>
-      <c r="H336" s="15"/>
-      <c r="I336" s="14"/>
-      <c r="J336" s="14"/>
-      <c r="K336" s="14"/>
-      <c r="L336" s="15"/>
-      <c r="M336" s="14">
+      <c r="B336" s="9"/>
+      <c r="C336" s="12"/>
+      <c r="D336" s="12"/>
+      <c r="H336" s="12"/>
+      <c r="L336" s="12"/>
+      <c r="M336" s="1">
         <v>-25</v>
       </c>
       <c r="N336" s="4" t="s">
@@ -7842,18 +7829,12 @@
     </row>
     <row r="337" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="7"/>
-      <c r="B337" s="12"/>
-      <c r="C337" s="15"/>
-      <c r="D337" s="15"/>
-      <c r="E337" s="14"/>
-      <c r="F337" s="14"/>
-      <c r="G337" s="14"/>
-      <c r="H337" s="15"/>
-      <c r="I337" s="14"/>
-      <c r="J337" s="14"/>
-      <c r="K337" s="14"/>
-      <c r="L337" s="15"/>
-      <c r="M337" s="14">
+      <c r="B337" s="9"/>
+      <c r="C337" s="12"/>
+      <c r="D337" s="12"/>
+      <c r="H337" s="12"/>
+      <c r="L337" s="12"/>
+      <c r="M337" s="1">
         <v>-26</v>
       </c>
       <c r="N337" s="4" t="s">
@@ -7862,18 +7843,12 @@
     </row>
     <row r="338" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="7"/>
-      <c r="B338" s="12"/>
-      <c r="C338" s="15"/>
-      <c r="D338" s="15"/>
-      <c r="E338" s="14"/>
-      <c r="F338" s="14"/>
-      <c r="G338" s="14"/>
-      <c r="H338" s="15"/>
-      <c r="I338" s="14"/>
-      <c r="J338" s="14"/>
-      <c r="K338" s="14"/>
-      <c r="L338" s="15"/>
-      <c r="M338" s="14">
+      <c r="B338" s="9"/>
+      <c r="C338" s="12"/>
+      <c r="D338" s="12"/>
+      <c r="H338" s="12"/>
+      <c r="L338" s="12"/>
+      <c r="M338" s="1">
         <v>-27</v>
       </c>
       <c r="N338" s="4" t="s">
@@ -7882,18 +7857,12 @@
     </row>
     <row r="339" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="7"/>
-      <c r="B339" s="12"/>
-      <c r="C339" s="15"/>
-      <c r="D339" s="15"/>
-      <c r="E339" s="14"/>
-      <c r="F339" s="14"/>
-      <c r="G339" s="14"/>
-      <c r="H339" s="15"/>
-      <c r="I339" s="14"/>
-      <c r="J339" s="14"/>
-      <c r="K339" s="14"/>
-      <c r="L339" s="15"/>
-      <c r="M339" s="14">
+      <c r="B339" s="9"/>
+      <c r="C339" s="12"/>
+      <c r="D339" s="12"/>
+      <c r="H339" s="12"/>
+      <c r="L339" s="12"/>
+      <c r="M339" s="1">
         <v>-28</v>
       </c>
       <c r="N339" s="4" t="s">
@@ -7902,18 +7871,12 @@
     </row>
     <row r="340" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="7"/>
-      <c r="B340" s="12"/>
-      <c r="C340" s="15"/>
-      <c r="D340" s="15"/>
-      <c r="E340" s="14"/>
-      <c r="F340" s="14"/>
-      <c r="G340" s="14"/>
-      <c r="H340" s="15"/>
-      <c r="I340" s="14"/>
-      <c r="J340" s="14"/>
-      <c r="K340" s="14"/>
-      <c r="L340" s="15"/>
-      <c r="M340" s="14">
+      <c r="B340" s="9"/>
+      <c r="C340" s="12"/>
+      <c r="D340" s="12"/>
+      <c r="H340" s="12"/>
+      <c r="L340" s="12"/>
+      <c r="M340" s="1">
         <v>-31</v>
       </c>
       <c r="N340" s="4" t="s">
@@ -7922,18 +7885,12 @@
     </row>
     <row r="341" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="7"/>
-      <c r="B341" s="12"/>
-      <c r="C341" s="15"/>
-      <c r="D341" s="15"/>
-      <c r="E341" s="14"/>
-      <c r="F341" s="14"/>
-      <c r="G341" s="14"/>
-      <c r="H341" s="15"/>
-      <c r="I341" s="14"/>
-      <c r="J341" s="14"/>
-      <c r="K341" s="14"/>
-      <c r="L341" s="15"/>
-      <c r="M341" s="14">
+      <c r="B341" s="9"/>
+      <c r="C341" s="12"/>
+      <c r="D341" s="12"/>
+      <c r="H341" s="12"/>
+      <c r="L341" s="12"/>
+      <c r="M341" s="1">
         <v>-32</v>
       </c>
       <c r="N341" s="4" t="s">
@@ -7942,18 +7899,12 @@
     </row>
     <row r="342" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A342" s="7"/>
-      <c r="B342" s="12"/>
-      <c r="C342" s="15"/>
-      <c r="D342" s="15"/>
-      <c r="E342" s="14"/>
-      <c r="F342" s="14"/>
-      <c r="G342" s="14"/>
-      <c r="H342" s="15"/>
-      <c r="I342" s="14"/>
-      <c r="J342" s="14"/>
-      <c r="K342" s="14"/>
-      <c r="L342" s="15"/>
-      <c r="M342" s="14">
+      <c r="B342" s="9"/>
+      <c r="C342" s="12"/>
+      <c r="D342" s="12"/>
+      <c r="H342" s="12"/>
+      <c r="L342" s="12"/>
+      <c r="M342" s="1">
         <v>-99</v>
       </c>
       <c r="N342" s="4" t="s">
@@ -7962,13 +7913,13 @@
     </row>
     <row r="343" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="7"/>
-      <c r="B343" s="11" t="s">
+      <c r="B343" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C343" s="8" t="s">
+      <c r="C343" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="D343" s="8">
+      <c r="D343" s="11">
         <v>4</v>
       </c>
       <c r="E343" s="2" t="s">
@@ -7980,7 +7931,7 @@
       <c r="G343" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H343" s="8">
+      <c r="H343" s="11">
         <v>1</v>
       </c>
       <c r="I343" s="2" t="s">
@@ -7992,7 +7943,7 @@
       <c r="K343" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="L343" s="8">
+      <c r="L343" s="11">
         <v>13</v>
       </c>
       <c r="M343" s="2">
@@ -8004,24 +7955,21 @@
     </row>
     <row r="344" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="7"/>
-      <c r="B344" s="12"/>
-      <c r="C344" s="15"/>
-      <c r="D344" s="15"/>
-      <c r="E344" s="14" t="s">
+      <c r="B344" s="9"/>
+      <c r="C344" s="12"/>
+      <c r="D344" s="12"/>
+      <c r="E344" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="F344" s="14" t="s">
+      <c r="F344" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="G344" s="14" t="s">
+      <c r="G344" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="H344" s="15"/>
-      <c r="I344" s="14"/>
-      <c r="J344" s="14"/>
-      <c r="K344" s="14"/>
-      <c r="L344" s="15"/>
-      <c r="M344" s="14">
+      <c r="H344" s="12"/>
+      <c r="L344" s="12"/>
+      <c r="M344" s="1">
         <v>-2</v>
       </c>
       <c r="N344" s="4" t="s">
@@ -8030,24 +7978,21 @@
     </row>
     <row r="345" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="7"/>
-      <c r="B345" s="12"/>
-      <c r="C345" s="15"/>
-      <c r="D345" s="15"/>
-      <c r="E345" s="14" t="s">
+      <c r="B345" s="9"/>
+      <c r="C345" s="12"/>
+      <c r="D345" s="12"/>
+      <c r="E345" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F345" s="14" t="s">
+      <c r="F345" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G345" s="14" t="s">
+      <c r="G345" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="H345" s="15"/>
-      <c r="I345" s="14"/>
-      <c r="J345" s="14"/>
-      <c r="K345" s="14"/>
-      <c r="L345" s="15"/>
-      <c r="M345" s="14">
+      <c r="H345" s="12"/>
+      <c r="L345" s="12"/>
+      <c r="M345" s="1">
         <v>-11</v>
       </c>
       <c r="N345" s="4" t="s">
@@ -8056,24 +8001,21 @@
     </row>
     <row r="346" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="7"/>
-      <c r="B346" s="12"/>
-      <c r="C346" s="15"/>
-      <c r="D346" s="15"/>
-      <c r="E346" s="14" t="s">
+      <c r="B346" s="9"/>
+      <c r="C346" s="12"/>
+      <c r="D346" s="12"/>
+      <c r="E346" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F346" s="14" t="s">
+      <c r="F346" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G346" s="14" t="s">
+      <c r="G346" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="H346" s="15"/>
-      <c r="I346" s="14"/>
-      <c r="J346" s="14"/>
-      <c r="K346" s="14"/>
-      <c r="L346" s="15"/>
-      <c r="M346" s="14">
+      <c r="H346" s="12"/>
+      <c r="L346" s="12"/>
+      <c r="M346" s="1">
         <v>-12</v>
       </c>
       <c r="N346" s="4" t="s">
@@ -8082,15 +8024,12 @@
     </row>
     <row r="347" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="7"/>
-      <c r="B347" s="12"/>
-      <c r="C347" s="15"/>
-      <c r="D347" s="15"/>
-      <c r="H347" s="15"/>
-      <c r="I347" s="14"/>
-      <c r="J347" s="14"/>
-      <c r="K347" s="14"/>
-      <c r="L347" s="15"/>
-      <c r="M347" s="14">
+      <c r="B347" s="9"/>
+      <c r="C347" s="12"/>
+      <c r="D347" s="12"/>
+      <c r="H347" s="12"/>
+      <c r="L347" s="12"/>
+      <c r="M347" s="1">
         <v>-13</v>
       </c>
       <c r="N347" s="4" t="s">
@@ -8099,18 +8038,12 @@
     </row>
     <row r="348" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="7"/>
-      <c r="B348" s="12"/>
-      <c r="C348" s="15"/>
-      <c r="D348" s="15"/>
-      <c r="E348" s="14"/>
-      <c r="F348" s="14"/>
-      <c r="G348" s="14"/>
-      <c r="H348" s="15"/>
-      <c r="I348" s="14"/>
-      <c r="J348" s="14"/>
-      <c r="K348" s="14"/>
-      <c r="L348" s="15"/>
-      <c r="M348" s="14">
+      <c r="B348" s="9"/>
+      <c r="C348" s="12"/>
+      <c r="D348" s="12"/>
+      <c r="H348" s="12"/>
+      <c r="L348" s="12"/>
+      <c r="M348" s="1">
         <v>-14</v>
       </c>
       <c r="N348" s="4" t="s">
@@ -8119,18 +8052,12 @@
     </row>
     <row r="349" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="7"/>
-      <c r="B349" s="12"/>
-      <c r="C349" s="15"/>
-      <c r="D349" s="15"/>
-      <c r="E349" s="14"/>
-      <c r="F349" s="14"/>
-      <c r="G349" s="14"/>
-      <c r="H349" s="15"/>
-      <c r="I349" s="14"/>
-      <c r="J349" s="14"/>
-      <c r="K349" s="14"/>
-      <c r="L349" s="15"/>
-      <c r="M349" s="14">
+      <c r="B349" s="9"/>
+      <c r="C349" s="12"/>
+      <c r="D349" s="12"/>
+      <c r="H349" s="12"/>
+      <c r="L349" s="12"/>
+      <c r="M349" s="1">
         <v>-21</v>
       </c>
       <c r="N349" s="4" t="s">
@@ -8139,18 +8066,12 @@
     </row>
     <row r="350" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="7"/>
-      <c r="B350" s="12"/>
-      <c r="C350" s="15"/>
-      <c r="D350" s="15"/>
-      <c r="E350" s="14"/>
-      <c r="F350" s="14"/>
-      <c r="G350" s="14"/>
-      <c r="H350" s="15"/>
-      <c r="I350" s="14"/>
-      <c r="J350" s="14"/>
-      <c r="K350" s="14"/>
-      <c r="L350" s="15"/>
-      <c r="M350" s="14">
+      <c r="B350" s="9"/>
+      <c r="C350" s="12"/>
+      <c r="D350" s="12"/>
+      <c r="H350" s="12"/>
+      <c r="L350" s="12"/>
+      <c r="M350" s="1">
         <v>-22</v>
       </c>
       <c r="N350" s="4" t="s">
@@ -8159,18 +8080,12 @@
     </row>
     <row r="351" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="7"/>
-      <c r="B351" s="12"/>
-      <c r="C351" s="15"/>
-      <c r="D351" s="15"/>
-      <c r="E351" s="14"/>
-      <c r="F351" s="14"/>
-      <c r="G351" s="14"/>
-      <c r="H351" s="15"/>
-      <c r="I351" s="14"/>
-      <c r="J351" s="14"/>
-      <c r="K351" s="14"/>
-      <c r="L351" s="15"/>
-      <c r="M351" s="14">
+      <c r="B351" s="9"/>
+      <c r="C351" s="12"/>
+      <c r="D351" s="12"/>
+      <c r="H351" s="12"/>
+      <c r="L351" s="12"/>
+      <c r="M351" s="1">
         <v>-23</v>
       </c>
       <c r="N351" s="4" t="s">
@@ -8179,18 +8094,12 @@
     </row>
     <row r="352" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="7"/>
-      <c r="B352" s="12"/>
-      <c r="C352" s="15"/>
-      <c r="D352" s="15"/>
-      <c r="E352" s="14"/>
-      <c r="F352" s="14"/>
-      <c r="G352" s="14"/>
-      <c r="H352" s="15"/>
-      <c r="I352" s="14"/>
-      <c r="J352" s="14"/>
-      <c r="K352" s="14"/>
-      <c r="L352" s="15"/>
-      <c r="M352" s="14">
+      <c r="B352" s="9"/>
+      <c r="C352" s="12"/>
+      <c r="D352" s="12"/>
+      <c r="H352" s="12"/>
+      <c r="L352" s="12"/>
+      <c r="M352" s="1">
         <v>-24</v>
       </c>
       <c r="N352" s="4" t="s">
@@ -8199,18 +8108,12 @@
     </row>
     <row r="353" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="7"/>
-      <c r="B353" s="12"/>
-      <c r="C353" s="15"/>
-      <c r="D353" s="15"/>
-      <c r="E353" s="14"/>
-      <c r="F353" s="14"/>
-      <c r="G353" s="14"/>
-      <c r="H353" s="15"/>
-      <c r="I353" s="14"/>
-      <c r="J353" s="14"/>
-      <c r="K353" s="14"/>
-      <c r="L353" s="15"/>
-      <c r="M353" s="14">
+      <c r="B353" s="9"/>
+      <c r="C353" s="12"/>
+      <c r="D353" s="12"/>
+      <c r="H353" s="12"/>
+      <c r="L353" s="12"/>
+      <c r="M353" s="1">
         <v>-31</v>
       </c>
       <c r="N353" s="4" t="s">
@@ -8219,18 +8122,12 @@
     </row>
     <row r="354" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="7"/>
-      <c r="B354" s="12"/>
-      <c r="C354" s="15"/>
-      <c r="D354" s="15"/>
-      <c r="E354" s="14"/>
-      <c r="F354" s="14"/>
-      <c r="G354" s="14"/>
-      <c r="H354" s="15"/>
-      <c r="I354" s="14"/>
-      <c r="J354" s="14"/>
-      <c r="K354" s="14"/>
-      <c r="L354" s="15"/>
-      <c r="M354" s="14">
+      <c r="B354" s="9"/>
+      <c r="C354" s="12"/>
+      <c r="D354" s="12"/>
+      <c r="H354" s="12"/>
+      <c r="L354" s="12"/>
+      <c r="M354" s="1">
         <v>-32</v>
       </c>
       <c r="N354" s="4" t="s">
@@ -8239,17 +8136,17 @@
     </row>
     <row r="355" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A355" s="7"/>
-      <c r="B355" s="13"/>
-      <c r="C355" s="10"/>
-      <c r="D355" s="10"/>
+      <c r="B355" s="10"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="13"/>
       <c r="E355" s="5"/>
       <c r="F355" s="5"/>
       <c r="G355" s="5"/>
-      <c r="H355" s="10"/>
+      <c r="H355" s="13"/>
       <c r="I355" s="5"/>
       <c r="J355" s="5"/>
       <c r="K355" s="5"/>
-      <c r="L355" s="10"/>
+      <c r="L355" s="13"/>
       <c r="M355" s="5">
         <v>-99</v>
       </c>
@@ -8259,13 +8156,13 @@
     </row>
     <row r="356" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="7"/>
-      <c r="B356" s="11" t="s">
+      <c r="B356" s="8" t="s">
         <v>241</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="D356" s="8">
+      <c r="D356" s="11">
         <v>2</v>
       </c>
       <c r="E356" s="2" t="s">
@@ -8277,7 +8174,7 @@
       <c r="G356" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H356" s="8">
+      <c r="H356" s="11">
         <v>4</v>
       </c>
       <c r="I356" s="2" t="s">
@@ -8289,7 +8186,7 @@
       <c r="K356" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="L356" s="8">
+      <c r="L356" s="11">
         <v>6</v>
       </c>
       <c r="M356" s="2">
@@ -8301,30 +8198,29 @@
     </row>
     <row r="357" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="7"/>
-      <c r="B357" s="12"/>
-      <c r="C357" s="14"/>
-      <c r="D357" s="15"/>
-      <c r="E357" s="14" t="s">
+      <c r="B357" s="9"/>
+      <c r="D357" s="12"/>
+      <c r="E357" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="F357" s="14" t="s">
+      <c r="F357" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="G357" s="14" t="s">
+      <c r="G357" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="H357" s="15"/>
-      <c r="I357" s="14" t="s">
+      <c r="H357" s="12"/>
+      <c r="I357" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="J357" s="14" t="s">
+      <c r="J357" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="K357" s="14" t="s">
+      <c r="K357" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="L357" s="15"/>
-      <c r="M357" s="14">
+      <c r="L357" s="12"/>
+      <c r="M357" s="1">
         <v>-11</v>
       </c>
       <c r="N357" s="4" t="s">
@@ -8333,24 +8229,20 @@
     </row>
     <row r="358" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="7"/>
-      <c r="B358" s="12"/>
-      <c r="C358" s="14"/>
-      <c r="D358" s="15"/>
-      <c r="E358" s="14"/>
-      <c r="F358" s="14"/>
-      <c r="G358" s="14"/>
-      <c r="H358" s="15"/>
-      <c r="I358" s="14" t="s">
+      <c r="B358" s="9"/>
+      <c r="D358" s="12"/>
+      <c r="H358" s="12"/>
+      <c r="I358" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="J358" s="14" t="s">
+      <c r="J358" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="K358" s="14" t="s">
+      <c r="K358" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="L358" s="15"/>
-      <c r="M358" s="14">
+      <c r="L358" s="12"/>
+      <c r="M358" s="1">
         <v>-21</v>
       </c>
       <c r="N358" s="4" t="s">
@@ -8359,24 +8251,20 @@
     </row>
     <row r="359" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="7"/>
-      <c r="B359" s="12"/>
-      <c r="C359" s="14"/>
-      <c r="D359" s="15"/>
-      <c r="E359" s="14"/>
-      <c r="F359" s="14"/>
-      <c r="G359" s="14"/>
-      <c r="H359" s="15"/>
-      <c r="I359" s="14" t="s">
+      <c r="B359" s="9"/>
+      <c r="D359" s="12"/>
+      <c r="H359" s="12"/>
+      <c r="I359" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="J359" s="14" t="s">
+      <c r="J359" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="K359" s="14" t="s">
+      <c r="K359" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="L359" s="15"/>
-      <c r="M359" s="14">
+      <c r="L359" s="12"/>
+      <c r="M359" s="1">
         <v>-31</v>
       </c>
       <c r="N359" s="4" t="s">
@@ -8385,18 +8273,11 @@
     </row>
     <row r="360" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="7"/>
-      <c r="B360" s="12"/>
-      <c r="C360" s="14"/>
-      <c r="D360" s="15"/>
-      <c r="E360" s="14"/>
-      <c r="F360" s="14"/>
-      <c r="G360" s="14"/>
-      <c r="H360" s="15"/>
-      <c r="I360" s="14"/>
-      <c r="J360" s="14"/>
-      <c r="K360" s="14"/>
-      <c r="L360" s="15"/>
-      <c r="M360" s="14">
+      <c r="B360" s="9"/>
+      <c r="D360" s="12"/>
+      <c r="H360" s="12"/>
+      <c r="L360" s="12"/>
+      <c r="M360" s="1">
         <v>-32</v>
       </c>
       <c r="N360" s="4" t="s">
@@ -8405,17 +8286,17 @@
     </row>
     <row r="361" spans="1:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A361" s="7"/>
-      <c r="B361" s="13"/>
+      <c r="B361" s="10"/>
       <c r="C361" s="5"/>
-      <c r="D361" s="10"/>
+      <c r="D361" s="13"/>
       <c r="E361" s="5"/>
       <c r="F361" s="5"/>
       <c r="G361" s="5"/>
-      <c r="H361" s="10"/>
+      <c r="H361" s="13"/>
       <c r="I361" s="5"/>
       <c r="J361" s="5"/>
       <c r="K361" s="5"/>
-      <c r="L361" s="10"/>
+      <c r="L361" s="13"/>
       <c r="M361" s="5">
         <v>-99</v>
       </c>
@@ -8427,93 +8308,1317 @@
       <c r="A362" s="1" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="363" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="364" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="365" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="366" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="367" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="368" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="369" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="370" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="371" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="372" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="373" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="374" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="375" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="376" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="377" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="378" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="379" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="380" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="381" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="382" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="383" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="384" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="385" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="386" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="387" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="388" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="389" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="390" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="391" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="392" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="393" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="394" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="395" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="396" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="397" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="398" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="399" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="400" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="401" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="402" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="403" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="404" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="405" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="406" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="407" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="408" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="409" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="410" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="411" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="412" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="413" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="414" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="415" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="416" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="417" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="418" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="419" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="420" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="421" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="422" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="423" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="424" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="425" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="426" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="427" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="428" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="429" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="430" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="431" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="432" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="433" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="434" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="435" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="436" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="437" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="438" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="439" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="440" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="441" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="442" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="443" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="444" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="445" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="446" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="447" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="448" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="B362" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C362" s="11" t="s">
+        <v>249</v>
+      </c>
+      <c r="D362" s="11">
+        <v>6</v>
+      </c>
+      <c r="E362" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G362" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H362" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I362" s="2"/>
+      <c r="J362" s="2"/>
+      <c r="K362" s="2"/>
+      <c r="L362" s="11">
+        <v>18</v>
+      </c>
+      <c r="M362" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N362" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="9"/>
+      <c r="C363" s="12"/>
+      <c r="D363" s="12"/>
+      <c r="E363" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F363" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G363" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H363" s="12"/>
+      <c r="L363" s="12"/>
+      <c r="M363" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N363" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="9"/>
+      <c r="C364" s="12"/>
+      <c r="D364" s="12"/>
+      <c r="E364" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F364" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H364" s="12"/>
+      <c r="L364" s="12"/>
+      <c r="M364" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N364" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="9"/>
+      <c r="C365" s="12"/>
+      <c r="D365" s="12"/>
+      <c r="E365" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F365" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G365" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H365" s="12"/>
+      <c r="L365" s="12"/>
+      <c r="M365" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N365" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="9"/>
+      <c r="C366" s="12"/>
+      <c r="D366" s="12"/>
+      <c r="E366" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F366" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G366" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="H366" s="12"/>
+      <c r="L366" s="12"/>
+      <c r="M366" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N366" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="9"/>
+      <c r="C367" s="12"/>
+      <c r="D367" s="12"/>
+      <c r="E367" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F367" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G367" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H367" s="12"/>
+      <c r="L367" s="12"/>
+      <c r="M367" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N367" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="9"/>
+      <c r="C368" s="12"/>
+      <c r="D368" s="12"/>
+      <c r="H368" s="12"/>
+      <c r="L368" s="12"/>
+      <c r="M368" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N368" s="4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="369" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="9"/>
+      <c r="C369" s="12"/>
+      <c r="D369" s="12"/>
+      <c r="H369" s="12"/>
+      <c r="L369" s="12"/>
+      <c r="M369" s="1">
+        <v>-16</v>
+      </c>
+      <c r="N369" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="370" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="9"/>
+      <c r="C370" s="12"/>
+      <c r="D370" s="12"/>
+      <c r="H370" s="12"/>
+      <c r="L370" s="12"/>
+      <c r="M370" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N370" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="371" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="9"/>
+      <c r="C371" s="12"/>
+      <c r="D371" s="12"/>
+      <c r="H371" s="12"/>
+      <c r="L371" s="12"/>
+      <c r="M371" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N371" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="372" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="9"/>
+      <c r="C372" s="12"/>
+      <c r="D372" s="12"/>
+      <c r="H372" s="12"/>
+      <c r="L372" s="12"/>
+      <c r="M372" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N372" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="373" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="9"/>
+      <c r="C373" s="12"/>
+      <c r="D373" s="12"/>
+      <c r="H373" s="12"/>
+      <c r="L373" s="12"/>
+      <c r="M373" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N373" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="374" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="9"/>
+      <c r="C374" s="12"/>
+      <c r="D374" s="12"/>
+      <c r="H374" s="12"/>
+      <c r="L374" s="12"/>
+      <c r="M374" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N374" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="375" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="9"/>
+      <c r="C375" s="12"/>
+      <c r="D375" s="12"/>
+      <c r="H375" s="12"/>
+      <c r="L375" s="12"/>
+      <c r="M375" s="1">
+        <v>-26</v>
+      </c>
+      <c r="N375" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="376" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="9"/>
+      <c r="C376" s="12"/>
+      <c r="D376" s="12"/>
+      <c r="H376" s="12"/>
+      <c r="L376" s="12"/>
+      <c r="M376" s="1">
+        <v>-27</v>
+      </c>
+      <c r="N376" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="377" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="9"/>
+      <c r="C377" s="12"/>
+      <c r="D377" s="12"/>
+      <c r="H377" s="12"/>
+      <c r="L377" s="12"/>
+      <c r="M377" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N377" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="378" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="9"/>
+      <c r="C378" s="12"/>
+      <c r="D378" s="12"/>
+      <c r="H378" s="12"/>
+      <c r="L378" s="12"/>
+      <c r="M378" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N378" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="379" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B379" s="9"/>
+      <c r="C379" s="12"/>
+      <c r="D379" s="12"/>
+      <c r="H379" s="12"/>
+      <c r="L379" s="12"/>
+      <c r="M379" s="1">
+        <v>-99</v>
+      </c>
+      <c r="N379" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="380" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C380" s="11" t="s">
+        <v>267</v>
+      </c>
+      <c r="D380" s="11">
+        <v>7</v>
+      </c>
+      <c r="E380" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F380" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G380" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H380" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I380" s="2"/>
+      <c r="J380" s="2"/>
+      <c r="K380" s="2"/>
+      <c r="L380" s="11">
+        <v>19</v>
+      </c>
+      <c r="M380" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N380" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="381" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="9"/>
+      <c r="C381" s="12"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F381" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G381" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H381" s="12"/>
+      <c r="L381" s="12"/>
+      <c r="M381" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N381" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="382" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="9"/>
+      <c r="C382" s="12"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F382" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G382" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H382" s="12"/>
+      <c r="L382" s="12"/>
+      <c r="M382" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N382" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="383" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="9"/>
+      <c r="C383" s="12"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F383" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G383" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H383" s="12"/>
+      <c r="L383" s="12"/>
+      <c r="M383" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N383" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="384" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="9"/>
+      <c r="C384" s="12"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F384" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G384" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="H384" s="12"/>
+      <c r="L384" s="12"/>
+      <c r="M384" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N384" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="385" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="9"/>
+      <c r="C385" s="12"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F385" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G385" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H385" s="12"/>
+      <c r="L385" s="12"/>
+      <c r="M385" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N385" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="386" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="9"/>
+      <c r="C386" s="12"/>
+      <c r="D386" s="12"/>
+      <c r="E386" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F386" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G386" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="H386" s="12"/>
+      <c r="L386" s="12"/>
+      <c r="M386" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N386" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="387" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="9"/>
+      <c r="C387" s="12"/>
+      <c r="D387" s="12"/>
+      <c r="H387" s="12"/>
+      <c r="L387" s="12"/>
+      <c r="M387" s="1">
+        <v>-16</v>
+      </c>
+      <c r="N387" s="4" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="388" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="9"/>
+      <c r="C388" s="12"/>
+      <c r="D388" s="12"/>
+      <c r="H388" s="12"/>
+      <c r="L388" s="12"/>
+      <c r="M388" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N388" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="389" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="9"/>
+      <c r="C389" s="12"/>
+      <c r="D389" s="12"/>
+      <c r="H389" s="12"/>
+      <c r="L389" s="12"/>
+      <c r="M389" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N389" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="390" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="9"/>
+      <c r="C390" s="12"/>
+      <c r="D390" s="12"/>
+      <c r="H390" s="12"/>
+      <c r="L390" s="12"/>
+      <c r="M390" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N390" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="391" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="9"/>
+      <c r="C391" s="12"/>
+      <c r="D391" s="12"/>
+      <c r="H391" s="12"/>
+      <c r="L391" s="12"/>
+      <c r="M391" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N391" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="392" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="9"/>
+      <c r="C392" s="12"/>
+      <c r="D392" s="12"/>
+      <c r="H392" s="12"/>
+      <c r="L392" s="12"/>
+      <c r="M392" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N392" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="393" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="9"/>
+      <c r="C393" s="12"/>
+      <c r="D393" s="12"/>
+      <c r="H393" s="12"/>
+      <c r="L393" s="12"/>
+      <c r="M393" s="1">
+        <v>-26</v>
+      </c>
+      <c r="N393" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="394" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="9"/>
+      <c r="C394" s="12"/>
+      <c r="D394" s="12"/>
+      <c r="H394" s="12"/>
+      <c r="L394" s="12"/>
+      <c r="M394" s="1">
+        <v>-27</v>
+      </c>
+      <c r="N394" s="4" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="395" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="9"/>
+      <c r="C395" s="12"/>
+      <c r="D395" s="12"/>
+      <c r="H395" s="12"/>
+      <c r="L395" s="12"/>
+      <c r="M395" s="1">
+        <v>-28</v>
+      </c>
+      <c r="N395" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="396" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="9"/>
+      <c r="C396" s="12"/>
+      <c r="D396" s="12"/>
+      <c r="H396" s="12"/>
+      <c r="L396" s="12"/>
+      <c r="M396" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N396" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="397" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="9"/>
+      <c r="C397" s="12"/>
+      <c r="D397" s="12"/>
+      <c r="H397" s="12"/>
+      <c r="L397" s="12"/>
+      <c r="M397" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N397" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="398" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B398" s="10"/>
+      <c r="C398" s="13"/>
+      <c r="D398" s="13"/>
+      <c r="E398" s="5"/>
+      <c r="F398" s="5"/>
+      <c r="G398" s="5"/>
+      <c r="H398" s="13"/>
+      <c r="I398" s="5"/>
+      <c r="J398" s="5"/>
+      <c r="K398" s="5"/>
+      <c r="L398" s="13"/>
+      <c r="M398" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N398" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="399" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="C399" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="D399" s="11">
+        <v>4</v>
+      </c>
+      <c r="E399" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F399" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G399" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H399" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I399" s="2"/>
+      <c r="J399" s="2"/>
+      <c r="K399" s="2"/>
+      <c r="L399" s="11">
+        <v>19</v>
+      </c>
+      <c r="M399" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N399" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="400" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="9"/>
+      <c r="C400" s="12"/>
+      <c r="D400" s="12"/>
+      <c r="E400" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F400" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G400" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H400" s="12"/>
+      <c r="L400" s="12"/>
+      <c r="M400" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N400" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="401" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="9"/>
+      <c r="C401" s="12"/>
+      <c r="D401" s="12"/>
+      <c r="E401" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F401" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G401" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H401" s="12"/>
+      <c r="L401" s="12"/>
+      <c r="M401" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N401" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="402" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="9"/>
+      <c r="C402" s="12"/>
+      <c r="D402" s="12"/>
+      <c r="E402" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F402" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G402" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H402" s="12"/>
+      <c r="L402" s="12"/>
+      <c r="M402" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N402" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="403" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="9"/>
+      <c r="C403" s="12"/>
+      <c r="D403" s="12"/>
+      <c r="H403" s="12"/>
+      <c r="L403" s="12"/>
+      <c r="M403" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N403" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="404" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="9"/>
+      <c r="C404" s="12"/>
+      <c r="D404" s="12"/>
+      <c r="H404" s="12"/>
+      <c r="L404" s="12"/>
+      <c r="M404" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N404" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="405" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="9"/>
+      <c r="C405" s="12"/>
+      <c r="D405" s="12"/>
+      <c r="H405" s="12"/>
+      <c r="L405" s="12"/>
+      <c r="M405" s="1">
+        <v>-15</v>
+      </c>
+      <c r="N405" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="406" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="9"/>
+      <c r="C406" s="12"/>
+      <c r="D406" s="12"/>
+      <c r="H406" s="12"/>
+      <c r="L406" s="12"/>
+      <c r="M406" s="1">
+        <v>-16</v>
+      </c>
+      <c r="N406" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="407" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="9"/>
+      <c r="C407" s="12"/>
+      <c r="D407" s="12"/>
+      <c r="H407" s="12"/>
+      <c r="L407" s="12"/>
+      <c r="M407" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N407" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="408" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="9"/>
+      <c r="C408" s="12"/>
+      <c r="D408" s="12"/>
+      <c r="H408" s="12"/>
+      <c r="L408" s="12"/>
+      <c r="M408" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N408" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="409" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="9"/>
+      <c r="C409" s="12"/>
+      <c r="D409" s="12"/>
+      <c r="H409" s="12"/>
+      <c r="L409" s="12"/>
+      <c r="M409" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N409" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="410" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="9"/>
+      <c r="C410" s="12"/>
+      <c r="D410" s="12"/>
+      <c r="H410" s="12"/>
+      <c r="L410" s="12"/>
+      <c r="M410" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N410" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="411" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="9"/>
+      <c r="C411" s="12"/>
+      <c r="D411" s="12"/>
+      <c r="H411" s="12"/>
+      <c r="L411" s="12"/>
+      <c r="M411" s="1">
+        <v>-25</v>
+      </c>
+      <c r="N411" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="412" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="9"/>
+      <c r="C412" s="12"/>
+      <c r="D412" s="12"/>
+      <c r="H412" s="12"/>
+      <c r="L412" s="12"/>
+      <c r="M412" s="1">
+        <v>-26</v>
+      </c>
+      <c r="N412" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="413" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="9"/>
+      <c r="C413" s="12"/>
+      <c r="D413" s="12"/>
+      <c r="H413" s="12"/>
+      <c r="L413" s="12"/>
+      <c r="M413" s="1">
+        <v>-27</v>
+      </c>
+      <c r="N413" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="414" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="9"/>
+      <c r="C414" s="12"/>
+      <c r="D414" s="12"/>
+      <c r="H414" s="12"/>
+      <c r="L414" s="12"/>
+      <c r="M414" s="1">
+        <v>-28</v>
+      </c>
+      <c r="N414" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="415" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="9"/>
+      <c r="C415" s="12"/>
+      <c r="D415" s="12"/>
+      <c r="H415" s="12"/>
+      <c r="L415" s="12"/>
+      <c r="M415" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N415" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="9"/>
+      <c r="C416" s="12"/>
+      <c r="D416" s="12"/>
+      <c r="H416" s="12"/>
+      <c r="L416" s="12"/>
+      <c r="M416" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N416" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="417" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B417" s="9"/>
+      <c r="C417" s="12"/>
+      <c r="D417" s="12"/>
+      <c r="H417" s="12"/>
+      <c r="L417" s="12"/>
+      <c r="M417" s="1">
+        <v>-99</v>
+      </c>
+      <c r="N417" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="418" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="C418" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="D418" s="11">
+        <v>4</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F418" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H418" s="11">
+        <v>1</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J418" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K418" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="L418" s="11">
+        <v>13</v>
+      </c>
+      <c r="M418" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N418" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="419" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="9"/>
+      <c r="C419" s="12"/>
+      <c r="D419" s="12"/>
+      <c r="E419" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="F419" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G419" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H419" s="12"/>
+      <c r="L419" s="12"/>
+      <c r="M419" s="1">
+        <v>-2</v>
+      </c>
+      <c r="N419" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="420" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="9"/>
+      <c r="C420" s="12"/>
+      <c r="D420" s="12"/>
+      <c r="E420" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F420" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G420" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H420" s="12"/>
+      <c r="L420" s="12"/>
+      <c r="M420" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N420" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="421" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="9"/>
+      <c r="C421" s="12"/>
+      <c r="D421" s="12"/>
+      <c r="E421" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F421" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G421" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H421" s="12"/>
+      <c r="L421" s="12"/>
+      <c r="M421" s="1">
+        <v>-12</v>
+      </c>
+      <c r="N421" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="422" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="9"/>
+      <c r="C422" s="12"/>
+      <c r="D422" s="12"/>
+      <c r="H422" s="12"/>
+      <c r="L422" s="12"/>
+      <c r="M422" s="1">
+        <v>-13</v>
+      </c>
+      <c r="N422" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="423" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="9"/>
+      <c r="C423" s="12"/>
+      <c r="D423" s="12"/>
+      <c r="H423" s="12"/>
+      <c r="L423" s="12"/>
+      <c r="M423" s="1">
+        <v>-14</v>
+      </c>
+      <c r="N423" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="424" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="9"/>
+      <c r="C424" s="12"/>
+      <c r="D424" s="12"/>
+      <c r="H424" s="12"/>
+      <c r="L424" s="12"/>
+      <c r="M424" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N424" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="425" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="9"/>
+      <c r="C425" s="12"/>
+      <c r="D425" s="12"/>
+      <c r="H425" s="12"/>
+      <c r="L425" s="12"/>
+      <c r="M425" s="1">
+        <v>-22</v>
+      </c>
+      <c r="N425" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="426" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="9"/>
+      <c r="C426" s="12"/>
+      <c r="D426" s="12"/>
+      <c r="H426" s="12"/>
+      <c r="L426" s="12"/>
+      <c r="M426" s="1">
+        <v>-23</v>
+      </c>
+      <c r="N426" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="427" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="9"/>
+      <c r="C427" s="12"/>
+      <c r="D427" s="12"/>
+      <c r="H427" s="12"/>
+      <c r="L427" s="12"/>
+      <c r="M427" s="1">
+        <v>-24</v>
+      </c>
+      <c r="N427" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="428" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="9"/>
+      <c r="C428" s="12"/>
+      <c r="D428" s="12"/>
+      <c r="H428" s="12"/>
+      <c r="L428" s="12"/>
+      <c r="M428" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N428" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="429" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="9"/>
+      <c r="C429" s="12"/>
+      <c r="D429" s="12"/>
+      <c r="H429" s="12"/>
+      <c r="L429" s="12"/>
+      <c r="M429" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N429" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="430" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B430" s="10"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="5"/>
+      <c r="F430" s="5"/>
+      <c r="G430" s="5"/>
+      <c r="H430" s="13"/>
+      <c r="I430" s="5"/>
+      <c r="J430" s="5"/>
+      <c r="K430" s="5"/>
+      <c r="L430" s="13"/>
+      <c r="M430" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N430" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="431" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D431" s="11">
+        <v>2</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F431" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H431" s="11">
+        <v>4</v>
+      </c>
+      <c r="I431" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J431" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="K431" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="L431" s="11">
+        <v>6</v>
+      </c>
+      <c r="M431" s="2">
+        <v>-1</v>
+      </c>
+      <c r="N431" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="432" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="9"/>
+      <c r="D432" s="12"/>
+      <c r="E432" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F432" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G432" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H432" s="12"/>
+      <c r="I432" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J432" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K432" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="L432" s="12"/>
+      <c r="M432" s="1">
+        <v>-11</v>
+      </c>
+      <c r="N432" s="4" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="433" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="9"/>
+      <c r="D433" s="12"/>
+      <c r="H433" s="12"/>
+      <c r="I433" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="J433" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K433" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="L433" s="12"/>
+      <c r="M433" s="1">
+        <v>-21</v>
+      </c>
+      <c r="N433" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="434" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="9"/>
+      <c r="D434" s="12"/>
+      <c r="H434" s="12"/>
+      <c r="I434" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="J434" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K434" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="L434" s="12"/>
+      <c r="M434" s="1">
+        <v>-31</v>
+      </c>
+      <c r="N434" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="435" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="9"/>
+      <c r="D435" s="12"/>
+      <c r="H435" s="12"/>
+      <c r="L435" s="12"/>
+      <c r="M435" s="1">
+        <v>-32</v>
+      </c>
+      <c r="N435" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="436" spans="2:14" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B436" s="10"/>
+      <c r="C436" s="5"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="5"/>
+      <c r="F436" s="5"/>
+      <c r="G436" s="5"/>
+      <c r="H436" s="13"/>
+      <c r="I436" s="5"/>
+      <c r="J436" s="5"/>
+      <c r="K436" s="5"/>
+      <c r="L436" s="13"/>
+      <c r="M436" s="5">
+        <v>-99</v>
+      </c>
+      <c r="N436" s="6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="437" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="438" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="439" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="440" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="441" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="442" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="443" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="444" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="445" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="446" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="447" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="448" spans="2:14" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="449" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="450" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="451" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8588,65 +9693,87 @@
     <row r="520" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="521" ht="33" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="138">
-    <mergeCell ref="A287:A361"/>
-    <mergeCell ref="B343:B355"/>
-    <mergeCell ref="C343:C355"/>
-    <mergeCell ref="D343:D355"/>
-    <mergeCell ref="H343:H355"/>
-    <mergeCell ref="L343:L355"/>
-    <mergeCell ref="L356:L361"/>
-    <mergeCell ref="H356:H361"/>
-    <mergeCell ref="D356:D361"/>
-    <mergeCell ref="B356:B361"/>
-    <mergeCell ref="L305:L323"/>
-    <mergeCell ref="H305:H323"/>
-    <mergeCell ref="D305:D323"/>
-    <mergeCell ref="B305:B323"/>
-    <mergeCell ref="C305:C323"/>
-    <mergeCell ref="L324:L342"/>
-    <mergeCell ref="H324:H342"/>
-    <mergeCell ref="D324:D342"/>
-    <mergeCell ref="C324:C342"/>
-    <mergeCell ref="B324:B342"/>
-    <mergeCell ref="L273:L286"/>
-    <mergeCell ref="H273:H286"/>
-    <mergeCell ref="D273:D286"/>
-    <mergeCell ref="B273:B286"/>
-    <mergeCell ref="C273:C286"/>
-    <mergeCell ref="L258:L272"/>
-    <mergeCell ref="H258:H272"/>
-    <mergeCell ref="D258:D272"/>
-    <mergeCell ref="C258:C272"/>
-    <mergeCell ref="B258:B272"/>
-    <mergeCell ref="L242:L257"/>
-    <mergeCell ref="H242:H257"/>
-    <mergeCell ref="D242:D257"/>
-    <mergeCell ref="B228:B241"/>
-    <mergeCell ref="C228:C241"/>
-    <mergeCell ref="B242:B257"/>
-    <mergeCell ref="C242:C257"/>
-    <mergeCell ref="H213:H227"/>
-    <mergeCell ref="L213:L227"/>
-    <mergeCell ref="L228:L241"/>
-    <mergeCell ref="H228:H241"/>
-    <mergeCell ref="D228:D241"/>
-    <mergeCell ref="L206:L212"/>
-    <mergeCell ref="B192:B205"/>
-    <mergeCell ref="C192:C205"/>
-    <mergeCell ref="D192:D205"/>
-    <mergeCell ref="H192:H205"/>
-    <mergeCell ref="L192:L205"/>
-    <mergeCell ref="L124:L140"/>
-    <mergeCell ref="H124:H140"/>
-    <mergeCell ref="D124:D140"/>
-    <mergeCell ref="B124:B140"/>
-    <mergeCell ref="C124:C140"/>
-    <mergeCell ref="H141:H157"/>
-    <mergeCell ref="L141:L157"/>
-    <mergeCell ref="B141:B157"/>
-    <mergeCell ref="C141:C157"/>
-    <mergeCell ref="D141:D157"/>
+  <mergeCells count="162">
+    <mergeCell ref="B431:B436"/>
+    <mergeCell ref="D431:D436"/>
+    <mergeCell ref="H431:H436"/>
+    <mergeCell ref="L431:L436"/>
+    <mergeCell ref="B399:B417"/>
+    <mergeCell ref="C399:C417"/>
+    <mergeCell ref="D399:D417"/>
+    <mergeCell ref="H399:H417"/>
+    <mergeCell ref="L399:L417"/>
+    <mergeCell ref="B418:B430"/>
+    <mergeCell ref="C418:C430"/>
+    <mergeCell ref="D418:D430"/>
+    <mergeCell ref="H418:H430"/>
+    <mergeCell ref="L418:L430"/>
+    <mergeCell ref="B362:B379"/>
+    <mergeCell ref="C362:C379"/>
+    <mergeCell ref="D362:D379"/>
+    <mergeCell ref="H362:H379"/>
+    <mergeCell ref="L362:L379"/>
+    <mergeCell ref="B380:B398"/>
+    <mergeCell ref="C380:C398"/>
+    <mergeCell ref="D380:D398"/>
+    <mergeCell ref="H380:H398"/>
+    <mergeCell ref="L380:L398"/>
+    <mergeCell ref="A213:A286"/>
+    <mergeCell ref="L287:L304"/>
+    <mergeCell ref="H287:H304"/>
+    <mergeCell ref="D287:D304"/>
+    <mergeCell ref="C287:C304"/>
+    <mergeCell ref="B287:B304"/>
+    <mergeCell ref="B158:B175"/>
+    <mergeCell ref="C158:C175"/>
+    <mergeCell ref="D158:D175"/>
+    <mergeCell ref="H158:H175"/>
+    <mergeCell ref="L158:L175"/>
+    <mergeCell ref="L176:L191"/>
+    <mergeCell ref="H176:H191"/>
+    <mergeCell ref="B176:B191"/>
+    <mergeCell ref="C176:C191"/>
+    <mergeCell ref="D176:D191"/>
+    <mergeCell ref="A110:A212"/>
+    <mergeCell ref="B213:B227"/>
+    <mergeCell ref="D213:D227"/>
+    <mergeCell ref="C213:C227"/>
+    <mergeCell ref="B206:B212"/>
+    <mergeCell ref="C206:C212"/>
+    <mergeCell ref="D206:D212"/>
+    <mergeCell ref="H206:H212"/>
+    <mergeCell ref="L84:L96"/>
+    <mergeCell ref="H84:H96"/>
+    <mergeCell ref="D84:D96"/>
+    <mergeCell ref="B84:B96"/>
+    <mergeCell ref="C84:C96"/>
+    <mergeCell ref="B97:B109"/>
+    <mergeCell ref="C97:C109"/>
+    <mergeCell ref="D97:D109"/>
+    <mergeCell ref="H97:H109"/>
+    <mergeCell ref="L97:L109"/>
+    <mergeCell ref="L64:L73"/>
+    <mergeCell ref="H64:H73"/>
+    <mergeCell ref="D64:D73"/>
+    <mergeCell ref="B64:B73"/>
+    <mergeCell ref="C64:C73"/>
+    <mergeCell ref="B74:B83"/>
+    <mergeCell ref="C74:C83"/>
+    <mergeCell ref="D74:D83"/>
+    <mergeCell ref="H74:H83"/>
+    <mergeCell ref="L74:L83"/>
+    <mergeCell ref="H2:H11"/>
+    <mergeCell ref="L2:L11"/>
+    <mergeCell ref="B31:B39"/>
+    <mergeCell ref="C31:C39"/>
+    <mergeCell ref="D31:D39"/>
+    <mergeCell ref="H31:H39"/>
+    <mergeCell ref="L31:L39"/>
+    <mergeCell ref="L22:L30"/>
+    <mergeCell ref="H22:H30"/>
+    <mergeCell ref="D22:D30"/>
+    <mergeCell ref="B22:B30"/>
+    <mergeCell ref="C22:C30"/>
     <mergeCell ref="A2:A109"/>
     <mergeCell ref="L110:L123"/>
     <mergeCell ref="H110:H123"/>
@@ -8671,62 +9798,64 @@
     <mergeCell ref="B2:B11"/>
     <mergeCell ref="C2:C11"/>
     <mergeCell ref="D2:D11"/>
-    <mergeCell ref="H2:H11"/>
-    <mergeCell ref="L2:L11"/>
-    <mergeCell ref="B31:B39"/>
-    <mergeCell ref="C31:C39"/>
-    <mergeCell ref="D31:D39"/>
-    <mergeCell ref="H31:H39"/>
-    <mergeCell ref="L31:L39"/>
-    <mergeCell ref="L22:L30"/>
-    <mergeCell ref="H22:H30"/>
-    <mergeCell ref="D22:D30"/>
-    <mergeCell ref="B22:B30"/>
-    <mergeCell ref="C22:C30"/>
-    <mergeCell ref="L64:L73"/>
-    <mergeCell ref="H64:H73"/>
-    <mergeCell ref="D64:D73"/>
-    <mergeCell ref="B64:B73"/>
-    <mergeCell ref="C64:C73"/>
-    <mergeCell ref="B74:B83"/>
-    <mergeCell ref="C74:C83"/>
-    <mergeCell ref="D74:D83"/>
-    <mergeCell ref="H74:H83"/>
-    <mergeCell ref="L74:L83"/>
-    <mergeCell ref="L84:L96"/>
-    <mergeCell ref="H84:H96"/>
-    <mergeCell ref="D84:D96"/>
-    <mergeCell ref="B84:B96"/>
-    <mergeCell ref="C84:C96"/>
-    <mergeCell ref="B97:B109"/>
-    <mergeCell ref="C97:C109"/>
-    <mergeCell ref="D97:D109"/>
-    <mergeCell ref="H97:H109"/>
-    <mergeCell ref="L97:L109"/>
-    <mergeCell ref="A213:A286"/>
-    <mergeCell ref="L287:L304"/>
-    <mergeCell ref="H287:H304"/>
-    <mergeCell ref="D287:D304"/>
-    <mergeCell ref="C287:C304"/>
-    <mergeCell ref="B287:B304"/>
-    <mergeCell ref="B158:B175"/>
-    <mergeCell ref="C158:C175"/>
-    <mergeCell ref="D158:D175"/>
-    <mergeCell ref="H158:H175"/>
-    <mergeCell ref="L158:L175"/>
-    <mergeCell ref="L176:L191"/>
-    <mergeCell ref="H176:H191"/>
-    <mergeCell ref="B176:B191"/>
-    <mergeCell ref="C176:C191"/>
-    <mergeCell ref="D176:D191"/>
-    <mergeCell ref="A110:A212"/>
-    <mergeCell ref="B213:B227"/>
-    <mergeCell ref="D213:D227"/>
-    <mergeCell ref="C213:C227"/>
-    <mergeCell ref="B206:B212"/>
-    <mergeCell ref="C206:C212"/>
-    <mergeCell ref="D206:D212"/>
-    <mergeCell ref="H206:H212"/>
+    <mergeCell ref="L206:L212"/>
+    <mergeCell ref="B192:B205"/>
+    <mergeCell ref="C192:C205"/>
+    <mergeCell ref="D192:D205"/>
+    <mergeCell ref="H192:H205"/>
+    <mergeCell ref="L192:L205"/>
+    <mergeCell ref="L124:L140"/>
+    <mergeCell ref="H124:H140"/>
+    <mergeCell ref="D124:D140"/>
+    <mergeCell ref="B124:B140"/>
+    <mergeCell ref="C124:C140"/>
+    <mergeCell ref="H141:H157"/>
+    <mergeCell ref="L141:L157"/>
+    <mergeCell ref="B141:B157"/>
+    <mergeCell ref="C141:C157"/>
+    <mergeCell ref="D141:D157"/>
+    <mergeCell ref="L242:L257"/>
+    <mergeCell ref="H242:H257"/>
+    <mergeCell ref="D242:D257"/>
+    <mergeCell ref="B228:B241"/>
+    <mergeCell ref="C228:C241"/>
+    <mergeCell ref="B242:B257"/>
+    <mergeCell ref="C242:C257"/>
+    <mergeCell ref="H213:H227"/>
+    <mergeCell ref="L213:L227"/>
+    <mergeCell ref="L228:L241"/>
+    <mergeCell ref="H228:H241"/>
+    <mergeCell ref="D228:D241"/>
+    <mergeCell ref="L273:L286"/>
+    <mergeCell ref="H273:H286"/>
+    <mergeCell ref="D273:D286"/>
+    <mergeCell ref="B273:B286"/>
+    <mergeCell ref="C273:C286"/>
+    <mergeCell ref="L258:L272"/>
+    <mergeCell ref="H258:H272"/>
+    <mergeCell ref="D258:D272"/>
+    <mergeCell ref="C258:C272"/>
+    <mergeCell ref="B258:B272"/>
+    <mergeCell ref="A287:A361"/>
+    <mergeCell ref="B343:B355"/>
+    <mergeCell ref="C343:C355"/>
+    <mergeCell ref="D343:D355"/>
+    <mergeCell ref="H343:H355"/>
+    <mergeCell ref="L343:L355"/>
+    <mergeCell ref="L356:L361"/>
+    <mergeCell ref="H356:H361"/>
+    <mergeCell ref="D356:D361"/>
+    <mergeCell ref="B356:B361"/>
+    <mergeCell ref="L305:L323"/>
+    <mergeCell ref="H305:H323"/>
+    <mergeCell ref="D305:D323"/>
+    <mergeCell ref="B305:B323"/>
+    <mergeCell ref="C305:C323"/>
+    <mergeCell ref="L324:L342"/>
+    <mergeCell ref="H324:H342"/>
+    <mergeCell ref="D324:D342"/>
+    <mergeCell ref="C324:C342"/>
+    <mergeCell ref="B324:B342"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API.xlsx
+++ b/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\15787\Desktop\2026-1\SE\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C0BB2B3-A1F0-483D-876A-59A94143819A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BFBA48-7875-4BDB-9B82-059F498B3C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2618,7 +2618,7 @@
   <dimension ref="A1:N881"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A434" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K438" sqref="K438"/>
+      <selection activeCell="I444" sqref="I444"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
